--- a/thesis-tex/excels/Brackets.xlsx
+++ b/thesis-tex/excels/Brackets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8538CECA-011E-436E-B5E8-CF6B4B0AA51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD38CF4-DE25-4839-8523-5CFDB08FB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="19" activeTab="20" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
@@ -102,7 +102,6 @@
     <definedName name="solver_ver" localSheetId="25" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2146,8 +2145,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2156,21 +2165,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2191,13 +2200,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2206,16 +2209,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9635,16 +9634,16 @@
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="102"/>
+      <c r="E5" s="103"/>
       <c r="F5" s="29"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="101" t="s">
+      <c r="H5" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="102"/>
+      <c r="I5" s="103"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
@@ -11642,7 +11641,7 @@
   <dimension ref="C3:AU41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AI20" sqref="AI20"/>
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11771,7 +11770,7 @@
         <v>1</v>
       </c>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="117" t="s">
+      <c r="AC5" s="94" t="s">
         <v>40</v>
       </c>
       <c r="AD5" s="1"/>
@@ -11780,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="1"/>
-      <c r="AH5" s="117" t="s">
+      <c r="AH5" s="94" t="s">
         <v>41</v>
       </c>
       <c r="AI5" s="1"/>
@@ -11789,7 +11788,7 @@
         <v>1</v>
       </c>
       <c r="AL5" s="1"/>
-      <c r="AM5" s="117" t="s">
+      <c r="AM5" s="94" t="s">
         <v>42</v>
       </c>
       <c r="AN5" s="1"/>
@@ -11798,7 +11797,7 @@
         <v>1</v>
       </c>
       <c r="AQ5" s="1"/>
-      <c r="AR5" s="117" t="s">
+      <c r="AR5" s="94" t="s">
         <v>43</v>
       </c>
       <c r="AS5" s="1"/>
@@ -12563,7 +12562,7 @@
         <v>1</v>
       </c>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="117" t="s">
+      <c r="AC21" s="94" t="s">
         <v>185</v>
       </c>
       <c r="AD21" s="1"/>
@@ -12572,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="1"/>
-      <c r="AH21" s="117" t="s">
+      <c r="AH21" s="94" t="s">
         <v>186</v>
       </c>
       <c r="AI21" s="1"/>
@@ -12581,7 +12580,7 @@
         <v>1</v>
       </c>
       <c r="AL21" s="1"/>
-      <c r="AM21" s="117" t="s">
+      <c r="AM21" s="94" t="s">
         <v>187</v>
       </c>
       <c r="AN21" s="1"/>
@@ -12590,7 +12589,7 @@
         <v>1</v>
       </c>
       <c r="AQ21" s="1"/>
-      <c r="AR21" s="117" t="s">
+      <c r="AR21" s="94" t="s">
         <v>188</v>
       </c>
       <c r="AS21" s="1"/>
@@ -13599,25 +13598,25 @@
     </row>
     <row r="2" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="111"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="106"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="109" t="s">
+      <c r="M2" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="111"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
@@ -13626,11 +13625,11 @@
       <c r="D3" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="105"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="44" t="s">
         <v>112</v>
       </c>
@@ -13643,11 +13642,11 @@
       <c r="M3" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="103" t="s">
+      <c r="N3" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="O3" s="104"/>
-      <c r="P3" s="105"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="109"/>
       <c r="Q3" s="44" t="s">
         <v>112</v>
       </c>
@@ -13662,11 +13661,11 @@
       <c r="D4" s="54">
         <v>1</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="E4" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="44">
         <v>2</v>
       </c>
@@ -13680,11 +13679,11 @@
       <c r="M4" s="54">
         <v>1</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
       <c r="Q4" s="44">
         <v>4</v>
       </c>
@@ -13700,11 +13699,11 @@
       <c r="D5" s="54">
         <v>2</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="E5" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="44">
         <v>2</v>
       </c>
@@ -13718,11 +13717,11 @@
       <c r="M5" s="54">
         <v>2</v>
       </c>
-      <c r="N5" s="103" t="s">
+      <c r="N5" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="104"/>
-      <c r="P5" s="105"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="109"/>
       <c r="Q5" s="44">
         <v>3</v>
       </c>
@@ -13738,11 +13737,11 @@
       <c r="D6" s="54">
         <v>3</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="44">
         <v>2</v>
       </c>
@@ -13756,11 +13755,11 @@
       <c r="M6" s="54">
         <v>3</v>
       </c>
-      <c r="N6" s="103" t="s">
+      <c r="N6" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="104"/>
-      <c r="P6" s="105"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="109"/>
       <c r="Q6" s="44">
         <v>2</v>
       </c>
@@ -13776,11 +13775,11 @@
       <c r="D7" s="54">
         <v>4</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="44">
         <v>2</v>
       </c>
@@ -13794,11 +13793,11 @@
       <c r="M7" s="54">
         <v>4</v>
       </c>
-      <c r="N7" s="103" t="s">
+      <c r="N7" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="O7" s="104"/>
-      <c r="P7" s="105"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="109"/>
       <c r="Q7" s="44">
         <v>1</v>
       </c>
@@ -13814,11 +13813,11 @@
       <c r="D8" s="56">
         <v>5</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="108"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="57">
         <v>2</v>
       </c>
@@ -13832,11 +13831,11 @@
       <c r="M8" s="56">
         <v>5</v>
       </c>
-      <c r="N8" s="106" t="s">
+      <c r="N8" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="107"/>
-      <c r="P8" s="108"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="112"/>
       <c r="Q8" s="57">
         <v>0</v>
       </c>
@@ -13869,25 +13868,25 @@
     </row>
     <row r="10" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
-      <c r="D10" s="109" t="s">
+      <c r="D10" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="111"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="106"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="109" t="s">
+      <c r="M10" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="111"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="106"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
@@ -13896,11 +13895,11 @@
       <c r="D11" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="109"/>
       <c r="H11" s="44" t="s">
         <v>112</v>
       </c>
@@ -13913,11 +13912,11 @@
       <c r="M11" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="N11" s="103" t="s">
+      <c r="N11" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="O11" s="104"/>
-      <c r="P11" s="105"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="109"/>
       <c r="Q11" s="44" t="s">
         <v>112</v>
       </c>
@@ -13932,11 +13931,11 @@
       <c r="D12" s="54">
         <v>1</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="E12" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
       <c r="H12" s="44">
         <v>3</v>
       </c>
@@ -13950,11 +13949,11 @@
       <c r="M12" s="54">
         <v>1</v>
       </c>
-      <c r="N12" s="103" t="s">
+      <c r="N12" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="O12" s="104"/>
-      <c r="P12" s="105"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="109"/>
       <c r="Q12" s="44">
         <v>4</v>
       </c>
@@ -13970,11 +13969,11 @@
       <c r="D13" s="54">
         <v>2</v>
       </c>
-      <c r="E13" s="103" t="s">
+      <c r="E13" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109"/>
       <c r="H13" s="44">
         <v>3</v>
       </c>
@@ -13988,11 +13987,11 @@
       <c r="M13" s="54">
         <v>2</v>
       </c>
-      <c r="N13" s="103" t="s">
+      <c r="N13" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="O13" s="104"/>
-      <c r="P13" s="105"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="109"/>
       <c r="Q13" s="44">
         <v>3</v>
       </c>
@@ -14008,11 +14007,11 @@
       <c r="D14" s="54">
         <v>3</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="105"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="109"/>
       <c r="H14" s="44">
         <v>2</v>
       </c>
@@ -14026,11 +14025,11 @@
       <c r="M14" s="54">
         <v>3</v>
       </c>
-      <c r="N14" s="103" t="s">
+      <c r="N14" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="O14" s="104"/>
-      <c r="P14" s="105"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="109"/>
       <c r="Q14" s="44">
         <v>2</v>
       </c>
@@ -14046,11 +14045,11 @@
       <c r="D15" s="54">
         <v>4</v>
       </c>
-      <c r="E15" s="103" t="s">
+      <c r="E15" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="F15" s="104"/>
-      <c r="G15" s="105"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="109"/>
       <c r="H15" s="44">
         <v>1</v>
       </c>
@@ -14064,11 +14063,11 @@
       <c r="M15" s="54">
         <v>4</v>
       </c>
-      <c r="N15" s="103" t="s">
+      <c r="N15" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="O15" s="104"/>
-      <c r="P15" s="105"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="109"/>
       <c r="Q15" s="44">
         <v>1</v>
       </c>
@@ -14084,11 +14083,11 @@
       <c r="D16" s="56">
         <v>5</v>
       </c>
-      <c r="E16" s="106" t="s">
+      <c r="E16" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="107"/>
-      <c r="G16" s="108"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="112"/>
       <c r="H16" s="57">
         <v>1</v>
       </c>
@@ -14102,11 +14101,11 @@
       <c r="M16" s="56">
         <v>5</v>
       </c>
-      <c r="N16" s="106" t="s">
+      <c r="N16" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="O16" s="107"/>
-      <c r="P16" s="108"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="112"/>
       <c r="Q16" s="57">
         <v>0</v>
       </c>
@@ -15819,6 +15818,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="D10:I10"/>
@@ -15835,18 +15846,6 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16471,26 +16470,26 @@
     </row>
     <row r="2" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="111"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="106"/>
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="109" t="s">
+      <c r="N2" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="111"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="106"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
@@ -16499,29 +16498,29 @@
       <c r="D3" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="105"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="112"/>
+      <c r="J3" s="114"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
       <c r="M3" s="1"/>
       <c r="N3" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="103" t="s">
+      <c r="O3" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="105"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="109"/>
       <c r="R3" s="44" t="s">
         <v>112</v>
       </c>
@@ -16536,29 +16535,29 @@
       <c r="D4" s="54">
         <v>1</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="E4" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="44">
         <v>5</v>
       </c>
-      <c r="I4" s="103">
-        <v>0</v>
-      </c>
-      <c r="J4" s="112"/>
+      <c r="I4" s="107">
+        <v>0</v>
+      </c>
+      <c r="J4" s="114"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="1"/>
       <c r="N4" s="54">
         <v>1</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="105"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="109"/>
       <c r="R4" s="44">
         <v>5</v>
       </c>
@@ -16573,29 +16572,29 @@
       <c r="D5" s="54">
         <v>2</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="E5" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="44">
         <v>4</v>
       </c>
-      <c r="I5" s="103">
+      <c r="I5" s="107">
         <v>1</v>
       </c>
-      <c r="J5" s="112"/>
+      <c r="J5" s="114"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
       <c r="M5" s="1"/>
       <c r="N5" s="54">
         <v>2</v>
       </c>
-      <c r="O5" s="103" t="s">
+      <c r="O5" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="105"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="109"/>
       <c r="R5" s="44">
         <v>3</v>
       </c>
@@ -16610,29 +16609,29 @@
       <c r="D6" s="54">
         <v>3</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="44">
         <v>3</v>
       </c>
-      <c r="I6" s="103">
+      <c r="I6" s="107">
         <v>2</v>
       </c>
-      <c r="J6" s="112"/>
+      <c r="J6" s="114"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="1"/>
       <c r="N6" s="54">
         <v>3</v>
       </c>
-      <c r="O6" s="103" t="s">
+      <c r="O6" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="105"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="109"/>
       <c r="R6" s="44">
         <v>3</v>
       </c>
@@ -16647,29 +16646,29 @@
       <c r="D7" s="54">
         <v>4</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="44">
         <v>2</v>
       </c>
-      <c r="I7" s="103">
+      <c r="I7" s="107">
         <v>3</v>
       </c>
-      <c r="J7" s="112"/>
+      <c r="J7" s="114"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
       <c r="M7" s="1"/>
       <c r="N7" s="54">
         <v>4</v>
       </c>
-      <c r="O7" s="103" t="s">
+      <c r="O7" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="105"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="109"/>
       <c r="R7" s="44">
         <v>3</v>
       </c>
@@ -16684,29 +16683,29 @@
       <c r="D8" s="61">
         <v>5</v>
       </c>
-      <c r="E8" s="103" t="s">
+      <c r="E8" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="59">
         <v>1</v>
       </c>
-      <c r="I8" s="103">
+      <c r="I8" s="107">
         <v>4</v>
       </c>
-      <c r="J8" s="112"/>
+      <c r="J8" s="114"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="1"/>
       <c r="N8" s="61">
         <v>5</v>
       </c>
-      <c r="O8" s="103" t="s">
+      <c r="O8" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="105"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="109"/>
       <c r="R8" s="59">
         <v>1</v>
       </c>
@@ -16721,29 +16720,29 @@
       <c r="D9" s="56">
         <v>6</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112"/>
       <c r="H9" s="57">
         <v>0</v>
       </c>
-      <c r="I9" s="106">
+      <c r="I9" s="110">
         <v>5</v>
       </c>
-      <c r="J9" s="113"/>
+      <c r="J9" s="115"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="1"/>
       <c r="N9" s="56">
         <v>6</v>
       </c>
-      <c r="O9" s="106" t="s">
+      <c r="O9" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="108"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="112"/>
       <c r="R9" s="57">
         <v>0</v>
       </c>
@@ -18538,14 +18537,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="O9:Q9"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="E6:G6"/>
@@ -18555,12 +18552,14 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19323,12 +19322,12 @@
       <c r="H13">
         <v>3</v>
       </c>
-      <c r="T13" s="115" t="s">
+      <c r="T13" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="U13" s="115"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="115"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -35739,10 +35738,10 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="116" t="s">
+      <c r="F33" s="117" t="s">
         <v>240</v>
       </c>
-      <c r="G33" s="116"/>
+      <c r="G33" s="117"/>
       <c r="H33" s="1"/>
       <c r="I33" s="70"/>
       <c r="J33" s="1" t="s">
@@ -35751,10 +35750,10 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="116" t="s">
+      <c r="N33" s="117" t="s">
         <v>240</v>
       </c>
-      <c r="O33" s="116"/>
+      <c r="O33" s="117"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
@@ -35764,16 +35763,16 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
       <c r="H34" s="1"/>
       <c r="I34" s="70"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
@@ -36180,8 +36179,8 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="116"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
@@ -36190,24 +36189,24 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="116"/>
-      <c r="O53" s="116"/>
+      <c r="N53" s="117"/>
+      <c r="O53" s="117"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="116"/>
-      <c r="G54" s="116"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="116"/>
-      <c r="O54" s="116"/>
+      <c r="N54" s="117"/>
+      <c r="O54" s="117"/>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I55" s="1"/>
@@ -56944,7 +56943,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ6 BZ4 BZ8 BZ10 BZ12 BZ14 BZ16 BZ18 BZ20 BZ22 BZ24 BZ26 BZ28 BZ30 BZ32 BZ34 BZ36 BZ38 BZ40 BZ42 BZ44 BZ46 BZ48 BZ50 BZ52 BZ54 BZ56 BZ58 BZ60 BZ62 BZ64 BZ66 BZ68 BZ70 BZ72 BZ74 BZ76 BZ78 BZ80 BZ82 BZ84 BZ86 BZ88 BZ90 BZ92 BZ94 BZ96 BZ98 BZ100 BZ102 BZ104">
+  <conditionalFormatting sqref="BZ4 BZ6 BZ8 BZ10 BZ12 BZ14 BZ16 BZ18 BZ20 BZ22 BZ24 BZ26 BZ28 BZ30 BZ32 BZ34 BZ36 BZ38 BZ40 BZ42 BZ44 BZ46 BZ48 BZ50 BZ52 BZ54 BZ56 BZ58 BZ60 BZ62 BZ64 BZ66 BZ68 BZ70 BZ72 BZ74 BZ76 BZ78 BZ80 BZ82 BZ84 BZ86 BZ88 BZ90 BZ92 BZ94 BZ96 BZ98 BZ100 BZ102 BZ104">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -56956,7 +56955,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA6 CA4 CA8 CA10 CA12 CA14 CA16 CA18 CA20 CA22 CA24 CA26 CA28 CA30 CA32 CA34 CA36 CA38 CA40 CA42 CA44 CA46 CA48 CA50 CA52 CA54 CA56 CA58 CA60 CA62 CA64 CA66 CA68 CA70 CA72 CA74 CA76 CA78 CA80 CA82 CA84 CA86 CA88 CA90 CA92 CA94 CA96 CA98 CA100 CA102 CA104">
+  <conditionalFormatting sqref="CA4 CA6 CA8 CA10 CA12 CA14 CA16 CA18 CA20 CA22 CA24 CA26 CA28 CA30 CA32 CA34 CA36 CA38 CA40 CA42 CA44 CA46 CA48 CA50 CA52 CA54 CA56 CA58 CA60 CA62 CA64 CA66 CA68 CA70 CA72 CA74 CA76 CA78 CA80 CA82 CA84 CA86 CA88 CA90 CA92 CA94 CA96 CA98 CA100 CA102 CA104">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -56968,7 +56967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CB6 CB4 CB8 CB10 CB12 CB14 CB16 CB18 CB20 CB22 CB24 CB26 CB28 CB30 CB32 CB34 CB36 CB38 CB40 CB42 CB44 CB46 CB48 CB50 CB52 CB54 CB56 CB58 CB60 CB62 CB64 CB66 CB68 CB70 CB72 CB74 CB76 CB78 CB80 CB82 CB84 CB86 CB88 CB90 CB92 CB94 CB96 CB98 CB100 CB102 CB104">
+  <conditionalFormatting sqref="CB4 CB6 CB8 CB10 CB12 CB14 CB16 CB18 CB20 CB22 CB24 CB26 CB28 CB30 CB32 CB34 CB36 CB38 CB40 CB42 CB44 CB46 CB48 CB50 CB52 CB54 CB56 CB58 CB60 CB62 CB64 CB66 CB68 CB70 CB72 CB74 CB76 CB78 CB80 CB82 CB84 CB86 CB88 CB90 CB92 CB94 CB96 CB98 CB100 CB102 CB104">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -56980,7 +56979,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC6 CC4 CC8 CC10 CC12 CC14 CC16 CC18 CC20 CC22 CC24 CC26 CC28 CC30 CC32 CC34 CC36 CC38 CC40 CC42 CC44 CC46 CC48 CC50 CC52 CC54 CC56 CC58 CC60 CC62 CC64 CC66 CC68 CC70 CC72 CC74 CC76 CC78 CC80 CC82 CC84 CC86 CC88 CC90 CC92 CC94 CC96 CC98 CC100 CC102 CC104">
+  <conditionalFormatting sqref="CC4 CC6 CC8 CC10 CC12 CC14 CC16 CC18 CC20 CC22 CC24 CC26 CC28 CC30 CC32 CC34 CC36 CC38 CC40 CC42 CC44 CC46 CC48 CC50 CC52 CC54 CC56 CC58 CC60 CC62 CC64 CC66 CC68 CC70 CC72 CC74 CC76 CC78 CC80 CC82 CC84 CC86 CC88 CC90 CC92 CC94 CC96 CC98 CC100 CC102 CC104">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -56992,7 +56991,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD6 CD4 CD8 CD10 CD12 CD14 CD16 CD18 CD20 CD22 CD24 CD26 CD28 CD30 CD32 CD34 CD36 CD38 CD40 CD42 CD44 CD46 CD48 CD50 CD52 CD54 CD56 CD58 CD60 CD62 CD64 CD66 CD68 CD70 CD72 CD74 CD76 CD78 CD80 CD82 CD84 CD86 CD88 CD90 CD92 CD94 CD96 CD98 CD100 CD102 CD104">
+  <conditionalFormatting sqref="CD4 CD6 CD8 CD10 CD12 CD14 CD16 CD18 CD20 CD22 CD24 CD26 CD28 CD30 CD32 CD34 CD36 CD38 CD40 CD42 CD44 CD46 CD48 CD50 CD52 CD54 CD56 CD58 CD60 CD62 CD64 CD66 CD68 CD70 CD72 CD74 CD76 CD78 CD80 CD82 CD84 CD86 CD88 CD90 CD92 CD94 CD96 CD98 CD100 CD102 CD104">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -57004,7 +57003,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE6 CE4 CE8 CE10 CE12 CE14 CE16 CE18 CE20 CE22 CE24 CE26 CE28 CE30 CE32 CE34 CE36 CE38 CE40 CE42 CE44 CE46 CE48 CE50 CE52 CE54 CE56 CE58 CE60 CE62 CE64 CE66 CE68 CE70 CE72 CE74 CE76 CE78 CE80 CE82 CE84 CE86 CE88 CE90 CE92 CE94 CE96 CE98 CE100 CE102 CE104">
+  <conditionalFormatting sqref="CE4 CE6 CE8 CE10 CE12 CE14 CE16 CE18 CE20 CE22 CE24 CE26 CE28 CE30 CE32 CE34 CE36 CE38 CE40 CE42 CE44 CE46 CE48 CE50 CE52 CE54 CE56 CE58 CE60 CE62 CE64 CE66 CE68 CE70 CE72 CE74 CE76 CE78 CE80 CE82 CE84 CE86 CE88 CE90 CE92 CE94 CE96 CE98 CE100 CE102 CE104">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -60304,7 +60303,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="94"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -60312,7 +60311,7 @@
     <row r="9" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="94"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
@@ -60346,7 +60345,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="94"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="4"/>
@@ -60354,7 +60353,7 @@
     <row r="13" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="94"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
@@ -60388,7 +60387,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="94"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="1"/>
       <c r="F16" s="4"/>
       <c r="G16" s="1"/>
@@ -60396,7 +60395,7 @@
     <row r="17" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="94"/>
+      <c r="D17" s="95"/>
       <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
@@ -60492,7 +60491,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="94"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -60502,7 +60501,7 @@
     <row r="9" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="94"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8" t="s">
@@ -60517,8 +60516,8 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="96"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
@@ -60527,8 +60526,8 @@
       <c r="B11" s="97"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="96"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
@@ -60537,7 +60536,7 @@
       <c r="B12" s="98"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="100"/>
+      <c r="E12" s="96"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -60549,33 +60548,33 @@
         <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="100"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="95" t="s">
+      <c r="I13" s="99" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="97"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="99"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="101"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="95"/>
+      <c r="I14" s="99"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
       <c r="C15" s="98"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="99"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="101"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="96"/>
+      <c r="I15" s="100"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -60584,7 +60583,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="94"/>
+      <c r="F16" s="95"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
@@ -60594,7 +60593,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="94"/>
+      <c r="F17" s="95"/>
       <c r="G17" s="1" t="s">
         <v>30</v>
       </c>
@@ -60632,9 +60631,9 @@
         <v>27</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
       <c r="I20" s="1"/>
@@ -60642,9 +60641,9 @@
     <row r="21" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
       <c r="G21" s="1" t="s">
         <v>2</v>
       </c>
@@ -60663,17 +60662,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis-tex/excels/Brackets.xlsx
+++ b/thesis-tex/excels/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F9D32C-79B1-42DB-BB83-1A5CB525CB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F693D8-232F-4A5E-A9FC-8A187B8653E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="29" activeTab="30" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="25" activeTab="30" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="cfp" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="361">
   <si>
     <t>Georgia</t>
   </si>
@@ -1204,6 +1204,9 @@
   </si>
   <si>
     <t>(8</t>
+  </si>
+  <si>
+    <t>F5</t>
   </si>
 </sst>
 </file>
@@ -7707,8 +7710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A138887D-E83F-4832-AC66-DEE1E0C0D3AC}">
   <dimension ref="A4:AH46"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L32" sqref="B18:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27757,7 +27760,7 @@
   <dimension ref="C2:BM49"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AI5" sqref="AI5:AL35"/>
+      <selection activeCell="BE9" sqref="BE5:BH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31025,15 +31028,15 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B265C45-C038-4FE5-B5BB-CF111B351430}">
-  <dimension ref="C3:P28"/>
+  <dimension ref="C3:BM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="X8" workbookViewId="0">
+      <selection activeCell="AO29" sqref="AO29:AO30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:65" x14ac:dyDescent="0.3">
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -31048,8 +31051,54 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="120"/>
+      <c r="AG3" s="120"/>
+      <c r="AH3" s="120"/>
+      <c r="AI3" s="120"/>
+      <c r="AJ3" s="120"/>
+      <c r="AK3" s="120"/>
+      <c r="AL3" s="120"/>
+      <c r="AM3" s="120"/>
+      <c r="AN3" s="120"/>
+      <c r="AO3" s="120"/>
+      <c r="AP3" s="120"/>
+      <c r="AQ3" s="120"/>
+      <c r="AR3" s="120"/>
+      <c r="AS3" s="120"/>
+      <c r="AT3" s="120"/>
+      <c r="AU3" s="120"/>
+      <c r="AV3" s="120"/>
+      <c r="AW3" s="120"/>
+      <c r="AX3" s="120"/>
+      <c r="AY3" s="120"/>
+      <c r="AZ3" s="120"/>
+      <c r="BA3" s="120"/>
+      <c r="BB3" s="120"/>
+      <c r="BC3" s="120"/>
+      <c r="BD3" s="120"/>
+      <c r="BE3" s="120"/>
+      <c r="BF3" s="120"/>
+      <c r="BG3" s="120"/>
+      <c r="BH3" s="120"/>
+      <c r="BI3" s="120"/>
+      <c r="BJ3" s="120"/>
+    </row>
+    <row r="4" spans="3:65" x14ac:dyDescent="0.3">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -31064,8 +31113,54 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="120"/>
+      <c r="AE4" s="120"/>
+      <c r="AF4" s="120"/>
+      <c r="AG4" s="120"/>
+      <c r="AH4" s="120"/>
+      <c r="AI4" s="120"/>
+      <c r="AJ4" s="120"/>
+      <c r="AK4" s="120"/>
+      <c r="AL4" s="120"/>
+      <c r="AM4" s="120"/>
+      <c r="AN4" s="120"/>
+      <c r="AO4" s="120"/>
+      <c r="AP4" s="120"/>
+      <c r="AQ4" s="120"/>
+      <c r="AR4" s="120"/>
+      <c r="AS4" s="120"/>
+      <c r="AT4" s="120"/>
+      <c r="AU4" s="120"/>
+      <c r="AV4" s="120"/>
+      <c r="AW4" s="120"/>
+      <c r="AX4" s="120"/>
+      <c r="AY4" s="120"/>
+      <c r="AZ4" s="120"/>
+      <c r="BA4" s="120"/>
+      <c r="BB4" s="120"/>
+      <c r="BC4" s="120"/>
+      <c r="BD4" s="120"/>
+      <c r="BE4" s="120"/>
+      <c r="BF4" s="120"/>
+      <c r="BG4" s="120"/>
+      <c r="BH4" s="120"/>
+      <c r="BI4" s="120"/>
+      <c r="BJ4" s="120"/>
+    </row>
+    <row r="5" spans="3:65" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -31080,8 +31175,54 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="120"/>
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="120"/>
+      <c r="AE5" s="120"/>
+      <c r="AF5" s="120"/>
+      <c r="AG5" s="120"/>
+      <c r="AH5" s="120"/>
+      <c r="AI5" s="120"/>
+      <c r="AJ5" s="120"/>
+      <c r="AK5" s="120"/>
+      <c r="AL5" s="120"/>
+      <c r="AM5" s="120"/>
+      <c r="AN5" s="120"/>
+      <c r="AO5" s="120"/>
+      <c r="AP5" s="120"/>
+      <c r="AQ5" s="120"/>
+      <c r="AR5" s="120"/>
+      <c r="AS5" s="120"/>
+      <c r="AT5" s="120"/>
+      <c r="AU5" s="120"/>
+      <c r="AV5" s="120"/>
+      <c r="AW5" s="120"/>
+      <c r="AX5" s="120"/>
+      <c r="AY5" s="120"/>
+      <c r="AZ5" s="120"/>
+      <c r="BA5" s="120"/>
+      <c r="BB5" s="120"/>
+      <c r="BC5" s="120"/>
+      <c r="BD5" s="120"/>
+      <c r="BE5" s="120"/>
+      <c r="BF5" s="120"/>
+      <c r="BG5" s="120"/>
+      <c r="BH5" s="120"/>
+      <c r="BI5" s="120"/>
+      <c r="BJ5" s="120"/>
+    </row>
+    <row r="6" spans="3:65" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -31098,8 +31239,56 @@
       <c r="N6" s="1"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="120"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="120"/>
+      <c r="AB6" s="120"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="120"/>
+      <c r="AE6" s="120"/>
+      <c r="AF6" s="120"/>
+      <c r="AG6" s="120"/>
+      <c r="AH6" s="120"/>
+      <c r="AI6" s="120"/>
+      <c r="AJ6" s="120"/>
+      <c r="AK6" s="120"/>
+      <c r="AL6" s="120"/>
+      <c r="AM6" s="120"/>
+      <c r="AN6" s="120"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="120"/>
+      <c r="AQ6" s="120"/>
+      <c r="AR6" s="120"/>
+      <c r="AS6" s="120"/>
+      <c r="AT6" s="120"/>
+      <c r="AU6" s="120"/>
+      <c r="AV6" s="120"/>
+      <c r="AW6" s="120"/>
+      <c r="AX6" s="120"/>
+      <c r="AY6" s="120"/>
+      <c r="AZ6" s="120"/>
+      <c r="BA6" s="120"/>
+      <c r="BB6" s="120"/>
+      <c r="BC6" s="120"/>
+      <c r="BD6" s="120"/>
+      <c r="BE6" s="120"/>
+      <c r="BF6" s="120"/>
+      <c r="BG6" s="120"/>
+      <c r="BH6" s="120"/>
+      <c r="BI6" s="120"/>
+      <c r="BJ6" s="120"/>
+    </row>
+    <row r="7" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="71" t="s">
@@ -31120,8 +31309,58 @@
       <c r="N7" s="1"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q7" s="6">
+        <v>4</v>
+      </c>
+      <c r="R7" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="120"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="120"/>
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="120"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="120"/>
+      <c r="AE7" s="120"/>
+      <c r="AF7" s="120"/>
+      <c r="AG7" s="120"/>
+      <c r="AH7" s="120"/>
+      <c r="AI7" s="120"/>
+      <c r="AJ7" s="120"/>
+      <c r="AK7" s="120"/>
+      <c r="AL7" s="120"/>
+      <c r="AM7" s="120"/>
+      <c r="AN7" s="120"/>
+      <c r="AO7" s="120"/>
+      <c r="AP7" s="120"/>
+      <c r="AQ7" s="120"/>
+      <c r="AR7" s="120"/>
+      <c r="AS7" s="120"/>
+      <c r="AT7" s="120"/>
+      <c r="AU7" s="120"/>
+      <c r="AV7" s="120"/>
+      <c r="AW7" s="120"/>
+      <c r="AX7" s="120"/>
+      <c r="AY7" s="120"/>
+      <c r="AZ7" s="120"/>
+      <c r="BA7" s="120"/>
+      <c r="BB7" s="120"/>
+      <c r="BC7" s="120"/>
+      <c r="BD7" s="120"/>
+      <c r="BE7" s="120"/>
+      <c r="BF7" s="120"/>
+      <c r="BG7" s="120"/>
+      <c r="BH7" s="120"/>
+      <c r="BI7" s="120"/>
+      <c r="BJ7" s="120"/>
+    </row>
+    <row r="8" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="6"/>
       <c r="D8" s="71" t="s">
         <v>40</v>
@@ -31140,8 +31379,56 @@
       <c r="N8" s="5"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q8" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="121"/>
+      <c r="AA8" s="120"/>
+      <c r="AB8" s="120"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="120"/>
+      <c r="AE8" s="120"/>
+      <c r="AF8" s="120"/>
+      <c r="AG8" s="120"/>
+      <c r="AH8" s="120"/>
+      <c r="AI8" s="120"/>
+      <c r="AJ8" s="120"/>
+      <c r="AK8" s="120"/>
+      <c r="AL8" s="120"/>
+      <c r="AM8" s="120"/>
+      <c r="AN8" s="120"/>
+      <c r="AO8" s="120"/>
+      <c r="AP8" s="120"/>
+      <c r="AQ8" s="120"/>
+      <c r="AR8" s="120"/>
+      <c r="AS8" s="120"/>
+      <c r="AT8" s="120"/>
+      <c r="AU8" s="120"/>
+      <c r="AV8" s="120"/>
+      <c r="AW8" s="120"/>
+      <c r="AX8" s="120"/>
+      <c r="AY8" s="120"/>
+      <c r="AZ8" s="120"/>
+      <c r="BA8" s="120"/>
+      <c r="BB8" s="120"/>
+      <c r="BC8" s="120"/>
+      <c r="BD8" s="120"/>
+      <c r="BE8" s="120"/>
+      <c r="BF8" s="120"/>
+      <c r="BG8" s="120"/>
+      <c r="BH8" s="120"/>
+      <c r="BI8" s="120"/>
+      <c r="BJ8" s="120"/>
+    </row>
+    <row r="9" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="6"/>
       <c r="D9" s="8"/>
       <c r="E9" s="11"/>
@@ -31162,8 +31449,65 @@
       <c r="N9" s="5"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q9" s="8">
+        <v>5</v>
+      </c>
+      <c r="R9" s="11"/>
+      <c r="S9" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9" s="5"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="120"/>
+      <c r="AH9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="120"/>
+      <c r="AM9" s="120"/>
+      <c r="AN9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="120"/>
+      <c r="AS9" s="120"/>
+      <c r="AT9" s="120"/>
+      <c r="AU9" s="120"/>
+      <c r="AV9" s="120"/>
+      <c r="AW9" s="120"/>
+      <c r="AX9" s="120"/>
+      <c r="AY9" s="120"/>
+      <c r="AZ9" s="120"/>
+      <c r="BA9" s="120"/>
+      <c r="BB9" s="120"/>
+      <c r="BC9" s="120"/>
+      <c r="BD9" s="120"/>
+      <c r="BE9" s="120"/>
+      <c r="BF9" s="120"/>
+      <c r="BG9" s="120"/>
+      <c r="BH9" s="120"/>
+      <c r="BI9" s="120"/>
+      <c r="BJ9" s="120"/>
+      <c r="BK9" s="120"/>
+      <c r="BL9" s="120"/>
+      <c r="BM9" s="120"/>
+    </row>
+    <row r="10" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -31180,8 +31524,63 @@
       <c r="N10" s="4"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6">
+        <v>2</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="120"/>
+      <c r="AH10" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="120"/>
+      <c r="AM10" s="120"/>
+      <c r="AN10" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="120"/>
+      <c r="AS10" s="120"/>
+      <c r="AT10" s="120"/>
+      <c r="AU10" s="120"/>
+      <c r="AV10" s="120"/>
+      <c r="AW10" s="120"/>
+      <c r="AX10" s="120"/>
+      <c r="AY10" s="120"/>
+      <c r="AZ10" s="120"/>
+      <c r="BA10" s="120"/>
+      <c r="BB10" s="120"/>
+      <c r="BC10" s="120"/>
+      <c r="BD10" s="120"/>
+      <c r="BE10" s="120"/>
+      <c r="BF10" s="120"/>
+      <c r="BG10" s="120"/>
+      <c r="BH10" s="120"/>
+      <c r="BI10" s="120"/>
+      <c r="BJ10" s="120"/>
+      <c r="BK10" s="120"/>
+      <c r="BL10" s="120"/>
+      <c r="BM10" s="120"/>
+    </row>
+    <row r="11" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="71" t="s">
@@ -31200,8 +31599,65 @@
       <c r="N11" s="5"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q11" s="6"/>
+      <c r="R11" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="120"/>
+      <c r="AH11" s="8">
+        <v>8</v>
+      </c>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="120"/>
+      <c r="AM11" s="120"/>
+      <c r="AN11" s="8">
+        <v>8</v>
+      </c>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="120"/>
+      <c r="AS11" s="120"/>
+      <c r="AT11" s="120"/>
+      <c r="AU11" s="120"/>
+      <c r="AV11" s="120"/>
+      <c r="AW11" s="120"/>
+      <c r="AX11" s="120"/>
+      <c r="AY11" s="120"/>
+      <c r="AZ11" s="120"/>
+      <c r="BA11" s="120"/>
+      <c r="BB11" s="120"/>
+      <c r="BC11" s="120"/>
+      <c r="BD11" s="120"/>
+      <c r="BE11" s="120"/>
+      <c r="BF11" s="120"/>
+      <c r="BG11" s="120"/>
+      <c r="BH11" s="120"/>
+      <c r="BI11" s="120"/>
+      <c r="BJ11" s="120"/>
+      <c r="BK11" s="120"/>
+      <c r="BL11" s="120"/>
+      <c r="BM11" s="120"/>
+    </row>
+    <row r="12" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="8"/>
@@ -31218,8 +31674,65 @@
       <c r="N12" s="1"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q12" s="6"/>
+      <c r="R12" s="8">
+        <v>3</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="120"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="120"/>
+      <c r="AM12" s="120"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="120"/>
+      <c r="AS12" s="120"/>
+      <c r="AT12" s="120"/>
+      <c r="AU12" s="120"/>
+      <c r="AV12" s="120"/>
+      <c r="AW12" s="120"/>
+      <c r="AX12" s="120"/>
+      <c r="AY12" s="120"/>
+      <c r="AZ12" s="120"/>
+      <c r="BA12" s="120"/>
+      <c r="BB12" s="120"/>
+      <c r="BC12" s="120"/>
+      <c r="BD12" s="120"/>
+      <c r="BE12" s="120"/>
+      <c r="BF12" s="120"/>
+      <c r="BG12" s="120"/>
+      <c r="BH12" s="120"/>
+      <c r="BI12" s="120"/>
+      <c r="BJ12" s="120"/>
+      <c r="BK12" s="120"/>
+      <c r="BL12" s="120"/>
+      <c r="BM12" s="120"/>
+    </row>
+    <row r="13" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -31236,8 +31749,67 @@
       </c>
       <c r="O13" s="120"/>
       <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="3:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U13" s="120"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="120"/>
+      <c r="AH13" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="120"/>
+      <c r="AM13" s="120"/>
+      <c r="AN13" s="6">
+        <v>4</v>
+      </c>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="120"/>
+      <c r="AS13" s="120"/>
+      <c r="AT13" s="120"/>
+      <c r="AU13" s="120"/>
+      <c r="AV13" s="120"/>
+      <c r="AW13" s="120"/>
+      <c r="AX13" s="120"/>
+      <c r="AY13" s="120"/>
+      <c r="AZ13" s="120"/>
+      <c r="BA13" s="120"/>
+      <c r="BB13" s="120"/>
+      <c r="BC13" s="120"/>
+      <c r="BD13" s="120"/>
+      <c r="BE13" s="120"/>
+      <c r="BF13" s="120"/>
+      <c r="BG13" s="120"/>
+      <c r="BH13" s="120"/>
+      <c r="BI13" s="120"/>
+      <c r="BJ13" s="120"/>
+      <c r="BK13" s="120"/>
+      <c r="BL13" s="120"/>
+      <c r="BM13" s="120"/>
+    </row>
+    <row r="14" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -31252,8 +31824,61 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="120"/>
+      <c r="AH14" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="120"/>
+      <c r="AM14" s="120"/>
+      <c r="AN14" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="120"/>
+      <c r="AS14" s="120"/>
+      <c r="AT14" s="120"/>
+      <c r="AU14" s="120"/>
+      <c r="AV14" s="120"/>
+      <c r="AW14" s="120"/>
+      <c r="AX14" s="120"/>
+      <c r="AY14" s="120"/>
+      <c r="AZ14" s="120"/>
+      <c r="BA14" s="120"/>
+      <c r="BB14" s="120"/>
+      <c r="BC14" s="120"/>
+      <c r="BD14" s="120"/>
+      <c r="BE14" s="120"/>
+      <c r="BF14" s="120"/>
+      <c r="BG14" s="120"/>
+      <c r="BH14" s="120"/>
+      <c r="BI14" s="120"/>
+      <c r="BJ14" s="120"/>
+      <c r="BK14" s="120"/>
+      <c r="BL14" s="120"/>
+      <c r="BM14" s="120"/>
+    </row>
+    <row r="15" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -31270,8 +31895,67 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="120"/>
+      <c r="AH15" s="8">
+        <v>5</v>
+      </c>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="120"/>
+      <c r="AM15" s="120"/>
+      <c r="AN15" s="8">
+        <v>5</v>
+      </c>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="120"/>
+      <c r="AS15" s="120"/>
+      <c r="AT15" s="120"/>
+      <c r="AU15" s="120"/>
+      <c r="AV15" s="120"/>
+      <c r="AW15" s="120"/>
+      <c r="AX15" s="120"/>
+      <c r="AY15" s="120"/>
+      <c r="AZ15" s="120"/>
+      <c r="BA15" s="120"/>
+      <c r="BB15" s="120"/>
+      <c r="BC15" s="120"/>
+      <c r="BD15" s="120"/>
+      <c r="BE15" s="120"/>
+      <c r="BF15" s="120"/>
+      <c r="BG15" s="120"/>
+      <c r="BH15" s="120"/>
+      <c r="BI15" s="120"/>
+      <c r="BJ15" s="120"/>
+      <c r="BK15" s="120"/>
+      <c r="BL15" s="120"/>
+      <c r="BM15" s="120"/>
+    </row>
+    <row r="16" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -31290,8 +31974,65 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="120"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="120"/>
+      <c r="AM16" s="120"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="120"/>
+      <c r="AS16" s="120"/>
+      <c r="AT16" s="120"/>
+      <c r="AU16" s="120"/>
+      <c r="AV16" s="120"/>
+      <c r="AW16" s="120"/>
+      <c r="AX16" s="120"/>
+      <c r="AY16" s="120"/>
+      <c r="AZ16" s="120"/>
+      <c r="BA16" s="120"/>
+      <c r="BB16" s="120"/>
+      <c r="BC16" s="120"/>
+      <c r="BD16" s="120"/>
+      <c r="BE16" s="120"/>
+      <c r="BF16" s="120"/>
+      <c r="BG16" s="120"/>
+      <c r="BH16" s="120"/>
+      <c r="BI16" s="120"/>
+      <c r="BJ16" s="120"/>
+      <c r="BK16" s="120"/>
+      <c r="BL16" s="120"/>
+      <c r="BM16" s="120"/>
+    </row>
+    <row r="17" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -31308,8 +32049,67 @@
       <c r="N17" s="11"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="3:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T17" s="11"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="120"/>
+      <c r="AH17" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="120"/>
+      <c r="AM17" s="120"/>
+      <c r="AN17" s="6">
+        <v>3</v>
+      </c>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="120"/>
+      <c r="AS17" s="120"/>
+      <c r="AT17" s="120"/>
+      <c r="AU17" s="120"/>
+      <c r="AV17" s="120"/>
+      <c r="AW17" s="120"/>
+      <c r="AX17" s="120"/>
+      <c r="AY17" s="120"/>
+      <c r="AZ17" s="120"/>
+      <c r="BA17" s="120"/>
+      <c r="BB17" s="120"/>
+      <c r="BC17" s="120"/>
+      <c r="BD17" s="120"/>
+      <c r="BE17" s="120"/>
+      <c r="BF17" s="120"/>
+      <c r="BG17" s="120"/>
+      <c r="BH17" s="120"/>
+      <c r="BI17" s="120"/>
+      <c r="BJ17" s="120"/>
+      <c r="BK17" s="120"/>
+      <c r="BL17" s="120"/>
+      <c r="BM17" s="120"/>
+    </row>
+    <row r="18" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -31324,8 +32124,61 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="120"/>
+      <c r="AH18" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="120"/>
+      <c r="AM18" s="120"/>
+      <c r="AN18" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="120"/>
+      <c r="AS18" s="120"/>
+      <c r="AT18" s="120"/>
+      <c r="AU18" s="120"/>
+      <c r="AV18" s="120"/>
+      <c r="AW18" s="120"/>
+      <c r="AX18" s="120"/>
+      <c r="AY18" s="120"/>
+      <c r="AZ18" s="120"/>
+      <c r="BA18" s="120"/>
+      <c r="BB18" s="120"/>
+      <c r="BC18" s="120"/>
+      <c r="BD18" s="120"/>
+      <c r="BE18" s="120"/>
+      <c r="BF18" s="120"/>
+      <c r="BG18" s="120"/>
+      <c r="BH18" s="120"/>
+      <c r="BI18" s="120"/>
+      <c r="BJ18" s="120"/>
+      <c r="BK18" s="120"/>
+      <c r="BL18" s="120"/>
+      <c r="BM18" s="120"/>
+    </row>
+    <row r="19" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="1"/>
@@ -31340,8 +32193,67 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q19" s="6"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="120"/>
+      <c r="AH19" s="8">
+        <v>6</v>
+      </c>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="120"/>
+      <c r="AM19" s="120"/>
+      <c r="AN19" s="8">
+        <v>6</v>
+      </c>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="120"/>
+      <c r="AS19" s="120"/>
+      <c r="AT19" s="120"/>
+      <c r="AU19" s="120"/>
+      <c r="AV19" s="120"/>
+      <c r="AW19" s="120"/>
+      <c r="AX19" s="120"/>
+      <c r="AY19" s="120"/>
+      <c r="AZ19" s="120"/>
+      <c r="BA19" s="120"/>
+      <c r="BB19" s="120"/>
+      <c r="BC19" s="120"/>
+      <c r="BD19" s="120"/>
+      <c r="BE19" s="120"/>
+      <c r="BF19" s="120"/>
+      <c r="BG19" s="120"/>
+      <c r="BH19" s="120"/>
+      <c r="BI19" s="120"/>
+      <c r="BJ19" s="120"/>
+      <c r="BK19" s="120"/>
+      <c r="BL19" s="120"/>
+      <c r="BM19" s="120"/>
+    </row>
+    <row r="20" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -31360,8 +32272,65 @@
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="120"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="120"/>
+      <c r="AM20" s="120"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="120"/>
+      <c r="AS20" s="120"/>
+      <c r="AT20" s="120"/>
+      <c r="AU20" s="120"/>
+      <c r="AV20" s="120"/>
+      <c r="AW20" s="120"/>
+      <c r="AX20" s="120"/>
+      <c r="AY20" s="120"/>
+      <c r="AZ20" s="120"/>
+      <c r="BA20" s="120"/>
+      <c r="BB20" s="120"/>
+      <c r="BC20" s="120"/>
+      <c r="BD20" s="120"/>
+      <c r="BE20" s="120"/>
+      <c r="BF20" s="120"/>
+      <c r="BG20" s="120"/>
+      <c r="BH20" s="120"/>
+      <c r="BI20" s="120"/>
+      <c r="BJ20" s="120"/>
+      <c r="BK20" s="120"/>
+      <c r="BL20" s="120"/>
+      <c r="BM20" s="120"/>
+    </row>
+    <row r="21" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -31380,8 +32349,67 @@
       <c r="N21" s="8"/>
       <c r="O21" s="11"/>
       <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6">
+        <v>6</v>
+      </c>
+      <c r="S21" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="T21" s="8"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="120"/>
+      <c r="AH21" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="120"/>
+      <c r="AM21" s="120"/>
+      <c r="AN21" s="6">
+        <v>2</v>
+      </c>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="120"/>
+      <c r="AS21" s="120"/>
+      <c r="AT21" s="120"/>
+      <c r="AU21" s="120"/>
+      <c r="AV21" s="120"/>
+      <c r="AW21" s="120"/>
+      <c r="AX21" s="120"/>
+      <c r="AY21" s="120"/>
+      <c r="AZ21" s="120"/>
+      <c r="BA21" s="120"/>
+      <c r="BB21" s="120"/>
+      <c r="BC21" s="120"/>
+      <c r="BD21" s="120"/>
+      <c r="BE21" s="120"/>
+      <c r="BF21" s="120"/>
+      <c r="BG21" s="120"/>
+      <c r="BH21" s="120"/>
+      <c r="BI21" s="120"/>
+      <c r="BJ21" s="120"/>
+      <c r="BK21" s="120"/>
+      <c r="BL21" s="120"/>
+      <c r="BM21" s="120"/>
+    </row>
+    <row r="22" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="71" t="s">
@@ -31400,8 +32428,63 @@
       <c r="N22" s="4"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-    </row>
-    <row r="23" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q22" s="6"/>
+      <c r="R22" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="S22" s="8"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="120"/>
+      <c r="AH22" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="120"/>
+      <c r="AM22" s="120"/>
+      <c r="AN22" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="120"/>
+      <c r="AR22" s="120"/>
+      <c r="AS22" s="120"/>
+      <c r="AT22" s="120"/>
+      <c r="AU22" s="120"/>
+      <c r="AV22" s="120"/>
+      <c r="AW22" s="120"/>
+      <c r="AX22" s="120"/>
+      <c r="AY22" s="120"/>
+      <c r="AZ22" s="120"/>
+      <c r="BA22" s="120"/>
+      <c r="BB22" s="120"/>
+      <c r="BC22" s="120"/>
+      <c r="BD22" s="120"/>
+      <c r="BE22" s="120"/>
+      <c r="BF22" s="120"/>
+      <c r="BG22" s="120"/>
+      <c r="BH22" s="120"/>
+      <c r="BI22" s="120"/>
+      <c r="BJ22" s="120"/>
+      <c r="BK22" s="120"/>
+      <c r="BL22" s="120"/>
+      <c r="BM22" s="120"/>
+    </row>
+    <row r="23" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="8"/>
@@ -31416,8 +32499,65 @@
       <c r="N23" s="1"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-    </row>
-    <row r="24" spans="3:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="6"/>
+      <c r="R23" s="8">
+        <v>7</v>
+      </c>
+      <c r="S23" s="4"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="120"/>
+      <c r="AE23" s="120"/>
+      <c r="AF23" s="120"/>
+      <c r="AG23" s="120"/>
+      <c r="AH23" s="8">
+        <v>7</v>
+      </c>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL23" s="120"/>
+      <c r="AM23" s="120"/>
+      <c r="AN23" s="8">
+        <v>7</v>
+      </c>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="120"/>
+      <c r="AS23" s="120"/>
+      <c r="AT23" s="120"/>
+      <c r="AU23" s="120"/>
+      <c r="AV23" s="120"/>
+      <c r="AW23" s="120"/>
+      <c r="AX23" s="120"/>
+      <c r="AY23" s="120"/>
+      <c r="AZ23" s="120"/>
+      <c r="BA23" s="120"/>
+      <c r="BB23" s="120"/>
+      <c r="BC23" s="120"/>
+      <c r="BD23" s="120"/>
+      <c r="BE23" s="120"/>
+      <c r="BF23" s="120"/>
+      <c r="BG23" s="120"/>
+      <c r="BH23" s="120"/>
+      <c r="BI23" s="120"/>
+      <c r="BJ23" s="120"/>
+      <c r="BK23" s="120"/>
+      <c r="BL23" s="120"/>
+      <c r="BM23" s="120"/>
+    </row>
+    <row r="24" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -31432,8 +32572,59 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="120"/>
+      <c r="X24" s="120"/>
+      <c r="Y24" s="120"/>
+      <c r="Z24" s="120"/>
+      <c r="AA24" s="120"/>
+      <c r="AB24" s="120"/>
+      <c r="AC24" s="120"/>
+      <c r="AD24" s="120"/>
+      <c r="AE24" s="120"/>
+      <c r="AF24" s="120"/>
+      <c r="AG24" s="120"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="120"/>
+      <c r="AM24" s="120"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="120"/>
+      <c r="AQ24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="120"/>
+      <c r="AT24" s="120"/>
+      <c r="AU24" s="120"/>
+      <c r="AV24" s="120"/>
+      <c r="AW24" s="120"/>
+      <c r="AX24" s="120"/>
+      <c r="AY24" s="120"/>
+      <c r="AZ24" s="120"/>
+      <c r="BA24" s="120"/>
+      <c r="BB24" s="120"/>
+      <c r="BC24" s="120"/>
+      <c r="BD24" s="120"/>
+      <c r="BE24" s="120"/>
+      <c r="BF24" s="120"/>
+      <c r="BG24" s="120"/>
+      <c r="BH24" s="120"/>
+      <c r="BI24" s="120"/>
+      <c r="BJ24" s="120"/>
+      <c r="BK24" s="120"/>
+      <c r="BL24" s="120"/>
+      <c r="BM24" s="120"/>
+    </row>
+    <row r="25" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -31448,8 +32639,61 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="120"/>
+      <c r="X25" s="120"/>
+      <c r="Y25" s="120"/>
+      <c r="Z25" s="120"/>
+      <c r="AA25" s="120"/>
+      <c r="AB25" s="120"/>
+      <c r="AC25" s="120"/>
+      <c r="AD25" s="120"/>
+      <c r="AE25" s="120"/>
+      <c r="AF25" s="120"/>
+      <c r="AG25" s="120"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="120"/>
+      <c r="AM25" s="120"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="120"/>
+      <c r="AQ25" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="120"/>
+      <c r="AT25" s="120"/>
+      <c r="AU25" s="120"/>
+      <c r="AV25" s="120"/>
+      <c r="AW25" s="120"/>
+      <c r="AX25" s="120"/>
+      <c r="AY25" s="120"/>
+      <c r="AZ25" s="120"/>
+      <c r="BA25" s="120"/>
+      <c r="BB25" s="120"/>
+      <c r="BC25" s="120"/>
+      <c r="BD25" s="120"/>
+      <c r="BE25" s="120"/>
+      <c r="BF25" s="120"/>
+      <c r="BG25" s="120"/>
+      <c r="BH25" s="120"/>
+      <c r="BI25" s="120"/>
+      <c r="BJ25" s="120"/>
+      <c r="BK25" s="120"/>
+      <c r="BL25" s="120"/>
+      <c r="BM25" s="120"/>
+    </row>
+    <row r="26" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -31464,8 +32708,61 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="120"/>
+      <c r="X26" s="120"/>
+      <c r="Y26" s="120"/>
+      <c r="Z26" s="120"/>
+      <c r="AA26" s="120"/>
+      <c r="AB26" s="120"/>
+      <c r="AC26" s="120"/>
+      <c r="AD26" s="120"/>
+      <c r="AE26" s="120"/>
+      <c r="AF26" s="120"/>
+      <c r="AG26" s="120"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="120"/>
+      <c r="AM26" s="120"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="120"/>
+      <c r="AQ26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="120"/>
+      <c r="AT26" s="120"/>
+      <c r="AU26" s="120"/>
+      <c r="AV26" s="120"/>
+      <c r="AW26" s="120"/>
+      <c r="AX26" s="120"/>
+      <c r="AY26" s="120"/>
+      <c r="AZ26" s="120"/>
+      <c r="BA26" s="120"/>
+      <c r="BB26" s="120"/>
+      <c r="BC26" s="120"/>
+      <c r="BD26" s="120"/>
+      <c r="BE26" s="120"/>
+      <c r="BF26" s="120"/>
+      <c r="BG26" s="120"/>
+      <c r="BH26" s="120"/>
+      <c r="BI26" s="120"/>
+      <c r="BJ26" s="120"/>
+      <c r="BK26" s="120"/>
+      <c r="BL26" s="120"/>
+      <c r="BM26" s="120"/>
+    </row>
+    <row r="27" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -31480,22 +32777,490 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="120"/>
+      <c r="Z27" s="120"/>
+      <c r="AA27" s="120"/>
+      <c r="AB27" s="120"/>
+      <c r="AC27" s="120"/>
+      <c r="AD27" s="120"/>
+      <c r="AE27" s="120"/>
+      <c r="AF27" s="120"/>
+      <c r="AG27" s="120"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="120"/>
+      <c r="AM27" s="120"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="120"/>
+      <c r="AQ27" s="120"/>
+      <c r="AR27" s="120"/>
+      <c r="AS27" s="120"/>
+      <c r="AT27" s="120"/>
+      <c r="AU27" s="120"/>
+      <c r="AV27" s="120"/>
+      <c r="AW27" s="120"/>
+      <c r="AX27" s="120"/>
+      <c r="AY27" s="120"/>
+      <c r="AZ27" s="120"/>
+      <c r="BA27" s="120"/>
+      <c r="BB27" s="120"/>
+      <c r="BC27" s="120"/>
+      <c r="BD27" s="120"/>
+      <c r="BE27" s="120"/>
+      <c r="BF27" s="120"/>
+      <c r="BG27" s="120"/>
+      <c r="BH27" s="120"/>
+      <c r="BI27" s="120"/>
+      <c r="BJ27" s="120"/>
+    </row>
+    <row r="28" spans="3:65" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AC28" s="120"/>
+      <c r="AD28" s="120"/>
+      <c r="AE28" s="120"/>
+      <c r="AF28" s="120"/>
+      <c r="AG28" s="120"/>
+      <c r="AH28" s="120"/>
+      <c r="AI28" s="120"/>
+      <c r="AJ28" s="120"/>
+      <c r="AK28" s="120"/>
+      <c r="AL28" s="120"/>
+      <c r="AM28" s="120"/>
+      <c r="AN28" s="120"/>
+      <c r="AO28" s="120"/>
+      <c r="AP28" s="120"/>
+      <c r="AQ28" s="120"/>
+      <c r="AR28" s="120"/>
+      <c r="AS28" s="120"/>
+      <c r="AT28" s="120"/>
+      <c r="AU28" s="120"/>
+      <c r="AV28" s="120"/>
+      <c r="AW28" s="120"/>
+      <c r="AX28" s="120"/>
+      <c r="AY28" s="120"/>
+      <c r="AZ28" s="120"/>
+      <c r="BA28" s="120"/>
+      <c r="BB28" s="120"/>
+      <c r="BC28" s="120"/>
+      <c r="BD28" s="120"/>
+    </row>
+    <row r="29" spans="3:65" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC29" s="120"/>
+      <c r="AD29" s="120"/>
+      <c r="AE29" s="120"/>
+      <c r="AF29" s="120"/>
+      <c r="AG29" s="120"/>
+      <c r="AH29" s="119"/>
+      <c r="AI29" s="120"/>
+      <c r="AJ29" s="120"/>
+      <c r="AK29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL29" s="120"/>
+      <c r="AM29" s="120"/>
+      <c r="AN29" s="120"/>
+      <c r="AO29" s="120"/>
+      <c r="AP29" s="120"/>
+      <c r="AQ29" s="120"/>
+      <c r="AR29" s="120"/>
+      <c r="AS29" s="120"/>
+      <c r="AT29" s="120"/>
+      <c r="AU29" s="120"/>
+      <c r="AV29" s="120"/>
+      <c r="AW29" s="120"/>
+      <c r="AX29" s="120"/>
+      <c r="AY29" s="120"/>
+      <c r="AZ29" s="120"/>
+      <c r="BA29" s="120"/>
+      <c r="BB29" s="120"/>
+      <c r="BC29" s="120"/>
+      <c r="BD29" s="120"/>
+    </row>
+    <row r="30" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC30" s="120"/>
+      <c r="AD30" s="120"/>
+      <c r="AE30" s="120"/>
+      <c r="AF30" s="120"/>
+      <c r="AG30" s="120"/>
+      <c r="AH30" s="119"/>
+      <c r="AI30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ30" s="120"/>
+      <c r="AK30" s="9"/>
+      <c r="AL30" s="120"/>
+      <c r="AM30" s="120"/>
+      <c r="AN30" s="120"/>
+      <c r="AO30" s="120"/>
+      <c r="AP30" s="120"/>
+      <c r="AQ30" s="119"/>
+      <c r="AR30" s="120"/>
+      <c r="AS30" s="120"/>
+      <c r="AT30" s="120"/>
+      <c r="AU30" s="120"/>
+      <c r="AV30" s="120"/>
+      <c r="AW30" s="120"/>
+      <c r="AX30" s="120"/>
+      <c r="AY30" s="120"/>
+      <c r="AZ30" s="120"/>
+      <c r="BA30" s="120"/>
+      <c r="BB30" s="120"/>
+      <c r="BC30" s="120"/>
+      <c r="BD30" s="120"/>
+    </row>
+    <row r="31" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC31" s="120"/>
+      <c r="AD31" s="120"/>
+      <c r="AE31" s="120"/>
+      <c r="AF31" s="120"/>
+      <c r="AG31" s="120"/>
+      <c r="AH31" s="119"/>
+      <c r="AI31" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="120"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="121"/>
+      <c r="AO31" s="120"/>
+      <c r="AP31" s="120"/>
+      <c r="AQ31" s="119"/>
+      <c r="AR31" s="120"/>
+      <c r="AS31" s="120"/>
+      <c r="AT31" s="120"/>
+      <c r="AU31" s="120"/>
+      <c r="AV31" s="120"/>
+      <c r="AW31" s="120"/>
+      <c r="AX31" s="120"/>
+      <c r="AY31" s="120"/>
+      <c r="AZ31" s="120"/>
+      <c r="BA31" s="120"/>
+      <c r="BB31" s="120"/>
+      <c r="BC31" s="120"/>
+      <c r="BD31" s="120"/>
+    </row>
+    <row r="32" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC32" s="120"/>
+      <c r="AD32" s="120"/>
+      <c r="AE32" s="120"/>
+      <c r="AF32" s="120"/>
+      <c r="AG32" s="120"/>
+      <c r="AH32" s="119"/>
+      <c r="AI32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ32" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="120"/>
+      <c r="AO32" s="121"/>
+      <c r="AP32" s="119"/>
+      <c r="AQ32" s="119"/>
+      <c r="AR32" s="120"/>
+      <c r="AS32" s="120"/>
+      <c r="AT32" s="120"/>
+      <c r="AU32" s="120"/>
+      <c r="AV32" s="120"/>
+      <c r="AW32" s="120"/>
+      <c r="AX32" s="120"/>
+      <c r="AY32" s="120"/>
+      <c r="AZ32" s="120"/>
+      <c r="BA32" s="120"/>
+      <c r="BB32" s="120"/>
+      <c r="BC32" s="120"/>
+      <c r="BD32" s="120"/>
+    </row>
+    <row r="33" spans="29:56" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC33" s="120"/>
+      <c r="AD33" s="120"/>
+      <c r="AE33" s="120"/>
+      <c r="AF33" s="120"/>
+      <c r="AG33" s="120"/>
+      <c r="AH33" s="119"/>
+      <c r="AI33" s="119"/>
+      <c r="AJ33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK33" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL33" s="23"/>
+      <c r="AM33" s="23"/>
+      <c r="AN33" s="119"/>
+      <c r="AO33" s="120"/>
+      <c r="AP33" s="121"/>
+      <c r="AQ33" s="123"/>
+      <c r="AR33" s="120"/>
+      <c r="AS33" s="120"/>
+      <c r="AT33" s="120"/>
+      <c r="AU33" s="120"/>
+      <c r="AV33" s="120"/>
+      <c r="AW33" s="120"/>
+      <c r="AX33" s="120"/>
+      <c r="AY33" s="120"/>
+      <c r="AZ33" s="120"/>
+      <c r="BA33" s="120"/>
+      <c r="BB33" s="120"/>
+      <c r="BC33" s="120"/>
+      <c r="BD33" s="120"/>
+    </row>
+    <row r="34" spans="29:56" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC34" s="120"/>
+      <c r="AD34" s="120"/>
+      <c r="AE34" s="120"/>
+      <c r="AF34" s="120"/>
+      <c r="AG34" s="120"/>
+      <c r="AH34" s="119"/>
+      <c r="AI34" s="119"/>
+      <c r="AJ34" s="120"/>
+      <c r="AK34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL34" s="20"/>
+      <c r="AM34" s="120"/>
+      <c r="AN34" s="119"/>
+      <c r="AO34" s="120"/>
+      <c r="AP34" s="120"/>
+      <c r="AQ34" s="120"/>
+      <c r="AR34" s="120"/>
+      <c r="AS34" s="120"/>
+      <c r="AT34" s="120"/>
+      <c r="AU34" s="120"/>
+      <c r="AV34" s="120"/>
+      <c r="AW34" s="120"/>
+      <c r="AX34" s="120"/>
+      <c r="AY34" s="120"/>
+      <c r="AZ34" s="120"/>
+      <c r="BA34" s="120"/>
+      <c r="BB34" s="120"/>
+      <c r="BC34" s="120"/>
+      <c r="BD34" s="120"/>
+    </row>
+    <row r="35" spans="29:56" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AC35" s="120"/>
+      <c r="AD35" s="120"/>
+      <c r="AE35" s="120"/>
+      <c r="AF35" s="120"/>
+      <c r="AG35" s="120"/>
+      <c r="AH35" s="119"/>
+      <c r="AI35" s="119"/>
+      <c r="AJ35" s="120"/>
+      <c r="AK35" s="119"/>
+      <c r="AL35" s="120"/>
+      <c r="AM35" s="120"/>
+      <c r="AN35" s="119"/>
+      <c r="AO35" s="119"/>
+      <c r="AP35" s="120"/>
+      <c r="AQ35" s="119"/>
+      <c r="AR35" s="120"/>
+      <c r="AS35" s="120"/>
+      <c r="AT35" s="120"/>
+      <c r="AU35" s="120"/>
+      <c r="AV35" s="120"/>
+      <c r="AW35" s="120"/>
+      <c r="AX35" s="120"/>
+      <c r="AY35" s="120"/>
+      <c r="AZ35" s="120"/>
+      <c r="BA35" s="120"/>
+      <c r="BB35" s="120"/>
+      <c r="BC35" s="120"/>
+      <c r="BD35" s="120"/>
+    </row>
+    <row r="36" spans="29:56" x14ac:dyDescent="0.3">
+      <c r="AC36" s="120"/>
+      <c r="AD36" s="120"/>
+      <c r="AE36" s="120"/>
+      <c r="AF36" s="120"/>
+      <c r="AG36" s="120"/>
+      <c r="AH36" s="119"/>
+      <c r="AI36" s="119"/>
+      <c r="AJ36" s="123"/>
+      <c r="AK36" s="119"/>
+      <c r="AL36" s="120"/>
+      <c r="AM36" s="120"/>
+      <c r="AN36" s="119"/>
+      <c r="AO36" s="119"/>
+      <c r="AP36" s="123"/>
+      <c r="AQ36" s="119"/>
+      <c r="AR36" s="120"/>
+      <c r="AS36" s="120"/>
+      <c r="AT36" s="120"/>
+      <c r="AU36" s="120"/>
+      <c r="AV36" s="120"/>
+      <c r="AW36" s="120"/>
+      <c r="AX36" s="120"/>
+      <c r="AY36" s="120"/>
+      <c r="AZ36" s="120"/>
+      <c r="BA36" s="120"/>
+      <c r="BB36" s="120"/>
+      <c r="BC36" s="120"/>
+      <c r="BD36" s="120"/>
+    </row>
+    <row r="37" spans="29:56" x14ac:dyDescent="0.3">
+      <c r="AC37" s="120"/>
+      <c r="AD37" s="120"/>
+      <c r="AE37" s="120"/>
+      <c r="AF37" s="120"/>
+      <c r="AG37" s="120"/>
+      <c r="AH37" s="119"/>
+      <c r="AI37" s="119"/>
+      <c r="AJ37" s="120"/>
+      <c r="AK37" s="119"/>
+      <c r="AL37" s="120"/>
+      <c r="AM37" s="120"/>
+      <c r="AN37" s="119"/>
+      <c r="AO37" s="119"/>
+      <c r="AP37" s="120"/>
+      <c r="AQ37" s="119"/>
+      <c r="AR37" s="120"/>
+      <c r="AS37" s="120"/>
+      <c r="AT37" s="120"/>
+      <c r="AU37" s="120"/>
+      <c r="AV37" s="120"/>
+      <c r="AW37" s="120"/>
+      <c r="AX37" s="120"/>
+      <c r="AY37" s="120"/>
+      <c r="AZ37" s="120"/>
+      <c r="BA37" s="120"/>
+      <c r="BB37" s="120"/>
+      <c r="BC37" s="120"/>
+      <c r="BD37" s="120"/>
+    </row>
+    <row r="38" spans="29:56" x14ac:dyDescent="0.3">
+      <c r="AC38" s="120"/>
+      <c r="AD38" s="120"/>
+      <c r="AE38" s="120"/>
+      <c r="AF38" s="120"/>
+      <c r="AG38" s="120"/>
+      <c r="AH38" s="119"/>
+      <c r="AI38" s="119"/>
+      <c r="AJ38" s="119"/>
+      <c r="AK38" s="119"/>
+      <c r="AL38" s="120"/>
+      <c r="AM38" s="120"/>
+      <c r="AN38" s="119"/>
+      <c r="AO38" s="119"/>
+      <c r="AP38" s="119"/>
+      <c r="AQ38" s="119"/>
+      <c r="AR38" s="120"/>
+      <c r="AS38" s="120"/>
+      <c r="AT38" s="120"/>
+      <c r="AU38" s="120"/>
+      <c r="AV38" s="120"/>
+      <c r="AW38" s="120"/>
+      <c r="AX38" s="120"/>
+      <c r="AY38" s="120"/>
+      <c r="AZ38" s="120"/>
+      <c r="BA38" s="120"/>
+      <c r="BB38" s="120"/>
+      <c r="BC38" s="120"/>
+      <c r="BD38" s="120"/>
+    </row>
+    <row r="39" spans="29:56" x14ac:dyDescent="0.3">
+      <c r="AC39" s="120"/>
+      <c r="AD39" s="120"/>
+      <c r="AE39" s="120"/>
+      <c r="AF39" s="120"/>
+      <c r="AG39" s="120"/>
+      <c r="AH39" s="119"/>
+      <c r="AI39" s="119"/>
+      <c r="AJ39" s="119"/>
+      <c r="AK39" s="120"/>
+      <c r="AL39" s="120"/>
+      <c r="AM39" s="120"/>
+      <c r="AN39" s="119"/>
+      <c r="AO39" s="119"/>
+      <c r="AP39" s="119"/>
+      <c r="AQ39" s="120"/>
+      <c r="AR39" s="120"/>
+      <c r="AS39" s="120"/>
+      <c r="AT39" s="120"/>
+      <c r="AU39" s="120"/>
+      <c r="AV39" s="120"/>
+      <c r="AW39" s="120"/>
+      <c r="AX39" s="120"/>
+      <c r="AY39" s="120"/>
+      <c r="AZ39" s="120"/>
+      <c r="BA39" s="120"/>
+      <c r="BB39" s="120"/>
+      <c r="BC39" s="120"/>
+      <c r="BD39" s="120"/>
+    </row>
+    <row r="40" spans="29:56" x14ac:dyDescent="0.3">
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="120"/>
+      <c r="AG40" s="120"/>
+      <c r="AH40" s="120"/>
+      <c r="AI40" s="120"/>
+      <c r="AJ40" s="120"/>
+      <c r="AK40" s="120"/>
+      <c r="AL40" s="120"/>
+      <c r="AM40" s="120"/>
+      <c r="AN40" s="120"/>
+      <c r="AO40" s="120"/>
+      <c r="AP40" s="120"/>
+      <c r="AQ40" s="120"/>
+      <c r="AR40" s="120"/>
+      <c r="AS40" s="120"/>
+      <c r="AT40" s="120"/>
+      <c r="AU40" s="120"/>
+      <c r="AV40" s="120"/>
+      <c r="AW40" s="120"/>
+      <c r="AX40" s="120"/>
+      <c r="AY40" s="120"/>
+      <c r="AZ40" s="120"/>
+      <c r="BA40" s="120"/>
+      <c r="BB40" s="120"/>
+      <c r="BC40" s="120"/>
+      <c r="BD40" s="120"/>
+    </row>
+    <row r="41" spans="29:56" x14ac:dyDescent="0.3">
+      <c r="AC41" s="120"/>
+      <c r="AD41" s="120"/>
+      <c r="AE41" s="120"/>
+      <c r="AF41" s="120"/>
+      <c r="AG41" s="120"/>
+      <c r="AH41" s="120"/>
+      <c r="AI41" s="120"/>
+      <c r="AJ41" s="120"/>
+      <c r="AK41" s="120"/>
+      <c r="AL41" s="120"/>
+      <c r="AM41" s="120"/>
+      <c r="AN41" s="120"/>
+      <c r="AO41" s="120"/>
+      <c r="AP41" s="120"/>
+      <c r="AQ41" s="120"/>
+      <c r="AR41" s="120"/>
+      <c r="AS41" s="120"/>
+      <c r="AT41" s="120"/>
+      <c r="AU41" s="120"/>
+      <c r="AV41" s="120"/>
+      <c r="AW41" s="120"/>
+      <c r="AX41" s="120"/>
+      <c r="AY41" s="120"/>
+      <c r="AZ41" s="120"/>
+      <c r="BA41" s="120"/>
+      <c r="BB41" s="120"/>
+      <c r="BC41" s="120"/>
+      <c r="BD41" s="120"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31506,8 +33271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602A66C9-975F-464B-97BD-D8A355569D61}">
   <dimension ref="B4:AE40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C6:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/thesis-tex/excels/Brackets.xlsx
+++ b/thesis-tex/excels/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F693D8-232F-4A5E-A9FC-8A187B8653E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9288388B-00F4-4A6F-A718-2937E3F9273B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="25" activeTab="30" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="31" activeTab="38" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="cfp" sheetId="1" r:id="rId1"/>
@@ -45,16 +45,17 @@
     <sheet name="D4" sheetId="37" r:id="rId30"/>
     <sheet name="p+r" sheetId="53" r:id="rId31"/>
     <sheet name="adtnl" sheetId="38" r:id="rId32"/>
-    <sheet name="kbo" sheetId="39" r:id="rId33"/>
-    <sheet name="third place (2)" sheetId="40" r:id="rId34"/>
-    <sheet name="nonlinear" sheetId="41" r:id="rId35"/>
-    <sheet name="nonlinear2" sheetId="42" r:id="rId36"/>
-    <sheet name="nbaplayingnonlinear" sheetId="43" r:id="rId37"/>
-    <sheet name="bitonic" sheetId="52" r:id="rId38"/>
-    <sheet name="new_efficient" sheetId="46" r:id="rId39"/>
-    <sheet name="champions league" sheetId="47" r:id="rId40"/>
-    <sheet name="multiproepr" sheetId="48" r:id="rId41"/>
-    <sheet name="Sheet8" sheetId="51" r:id="rId42"/>
+    <sheet name="shifted" sheetId="54" r:id="rId33"/>
+    <sheet name="kbo" sheetId="39" r:id="rId34"/>
+    <sheet name="third place (2)" sheetId="40" r:id="rId35"/>
+    <sheet name="nonlinear" sheetId="41" r:id="rId36"/>
+    <sheet name="nonlinear2" sheetId="42" r:id="rId37"/>
+    <sheet name="nbaplayingnonlinear" sheetId="43" r:id="rId38"/>
+    <sheet name="bitonic" sheetId="52" r:id="rId39"/>
+    <sheet name="new_efficient" sheetId="46" r:id="rId40"/>
+    <sheet name="champions league" sheetId="47" r:id="rId41"/>
+    <sheet name="multiproepr" sheetId="48" r:id="rId42"/>
+    <sheet name="Sheet8" sheetId="51" r:id="rId43"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="25" hidden="1">'rr calcs'!$C$12:$H$12</definedName>
@@ -124,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="369">
   <si>
     <t>Georgia</t>
   </si>
@@ -1208,6 +1209,30 @@
   <si>
     <t>F5</t>
   </si>
+  <si>
+    <t>1st: Wnner F1</t>
+  </si>
+  <si>
+    <t>2nd: Loser F1</t>
+  </si>
+  <si>
+    <t>3rd: Winner F2</t>
+  </si>
+  <si>
+    <t>4th: Loser F2</t>
+  </si>
+  <si>
+    <t>5th: Winner F3</t>
+  </si>
+  <si>
+    <t>6th: Loser F3</t>
+  </si>
+  <si>
+    <t>7th: Winner F4</t>
+  </si>
+  <si>
+    <t>8th: Loser F4</t>
+  </si>
 </sst>
 </file>
 
@@ -1937,7 +1962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2240,6 +2265,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27759,8 +27785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712EF264-BD09-4F20-8615-0ED12C2E0994}">
   <dimension ref="C2:BM49"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BE9" sqref="BE5:BH9"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z10:AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31030,8 +31056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B265C45-C038-4FE5-B5BB-CF111B351430}">
   <dimension ref="C3:BM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X8" workbookViewId="0">
-      <selection activeCell="AO29" sqref="AO29:AO30"/>
+    <sheetView topLeftCell="AC8" workbookViewId="0">
+      <selection activeCell="AW30" sqref="AW30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33269,28 +33295,32 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602A66C9-975F-464B-97BD-D8A355569D61}">
-  <dimension ref="B4:AE40"/>
+  <dimension ref="B4:AX40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C6:F21"/>
+    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="10" width="4.6640625" customWidth="1"/>
+    <col min="17" max="18" width="4.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-    </row>
-    <row r="5" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+    </row>
+    <row r="5" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -33298,7 +33328,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="126"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -33306,7 +33336,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="126"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -33316,15 +33346,34 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="1">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+    </row>
+    <row r="6" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="6">
         <v>1</v>
@@ -33334,77 +33383,123 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="126"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="1"/>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="126"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="S6" s="6">
+        <v>1</v>
+      </c>
+      <c r="T6" s="6"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6">
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6">
         <v>2</v>
       </c>
-      <c r="AB6" s="28" t="s">
+      <c r="AU6" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+    </row>
+    <row r="7" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="71" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="126"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1"/>
+      <c r="K7" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="6"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="126"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="S7" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="6"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6">
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6">
         <v>3</v>
       </c>
-      <c r="AA7" s="28" t="s">
+      <c r="AT7" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+    </row>
+    <row r="8" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="8">
         <v>8</v>
@@ -33413,82 +33508,128 @@
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="8">
+        <v>8</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="126"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="S8" s="8">
+        <v>8</v>
+      </c>
+      <c r="T8" s="11"/>
+      <c r="U8" s="5"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6">
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB8" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6">
         <v>4</v>
       </c>
-      <c r="Z8" s="28" t="s">
+      <c r="AS8" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-    </row>
-    <row r="9" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+    </row>
+    <row r="9" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="72" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="5"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="126"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="5"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6">
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6">
         <v>5</v>
       </c>
-      <c r="Y9" s="28" t="s">
+      <c r="AR9" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-    </row>
-    <row r="10" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+    </row>
+    <row r="10" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="6">
         <v>4</v>
@@ -33496,87 +33637,133 @@
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="6">
+        <v>4</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="6">
+        <v>4</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="119"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="23" t="s">
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6">
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6">
         <v>6</v>
       </c>
-      <c r="X10" s="28" t="s">
+      <c r="AQ10" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="1" t="s">
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-    </row>
-    <row r="11" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+    </row>
+    <row r="11" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="71" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="1" t="s">
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="119"/>
+      <c r="Y11" s="119"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="6">
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="6">
         <v>7</v>
       </c>
-      <c r="W11" s="28" t="s">
+      <c r="AP11" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6" t="s">
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AC11" s="28" t="s">
+      <c r="AV11" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="1"/>
-    </row>
-    <row r="12" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="1"/>
+    </row>
+    <row r="12" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="8">
         <v>5</v>
@@ -33584,85 +33771,131 @@
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="8">
+        <v>5</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="8">
+        <v>5</v>
+      </c>
+      <c r="T12" s="11"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="119"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="119"/>
+      <c r="Z12" s="119"/>
+      <c r="AA12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="AB12" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="28" t="s">
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="W12" s="8"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="6" t="s">
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="28" t="s">
+      <c r="AU12" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="1"/>
-    </row>
-    <row r="13" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="1"/>
+    </row>
+    <row r="13" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="72" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="4"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="M13" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="126"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="8">
-        <v>8</v>
-      </c>
-      <c r="W13" s="4"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="U13" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="119"/>
       <c r="AA13" s="28" t="s">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="AB13" s="8"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-    </row>
-    <row r="14" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="8">
+        <v>8</v>
+      </c>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT13" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+    </row>
+    <row r="14" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="6">
         <v>3</v>
@@ -33670,83 +33903,129 @@
       <c r="D14" s="6"/>
       <c r="E14" s="1"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="6">
+        <v>3</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="6">
+        <v>3</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z14" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="1"/>
+      <c r="AB14" s="4"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-    </row>
-    <row r="15" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS14" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+    </row>
+    <row r="15" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="71" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="K15" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="6"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="S15" s="28" t="s">
-        <v>195</v>
+      <c r="N15" s="5"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="71" t="s">
+        <v>42</v>
       </c>
       <c r="T15" s="6"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y15" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="4"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="119"/>
+      <c r="Z15" s="119"/>
+      <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
-    </row>
-    <row r="16" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL15" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR15" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+    </row>
+    <row r="16" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="8">
         <v>6</v>
@@ -33754,83 +34033,129 @@
       <c r="D16" s="11"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R16" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="S16" s="8"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="4"/>
+      <c r="K16" s="8">
+        <v>6</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="8">
+        <v>6</v>
+      </c>
+      <c r="T16" s="11"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="119"/>
+      <c r="Z16" s="119"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
+      <c r="AD16" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="AE16" s="1"/>
-    </row>
-    <row r="17" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK16" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+    </row>
+    <row r="17" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="72" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="1" t="s">
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6" t="s">
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="119"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="119"/>
+      <c r="Z17" s="119"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q17" s="28" t="s">
+      <c r="AJ17" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="8" t="s">
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-    </row>
-    <row r="18" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+    </row>
+    <row r="18" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="6">
         <v>2</v>
@@ -33839,82 +34164,128 @@
       <c r="E18" s="4"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P18" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="6">
+        <v>2</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="126"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="6">
+        <v>2</v>
+      </c>
+      <c r="T18" s="6"/>
+      <c r="U18" s="4"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-    </row>
-    <row r="19" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB18" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI18" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+    </row>
+    <row r="19" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="71" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="5"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O19" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="4"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="126"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
+      <c r="S19" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" s="6"/>
+      <c r="U19" s="5"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-    </row>
-    <row r="20" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA19" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH19" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+    </row>
+    <row r="20" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="8">
         <v>7</v>
@@ -33923,58 +34294,79 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="5"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="8">
+        <v>7</v>
+      </c>
+      <c r="L20" s="11"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="126"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="S20" s="8">
+        <v>7</v>
+      </c>
+      <c r="T20" s="11"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-    </row>
-    <row r="21" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+    </row>
+    <row r="21" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="126"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="4"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="4"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="Q21" s="126"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -33984,358 +34376,735 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
+      <c r="AD21" s="4"/>
       <c r="AE21" s="1"/>
-    </row>
-    <row r="22" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+    </row>
+    <row r="22" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="5"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="Q22" s="126"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
+      <c r="V22" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
+      <c r="AA22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB22" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="5"/>
       <c r="AE22" s="1"/>
-    </row>
-    <row r="23" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+    </row>
+    <row r="23" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="6"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="4"/>
+      <c r="F23" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q23" s="126"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="U23" s="6"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+    </row>
+    <row r="24" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="4"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="126"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="O24" s="2"/>
       <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="2:31" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q24" s="126"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="U24" s="6"/>
+      <c r="V24" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="W24" s="5"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+    </row>
+    <row r="25" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="126"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U25" s="11"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+    </row>
+    <row r="26" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="6" t="s">
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+    </row>
+    <row r="27" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="6" t="s">
+      <c r="M27" s="4"/>
+      <c r="N27" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" s="16"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U27" s="6"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="119"/>
+      <c r="Z27" s="119"/>
+      <c r="AA27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+    </row>
+    <row r="28" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="94"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="U28" s="6"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="119"/>
+      <c r="Z28" s="119"/>
+      <c r="AA28" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="23" t="s">
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+    </row>
+    <row r="29" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="8" t="s">
+      <c r="M29" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U29" s="11"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="119"/>
+      <c r="Z29" s="119"/>
+      <c r="AA29" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+    </row>
+    <row r="30" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="E30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="4"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q30" s="126"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W30" s="1"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="119"/>
+      <c r="Z30" s="119"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+    </row>
+    <row r="31" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
-      <c r="C31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="4"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="5"/>
+      <c r="L31" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q31" s="126"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="119"/>
+      <c r="Z31" s="119"/>
+      <c r="AA31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+    </row>
+    <row r="32" spans="2:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
-      <c r="C32" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="L32" s="5"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q32" s="126"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="119"/>
+      <c r="Z32" s="119"/>
+      <c r="AA32" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+    </row>
+    <row r="33" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
-      <c r="C33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="11"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="126"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="4"/>
+      <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q33" s="126"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="119"/>
+      <c r="Z33" s="119"/>
+      <c r="AA33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+    </row>
+    <row r="34" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="11"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="I34" s="126"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="5"/>
+      <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q34" s="126"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W34" s="5"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="119"/>
+      <c r="Z34" s="119"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+    </row>
+    <row r="35" spans="2:35" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
-      <c r="C35" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q35" s="126"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+    </row>
+    <row r="36" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
-      <c r="C36" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q36" s="126"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+    </row>
+    <row r="37" spans="2:35" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
-      <c r="C37" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="11"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="4"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q37" s="126"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+    </row>
+    <row r="38" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -34343,18 +35112,37 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K38" s="5"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q38" s="126"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+    </row>
+    <row r="39" spans="2:35" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -34370,8 +35158,27 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -34387,6 +35194,25 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34394,6 +35220,1835 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F35E17-9F8E-43DF-A85C-4A19A30B272D}">
+  <dimension ref="B1:T75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W55" sqref="W55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="10" width="9" customWidth="1"/>
+    <col min="11" max="12" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="8">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="8">
+        <v>16</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="6">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="6">
+        <v>8</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="8">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="8">
+        <v>9</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="6">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="6">
+        <v>5</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="8">
+        <v>12</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="8">
+        <v>12</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="6">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="6">
+        <v>4</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="C19" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="8">
+        <v>13</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="8">
+        <v>13</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="6">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="6">
+        <v>6</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="8">
+        <v>11</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="8">
+        <v>11</v>
+      </c>
+      <c r="N24" s="11"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="O25" s="5"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="6">
+        <v>3</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="6">
+        <v>3</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="N27" s="6"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="8">
+        <v>14</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="8">
+        <v>14</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="6">
+        <v>7</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="6">
+        <v>7</v>
+      </c>
+      <c r="N30" s="6"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+      <c r="C31" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="N31" s="6"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+      <c r="C32" s="8">
+        <v>10</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="8">
+        <v>10</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="1"/>
+      <c r="C34" s="6">
+        <v>2</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="6">
+        <v>2</v>
+      </c>
+      <c r="N34" s="6"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+      <c r="C35" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="N35" s="6"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="1"/>
+      <c r="C36" s="8">
+        <v>15</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="8">
+        <v>15</v>
+      </c>
+      <c r="N36" s="11"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="126"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="126"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="126"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P41" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="118" t="s">
+        <v>193</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O42" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="126"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O44" s="4"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="R44" s="5"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="126"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="126"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="126"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P47" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="1"/>
+    </row>
+    <row r="48" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="126"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O48" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="126"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="S49" s="5"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="126"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O50" s="4"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="126"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="1"/>
+    </row>
+    <row r="52" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="126"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="126"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E54" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="118" t="s">
+        <v>194</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="J54" s="5"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="O54" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="118" t="s">
+        <v>194</v>
+      </c>
+      <c r="R54" s="8"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="126"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+    </row>
+    <row r="56" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="126"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O56" s="4"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="G57" s="16"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="126"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+    </row>
+    <row r="58" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+    </row>
+    <row r="59" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="126"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+    </row>
+    <row r="60" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E60" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="126"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O60" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="126"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+    </row>
+    <row r="62" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="126"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="O62" s="4"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="126"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="126"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="126"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="126"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="126"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="126"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="126"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="126"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="126"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="126"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="126"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="126"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B5E115-5E6E-4CC4-831D-D80667A17760}">
   <dimension ref="B4:H16"/>
   <sheetViews>
@@ -34546,7 +37201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C010E2E9-5FD8-4977-AB68-FE330F0CC9E1}">
   <dimension ref="B3:BV40"/>
   <sheetViews>
@@ -37325,12 +39980,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B034048B-E342-47AC-A151-4A4F7E5AED51}">
   <dimension ref="A3:Q72"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38680,11 +41335,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3680C2B9-FFB8-4DD8-918B-09B86885104A}">
   <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:I35"/>
     </sheetView>
   </sheetViews>
@@ -39548,7 +42203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBE7EA9-68F9-472C-BB47-C203545B6CA6}">
   <dimension ref="A1:P35"/>
   <sheetViews>
@@ -40251,12 +42906,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF534417-0596-4E8A-948D-656E15EF0753}">
   <dimension ref="B1:AD82"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40893,9 +43548,7 @@
       <c r="W22" s="120"/>
       <c r="X22" s="120"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="Z22" s="120"/>
       <c r="AA22" s="119"/>
       <c r="AB22" s="119"/>
       <c r="AC22" s="119"/>
@@ -40924,7 +43577,7 @@
       <c r="W23" s="119"/>
       <c r="X23" s="119"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="9"/>
+      <c r="Z23" s="119"/>
       <c r="AA23" s="119"/>
       <c r="AB23" s="119"/>
       <c r="AC23" s="119"/>
@@ -40949,11 +43602,9 @@
       <c r="U24" s="5"/>
       <c r="V24" s="119"/>
       <c r="W24" s="119"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z24" s="1"/>
+      <c r="X24" s="119"/>
+      <c r="Y24" s="119"/>
+      <c r="Z24" s="119"/>
       <c r="AA24" s="119"/>
       <c r="AB24" s="119"/>
       <c r="AC24" s="119"/>
@@ -40985,11 +43636,9 @@
       <c r="U25" s="5"/>
       <c r="V25" s="119"/>
       <c r="W25" s="119"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z25" s="1"/>
+      <c r="X25" s="119"/>
+      <c r="Y25" s="119"/>
+      <c r="Z25" s="119"/>
       <c r="AA25" s="119"/>
       <c r="AB25" s="119"/>
       <c r="AC25" s="119"/>
@@ -41018,10 +43667,10 @@
       <c r="V26" s="5"/>
       <c r="W26" s="119"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z26" s="4"/>
+      <c r="Y26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z26" s="1"/>
       <c r="AA26" s="119"/>
       <c r="AB26" s="119"/>
       <c r="AC26" s="119"/>
@@ -41054,7 +43703,9 @@
       <c r="V27" s="5"/>
       <c r="W27" s="119"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
+      <c r="Y27" s="71" t="s">
+        <v>133</v>
+      </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="119"/>
       <c r="AB27" s="119"/>
@@ -41086,10 +43737,10 @@
       <c r="V28" s="5"/>
       <c r="W28" s="120"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="12" t="s">
-        <v>133</v>
-      </c>
+      <c r="Y28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z28" s="4"/>
       <c r="AA28" s="119"/>
       <c r="AB28" s="119"/>
       <c r="AC28" s="119"/>
@@ -41123,7 +43774,7 @@
       <c r="W29" s="119"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
+      <c r="Z29" s="119"/>
       <c r="AA29" s="119"/>
       <c r="AB29" s="119"/>
       <c r="AC29" s="119"/>
@@ -41190,7 +43841,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="119"/>
       <c r="X31" s="71" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
@@ -41326,7 +43977,7 @@
       <c r="V35" s="5"/>
       <c r="W35" s="119"/>
       <c r="X35" s="71" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="Y35" s="1"/>
       <c r="Z35" s="5"/>
@@ -41395,9 +44046,7 @@
       <c r="W37" s="120"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
-      <c r="Z37" s="12" t="s">
-        <v>190</v>
-      </c>
+      <c r="Z37" s="119"/>
       <c r="AA37" s="119"/>
       <c r="AB37" s="119"/>
       <c r="AC37" s="119"/>
@@ -41426,7 +44075,9 @@
       <c r="V38" s="5"/>
       <c r="W38" s="119"/>
       <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
+      <c r="Y38" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="119"/>
       <c r="AB38" s="119"/>
@@ -41458,8 +44109,8 @@
       <c r="V39" s="5"/>
       <c r="W39" s="119"/>
       <c r="X39" s="1"/>
-      <c r="Y39" s="6" t="s">
-        <v>131</v>
+      <c r="Y39" s="71" t="s">
+        <v>191</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="119"/>
@@ -41490,10 +44141,10 @@
       <c r="V40" s="5"/>
       <c r="W40" s="119"/>
       <c r="X40" s="1"/>
-      <c r="Y40" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z40" s="1"/>
+      <c r="Y40" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z40" s="4"/>
       <c r="AA40" s="119"/>
       <c r="AB40" s="119"/>
       <c r="AC40" s="119"/>
@@ -41524,10 +44175,8 @@
       <c r="V41" s="5"/>
       <c r="W41" s="119"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z41" s="4"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="119"/>
       <c r="AA41" s="119"/>
       <c r="AB41" s="119"/>
       <c r="AC41" s="119"/>
@@ -41555,9 +44204,9 @@
       <c r="U42" s="4"/>
       <c r="V42" s="119"/>
       <c r="W42" s="119"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
+      <c r="X42" s="119"/>
+      <c r="Y42" s="119"/>
+      <c r="Z42" s="119"/>
       <c r="AA42" s="119"/>
       <c r="AB42" s="119"/>
       <c r="AC42" s="119"/>
@@ -41589,11 +44238,11 @@
       <c r="U43" s="5"/>
       <c r="V43" s="119"/>
       <c r="W43" s="120"/>
-      <c r="X43" s="1"/>
+      <c r="X43" s="119" t="s">
+        <v>361</v>
+      </c>
       <c r="Y43" s="1"/>
-      <c r="Z43" s="12" t="s">
-        <v>191</v>
-      </c>
+      <c r="Z43" s="119"/>
       <c r="AA43" s="119"/>
       <c r="AB43" s="119"/>
       <c r="AC43" s="119"/>
@@ -41623,7 +44272,9 @@
       <c r="U44" s="5"/>
       <c r="V44" s="119"/>
       <c r="W44" s="119"/>
-      <c r="X44" s="119"/>
+      <c r="X44" s="119" t="s">
+        <v>362</v>
+      </c>
       <c r="Y44" s="119"/>
       <c r="Z44" s="119"/>
       <c r="AA44" s="119"/>
@@ -41659,7 +44310,9 @@
       <c r="U45" s="5"/>
       <c r="V45" s="119"/>
       <c r="W45" s="119"/>
-      <c r="X45" s="119"/>
+      <c r="X45" s="119" t="s">
+        <v>363</v>
+      </c>
       <c r="Y45" s="119"/>
       <c r="Z45" s="119"/>
       <c r="AA45" s="119"/>
@@ -41692,7 +44345,9 @@
       <c r="U46" s="119"/>
       <c r="V46" s="119"/>
       <c r="W46" s="119"/>
-      <c r="X46" s="119"/>
+      <c r="X46" s="119" t="s">
+        <v>364</v>
+      </c>
       <c r="Y46" s="119"/>
       <c r="Z46" s="119"/>
       <c r="AA46" s="119"/>
@@ -41727,7 +44382,9 @@
       <c r="U47" s="119"/>
       <c r="V47" s="119"/>
       <c r="W47" s="119"/>
-      <c r="X47" s="119"/>
+      <c r="X47" s="119" t="s">
+        <v>365</v>
+      </c>
       <c r="Y47" s="119"/>
       <c r="Z47" s="119"/>
       <c r="AA47" s="119"/>
@@ -41760,7 +44417,9 @@
       <c r="U48" s="120"/>
       <c r="V48" s="119"/>
       <c r="W48" s="119"/>
-      <c r="X48" s="119"/>
+      <c r="X48" s="119" t="s">
+        <v>366</v>
+      </c>
       <c r="Y48" s="119"/>
       <c r="Z48" s="119"/>
       <c r="AA48" s="119"/>
@@ -41795,7 +44454,9 @@
       <c r="U49" s="121"/>
       <c r="V49" s="119"/>
       <c r="W49" s="119"/>
-      <c r="X49" s="119"/>
+      <c r="X49" s="119" t="s">
+        <v>367</v>
+      </c>
       <c r="Y49" s="119"/>
       <c r="Z49" s="119"/>
       <c r="AA49" s="119"/>
@@ -41828,7 +44489,9 @@
       <c r="U50" s="120"/>
       <c r="V50" s="119"/>
       <c r="W50" s="119"/>
-      <c r="X50" s="119"/>
+      <c r="X50" s="119" t="s">
+        <v>368</v>
+      </c>
       <c r="Y50" s="119"/>
       <c r="Z50" s="119"/>
       <c r="AA50" s="119"/>
@@ -42716,1281 +45379,6 @@
       <c r="AA82" s="119"/>
       <c r="AB82" s="119"/>
       <c r="AC82" s="119"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC45635-DE39-4CBA-B2B1-B5066770F06C}">
-  <dimension ref="B1:Y50"/>
-  <sheetViews>
-    <sheetView topLeftCell="Q2" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="19" max="20" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1"/>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="6">
-        <v>1</v>
-      </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="C4" s="6">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="8">
-        <v>8</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="6">
-        <v>9</v>
-      </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="8">
-        <v>8</v>
-      </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1"/>
-      <c r="C6" s="12">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="6">
-        <v>4</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="W6" s="5"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="8">
-        <v>16</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="6">
-        <v>4</v>
-      </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="1"/>
-      <c r="C8" s="6">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="8">
-        <v>5</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
-      <c r="C9" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="6">
-        <v>12</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="8">
-        <v>5</v>
-      </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-      <c r="C10" s="8">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="6">
-        <v>3</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="8">
-        <v>13</v>
-      </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="6">
-        <v>3</v>
-      </c>
-      <c r="V11" s="6"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="1"/>
-      <c r="C12" s="6">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="8">
-        <v>6</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="V12" s="6"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="C13" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="6">
-        <v>11</v>
-      </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="8">
-        <v>6</v>
-      </c>
-      <c r="V13" s="11"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
-      <c r="C14" s="8">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="6">
-        <v>2</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="8">
-        <v>14</v>
-      </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="6">
-        <v>2</v>
-      </c>
-      <c r="V15" s="6"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="8">
-        <v>7</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="V16" s="6"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="6">
-        <v>10</v>
-      </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="8">
-        <v>7</v>
-      </c>
-      <c r="V17" s="11"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R18" s="5"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="8">
-        <v>15</v>
-      </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="W25" s="4"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-    </row>
-    <row r="26" spans="2:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="W29" s="4"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-    </row>
-    <row r="30" spans="2:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-    </row>
-    <row r="33" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-    </row>
-    <row r="34" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-    </row>
-    <row r="35" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-    </row>
-    <row r="36" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-    </row>
-    <row r="37" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-    </row>
-    <row r="38" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-    </row>
-    <row r="39" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-    </row>
-    <row r="40" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-    </row>
-    <row r="41" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-    </row>
-    <row r="42" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-    </row>
-    <row r="43" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-    </row>
-    <row r="44" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-    </row>
-    <row r="45" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-    </row>
-    <row r="46" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="Y46" s="1"/>
-    </row>
-    <row r="47" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-    </row>
-    <row r="48" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-    </row>
-    <row r="49" spans="21:23" x14ac:dyDescent="0.3">
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-    </row>
-    <row r="50" spans="21:23" x14ac:dyDescent="0.3">
-      <c r="U50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44375,6 +45763,1281 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC45635-DE39-4CBA-B2B1-B5066770F06C}">
+  <dimension ref="B1:Y50"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q15" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="19" max="20" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1"/>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="6">
+        <v>1</v>
+      </c>
+      <c r="V3" s="6"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="8">
+        <v>8</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="6"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="6">
+        <v>9</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="8">
+        <v>8</v>
+      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="12">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="8">
+        <v>16</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="6">
+        <v>4</v>
+      </c>
+      <c r="V7" s="6"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" s="6"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="6">
+        <v>12</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="8">
+        <v>5</v>
+      </c>
+      <c r="V9" s="11"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="8">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="6">
+        <v>3</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="8">
+        <v>13</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="6">
+        <v>3</v>
+      </c>
+      <c r="V11" s="6"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="6">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="8">
+        <v>6</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="V12" s="6"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="6">
+        <v>11</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="8">
+        <v>6</v>
+      </c>
+      <c r="V13" s="11"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="8">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="6">
+        <v>2</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="8">
+        <v>14</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="6">
+        <v>2</v>
+      </c>
+      <c r="V15" s="6"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="8">
+        <v>7</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="V16" s="6"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="6">
+        <v>10</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="8">
+        <v>7</v>
+      </c>
+      <c r="V17" s="11"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="8">
+        <v>15</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W25" s="4"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="2:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W29" s="4"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="2:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+    </row>
+    <row r="36" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+    </row>
+    <row r="37" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+    </row>
+    <row r="38" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+    </row>
+    <row r="39" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+    </row>
+    <row r="40" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+    </row>
+    <row r="41" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+    </row>
+    <row r="42" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+    </row>
+    <row r="43" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+    </row>
+    <row r="44" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+    </row>
+    <row r="45" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+    </row>
+    <row r="46" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="Y46" s="1"/>
+    </row>
+    <row r="47" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U50" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B65E47-00B0-4637-B356-4F93A27CBBAE}">
   <dimension ref="H3:T152"/>
   <sheetViews>
@@ -46465,7 +49128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA2FBF2-3E6D-49F6-8D30-71EE482358B4}">
   <dimension ref="B1:T56"/>
   <sheetViews>
@@ -47790,7 +50453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE1303E-14FB-45BE-BAB1-1E182E873312}">
   <dimension ref="C1:CE104"/>
   <sheetViews>

--- a/thesis-tex/excels/Brackets.xlsx
+++ b/thesis-tex/excels/Brackets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFFC370-8B64-4572-B18D-FDADCF423C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ACAC84-9236-4401-AD86-CCA4B109C647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" firstSheet="3" activeTab="5" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="5" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="cfp" sheetId="1" r:id="rId1"/>
@@ -103,6 +103,7 @@
     <definedName name="solver_ver" localSheetId="23" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1930,7 +1931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2142,6 +2143,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2152,15 +2172,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2181,7 +2192,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2190,41 +2207,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8925,16 +8915,16 @@
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="96"/>
+      <c r="E5" s="103"/>
       <c r="F5" s="27"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="95" t="s">
+      <c r="H5" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="96"/>
+      <c r="I5" s="103"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
@@ -12889,25 +12879,25 @@
     </row>
     <row r="2" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="99"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="97" t="s">
+      <c r="M2" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="99"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="112"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
@@ -12916,11 +12906,11 @@
       <c r="D3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="42" t="s">
         <v>76</v>
       </c>
@@ -12933,11 +12923,11 @@
       <c r="M3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="100" t="s">
+      <c r="N3" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="101"/>
-      <c r="P3" s="102"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="106"/>
       <c r="Q3" s="42" t="s">
         <v>76</v>
       </c>
@@ -12952,11 +12942,11 @@
       <c r="D4" s="52">
         <v>1</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="42">
         <v>2</v>
       </c>
@@ -12970,11 +12960,11 @@
       <c r="M4" s="52">
         <v>1</v>
       </c>
-      <c r="N4" s="100" t="s">
+      <c r="N4" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="101"/>
-      <c r="P4" s="102"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
       <c r="Q4" s="42">
         <v>4</v>
       </c>
@@ -12990,11 +12980,11 @@
       <c r="D5" s="52">
         <v>2</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="102"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="42">
         <v>2</v>
       </c>
@@ -13008,11 +12998,11 @@
       <c r="M5" s="52">
         <v>2</v>
       </c>
-      <c r="N5" s="100" t="s">
+      <c r="N5" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="101"/>
-      <c r="P5" s="102"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="106"/>
       <c r="Q5" s="42">
         <v>3</v>
       </c>
@@ -13028,11 +13018,11 @@
       <c r="D6" s="52">
         <v>3</v>
       </c>
-      <c r="E6" s="100" t="s">
+      <c r="E6" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="42">
         <v>2</v>
       </c>
@@ -13046,11 +13036,11 @@
       <c r="M6" s="52">
         <v>3</v>
       </c>
-      <c r="N6" s="100" t="s">
+      <c r="N6" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="101"/>
-      <c r="P6" s="102"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="106"/>
       <c r="Q6" s="42">
         <v>2</v>
       </c>
@@ -13066,11 +13056,11 @@
       <c r="D7" s="52">
         <v>4</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="42">
         <v>2</v>
       </c>
@@ -13084,11 +13074,11 @@
       <c r="M7" s="52">
         <v>4</v>
       </c>
-      <c r="N7" s="100" t="s">
+      <c r="N7" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="O7" s="101"/>
-      <c r="P7" s="102"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="106"/>
       <c r="Q7" s="42">
         <v>1</v>
       </c>
@@ -13104,11 +13094,11 @@
       <c r="D8" s="54">
         <v>5</v>
       </c>
-      <c r="E8" s="103" t="s">
+      <c r="E8" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="55">
         <v>2</v>
       </c>
@@ -13122,11 +13112,11 @@
       <c r="M8" s="54">
         <v>5</v>
       </c>
-      <c r="N8" s="103" t="s">
+      <c r="N8" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="104"/>
-      <c r="P8" s="105"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="109"/>
       <c r="Q8" s="55">
         <v>0</v>
       </c>
@@ -13159,25 +13149,25 @@
     </row>
     <row r="10" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="99"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="112"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="97" t="s">
+      <c r="M10" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="99"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="112"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
@@ -13186,11 +13176,11 @@
       <c r="D11" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="100" t="s">
+      <c r="E11" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106"/>
       <c r="H11" s="42" t="s">
         <v>76</v>
       </c>
@@ -13203,11 +13193,11 @@
       <c r="M11" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="100" t="s">
+      <c r="N11" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="101"/>
-      <c r="P11" s="102"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="106"/>
       <c r="Q11" s="42" t="s">
         <v>76</v>
       </c>
@@ -13222,11 +13212,11 @@
       <c r="D12" s="52">
         <v>1</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="106"/>
       <c r="H12" s="42">
         <v>3</v>
       </c>
@@ -13240,11 +13230,11 @@
       <c r="M12" s="52">
         <v>1</v>
       </c>
-      <c r="N12" s="100" t="s">
+      <c r="N12" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="101"/>
-      <c r="P12" s="102"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="106"/>
       <c r="Q12" s="42">
         <v>4</v>
       </c>
@@ -13260,11 +13250,11 @@
       <c r="D13" s="52">
         <v>2</v>
       </c>
-      <c r="E13" s="100" t="s">
+      <c r="E13" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="42">
         <v>3</v>
       </c>
@@ -13278,11 +13268,11 @@
       <c r="M13" s="52">
         <v>2</v>
       </c>
-      <c r="N13" s="100" t="s">
+      <c r="N13" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="101"/>
-      <c r="P13" s="102"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="106"/>
       <c r="Q13" s="42">
         <v>3</v>
       </c>
@@ -13298,11 +13288,11 @@
       <c r="D14" s="52">
         <v>3</v>
       </c>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="106"/>
       <c r="H14" s="42">
         <v>2</v>
       </c>
@@ -13316,11 +13306,11 @@
       <c r="M14" s="52">
         <v>3</v>
       </c>
-      <c r="N14" s="100" t="s">
+      <c r="N14" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="O14" s="101"/>
-      <c r="P14" s="102"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="106"/>
       <c r="Q14" s="42">
         <v>2</v>
       </c>
@@ -13336,11 +13326,11 @@
       <c r="D15" s="52">
         <v>4</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="106"/>
       <c r="H15" s="42">
         <v>1</v>
       </c>
@@ -13354,11 +13344,11 @@
       <c r="M15" s="52">
         <v>4</v>
       </c>
-      <c r="N15" s="100" t="s">
+      <c r="N15" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="O15" s="101"/>
-      <c r="P15" s="102"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="106"/>
       <c r="Q15" s="42">
         <v>1</v>
       </c>
@@ -13374,11 +13364,11 @@
       <c r="D16" s="54">
         <v>5</v>
       </c>
-      <c r="E16" s="103" t="s">
+      <c r="E16" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="109"/>
       <c r="H16" s="55">
         <v>1</v>
       </c>
@@ -13392,11 +13382,11 @@
       <c r="M16" s="54">
         <v>5</v>
       </c>
-      <c r="N16" s="103" t="s">
+      <c r="N16" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="O16" s="104"/>
-      <c r="P16" s="105"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="109"/>
       <c r="Q16" s="55">
         <v>0</v>
       </c>
@@ -15109,18 +15099,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="D10:I10"/>
@@ -15137,6 +15115,18 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15761,26 +15751,26 @@
     </row>
     <row r="2" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="99"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="112"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="99"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="112"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
@@ -15789,29 +15779,29 @@
       <c r="D3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="100" t="s">
+      <c r="I3" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="107"/>
+      <c r="J3" s="113"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
       <c r="M3" s="1"/>
       <c r="N3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="100" t="s">
+      <c r="O3" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="102"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="106"/>
       <c r="R3" s="42" t="s">
         <v>76</v>
       </c>
@@ -15826,29 +15816,29 @@
       <c r="D4" s="52">
         <v>1</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="42">
         <v>5</v>
       </c>
-      <c r="I4" s="100">
-        <v>0</v>
-      </c>
-      <c r="J4" s="107"/>
+      <c r="I4" s="104">
+        <v>0</v>
+      </c>
+      <c r="J4" s="113"/>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
       <c r="M4" s="1"/>
       <c r="N4" s="52">
         <v>1</v>
       </c>
-      <c r="O4" s="100" t="s">
+      <c r="O4" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="102"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="106"/>
       <c r="R4" s="42">
         <v>5</v>
       </c>
@@ -15863,29 +15853,29 @@
       <c r="D5" s="52">
         <v>2</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="102"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="42">
         <v>4</v>
       </c>
-      <c r="I5" s="100">
+      <c r="I5" s="104">
         <v>1</v>
       </c>
-      <c r="J5" s="107"/>
+      <c r="J5" s="113"/>
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
       <c r="M5" s="1"/>
       <c r="N5" s="52">
         <v>2</v>
       </c>
-      <c r="O5" s="100" t="s">
+      <c r="O5" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="102"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
       <c r="R5" s="42">
         <v>3</v>
       </c>
@@ -15900,29 +15890,29 @@
       <c r="D6" s="52">
         <v>3</v>
       </c>
-      <c r="E6" s="100" t="s">
+      <c r="E6" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="42">
         <v>3</v>
       </c>
-      <c r="I6" s="100">
+      <c r="I6" s="104">
         <v>2</v>
       </c>
-      <c r="J6" s="107"/>
+      <c r="J6" s="113"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="1"/>
       <c r="N6" s="52">
         <v>3</v>
       </c>
-      <c r="O6" s="100" t="s">
+      <c r="O6" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="102"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="106"/>
       <c r="R6" s="42">
         <v>3</v>
       </c>
@@ -15937,29 +15927,29 @@
       <c r="D7" s="52">
         <v>4</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="42">
         <v>2</v>
       </c>
-      <c r="I7" s="100">
+      <c r="I7" s="104">
         <v>3</v>
       </c>
-      <c r="J7" s="107"/>
+      <c r="J7" s="113"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
       <c r="M7" s="1"/>
       <c r="N7" s="52">
         <v>4</v>
       </c>
-      <c r="O7" s="100" t="s">
+      <c r="O7" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="102"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="106"/>
       <c r="R7" s="42">
         <v>3</v>
       </c>
@@ -15974,29 +15964,29 @@
       <c r="D8" s="59">
         <v>5</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="57">
         <v>1</v>
       </c>
-      <c r="I8" s="100">
+      <c r="I8" s="104">
         <v>4</v>
       </c>
-      <c r="J8" s="107"/>
+      <c r="J8" s="113"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
       <c r="M8" s="1"/>
       <c r="N8" s="59">
         <v>5</v>
       </c>
-      <c r="O8" s="100" t="s">
+      <c r="O8" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="102"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="106"/>
       <c r="R8" s="57">
         <v>1</v>
       </c>
@@ -16011,29 +16001,29 @@
       <c r="D9" s="54">
         <v>6</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="109"/>
       <c r="H9" s="55">
         <v>0</v>
       </c>
-      <c r="I9" s="103">
+      <c r="I9" s="107">
         <v>5</v>
       </c>
-      <c r="J9" s="108"/>
+      <c r="J9" s="114"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="1"/>
       <c r="N9" s="54">
         <v>6</v>
       </c>
-      <c r="O9" s="103" t="s">
+      <c r="O9" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="105"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="109"/>
       <c r="R9" s="55">
         <v>0</v>
       </c>
@@ -17828,12 +17818,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="E6:G6"/>
@@ -17843,14 +17835,12 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="O9:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18613,12 +18603,12 @@
       <c r="H13">
         <v>3</v>
       </c>
-      <c r="T13" s="109" t="s">
+      <c r="T13" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="109"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -30165,39 +30155,39 @@
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="113"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="113"/>
-      <c r="AJ3" s="113"/>
-      <c r="AK3" s="113"/>
-      <c r="AL3" s="113"/>
-      <c r="AM3" s="113"/>
-      <c r="AN3" s="113"/>
-      <c r="AO3" s="113"/>
-      <c r="AP3" s="113"/>
-      <c r="AQ3" s="113"/>
-      <c r="AR3" s="113"/>
-      <c r="AS3" s="113"/>
-      <c r="AT3" s="113"/>
-      <c r="AU3" s="113"/>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="113"/>
-      <c r="AX3" s="113"/>
-      <c r="AY3" s="113"/>
-      <c r="AZ3" s="113"/>
-      <c r="BA3" s="113"/>
-      <c r="BB3" s="113"/>
-      <c r="BC3" s="113"/>
-      <c r="BD3" s="113"/>
-      <c r="BE3" s="113"/>
-      <c r="BF3" s="113"/>
-      <c r="BG3" s="113"/>
-      <c r="BH3" s="113"/>
-      <c r="BI3" s="113"/>
-      <c r="BJ3" s="113"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
     </row>
     <row r="4" spans="3:65" x14ac:dyDescent="0.3">
       <c r="C4" s="6"/>
@@ -30227,39 +30217,39 @@
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="113"/>
-      <c r="AE4" s="113"/>
-      <c r="AF4" s="113"/>
-      <c r="AG4" s="113"/>
-      <c r="AH4" s="113"/>
-      <c r="AI4" s="113"/>
-      <c r="AJ4" s="113"/>
-      <c r="AK4" s="113"/>
-      <c r="AL4" s="113"/>
-      <c r="AM4" s="113"/>
-      <c r="AN4" s="113"/>
-      <c r="AO4" s="113"/>
-      <c r="AP4" s="113"/>
-      <c r="AQ4" s="113"/>
-      <c r="AR4" s="113"/>
-      <c r="AS4" s="113"/>
-      <c r="AT4" s="113"/>
-      <c r="AU4" s="113"/>
-      <c r="AV4" s="113"/>
-      <c r="AW4" s="113"/>
-      <c r="AX4" s="113"/>
-      <c r="AY4" s="113"/>
-      <c r="AZ4" s="113"/>
-      <c r="BA4" s="113"/>
-      <c r="BB4" s="113"/>
-      <c r="BC4" s="113"/>
-      <c r="BD4" s="113"/>
-      <c r="BE4" s="113"/>
-      <c r="BF4" s="113"/>
-      <c r="BG4" s="113"/>
-      <c r="BH4" s="113"/>
-      <c r="BI4" s="113"/>
-      <c r="BJ4" s="113"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
     </row>
     <row r="5" spans="3:65" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
@@ -30282,46 +30272,46 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="113"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="113"/>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="113"/>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="113"/>
-      <c r="BG5" s="113"/>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="113"/>
-      <c r="BJ5" s="113"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6"/>
     </row>
     <row r="6" spans="3:65" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="6"/>
@@ -30348,46 +30338,46 @@
       <c r="T6" s="1"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="112"/>
-      <c r="Y6" s="112"/>
-      <c r="Z6" s="113"/>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="112"/>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="113"/>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="113"/>
-      <c r="AH6" s="113"/>
-      <c r="AI6" s="113"/>
-      <c r="AJ6" s="113"/>
-      <c r="AK6" s="113"/>
-      <c r="AL6" s="113"/>
-      <c r="AM6" s="113"/>
-      <c r="AN6" s="113"/>
-      <c r="AO6" s="113"/>
-      <c r="AP6" s="113"/>
-      <c r="AQ6" s="113"/>
-      <c r="AR6" s="113"/>
-      <c r="AS6" s="113"/>
-      <c r="AT6" s="113"/>
-      <c r="AU6" s="113"/>
-      <c r="AV6" s="113"/>
-      <c r="AW6" s="113"/>
-      <c r="AX6" s="113"/>
-      <c r="AY6" s="113"/>
-      <c r="AZ6" s="113"/>
-      <c r="BA6" s="113"/>
-      <c r="BB6" s="113"/>
-      <c r="BC6" s="113"/>
-      <c r="BD6" s="113"/>
-      <c r="BE6" s="113"/>
-      <c r="BF6" s="113"/>
-      <c r="BG6" s="113"/>
-      <c r="BH6" s="113"/>
-      <c r="BI6" s="113"/>
-      <c r="BJ6" s="113"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6"/>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="6"/>
     </row>
     <row r="7" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="6"/>
@@ -30420,46 +30410,46 @@
       <c r="T7" s="1"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="114"/>
-      <c r="AB7" s="113"/>
-      <c r="AC7" s="112"/>
-      <c r="AD7" s="113"/>
-      <c r="AE7" s="113"/>
-      <c r="AF7" s="113"/>
-      <c r="AG7" s="113"/>
-      <c r="AH7" s="113"/>
-      <c r="AI7" s="113"/>
-      <c r="AJ7" s="113"/>
-      <c r="AK7" s="113"/>
-      <c r="AL7" s="113"/>
-      <c r="AM7" s="113"/>
-      <c r="AN7" s="113"/>
-      <c r="AO7" s="113"/>
-      <c r="AP7" s="113"/>
-      <c r="AQ7" s="113"/>
-      <c r="AR7" s="113"/>
-      <c r="AS7" s="113"/>
-      <c r="AT7" s="113"/>
-      <c r="AU7" s="113"/>
-      <c r="AV7" s="113"/>
-      <c r="AW7" s="113"/>
-      <c r="AX7" s="113"/>
-      <c r="AY7" s="113"/>
-      <c r="AZ7" s="113"/>
-      <c r="BA7" s="113"/>
-      <c r="BB7" s="113"/>
-      <c r="BC7" s="113"/>
-      <c r="BD7" s="113"/>
-      <c r="BE7" s="113"/>
-      <c r="BF7" s="113"/>
-      <c r="BG7" s="113"/>
-      <c r="BH7" s="113"/>
-      <c r="BI7" s="113"/>
-      <c r="BJ7" s="113"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
     </row>
     <row r="8" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="6"/>
@@ -30488,46 +30478,46 @@
       <c r="T8" s="5"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="114"/>
-      <c r="AA8" s="113"/>
-      <c r="AB8" s="113"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="113"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="113"/>
-      <c r="AH8" s="113"/>
-      <c r="AI8" s="113"/>
-      <c r="AJ8" s="113"/>
-      <c r="AK8" s="113"/>
-      <c r="AL8" s="113"/>
-      <c r="AM8" s="113"/>
-      <c r="AN8" s="113"/>
-      <c r="AO8" s="113"/>
-      <c r="AP8" s="113"/>
-      <c r="AQ8" s="113"/>
-      <c r="AR8" s="113"/>
-      <c r="AS8" s="113"/>
-      <c r="AT8" s="113"/>
-      <c r="AU8" s="113"/>
-      <c r="AV8" s="113"/>
-      <c r="AW8" s="113"/>
-      <c r="AX8" s="113"/>
-      <c r="AY8" s="113"/>
-      <c r="AZ8" s="113"/>
-      <c r="BA8" s="113"/>
-      <c r="BB8" s="113"/>
-      <c r="BC8" s="113"/>
-      <c r="BD8" s="113"/>
-      <c r="BE8" s="113"/>
-      <c r="BF8" s="113"/>
-      <c r="BG8" s="113"/>
-      <c r="BH8" s="113"/>
-      <c r="BI8" s="113"/>
-      <c r="BJ8" s="113"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
     </row>
     <row r="9" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="6"/>
@@ -30570,43 +30560,43 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="113"/>
+      <c r="AG9" s="6"/>
       <c r="AH9" s="6">
         <v>1</v>
       </c>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
-      <c r="AL9" s="113"/>
-      <c r="AM9" s="113"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
       <c r="AN9" s="6">
         <v>1</v>
       </c>
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
-      <c r="AR9" s="113"/>
-      <c r="AS9" s="113"/>
-      <c r="AT9" s="113"/>
-      <c r="AU9" s="113"/>
-      <c r="AV9" s="113"/>
-      <c r="AW9" s="113"/>
-      <c r="AX9" s="113"/>
-      <c r="AY9" s="113"/>
-      <c r="AZ9" s="113"/>
-      <c r="BA9" s="113"/>
-      <c r="BB9" s="113"/>
-      <c r="BC9" s="113"/>
-      <c r="BD9" s="113"/>
-      <c r="BE9" s="113"/>
-      <c r="BF9" s="113"/>
-      <c r="BG9" s="113"/>
-      <c r="BH9" s="113"/>
-      <c r="BI9" s="113"/>
-      <c r="BJ9" s="113"/>
-      <c r="BK9" s="113"/>
-      <c r="BL9" s="113"/>
-      <c r="BM9" s="113"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="6"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="6"/>
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="6"/>
+      <c r="BF9" s="6"/>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="6"/>
+      <c r="BJ9" s="6"/>
+      <c r="BK9" s="6"/>
+      <c r="BL9" s="6"/>
+      <c r="BM9" s="6"/>
     </row>
     <row r="10" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="6"/>
@@ -30643,43 +30633,43 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="113"/>
+      <c r="AG10" s="6"/>
       <c r="AH10" s="69" t="s">
         <v>8</v>
       </c>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
-      <c r="AL10" s="113"/>
-      <c r="AM10" s="113"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
       <c r="AN10" s="69" t="s">
         <v>8</v>
       </c>
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
-      <c r="AR10" s="113"/>
-      <c r="AS10" s="113"/>
-      <c r="AT10" s="113"/>
-      <c r="AU10" s="113"/>
-      <c r="AV10" s="113"/>
-      <c r="AW10" s="113"/>
-      <c r="AX10" s="113"/>
-      <c r="AY10" s="113"/>
-      <c r="AZ10" s="113"/>
-      <c r="BA10" s="113"/>
-      <c r="BB10" s="113"/>
-      <c r="BC10" s="113"/>
-      <c r="BD10" s="113"/>
-      <c r="BE10" s="113"/>
-      <c r="BF10" s="113"/>
-      <c r="BG10" s="113"/>
-      <c r="BH10" s="113"/>
-      <c r="BI10" s="113"/>
-      <c r="BJ10" s="113"/>
-      <c r="BK10" s="113"/>
-      <c r="BL10" s="113"/>
-      <c r="BM10" s="113"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="6"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="6"/>
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="6"/>
+      <c r="BF10" s="6"/>
+      <c r="BG10" s="6"/>
+      <c r="BH10" s="6"/>
+      <c r="BI10" s="6"/>
+      <c r="BJ10" s="6"/>
+      <c r="BK10" s="6"/>
+      <c r="BL10" s="6"/>
+      <c r="BM10" s="6"/>
     </row>
     <row r="11" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="6"/>
@@ -30720,43 +30710,43 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="113"/>
+      <c r="AG11" s="6"/>
       <c r="AH11" s="8">
         <v>8</v>
       </c>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="1"/>
-      <c r="AL11" s="113"/>
-      <c r="AM11" s="113"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
       <c r="AN11" s="8">
         <v>8</v>
       </c>
       <c r="AO11" s="4"/>
       <c r="AP11" s="5"/>
       <c r="AQ11" s="1"/>
-      <c r="AR11" s="113"/>
-      <c r="AS11" s="113"/>
-      <c r="AT11" s="113"/>
-      <c r="AU11" s="113"/>
-      <c r="AV11" s="113"/>
-      <c r="AW11" s="113"/>
-      <c r="AX11" s="113"/>
-      <c r="AY11" s="113"/>
-      <c r="AZ11" s="113"/>
-      <c r="BA11" s="113"/>
-      <c r="BB11" s="113"/>
-      <c r="BC11" s="113"/>
-      <c r="BD11" s="113"/>
-      <c r="BE11" s="113"/>
-      <c r="BF11" s="113"/>
-      <c r="BG11" s="113"/>
-      <c r="BH11" s="113"/>
-      <c r="BI11" s="113"/>
-      <c r="BJ11" s="113"/>
-      <c r="BK11" s="113"/>
-      <c r="BL11" s="113"/>
-      <c r="BM11" s="113"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
+      <c r="BA11" s="6"/>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="6"/>
+      <c r="BF11" s="6"/>
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="6"/>
+      <c r="BI11" s="6"/>
+      <c r="BJ11" s="6"/>
+      <c r="BK11" s="6"/>
+      <c r="BL11" s="6"/>
+      <c r="BM11" s="6"/>
     </row>
     <row r="12" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="6"/>
@@ -30795,43 +30785,43 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="113"/>
+      <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="1"/>
-      <c r="AL12" s="113"/>
-      <c r="AM12" s="113"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
       <c r="AO12" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AP12" s="5"/>
       <c r="AQ12" s="1"/>
-      <c r="AR12" s="113"/>
-      <c r="AS12" s="113"/>
-      <c r="AT12" s="113"/>
-      <c r="AU12" s="113"/>
-      <c r="AV12" s="113"/>
-      <c r="AW12" s="113"/>
-      <c r="AX12" s="113"/>
-      <c r="AY12" s="113"/>
-      <c r="AZ12" s="113"/>
-      <c r="BA12" s="113"/>
-      <c r="BB12" s="113"/>
-      <c r="BC12" s="113"/>
-      <c r="BD12" s="113"/>
-      <c r="BE12" s="113"/>
-      <c r="BF12" s="113"/>
-      <c r="BG12" s="113"/>
-      <c r="BH12" s="113"/>
-      <c r="BI12" s="113"/>
-      <c r="BJ12" s="113"/>
-      <c r="BK12" s="113"/>
-      <c r="BL12" s="113"/>
-      <c r="BM12" s="113"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
+      <c r="BA12" s="6"/>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="6"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="6"/>
+      <c r="BL12" s="6"/>
+      <c r="BM12" s="6"/>
     </row>
     <row r="13" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="6"/>
@@ -30839,7 +30829,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="113"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -30848,7 +30838,7 @@
       <c r="N13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="113"/>
+      <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
@@ -30856,7 +30846,7 @@
       <c r="T13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="U13" s="113"/>
+      <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6" t="s">
         <v>97</v>
@@ -30872,43 +30862,43 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="113"/>
+      <c r="AG13" s="6"/>
       <c r="AH13" s="6">
         <v>4</v>
       </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="5"/>
-      <c r="AL13" s="113"/>
-      <c r="AM13" s="113"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <v>4</v>
       </c>
       <c r="AO13" s="1"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="5"/>
-      <c r="AR13" s="113"/>
-      <c r="AS13" s="113"/>
-      <c r="AT13" s="113"/>
-      <c r="AU13" s="113"/>
-      <c r="AV13" s="113"/>
-      <c r="AW13" s="113"/>
-      <c r="AX13" s="113"/>
-      <c r="AY13" s="113"/>
-      <c r="AZ13" s="113"/>
-      <c r="BA13" s="113"/>
-      <c r="BB13" s="113"/>
-      <c r="BC13" s="113"/>
-      <c r="BD13" s="113"/>
-      <c r="BE13" s="113"/>
-      <c r="BF13" s="113"/>
-      <c r="BG13" s="113"/>
-      <c r="BH13" s="113"/>
-      <c r="BI13" s="113"/>
-      <c r="BJ13" s="113"/>
-      <c r="BK13" s="113"/>
-      <c r="BL13" s="113"/>
-      <c r="BM13" s="113"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="6"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="6"/>
+      <c r="BL13" s="6"/>
+      <c r="BM13" s="6"/>
     </row>
     <row r="14" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="6"/>
@@ -30941,43 +30931,43 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="113"/>
+      <c r="AG14" s="6"/>
       <c r="AH14" s="69" t="s">
         <v>9</v>
       </c>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
-      <c r="AL14" s="113"/>
-      <c r="AM14" s="113"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
       <c r="AN14" s="69" t="s">
         <v>9</v>
       </c>
       <c r="AO14" s="1"/>
       <c r="AP14" s="5"/>
       <c r="AQ14" s="5"/>
-      <c r="AR14" s="113"/>
-      <c r="AS14" s="113"/>
-      <c r="AT14" s="113"/>
-      <c r="AU14" s="113"/>
-      <c r="AV14" s="113"/>
-      <c r="AW14" s="113"/>
-      <c r="AX14" s="113"/>
-      <c r="AY14" s="113"/>
-      <c r="AZ14" s="113"/>
-      <c r="BA14" s="113"/>
-      <c r="BB14" s="113"/>
-      <c r="BC14" s="113"/>
-      <c r="BD14" s="113"/>
-      <c r="BE14" s="113"/>
-      <c r="BF14" s="113"/>
-      <c r="BG14" s="113"/>
-      <c r="BH14" s="113"/>
-      <c r="BI14" s="113"/>
-      <c r="BJ14" s="113"/>
-      <c r="BK14" s="113"/>
-      <c r="BL14" s="113"/>
-      <c r="BM14" s="113"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="6"/>
+      <c r="BH14" s="6"/>
+      <c r="BI14" s="6"/>
+      <c r="BJ14" s="6"/>
+      <c r="BK14" s="6"/>
+      <c r="BL14" s="6"/>
+      <c r="BM14" s="6"/>
     </row>
     <row r="15" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="6"/>
@@ -31018,43 +31008,43 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="113"/>
+      <c r="AG15" s="6"/>
       <c r="AH15" s="8">
         <v>5</v>
       </c>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="5"/>
-      <c r="AL15" s="113"/>
-      <c r="AM15" s="113"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
       <c r="AN15" s="8">
         <v>5</v>
       </c>
       <c r="AO15" s="4"/>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="5"/>
-      <c r="AR15" s="113"/>
-      <c r="AS15" s="113"/>
-      <c r="AT15" s="113"/>
-      <c r="AU15" s="113"/>
-      <c r="AV15" s="113"/>
-      <c r="AW15" s="113"/>
-      <c r="AX15" s="113"/>
-      <c r="AY15" s="113"/>
-      <c r="AZ15" s="113"/>
-      <c r="BA15" s="113"/>
-      <c r="BB15" s="113"/>
-      <c r="BC15" s="113"/>
-      <c r="BD15" s="113"/>
-      <c r="BE15" s="113"/>
-      <c r="BF15" s="113"/>
-      <c r="BG15" s="113"/>
-      <c r="BH15" s="113"/>
-      <c r="BI15" s="113"/>
-      <c r="BJ15" s="113"/>
-      <c r="BK15" s="113"/>
-      <c r="BL15" s="113"/>
-      <c r="BM15" s="113"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="6"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6"/>
+      <c r="BL15" s="6"/>
+      <c r="BM15" s="6"/>
     </row>
     <row r="16" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="6"/>
@@ -31095,43 +31085,43 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="113"/>
+      <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="70" t="s">
         <v>14</v>
       </c>
       <c r="AK16" s="5"/>
-      <c r="AL16" s="113"/>
-      <c r="AM16" s="113"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
       <c r="AN16" s="6"/>
       <c r="AO16" s="1"/>
       <c r="AP16" s="70" t="s">
         <v>14</v>
       </c>
       <c r="AQ16" s="5"/>
-      <c r="AR16" s="113"/>
-      <c r="AS16" s="113"/>
-      <c r="AT16" s="113"/>
-      <c r="AU16" s="113"/>
-      <c r="AV16" s="113"/>
-      <c r="AW16" s="113"/>
-      <c r="AX16" s="113"/>
-      <c r="AY16" s="113"/>
-      <c r="AZ16" s="113"/>
-      <c r="BA16" s="113"/>
-      <c r="BB16" s="113"/>
-      <c r="BC16" s="113"/>
-      <c r="BD16" s="113"/>
-      <c r="BE16" s="113"/>
-      <c r="BF16" s="113"/>
-      <c r="BG16" s="113"/>
-      <c r="BH16" s="113"/>
-      <c r="BI16" s="113"/>
-      <c r="BJ16" s="113"/>
-      <c r="BK16" s="113"/>
-      <c r="BL16" s="113"/>
-      <c r="BM16" s="113"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="6"/>
+      <c r="AX16" s="6"/>
+      <c r="AY16" s="6"/>
+      <c r="AZ16" s="6"/>
+      <c r="BA16" s="6"/>
+      <c r="BB16" s="6"/>
+      <c r="BC16" s="6"/>
+      <c r="BD16" s="6"/>
+      <c r="BE16" s="6"/>
+      <c r="BF16" s="6"/>
+      <c r="BG16" s="6"/>
+      <c r="BH16" s="6"/>
+      <c r="BI16" s="6"/>
+      <c r="BJ16" s="6"/>
+      <c r="BK16" s="6"/>
+      <c r="BL16" s="6"/>
+      <c r="BM16" s="6"/>
     </row>
     <row r="17" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="6"/>
@@ -31172,43 +31162,43 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="113"/>
+      <c r="AG17" s="6"/>
       <c r="AH17" s="6">
         <v>3</v>
       </c>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="4"/>
-      <c r="AL17" s="113"/>
-      <c r="AM17" s="113"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
       <c r="AN17" s="6">
         <v>3</v>
       </c>
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
       <c r="AQ17" s="4"/>
-      <c r="AR17" s="113"/>
-      <c r="AS17" s="113"/>
-      <c r="AT17" s="113"/>
-      <c r="AU17" s="113"/>
-      <c r="AV17" s="113"/>
-      <c r="AW17" s="113"/>
-      <c r="AX17" s="113"/>
-      <c r="AY17" s="113"/>
-      <c r="AZ17" s="113"/>
-      <c r="BA17" s="113"/>
-      <c r="BB17" s="113"/>
-      <c r="BC17" s="113"/>
-      <c r="BD17" s="113"/>
-      <c r="BE17" s="113"/>
-      <c r="BF17" s="113"/>
-      <c r="BG17" s="113"/>
-      <c r="BH17" s="113"/>
-      <c r="BI17" s="113"/>
-      <c r="BJ17" s="113"/>
-      <c r="BK17" s="113"/>
-      <c r="BL17" s="113"/>
-      <c r="BM17" s="113"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="6"/>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="6"/>
+      <c r="BH17" s="6"/>
+      <c r="BI17" s="6"/>
+      <c r="BJ17" s="6"/>
+      <c r="BK17" s="6"/>
+      <c r="BL17" s="6"/>
+      <c r="BM17" s="6"/>
     </row>
     <row r="18" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="6"/>
@@ -31241,43 +31231,43 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="113"/>
+      <c r="AG18" s="6"/>
       <c r="AH18" s="69" t="s">
         <v>10</v>
       </c>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="5"/>
-      <c r="AL18" s="113"/>
-      <c r="AM18" s="113"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
       <c r="AN18" s="69" t="s">
         <v>10</v>
       </c>
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="5"/>
-      <c r="AR18" s="113"/>
-      <c r="AS18" s="113"/>
-      <c r="AT18" s="113"/>
-      <c r="AU18" s="113"/>
-      <c r="AV18" s="113"/>
-      <c r="AW18" s="113"/>
-      <c r="AX18" s="113"/>
-      <c r="AY18" s="113"/>
-      <c r="AZ18" s="113"/>
-      <c r="BA18" s="113"/>
-      <c r="BB18" s="113"/>
-      <c r="BC18" s="113"/>
-      <c r="BD18" s="113"/>
-      <c r="BE18" s="113"/>
-      <c r="BF18" s="113"/>
-      <c r="BG18" s="113"/>
-      <c r="BH18" s="113"/>
-      <c r="BI18" s="113"/>
-      <c r="BJ18" s="113"/>
-      <c r="BK18" s="113"/>
-      <c r="BL18" s="113"/>
-      <c r="BM18" s="113"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
+      <c r="BL18" s="6"/>
+      <c r="BM18" s="6"/>
     </row>
     <row r="19" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="6"/>
@@ -31316,43 +31306,43 @@
       <c r="AD19" s="4"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="113"/>
+      <c r="AG19" s="6"/>
       <c r="AH19" s="8">
         <v>6</v>
       </c>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
-      <c r="AL19" s="113"/>
-      <c r="AM19" s="113"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
       <c r="AN19" s="8">
         <v>6</v>
       </c>
       <c r="AO19" s="4"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="5"/>
-      <c r="AR19" s="113"/>
-      <c r="AS19" s="113"/>
-      <c r="AT19" s="113"/>
-      <c r="AU19" s="113"/>
-      <c r="AV19" s="113"/>
-      <c r="AW19" s="113"/>
-      <c r="AX19" s="113"/>
-      <c r="AY19" s="113"/>
-      <c r="AZ19" s="113"/>
-      <c r="BA19" s="113"/>
-      <c r="BB19" s="113"/>
-      <c r="BC19" s="113"/>
-      <c r="BD19" s="113"/>
-      <c r="BE19" s="113"/>
-      <c r="BF19" s="113"/>
-      <c r="BG19" s="113"/>
-      <c r="BH19" s="113"/>
-      <c r="BI19" s="113"/>
-      <c r="BJ19" s="113"/>
-      <c r="BK19" s="113"/>
-      <c r="BL19" s="113"/>
-      <c r="BM19" s="113"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="6"/>
+      <c r="AX19" s="6"/>
+      <c r="AY19" s="6"/>
+      <c r="AZ19" s="6"/>
+      <c r="BA19" s="6"/>
+      <c r="BB19" s="6"/>
+      <c r="BC19" s="6"/>
+      <c r="BD19" s="6"/>
+      <c r="BE19" s="6"/>
+      <c r="BF19" s="6"/>
+      <c r="BG19" s="6"/>
+      <c r="BH19" s="6"/>
+      <c r="BI19" s="6"/>
+      <c r="BJ19" s="6"/>
+      <c r="BK19" s="6"/>
+      <c r="BL19" s="6"/>
+      <c r="BM19" s="6"/>
     </row>
     <row r="20" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="6"/>
@@ -31393,43 +31383,43 @@
       <c r="AD20" s="5"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="113"/>
+      <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="70" t="s">
         <v>13</v>
       </c>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
-      <c r="AL20" s="113"/>
-      <c r="AM20" s="113"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
       <c r="AN20" s="6"/>
       <c r="AO20" s="70" t="s">
         <v>13</v>
       </c>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="5"/>
-      <c r="AR20" s="113"/>
-      <c r="AS20" s="113"/>
-      <c r="AT20" s="113"/>
-      <c r="AU20" s="113"/>
-      <c r="AV20" s="113"/>
-      <c r="AW20" s="113"/>
-      <c r="AX20" s="113"/>
-      <c r="AY20" s="113"/>
-      <c r="AZ20" s="113"/>
-      <c r="BA20" s="113"/>
-      <c r="BB20" s="113"/>
-      <c r="BC20" s="113"/>
-      <c r="BD20" s="113"/>
-      <c r="BE20" s="113"/>
-      <c r="BF20" s="113"/>
-      <c r="BG20" s="113"/>
-      <c r="BH20" s="113"/>
-      <c r="BI20" s="113"/>
-      <c r="BJ20" s="113"/>
-      <c r="BK20" s="113"/>
-      <c r="BL20" s="113"/>
-      <c r="BM20" s="113"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
+      <c r="AU20" s="6"/>
+      <c r="AV20" s="6"/>
+      <c r="AW20" s="6"/>
+      <c r="AX20" s="6"/>
+      <c r="AY20" s="6"/>
+      <c r="AZ20" s="6"/>
+      <c r="BA20" s="6"/>
+      <c r="BB20" s="6"/>
+      <c r="BC20" s="6"/>
+      <c r="BD20" s="6"/>
+      <c r="BE20" s="6"/>
+      <c r="BF20" s="6"/>
+      <c r="BG20" s="6"/>
+      <c r="BH20" s="6"/>
+      <c r="BI20" s="6"/>
+      <c r="BJ20" s="6"/>
+      <c r="BK20" s="6"/>
+      <c r="BL20" s="6"/>
+      <c r="BM20" s="6"/>
     </row>
     <row r="21" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="6"/>
@@ -31472,43 +31462,43 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="113"/>
+      <c r="AG21" s="6"/>
       <c r="AH21" s="6">
         <v>2</v>
       </c>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="1"/>
-      <c r="AL21" s="113"/>
-      <c r="AM21" s="113"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
       <c r="AN21" s="6">
         <v>2</v>
       </c>
       <c r="AO21" s="1"/>
       <c r="AP21" s="4"/>
       <c r="AQ21" s="1"/>
-      <c r="AR21" s="113"/>
-      <c r="AS21" s="113"/>
-      <c r="AT21" s="113"/>
-      <c r="AU21" s="113"/>
-      <c r="AV21" s="113"/>
-      <c r="AW21" s="113"/>
-      <c r="AX21" s="113"/>
-      <c r="AY21" s="113"/>
-      <c r="AZ21" s="113"/>
-      <c r="BA21" s="113"/>
-      <c r="BB21" s="113"/>
-      <c r="BC21" s="113"/>
-      <c r="BD21" s="113"/>
-      <c r="BE21" s="113"/>
-      <c r="BF21" s="113"/>
-      <c r="BG21" s="113"/>
-      <c r="BH21" s="113"/>
-      <c r="BI21" s="113"/>
-      <c r="BJ21" s="113"/>
-      <c r="BK21" s="113"/>
-      <c r="BL21" s="113"/>
-      <c r="BM21" s="113"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="6"/>
+      <c r="AU21" s="6"/>
+      <c r="AV21" s="6"/>
+      <c r="AW21" s="6"/>
+      <c r="AX21" s="6"/>
+      <c r="AY21" s="6"/>
+      <c r="AZ21" s="6"/>
+      <c r="BA21" s="6"/>
+      <c r="BB21" s="6"/>
+      <c r="BC21" s="6"/>
+      <c r="BD21" s="6"/>
+      <c r="BE21" s="6"/>
+      <c r="BF21" s="6"/>
+      <c r="BG21" s="6"/>
+      <c r="BH21" s="6"/>
+      <c r="BI21" s="6"/>
+      <c r="BJ21" s="6"/>
+      <c r="BK21" s="6"/>
+      <c r="BL21" s="6"/>
+      <c r="BM21" s="6"/>
     </row>
     <row r="22" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="6"/>
@@ -31547,43 +31537,43 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="113"/>
+      <c r="AG22" s="6"/>
       <c r="AH22" s="69" t="s">
         <v>11</v>
       </c>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="1"/>
-      <c r="AL22" s="113"/>
-      <c r="AM22" s="113"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
       <c r="AN22" s="69" t="s">
         <v>11</v>
       </c>
       <c r="AO22" s="1"/>
       <c r="AP22" s="5"/>
-      <c r="AQ22" s="113"/>
-      <c r="AR22" s="113"/>
-      <c r="AS22" s="113"/>
-      <c r="AT22" s="113"/>
-      <c r="AU22" s="113"/>
-      <c r="AV22" s="113"/>
-      <c r="AW22" s="113"/>
-      <c r="AX22" s="113"/>
-      <c r="AY22" s="113"/>
-      <c r="AZ22" s="113"/>
-      <c r="BA22" s="113"/>
-      <c r="BB22" s="113"/>
-      <c r="BC22" s="113"/>
-      <c r="BD22" s="113"/>
-      <c r="BE22" s="113"/>
-      <c r="BF22" s="113"/>
-      <c r="BG22" s="113"/>
-      <c r="BH22" s="113"/>
-      <c r="BI22" s="113"/>
-      <c r="BJ22" s="113"/>
-      <c r="BK22" s="113"/>
-      <c r="BL22" s="113"/>
-      <c r="BM22" s="113"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="6"/>
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6"/>
+      <c r="AY22" s="6"/>
+      <c r="AZ22" s="6"/>
+      <c r="BA22" s="6"/>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="6"/>
+      <c r="BD22" s="6"/>
+      <c r="BE22" s="6"/>
+      <c r="BF22" s="6"/>
+      <c r="BG22" s="6"/>
+      <c r="BH22" s="6"/>
+      <c r="BI22" s="6"/>
+      <c r="BJ22" s="6"/>
+      <c r="BK22" s="6"/>
+      <c r="BL22" s="6"/>
+      <c r="BM22" s="6"/>
     </row>
     <row r="23" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="6"/>
@@ -31615,10 +31605,10 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="113"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="113"/>
-      <c r="AG23" s="113"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
       <c r="AH23" s="8">
         <v>7</v>
       </c>
@@ -31627,36 +31617,36 @@
       <c r="AK23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AL23" s="113"/>
-      <c r="AM23" s="113"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
       <c r="AN23" s="8">
         <v>7</v>
       </c>
       <c r="AO23" s="4"/>
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1"/>
-      <c r="AR23" s="113"/>
-      <c r="AS23" s="113"/>
-      <c r="AT23" s="113"/>
-      <c r="AU23" s="113"/>
-      <c r="AV23" s="113"/>
-      <c r="AW23" s="113"/>
-      <c r="AX23" s="113"/>
-      <c r="AY23" s="113"/>
-      <c r="AZ23" s="113"/>
-      <c r="BA23" s="113"/>
-      <c r="BB23" s="113"/>
-      <c r="BC23" s="113"/>
-      <c r="BD23" s="113"/>
-      <c r="BE23" s="113"/>
-      <c r="BF23" s="113"/>
-      <c r="BG23" s="113"/>
-      <c r="BH23" s="113"/>
-      <c r="BI23" s="113"/>
-      <c r="BJ23" s="113"/>
-      <c r="BK23" s="113"/>
-      <c r="BL23" s="113"/>
-      <c r="BM23" s="113"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="6"/>
+      <c r="AV23" s="6"/>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="6"/>
+      <c r="AY23" s="6"/>
+      <c r="AZ23" s="6"/>
+      <c r="BA23" s="6"/>
+      <c r="BB23" s="6"/>
+      <c r="BC23" s="6"/>
+      <c r="BD23" s="6"/>
+      <c r="BE23" s="6"/>
+      <c r="BF23" s="6"/>
+      <c r="BG23" s="6"/>
+      <c r="BH23" s="6"/>
+      <c r="BI23" s="6"/>
+      <c r="BJ23" s="6"/>
+      <c r="BK23" s="6"/>
+      <c r="BL23" s="6"/>
+      <c r="BM23" s="6"/>
     </row>
     <row r="24" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
@@ -31679,51 +31669,51 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="113"/>
-      <c r="AB24" s="113"/>
-      <c r="AC24" s="113"/>
-      <c r="AD24" s="113"/>
-      <c r="AE24" s="113"/>
-      <c r="AF24" s="113"/>
-      <c r="AG24" s="113"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="9"/>
-      <c r="AL24" s="113"/>
-      <c r="AM24" s="113"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
-      <c r="AP24" s="113"/>
+      <c r="AP24" s="6"/>
       <c r="AQ24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="AR24" s="1"/>
-      <c r="AS24" s="113"/>
-      <c r="AT24" s="113"/>
-      <c r="AU24" s="113"/>
-      <c r="AV24" s="113"/>
-      <c r="AW24" s="113"/>
-      <c r="AX24" s="113"/>
-      <c r="AY24" s="113"/>
-      <c r="AZ24" s="113"/>
-      <c r="BA24" s="113"/>
-      <c r="BB24" s="113"/>
-      <c r="BC24" s="113"/>
-      <c r="BD24" s="113"/>
-      <c r="BE24" s="113"/>
-      <c r="BF24" s="113"/>
-      <c r="BG24" s="113"/>
-      <c r="BH24" s="113"/>
-      <c r="BI24" s="113"/>
-      <c r="BJ24" s="113"/>
-      <c r="BK24" s="113"/>
-      <c r="BL24" s="113"/>
-      <c r="BM24" s="113"/>
+      <c r="AS24" s="6"/>
+      <c r="AT24" s="6"/>
+      <c r="AU24" s="6"/>
+      <c r="AV24" s="6"/>
+      <c r="AW24" s="6"/>
+      <c r="AX24" s="6"/>
+      <c r="AY24" s="6"/>
+      <c r="AZ24" s="6"/>
+      <c r="BA24" s="6"/>
+      <c r="BB24" s="6"/>
+      <c r="BC24" s="6"/>
+      <c r="BD24" s="6"/>
+      <c r="BE24" s="6"/>
+      <c r="BF24" s="6"/>
+      <c r="BG24" s="6"/>
+      <c r="BH24" s="6"/>
+      <c r="BI24" s="6"/>
+      <c r="BJ24" s="6"/>
+      <c r="BK24" s="6"/>
+      <c r="BL24" s="6"/>
+      <c r="BM24" s="6"/>
     </row>
     <row r="25" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="6"/>
@@ -31746,53 +31736,53 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
-      <c r="W25" s="113"/>
-      <c r="X25" s="113"/>
-      <c r="Y25" s="113"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="113"/>
-      <c r="AB25" s="113"/>
-      <c r="AC25" s="113"/>
-      <c r="AD25" s="113"/>
-      <c r="AE25" s="113"/>
-      <c r="AF25" s="113"/>
-      <c r="AG25" s="113"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="AK25" s="1"/>
-      <c r="AL25" s="113"/>
-      <c r="AM25" s="113"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
-      <c r="AP25" s="113"/>
+      <c r="AP25" s="6"/>
       <c r="AQ25" s="69" t="s">
         <v>15</v>
       </c>
       <c r="AR25" s="1"/>
-      <c r="AS25" s="113"/>
-      <c r="AT25" s="113"/>
-      <c r="AU25" s="113"/>
-      <c r="AV25" s="113"/>
-      <c r="AW25" s="113"/>
-      <c r="AX25" s="113"/>
-      <c r="AY25" s="113"/>
-      <c r="AZ25" s="113"/>
-      <c r="BA25" s="113"/>
-      <c r="BB25" s="113"/>
-      <c r="BC25" s="113"/>
-      <c r="BD25" s="113"/>
-      <c r="BE25" s="113"/>
-      <c r="BF25" s="113"/>
-      <c r="BG25" s="113"/>
-      <c r="BH25" s="113"/>
-      <c r="BI25" s="113"/>
-      <c r="BJ25" s="113"/>
-      <c r="BK25" s="113"/>
-      <c r="BL25" s="113"/>
-      <c r="BM25" s="113"/>
+      <c r="AS25" s="6"/>
+      <c r="AT25" s="6"/>
+      <c r="AU25" s="6"/>
+      <c r="AV25" s="6"/>
+      <c r="AW25" s="6"/>
+      <c r="AX25" s="6"/>
+      <c r="AY25" s="6"/>
+      <c r="AZ25" s="6"/>
+      <c r="BA25" s="6"/>
+      <c r="BB25" s="6"/>
+      <c r="BC25" s="6"/>
+      <c r="BD25" s="6"/>
+      <c r="BE25" s="6"/>
+      <c r="BF25" s="6"/>
+      <c r="BG25" s="6"/>
+      <c r="BH25" s="6"/>
+      <c r="BI25" s="6"/>
+      <c r="BJ25" s="6"/>
+      <c r="BK25" s="6"/>
+      <c r="BL25" s="6"/>
+      <c r="BM25" s="6"/>
     </row>
     <row r="26" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="6"/>
@@ -31815,53 +31805,53 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
-      <c r="W26" s="113"/>
-      <c r="X26" s="113"/>
-      <c r="Y26" s="113"/>
-      <c r="Z26" s="113"/>
-      <c r="AA26" s="113"/>
-      <c r="AB26" s="113"/>
-      <c r="AC26" s="113"/>
-      <c r="AD26" s="113"/>
-      <c r="AE26" s="113"/>
-      <c r="AF26" s="113"/>
-      <c r="AG26" s="113"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="69" t="s">
         <v>15</v>
       </c>
       <c r="AK26" s="1"/>
-      <c r="AL26" s="113"/>
-      <c r="AM26" s="113"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
-      <c r="AP26" s="113"/>
+      <c r="AP26" s="6"/>
       <c r="AQ26" s="8" t="s">
         <v>14</v>
       </c>
       <c r="AR26" s="4"/>
-      <c r="AS26" s="113"/>
-      <c r="AT26" s="113"/>
-      <c r="AU26" s="113"/>
-      <c r="AV26" s="113"/>
-      <c r="AW26" s="113"/>
-      <c r="AX26" s="113"/>
-      <c r="AY26" s="113"/>
-      <c r="AZ26" s="113"/>
-      <c r="BA26" s="113"/>
-      <c r="BB26" s="113"/>
-      <c r="BC26" s="113"/>
-      <c r="BD26" s="113"/>
-      <c r="BE26" s="113"/>
-      <c r="BF26" s="113"/>
-      <c r="BG26" s="113"/>
-      <c r="BH26" s="113"/>
-      <c r="BI26" s="113"/>
-      <c r="BJ26" s="113"/>
-      <c r="BK26" s="113"/>
-      <c r="BL26" s="113"/>
-      <c r="BM26" s="113"/>
+      <c r="AS26" s="6"/>
+      <c r="AT26" s="6"/>
+      <c r="AU26" s="6"/>
+      <c r="AV26" s="6"/>
+      <c r="AW26" s="6"/>
+      <c r="AX26" s="6"/>
+      <c r="AY26" s="6"/>
+      <c r="AZ26" s="6"/>
+      <c r="BA26" s="6"/>
+      <c r="BB26" s="6"/>
+      <c r="BC26" s="6"/>
+      <c r="BD26" s="6"/>
+      <c r="BE26" s="6"/>
+      <c r="BF26" s="6"/>
+      <c r="BG26" s="6"/>
+      <c r="BH26" s="6"/>
+      <c r="BI26" s="6"/>
+      <c r="BJ26" s="6"/>
+      <c r="BK26" s="6"/>
+      <c r="BL26" s="6"/>
+      <c r="BM26" s="6"/>
     </row>
     <row r="27" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="6"/>
@@ -31884,182 +31874,182 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
-      <c r="W27" s="113"/>
-      <c r="X27" s="113"/>
-      <c r="Y27" s="113"/>
-      <c r="Z27" s="113"/>
-      <c r="AA27" s="113"/>
-      <c r="AB27" s="113"/>
-      <c r="AC27" s="113"/>
-      <c r="AD27" s="113"/>
-      <c r="AE27" s="113"/>
-      <c r="AF27" s="113"/>
-      <c r="AG27" s="113"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AK27" s="4"/>
-      <c r="AL27" s="113"/>
-      <c r="AM27" s="113"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
-      <c r="AP27" s="113"/>
-      <c r="AQ27" s="113"/>
-      <c r="AR27" s="113"/>
-      <c r="AS27" s="113"/>
-      <c r="AT27" s="113"/>
-      <c r="AU27" s="113"/>
-      <c r="AV27" s="113"/>
-      <c r="AW27" s="113"/>
-      <c r="AX27" s="113"/>
-      <c r="AY27" s="113"/>
-      <c r="AZ27" s="113"/>
-      <c r="BA27" s="113"/>
-      <c r="BB27" s="113"/>
-      <c r="BC27" s="113"/>
-      <c r="BD27" s="113"/>
-      <c r="BE27" s="113"/>
-      <c r="BF27" s="113"/>
-      <c r="BG27" s="113"/>
-      <c r="BH27" s="113"/>
-      <c r="BI27" s="113"/>
-      <c r="BJ27" s="113"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="6"/>
+      <c r="AT27" s="6"/>
+      <c r="AU27" s="6"/>
+      <c r="AV27" s="6"/>
+      <c r="AW27" s="6"/>
+      <c r="AX27" s="6"/>
+      <c r="AY27" s="6"/>
+      <c r="AZ27" s="6"/>
+      <c r="BA27" s="6"/>
+      <c r="BB27" s="6"/>
+      <c r="BC27" s="6"/>
+      <c r="BD27" s="6"/>
+      <c r="BE27" s="6"/>
+      <c r="BF27" s="6"/>
+      <c r="BG27" s="6"/>
+      <c r="BH27" s="6"/>
+      <c r="BI27" s="6"/>
+      <c r="BJ27" s="6"/>
     </row>
     <row r="28" spans="3:65" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="AC28" s="113"/>
-      <c r="AD28" s="113"/>
-      <c r="AE28" s="113"/>
-      <c r="AF28" s="113"/>
-      <c r="AG28" s="113"/>
-      <c r="AH28" s="113"/>
-      <c r="AI28" s="113"/>
-      <c r="AJ28" s="113"/>
-      <c r="AK28" s="113"/>
-      <c r="AL28" s="113"/>
-      <c r="AM28" s="113"/>
-      <c r="AN28" s="113"/>
-      <c r="AO28" s="113"/>
-      <c r="AP28" s="113"/>
-      <c r="AQ28" s="113"/>
-      <c r="AR28" s="113"/>
-      <c r="AS28" s="113"/>
-      <c r="AT28" s="113"/>
-      <c r="AU28" s="113"/>
-      <c r="AV28" s="113"/>
-      <c r="AW28" s="113"/>
-      <c r="AX28" s="113"/>
-      <c r="AY28" s="113"/>
-      <c r="AZ28" s="113"/>
-      <c r="BA28" s="113"/>
-      <c r="BB28" s="113"/>
-      <c r="BC28" s="113"/>
-      <c r="BD28" s="113"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="6"/>
+      <c r="AT28" s="6"/>
+      <c r="AU28" s="6"/>
+      <c r="AV28" s="6"/>
+      <c r="AW28" s="6"/>
+      <c r="AX28" s="6"/>
+      <c r="AY28" s="6"/>
+      <c r="AZ28" s="6"/>
+      <c r="BA28" s="6"/>
+      <c r="BB28" s="6"/>
+      <c r="BC28" s="6"/>
+      <c r="BD28" s="6"/>
     </row>
     <row r="29" spans="3:65" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AC29" s="113"/>
-      <c r="AD29" s="113"/>
-      <c r="AE29" s="113"/>
-      <c r="AF29" s="113"/>
-      <c r="AG29" s="113"/>
-      <c r="AH29" s="112"/>
-      <c r="AI29" s="113"/>
-      <c r="AJ29" s="113"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
       <c r="AK29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AL29" s="113"/>
-      <c r="AM29" s="113"/>
-      <c r="AN29" s="113"/>
-      <c r="AO29" s="113"/>
-      <c r="AP29" s="113"/>
-      <c r="AQ29" s="113"/>
-      <c r="AR29" s="113"/>
-      <c r="AS29" s="113"/>
-      <c r="AT29" s="113"/>
-      <c r="AU29" s="113"/>
-      <c r="AV29" s="113"/>
-      <c r="AW29" s="113"/>
-      <c r="AX29" s="113"/>
-      <c r="AY29" s="113"/>
-      <c r="AZ29" s="113"/>
-      <c r="BA29" s="113"/>
-      <c r="BB29" s="113"/>
-      <c r="BC29" s="113"/>
-      <c r="BD29" s="113"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="6"/>
+      <c r="AS29" s="6"/>
+      <c r="AT29" s="6"/>
+      <c r="AU29" s="6"/>
+      <c r="AV29" s="6"/>
+      <c r="AW29" s="6"/>
+      <c r="AX29" s="6"/>
+      <c r="AY29" s="6"/>
+      <c r="AZ29" s="6"/>
+      <c r="BA29" s="6"/>
+      <c r="BB29" s="6"/>
+      <c r="BC29" s="6"/>
+      <c r="BD29" s="6"/>
     </row>
     <row r="30" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AC30" s="113"/>
-      <c r="AD30" s="113"/>
-      <c r="AE30" s="113"/>
-      <c r="AF30" s="113"/>
-      <c r="AG30" s="113"/>
-      <c r="AH30" s="112"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="1"/>
       <c r="AI30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AJ30" s="113"/>
+      <c r="AJ30" s="6"/>
       <c r="AK30" s="9"/>
-      <c r="AL30" s="113"/>
-      <c r="AM30" s="113"/>
-      <c r="AN30" s="113"/>
-      <c r="AO30" s="113"/>
-      <c r="AP30" s="113"/>
-      <c r="AQ30" s="112"/>
-      <c r="AR30" s="113"/>
-      <c r="AS30" s="113"/>
-      <c r="AT30" s="113"/>
-      <c r="AU30" s="113"/>
-      <c r="AV30" s="113"/>
-      <c r="AW30" s="113"/>
-      <c r="AX30" s="113"/>
-      <c r="AY30" s="113"/>
-      <c r="AZ30" s="113"/>
-      <c r="BA30" s="113"/>
-      <c r="BB30" s="113"/>
-      <c r="BC30" s="113"/>
-      <c r="BD30" s="113"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="6"/>
+      <c r="AS30" s="6"/>
+      <c r="AT30" s="6"/>
+      <c r="AU30" s="6"/>
+      <c r="AV30" s="6"/>
+      <c r="AW30" s="6"/>
+      <c r="AX30" s="6"/>
+      <c r="AY30" s="6"/>
+      <c r="AZ30" s="6"/>
+      <c r="BA30" s="6"/>
+      <c r="BB30" s="6"/>
+      <c r="BC30" s="6"/>
+      <c r="BD30" s="6"/>
     </row>
     <row r="31" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AC31" s="113"/>
-      <c r="AD31" s="113"/>
-      <c r="AE31" s="113"/>
-      <c r="AF31" s="113"/>
-      <c r="AG31" s="113"/>
-      <c r="AH31" s="112"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="1"/>
       <c r="AI31" s="69" t="s">
         <v>26</v>
       </c>
       <c r="AJ31" s="6"/>
-      <c r="AK31" s="113"/>
+      <c r="AK31" s="6"/>
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
-      <c r="AN31" s="114"/>
-      <c r="AO31" s="113"/>
-      <c r="AP31" s="113"/>
-      <c r="AQ31" s="112"/>
-      <c r="AR31" s="113"/>
-      <c r="AS31" s="113"/>
-      <c r="AT31" s="113"/>
-      <c r="AU31" s="113"/>
-      <c r="AV31" s="113"/>
-      <c r="AW31" s="113"/>
-      <c r="AX31" s="113"/>
-      <c r="AY31" s="113"/>
-      <c r="AZ31" s="113"/>
-      <c r="BA31" s="113"/>
-      <c r="BB31" s="113"/>
-      <c r="BC31" s="113"/>
-      <c r="BD31" s="113"/>
+      <c r="AN31" s="70"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="6"/>
+      <c r="AT31" s="6"/>
+      <c r="AU31" s="6"/>
+      <c r="AV31" s="6"/>
+      <c r="AW31" s="6"/>
+      <c r="AX31" s="6"/>
+      <c r="AY31" s="6"/>
+      <c r="AZ31" s="6"/>
+      <c r="BA31" s="6"/>
+      <c r="BB31" s="6"/>
+      <c r="BC31" s="6"/>
+      <c r="BD31" s="6"/>
     </row>
     <row r="32" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AC32" s="113"/>
-      <c r="AD32" s="113"/>
-      <c r="AE32" s="113"/>
-      <c r="AF32" s="113"/>
-      <c r="AG32" s="113"/>
-      <c r="AH32" s="112"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="1"/>
       <c r="AI32" s="8" t="s">
         <v>9</v>
       </c>
@@ -32069,32 +32059,32 @@
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
-      <c r="AN32" s="113"/>
-      <c r="AO32" s="114"/>
-      <c r="AP32" s="112"/>
-      <c r="AQ32" s="112"/>
-      <c r="AR32" s="113"/>
-      <c r="AS32" s="113"/>
-      <c r="AT32" s="113"/>
-      <c r="AU32" s="113"/>
-      <c r="AV32" s="113"/>
-      <c r="AW32" s="113"/>
-      <c r="AX32" s="113"/>
-      <c r="AY32" s="113"/>
-      <c r="AZ32" s="113"/>
-      <c r="BA32" s="113"/>
-      <c r="BB32" s="113"/>
-      <c r="BC32" s="113"/>
-      <c r="BD32" s="113"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="70"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="6"/>
+      <c r="AS32" s="6"/>
+      <c r="AT32" s="6"/>
+      <c r="AU32" s="6"/>
+      <c r="AV32" s="6"/>
+      <c r="AW32" s="6"/>
+      <c r="AX32" s="6"/>
+      <c r="AY32" s="6"/>
+      <c r="AZ32" s="6"/>
+      <c r="BA32" s="6"/>
+      <c r="BB32" s="6"/>
+      <c r="BC32" s="6"/>
+      <c r="BD32" s="6"/>
     </row>
     <row r="33" spans="29:56" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AC33" s="113"/>
-      <c r="AD33" s="113"/>
-      <c r="AE33" s="113"/>
-      <c r="AF33" s="113"/>
-      <c r="AG33" s="113"/>
-      <c r="AH33" s="112"/>
-      <c r="AI33" s="112"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
       <c r="AJ33" s="8" t="s">
         <v>10</v>
       </c>
@@ -32103,265 +32093,265 @@
       </c>
       <c r="AL33" s="21"/>
       <c r="AM33" s="21"/>
-      <c r="AN33" s="112"/>
-      <c r="AO33" s="113"/>
-      <c r="AP33" s="114"/>
-      <c r="AQ33" s="116"/>
-      <c r="AR33" s="113"/>
-      <c r="AS33" s="113"/>
-      <c r="AT33" s="113"/>
-      <c r="AU33" s="113"/>
-      <c r="AV33" s="113"/>
-      <c r="AW33" s="113"/>
-      <c r="AX33" s="113"/>
-      <c r="AY33" s="113"/>
-      <c r="AZ33" s="113"/>
-      <c r="BA33" s="113"/>
-      <c r="BB33" s="113"/>
-      <c r="BC33" s="113"/>
-      <c r="BD33" s="113"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="70"/>
+      <c r="AQ33" s="21"/>
+      <c r="AR33" s="6"/>
+      <c r="AS33" s="6"/>
+      <c r="AT33" s="6"/>
+      <c r="AU33" s="6"/>
+      <c r="AV33" s="6"/>
+      <c r="AW33" s="6"/>
+      <c r="AX33" s="6"/>
+      <c r="AY33" s="6"/>
+      <c r="AZ33" s="6"/>
+      <c r="BA33" s="6"/>
+      <c r="BB33" s="6"/>
+      <c r="BC33" s="6"/>
+      <c r="BD33" s="6"/>
     </row>
     <row r="34" spans="29:56" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AC34" s="113"/>
-      <c r="AD34" s="113"/>
-      <c r="AE34" s="113"/>
-      <c r="AF34" s="113"/>
-      <c r="AG34" s="113"/>
-      <c r="AH34" s="112"/>
-      <c r="AI34" s="112"/>
-      <c r="AJ34" s="113"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="6"/>
       <c r="AK34" s="8" t="s">
         <v>11</v>
       </c>
       <c r="AL34" s="18"/>
-      <c r="AM34" s="113"/>
-      <c r="AN34" s="112"/>
-      <c r="AO34" s="113"/>
-      <c r="AP34" s="113"/>
-      <c r="AQ34" s="113"/>
-      <c r="AR34" s="113"/>
-      <c r="AS34" s="113"/>
-      <c r="AT34" s="113"/>
-      <c r="AU34" s="113"/>
-      <c r="AV34" s="113"/>
-      <c r="AW34" s="113"/>
-      <c r="AX34" s="113"/>
-      <c r="AY34" s="113"/>
-      <c r="AZ34" s="113"/>
-      <c r="BA34" s="113"/>
-      <c r="BB34" s="113"/>
-      <c r="BC34" s="113"/>
-      <c r="BD34" s="113"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="6"/>
+      <c r="AR34" s="6"/>
+      <c r="AS34" s="6"/>
+      <c r="AT34" s="6"/>
+      <c r="AU34" s="6"/>
+      <c r="AV34" s="6"/>
+      <c r="AW34" s="6"/>
+      <c r="AX34" s="6"/>
+      <c r="AY34" s="6"/>
+      <c r="AZ34" s="6"/>
+      <c r="BA34" s="6"/>
+      <c r="BB34" s="6"/>
+      <c r="BC34" s="6"/>
+      <c r="BD34" s="6"/>
     </row>
     <row r="35" spans="29:56" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="AC35" s="113"/>
-      <c r="AD35" s="113"/>
-      <c r="AE35" s="113"/>
-      <c r="AF35" s="113"/>
-      <c r="AG35" s="113"/>
-      <c r="AH35" s="112"/>
-      <c r="AI35" s="112"/>
-      <c r="AJ35" s="113"/>
-      <c r="AK35" s="112"/>
-      <c r="AL35" s="113"/>
-      <c r="AM35" s="113"/>
-      <c r="AN35" s="112"/>
-      <c r="AO35" s="112"/>
-      <c r="AP35" s="113"/>
-      <c r="AQ35" s="112"/>
-      <c r="AR35" s="113"/>
-      <c r="AS35" s="113"/>
-      <c r="AT35" s="113"/>
-      <c r="AU35" s="113"/>
-      <c r="AV35" s="113"/>
-      <c r="AW35" s="113"/>
-      <c r="AX35" s="113"/>
-      <c r="AY35" s="113"/>
-      <c r="AZ35" s="113"/>
-      <c r="BA35" s="113"/>
-      <c r="BB35" s="113"/>
-      <c r="BC35" s="113"/>
-      <c r="BD35" s="113"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="6"/>
+      <c r="AS35" s="6"/>
+      <c r="AT35" s="6"/>
+      <c r="AU35" s="6"/>
+      <c r="AV35" s="6"/>
+      <c r="AW35" s="6"/>
+      <c r="AX35" s="6"/>
+      <c r="AY35" s="6"/>
+      <c r="AZ35" s="6"/>
+      <c r="BA35" s="6"/>
+      <c r="BB35" s="6"/>
+      <c r="BC35" s="6"/>
+      <c r="BD35" s="6"/>
     </row>
     <row r="36" spans="29:56" x14ac:dyDescent="0.3">
-      <c r="AC36" s="113"/>
-      <c r="AD36" s="113"/>
-      <c r="AE36" s="113"/>
-      <c r="AF36" s="113"/>
-      <c r="AG36" s="113"/>
-      <c r="AH36" s="112"/>
-      <c r="AI36" s="112"/>
-      <c r="AJ36" s="116"/>
-      <c r="AK36" s="112"/>
-      <c r="AL36" s="113"/>
-      <c r="AM36" s="113"/>
-      <c r="AN36" s="112"/>
-      <c r="AO36" s="112"/>
-      <c r="AP36" s="116"/>
-      <c r="AQ36" s="112"/>
-      <c r="AR36" s="113"/>
-      <c r="AS36" s="113"/>
-      <c r="AT36" s="113"/>
-      <c r="AU36" s="113"/>
-      <c r="AV36" s="113"/>
-      <c r="AW36" s="113"/>
-      <c r="AX36" s="113"/>
-      <c r="AY36" s="113"/>
-      <c r="AZ36" s="113"/>
-      <c r="BA36" s="113"/>
-      <c r="BB36" s="113"/>
-      <c r="BC36" s="113"/>
-      <c r="BD36" s="113"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="21"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="21"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="6"/>
+      <c r="AS36" s="6"/>
+      <c r="AT36" s="6"/>
+      <c r="AU36" s="6"/>
+      <c r="AV36" s="6"/>
+      <c r="AW36" s="6"/>
+      <c r="AX36" s="6"/>
+      <c r="AY36" s="6"/>
+      <c r="AZ36" s="6"/>
+      <c r="BA36" s="6"/>
+      <c r="BB36" s="6"/>
+      <c r="BC36" s="6"/>
+      <c r="BD36" s="6"/>
     </row>
     <row r="37" spans="29:56" x14ac:dyDescent="0.3">
-      <c r="AC37" s="113"/>
-      <c r="AD37" s="113"/>
-      <c r="AE37" s="113"/>
-      <c r="AF37" s="113"/>
-      <c r="AG37" s="113"/>
-      <c r="AH37" s="112"/>
-      <c r="AI37" s="112"/>
-      <c r="AJ37" s="113"/>
-      <c r="AK37" s="112"/>
-      <c r="AL37" s="113"/>
-      <c r="AM37" s="113"/>
-      <c r="AN37" s="112"/>
-      <c r="AO37" s="112"/>
-      <c r="AP37" s="113"/>
-      <c r="AQ37" s="112"/>
-      <c r="AR37" s="113"/>
-      <c r="AS37" s="113"/>
-      <c r="AT37" s="113"/>
-      <c r="AU37" s="113"/>
-      <c r="AV37" s="113"/>
-      <c r="AW37" s="113"/>
-      <c r="AX37" s="113"/>
-      <c r="AY37" s="113"/>
-      <c r="AZ37" s="113"/>
-      <c r="BA37" s="113"/>
-      <c r="BB37" s="113"/>
-      <c r="BC37" s="113"/>
-      <c r="BD37" s="113"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="6"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="6"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="6"/>
+      <c r="AS37" s="6"/>
+      <c r="AT37" s="6"/>
+      <c r="AU37" s="6"/>
+      <c r="AV37" s="6"/>
+      <c r="AW37" s="6"/>
+      <c r="AX37" s="6"/>
+      <c r="AY37" s="6"/>
+      <c r="AZ37" s="6"/>
+      <c r="BA37" s="6"/>
+      <c r="BB37" s="6"/>
+      <c r="BC37" s="6"/>
+      <c r="BD37" s="6"/>
     </row>
     <row r="38" spans="29:56" x14ac:dyDescent="0.3">
-      <c r="AC38" s="113"/>
-      <c r="AD38" s="113"/>
-      <c r="AE38" s="113"/>
-      <c r="AF38" s="113"/>
-      <c r="AG38" s="113"/>
-      <c r="AH38" s="112"/>
-      <c r="AI38" s="112"/>
-      <c r="AJ38" s="112"/>
-      <c r="AK38" s="112"/>
-      <c r="AL38" s="113"/>
-      <c r="AM38" s="113"/>
-      <c r="AN38" s="112"/>
-      <c r="AO38" s="112"/>
-      <c r="AP38" s="112"/>
-      <c r="AQ38" s="112"/>
-      <c r="AR38" s="113"/>
-      <c r="AS38" s="113"/>
-      <c r="AT38" s="113"/>
-      <c r="AU38" s="113"/>
-      <c r="AV38" s="113"/>
-      <c r="AW38" s="113"/>
-      <c r="AX38" s="113"/>
-      <c r="AY38" s="113"/>
-      <c r="AZ38" s="113"/>
-      <c r="BA38" s="113"/>
-      <c r="BB38" s="113"/>
-      <c r="BC38" s="113"/>
-      <c r="BD38" s="113"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="6"/>
+      <c r="AS38" s="6"/>
+      <c r="AT38" s="6"/>
+      <c r="AU38" s="6"/>
+      <c r="AV38" s="6"/>
+      <c r="AW38" s="6"/>
+      <c r="AX38" s="6"/>
+      <c r="AY38" s="6"/>
+      <c r="AZ38" s="6"/>
+      <c r="BA38" s="6"/>
+      <c r="BB38" s="6"/>
+      <c r="BC38" s="6"/>
+      <c r="BD38" s="6"/>
     </row>
     <row r="39" spans="29:56" x14ac:dyDescent="0.3">
-      <c r="AC39" s="113"/>
-      <c r="AD39" s="113"/>
-      <c r="AE39" s="113"/>
-      <c r="AF39" s="113"/>
-      <c r="AG39" s="113"/>
-      <c r="AH39" s="112"/>
-      <c r="AI39" s="112"/>
-      <c r="AJ39" s="112"/>
-      <c r="AK39" s="113"/>
-      <c r="AL39" s="113"/>
-      <c r="AM39" s="113"/>
-      <c r="AN39" s="112"/>
-      <c r="AO39" s="112"/>
-      <c r="AP39" s="112"/>
-      <c r="AQ39" s="113"/>
-      <c r="AR39" s="113"/>
-      <c r="AS39" s="113"/>
-      <c r="AT39" s="113"/>
-      <c r="AU39" s="113"/>
-      <c r="AV39" s="113"/>
-      <c r="AW39" s="113"/>
-      <c r="AX39" s="113"/>
-      <c r="AY39" s="113"/>
-      <c r="AZ39" s="113"/>
-      <c r="BA39" s="113"/>
-      <c r="BB39" s="113"/>
-      <c r="BC39" s="113"/>
-      <c r="BD39" s="113"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="6"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="6"/>
+      <c r="AR39" s="6"/>
+      <c r="AS39" s="6"/>
+      <c r="AT39" s="6"/>
+      <c r="AU39" s="6"/>
+      <c r="AV39" s="6"/>
+      <c r="AW39" s="6"/>
+      <c r="AX39" s="6"/>
+      <c r="AY39" s="6"/>
+      <c r="AZ39" s="6"/>
+      <c r="BA39" s="6"/>
+      <c r="BB39" s="6"/>
+      <c r="BC39" s="6"/>
+      <c r="BD39" s="6"/>
     </row>
     <row r="40" spans="29:56" x14ac:dyDescent="0.3">
-      <c r="AC40" s="113"/>
-      <c r="AD40" s="113"/>
-      <c r="AE40" s="113"/>
-      <c r="AF40" s="113"/>
-      <c r="AG40" s="113"/>
-      <c r="AH40" s="113"/>
-      <c r="AI40" s="113"/>
-      <c r="AJ40" s="113"/>
-      <c r="AK40" s="113"/>
-      <c r="AL40" s="113"/>
-      <c r="AM40" s="113"/>
-      <c r="AN40" s="113"/>
-      <c r="AO40" s="113"/>
-      <c r="AP40" s="113"/>
-      <c r="AQ40" s="113"/>
-      <c r="AR40" s="113"/>
-      <c r="AS40" s="113"/>
-      <c r="AT40" s="113"/>
-      <c r="AU40" s="113"/>
-      <c r="AV40" s="113"/>
-      <c r="AW40" s="113"/>
-      <c r="AX40" s="113"/>
-      <c r="AY40" s="113"/>
-      <c r="AZ40" s="113"/>
-      <c r="BA40" s="113"/>
-      <c r="BB40" s="113"/>
-      <c r="BC40" s="113"/>
-      <c r="BD40" s="113"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="6"/>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="6"/>
+      <c r="AP40" s="6"/>
+      <c r="AQ40" s="6"/>
+      <c r="AR40" s="6"/>
+      <c r="AS40" s="6"/>
+      <c r="AT40" s="6"/>
+      <c r="AU40" s="6"/>
+      <c r="AV40" s="6"/>
+      <c r="AW40" s="6"/>
+      <c r="AX40" s="6"/>
+      <c r="AY40" s="6"/>
+      <c r="AZ40" s="6"/>
+      <c r="BA40" s="6"/>
+      <c r="BB40" s="6"/>
+      <c r="BC40" s="6"/>
+      <c r="BD40" s="6"/>
     </row>
     <row r="41" spans="29:56" x14ac:dyDescent="0.3">
-      <c r="AC41" s="113"/>
-      <c r="AD41" s="113"/>
-      <c r="AE41" s="113"/>
-      <c r="AF41" s="113"/>
-      <c r="AG41" s="113"/>
-      <c r="AH41" s="113"/>
-      <c r="AI41" s="113"/>
-      <c r="AJ41" s="113"/>
-      <c r="AK41" s="113"/>
-      <c r="AL41" s="113"/>
-      <c r="AM41" s="113"/>
-      <c r="AN41" s="113"/>
-      <c r="AO41" s="113"/>
-      <c r="AP41" s="113"/>
-      <c r="AQ41" s="113"/>
-      <c r="AR41" s="113"/>
-      <c r="AS41" s="113"/>
-      <c r="AT41" s="113"/>
-      <c r="AU41" s="113"/>
-      <c r="AV41" s="113"/>
-      <c r="AW41" s="113"/>
-      <c r="AX41" s="113"/>
-      <c r="AY41" s="113"/>
-      <c r="AZ41" s="113"/>
-      <c r="BA41" s="113"/>
-      <c r="BB41" s="113"/>
-      <c r="BC41" s="113"/>
-      <c r="BD41" s="113"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="6"/>
+      <c r="AO41" s="6"/>
+      <c r="AP41" s="6"/>
+      <c r="AQ41" s="6"/>
+      <c r="AR41" s="6"/>
+      <c r="AS41" s="6"/>
+      <c r="AT41" s="6"/>
+      <c r="AU41" s="6"/>
+      <c r="AV41" s="6"/>
+      <c r="AW41" s="6"/>
+      <c r="AX41" s="6"/>
+      <c r="AY41" s="6"/>
+      <c r="AZ41" s="6"/>
+      <c r="BA41" s="6"/>
+      <c r="BB41" s="6"/>
+      <c r="BC41" s="6"/>
+      <c r="BD41" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32581,7 +32571,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="119"/>
+      <c r="I5" s="96"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -32589,7 +32579,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="119"/>
+      <c r="Q5" s="96"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -32636,7 +32626,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="119"/>
+      <c r="I6" s="96"/>
       <c r="J6" s="1"/>
       <c r="K6" s="6">
         <v>1</v>
@@ -32646,7 +32636,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="119"/>
+      <c r="Q6" s="96"/>
       <c r="R6" s="1"/>
       <c r="S6" s="6">
         <v>1</v>
@@ -32699,7 +32689,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="119"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="1"/>
       <c r="K7" s="69" t="s">
         <v>8</v>
@@ -32709,7 +32699,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="119"/>
+      <c r="Q7" s="96"/>
       <c r="R7" s="1"/>
       <c r="S7" s="69" t="s">
         <v>8</v>
@@ -32762,7 +32752,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="119"/>
+      <c r="I8" s="96"/>
       <c r="J8" s="1"/>
       <c r="K8" s="8">
         <v>8</v>
@@ -32772,7 +32762,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="119"/>
+      <c r="Q8" s="96"/>
       <c r="R8" s="1"/>
       <c r="S8" s="8">
         <v>8</v>
@@ -32829,7 +32819,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="119"/>
+      <c r="I9" s="96"/>
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
       <c r="L9" s="70" t="s">
@@ -32839,7 +32829,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="119"/>
+      <c r="Q9" s="96"/>
       <c r="R9" s="1"/>
       <c r="S9" s="6"/>
       <c r="T9" s="70" t="s">
@@ -32890,9 +32880,9 @@
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="119"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="96"/>
       <c r="J10" s="1"/>
       <c r="K10" s="6">
         <v>4</v>
@@ -32900,9 +32890,9 @@
       <c r="L10" s="6"/>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="119"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="96"/>
       <c r="R10" s="1"/>
       <c r="S10" s="6">
         <v>4</v>
@@ -32910,10 +32900,10 @@
       <c r="T10" s="6"/>
       <c r="U10" s="4"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="112"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
       <c r="AA10" s="8" t="s">
         <v>9</v>
       </c>
@@ -32957,9 +32947,9 @@
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="119"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="96"/>
       <c r="J11" s="1"/>
       <c r="K11" s="69" t="s">
         <v>9</v>
@@ -32967,9 +32957,9 @@
       <c r="L11" s="6"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="119"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="96"/>
       <c r="R11" s="1"/>
       <c r="S11" s="69" t="s">
         <v>9</v>
@@ -32977,10 +32967,10 @@
       <c r="T11" s="6"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="112"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="1" t="s">
         <v>12</v>
@@ -33024,9 +33014,9 @@
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="119"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="96"/>
       <c r="J12" s="1"/>
       <c r="K12" s="8">
         <v>5</v>
@@ -33034,9 +33024,9 @@
       <c r="L12" s="11"/>
       <c r="M12" s="1"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="119"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="96"/>
       <c r="R12" s="1"/>
       <c r="S12" s="8">
         <v>5</v>
@@ -33044,10 +33034,10 @@
       <c r="T12" s="11"/>
       <c r="U12" s="1"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="112"/>
-      <c r="Z12" s="112"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
       <c r="AA12" s="6" t="s">
         <v>10</v>
       </c>
@@ -33091,9 +33081,9 @@
         <v>14</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="119"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="96"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -33101,9 +33091,9 @@
         <v>14</v>
       </c>
       <c r="N13" s="5"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="119"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="96"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -33111,10 +33101,10 @@
         <v>14</v>
       </c>
       <c r="V13" s="5"/>
-      <c r="W13" s="112"/>
-      <c r="X13" s="112"/>
-      <c r="Y13" s="112"/>
-      <c r="Z13" s="112"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
       <c r="AA13" s="26" t="s">
         <v>37</v>
       </c>
@@ -33156,9 +33146,9 @@
       <c r="D14" s="6"/>
       <c r="E14" s="1"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="119"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="96"/>
       <c r="J14" s="1"/>
       <c r="K14" s="6">
         <v>3</v>
@@ -33166,9 +33156,9 @@
       <c r="L14" s="6"/>
       <c r="M14" s="1"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="119"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="96"/>
       <c r="R14" s="1"/>
       <c r="S14" s="6">
         <v>3</v>
@@ -33176,10 +33166,10 @@
       <c r="T14" s="6"/>
       <c r="U14" s="1"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="112"/>
-      <c r="X14" s="112"/>
-      <c r="Y14" s="112"/>
-      <c r="Z14" s="112"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
       <c r="AA14" s="8" t="s">
         <v>11</v>
       </c>
@@ -33221,9 +33211,9 @@
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="96"/>
       <c r="J15" s="1"/>
       <c r="K15" s="69" t="s">
         <v>10</v>
@@ -33231,9 +33221,9 @@
       <c r="L15" s="6"/>
       <c r="M15" s="1"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="119"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="96"/>
       <c r="R15" s="1"/>
       <c r="S15" s="69" t="s">
         <v>10</v>
@@ -33241,10 +33231,10 @@
       <c r="T15" s="6"/>
       <c r="U15" s="1"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="112"/>
-      <c r="X15" s="112"/>
-      <c r="Y15" s="112"/>
-      <c r="Z15" s="112"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
@@ -33286,9 +33276,9 @@
       <c r="D16" s="11"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="96"/>
       <c r="J16" s="1"/>
       <c r="K16" s="8">
         <v>6</v>
@@ -33296,9 +33286,9 @@
       <c r="L16" s="11"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="119"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="96"/>
       <c r="R16" s="1"/>
       <c r="S16" s="8">
         <v>6</v>
@@ -33306,10 +33296,10 @@
       <c r="T16" s="11"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="112"/>
-      <c r="X16" s="112"/>
-      <c r="Y16" s="112"/>
-      <c r="Z16" s="112"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
@@ -33351,9 +33341,9 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="119"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="96"/>
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
       <c r="L17" s="70" t="s">
@@ -33361,9 +33351,9 @@
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="119"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="96"/>
       <c r="R17" s="1"/>
       <c r="S17" s="6"/>
       <c r="T17" s="70" t="s">
@@ -33371,10 +33361,10 @@
       </c>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="112"/>
-      <c r="X17" s="112"/>
-      <c r="Y17" s="112"/>
-      <c r="Z17" s="112"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="1" t="s">
         <v>13</v>
@@ -33418,7 +33408,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="119"/>
+      <c r="I18" s="96"/>
       <c r="J18" s="1"/>
       <c r="K18" s="6">
         <v>2</v>
@@ -33428,7 +33418,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="119"/>
+      <c r="Q18" s="96"/>
       <c r="R18" s="1"/>
       <c r="S18" s="6">
         <v>2</v>
@@ -33485,7 +33475,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="119"/>
+      <c r="I19" s="96"/>
       <c r="J19" s="1"/>
       <c r="K19" s="69" t="s">
         <v>11</v>
@@ -33495,7 +33485,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="119"/>
+      <c r="Q19" s="96"/>
       <c r="R19" s="1"/>
       <c r="S19" s="69" t="s">
         <v>11</v>
@@ -33548,7 +33538,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="119"/>
+      <c r="I20" s="96"/>
       <c r="J20" s="1"/>
       <c r="K20" s="8">
         <v>7</v>
@@ -33558,7 +33548,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="119"/>
+      <c r="Q20" s="96"/>
       <c r="R20" s="1"/>
       <c r="S20" s="8">
         <v>7</v>
@@ -33611,7 +33601,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="119"/>
+      <c r="I21" s="96"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -33619,7 +33609,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="119"/>
+      <c r="Q21" s="96"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -33666,7 +33656,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="5"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="119"/>
+      <c r="I22" s="96"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -33674,7 +33664,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="119"/>
+      <c r="Q22" s="96"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -33725,7 +33715,7 @@
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="119"/>
+      <c r="I23" s="96"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -33735,7 +33725,7 @@
         <v>14</v>
       </c>
       <c r="P23" s="1"/>
-      <c r="Q23" s="119"/>
+      <c r="Q23" s="96"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="6" t="s">
@@ -33769,7 +33759,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="119"/>
+      <c r="I24" s="96"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="6"/>
@@ -33779,7 +33769,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="119"/>
+      <c r="Q24" s="96"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="69" t="s">
@@ -33815,7 +33805,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="119"/>
+      <c r="I25" s="96"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="6" t="s">
@@ -33825,11 +33815,11 @@
         <v>26</v>
       </c>
       <c r="N25" s="6"/>
-      <c r="O25" s="111" t="s">
+      <c r="O25" s="93" t="s">
         <v>60</v>
       </c>
       <c r="P25" s="5"/>
-      <c r="Q25" s="119"/>
+      <c r="Q25" s="96"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="8" t="s">
@@ -33861,7 +33851,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="1"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="119"/>
+      <c r="I26" s="96"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="69" t="s">
@@ -33871,7 +33861,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="33"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="119"/>
+      <c r="Q26" s="96"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="6"/>
@@ -33905,7 +33895,7 @@
         <v>35</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="119"/>
+      <c r="I27" s="96"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="8" t="s">
@@ -33917,7 +33907,7 @@
       </c>
       <c r="O27" s="15"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="119"/>
+      <c r="Q27" s="96"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="6" t="s">
@@ -33927,8 +33917,8 @@
       <c r="V27" s="4"/>
       <c r="W27" s="1"/>
       <c r="X27" s="5"/>
-      <c r="Y27" s="112"/>
-      <c r="Z27" s="112"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
       <c r="AA27" s="6" t="s">
         <v>8</v>
       </c>
@@ -33951,7 +33941,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="1"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="119"/>
+      <c r="I28" s="96"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="6"/>
@@ -33961,7 +33951,7 @@
       <c r="N28" s="92"/>
       <c r="O28" s="4"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="119"/>
+      <c r="Q28" s="96"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="69" t="s">
@@ -33973,8 +33963,8 @@
         <v>60</v>
       </c>
       <c r="X28" s="5"/>
-      <c r="Y28" s="112"/>
-      <c r="Z28" s="112"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
       <c r="AA28" s="26" t="s">
         <v>15</v>
       </c>
@@ -33999,7 +33989,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="1"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="119"/>
+      <c r="I29" s="96"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="6" t="s">
@@ -34011,7 +34001,7 @@
       <c r="N29" s="6"/>
       <c r="O29" s="5"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="119"/>
+      <c r="Q29" s="96"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="8" t="s">
@@ -34021,8 +34011,8 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="4"/>
-      <c r="Y29" s="112"/>
-      <c r="Z29" s="112"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
       <c r="AA29" s="8" t="s">
         <v>9</v>
       </c>
@@ -34045,7 +34035,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="119"/>
+      <c r="I30" s="96"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="69" t="s">
@@ -34055,7 +34045,7 @@
       <c r="N30" s="4"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="119"/>
+      <c r="Q30" s="96"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -34065,8 +34055,8 @@
       </c>
       <c r="W30" s="1"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="112"/>
-      <c r="Z30" s="112"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="21" t="s">
         <v>26</v>
@@ -34089,7 +34079,7 @@
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="119"/>
+      <c r="I31" s="96"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="8" t="s">
@@ -34099,7 +34089,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="119"/>
+      <c r="Q31" s="96"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -34107,8 +34097,8 @@
       <c r="V31" s="11"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="112"/>
-      <c r="Z31" s="112"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
       <c r="AA31" s="6" t="s">
         <v>10</v>
       </c>
@@ -34131,7 +34121,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="4"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="119"/>
+      <c r="I32" s="96"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -34139,7 +34129,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="119"/>
+      <c r="Q32" s="96"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -34149,8 +34139,8 @@
       </c>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="112"/>
-      <c r="Z32" s="112"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
       <c r="AA32" s="26" t="s">
         <v>37</v>
       </c>
@@ -34175,7 +34165,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="5"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="119"/>
+      <c r="I33" s="96"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -34183,7 +34173,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="119"/>
+      <c r="Q33" s="96"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -34191,8 +34181,8 @@
       <c r="V33" s="6"/>
       <c r="W33" s="4"/>
       <c r="X33" s="1"/>
-      <c r="Y33" s="112"/>
-      <c r="Z33" s="112"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
       <c r="AA33" s="8" t="s">
         <v>11</v>
       </c>
@@ -34215,7 +34205,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="119"/>
+      <c r="I34" s="96"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -34223,7 +34213,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="119"/>
+      <c r="Q34" s="96"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -34233,8 +34223,8 @@
       </c>
       <c r="W34" s="5"/>
       <c r="X34" s="1"/>
-      <c r="Y34" s="112"/>
-      <c r="Z34" s="112"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1" t="s">
@@ -34255,7 +34245,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="119"/>
+      <c r="I35" s="96"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -34263,7 +34253,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="119"/>
+      <c r="Q35" s="96"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -34291,7 +34281,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="119"/>
+      <c r="I36" s="96"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -34299,7 +34289,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="119"/>
+      <c r="Q36" s="96"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -34329,7 +34319,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="119"/>
+      <c r="I37" s="96"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -34337,7 +34327,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="119"/>
+      <c r="Q37" s="96"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -34365,7 +34355,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="119"/>
+      <c r="I38" s="96"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -34373,7 +34363,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="119"/>
+      <c r="Q38" s="96"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -34496,7 +34486,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="119"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -34516,7 +34506,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="119"/>
+      <c r="K2" s="96"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -34537,7 +34527,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="119"/>
+      <c r="K3" s="96"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -34558,7 +34548,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="119"/>
+      <c r="K4" s="96"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -34579,7 +34569,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="119"/>
+      <c r="K5" s="96"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -34602,7 +34592,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="119"/>
+      <c r="K6" s="96"/>
       <c r="L6" s="1"/>
       <c r="M6" s="6">
         <v>1</v>
@@ -34627,7 +34617,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="119"/>
+      <c r="K7" s="96"/>
       <c r="L7" s="1"/>
       <c r="M7" s="69" t="s">
         <v>8</v>
@@ -34652,7 +34642,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="119"/>
+      <c r="K8" s="96"/>
       <c r="L8" s="1"/>
       <c r="M8" s="8">
         <v>16</v>
@@ -34677,7 +34667,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="119"/>
+      <c r="K9" s="96"/>
       <c r="L9" s="1"/>
       <c r="M9" s="6"/>
       <c r="N9" s="70" t="s">
@@ -34698,11 +34688,11 @@
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="119"/>
+      <c r="K10" s="96"/>
       <c r="L10" s="1"/>
       <c r="M10" s="6">
         <v>8</v>
@@ -34710,7 +34700,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="4"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="112"/>
+      <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -34723,11 +34713,11 @@
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="119"/>
+      <c r="K11" s="96"/>
       <c r="L11" s="1"/>
       <c r="M11" s="69" t="s">
         <v>9</v>
@@ -34735,7 +34725,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="112"/>
+      <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -34748,11 +34738,11 @@
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="119"/>
+      <c r="K12" s="96"/>
       <c r="L12" s="1"/>
       <c r="M12" s="8">
         <v>9</v>
@@ -34760,7 +34750,7 @@
       <c r="N12" s="11"/>
       <c r="O12" s="1"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="112"/>
+      <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -34773,11 +34763,11 @@
         <v>14</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="119"/>
+      <c r="K13" s="96"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -34785,7 +34775,7 @@
         <v>14</v>
       </c>
       <c r="P13" s="5"/>
-      <c r="Q13" s="112"/>
+      <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -34799,10 +34789,10 @@
       <c r="E14" s="1"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="112"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="119"/>
+      <c r="K14" s="96"/>
       <c r="L14" s="1"/>
       <c r="M14" s="6">
         <v>5</v>
@@ -34824,10 +34814,10 @@
       <c r="E15" s="1"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="112"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="119"/>
+      <c r="K15" s="96"/>
       <c r="L15" s="1"/>
       <c r="M15" s="69" t="s">
         <v>10</v>
@@ -34849,10 +34839,10 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="112"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="119"/>
+      <c r="K16" s="96"/>
       <c r="L16" s="1"/>
       <c r="M16" s="8">
         <v>12</v>
@@ -34874,10 +34864,10 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="112"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="119"/>
+      <c r="K17" s="96"/>
       <c r="L17" s="1"/>
       <c r="M17" s="6"/>
       <c r="N17" s="70" t="s">
@@ -34902,7 +34892,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="119"/>
+      <c r="K18" s="96"/>
       <c r="L18" s="1"/>
       <c r="M18" s="6">
         <v>4</v>
@@ -34927,7 +34917,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="119"/>
+      <c r="K19" s="96"/>
       <c r="L19" s="1"/>
       <c r="M19" s="69" t="s">
         <v>11</v>
@@ -34952,7 +34942,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="119"/>
+      <c r="K20" s="96"/>
       <c r="L20" s="1"/>
       <c r="M20" s="8">
         <v>13</v>
@@ -34977,7 +34967,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="119"/>
+      <c r="K21" s="96"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -35002,7 +34992,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="119"/>
+      <c r="K22" s="96"/>
       <c r="L22" s="1"/>
       <c r="M22" s="6">
         <v>6</v>
@@ -35027,7 +35017,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="119"/>
+      <c r="K23" s="96"/>
       <c r="L23" s="1"/>
       <c r="M23" s="69" t="s">
         <v>149</v>
@@ -35052,7 +35042,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="119"/>
+      <c r="K24" s="96"/>
       <c r="L24" s="1"/>
       <c r="M24" s="8">
         <v>11</v>
@@ -35077,7 +35067,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="119"/>
+      <c r="K25" s="96"/>
       <c r="L25" s="1"/>
       <c r="M25" s="6"/>
       <c r="N25" s="70" t="s">
@@ -35102,7 +35092,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="119"/>
+      <c r="K26" s="96"/>
       <c r="L26" s="1"/>
       <c r="M26" s="6">
         <v>3</v>
@@ -35127,7 +35117,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="119"/>
+      <c r="K27" s="96"/>
       <c r="L27" s="1"/>
       <c r="M27" s="69" t="s">
         <v>150</v>
@@ -35152,7 +35142,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="119"/>
+      <c r="K28" s="96"/>
       <c r="L28" s="1"/>
       <c r="M28" s="8">
         <v>14</v>
@@ -35177,7 +35167,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="119"/>
+      <c r="K29" s="96"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -35202,7 +35192,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="119"/>
+      <c r="K30" s="96"/>
       <c r="L30" s="1"/>
       <c r="M30" s="6">
         <v>7</v>
@@ -35227,7 +35217,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="119"/>
+      <c r="K31" s="96"/>
       <c r="L31" s="1"/>
       <c r="M31" s="69" t="s">
         <v>151</v>
@@ -35252,7 +35242,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="119"/>
+      <c r="K32" s="96"/>
       <c r="L32" s="1"/>
       <c r="M32" s="8">
         <v>10</v>
@@ -35277,7 +35267,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="119"/>
+      <c r="K33" s="96"/>
       <c r="L33" s="1"/>
       <c r="M33" s="6"/>
       <c r="N33" s="70" t="s">
@@ -35302,7 +35292,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="119"/>
+      <c r="K34" s="96"/>
       <c r="L34" s="1"/>
       <c r="M34" s="6">
         <v>2</v>
@@ -35327,7 +35317,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="119"/>
+      <c r="K35" s="96"/>
       <c r="L35" s="1"/>
       <c r="M35" s="69" t="s">
         <v>152</v>
@@ -35352,7 +35342,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="119"/>
+      <c r="K36" s="96"/>
       <c r="L36" s="1"/>
       <c r="M36" s="8">
         <v>15</v>
@@ -35375,7 +35365,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="119"/>
+      <c r="K37" s="96"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -35396,7 +35386,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="119"/>
+      <c r="K38" s="96"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -35419,7 +35409,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="119"/>
+      <c r="K39" s="96"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -35440,7 +35430,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="119"/>
+      <c r="K40" s="96"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -35465,7 +35455,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="119"/>
+      <c r="K41" s="96"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="6"/>
@@ -35490,13 +35480,13 @@
         <v>35</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="111" t="s">
+      <c r="G42" s="93" t="s">
         <v>157</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="119"/>
+      <c r="K42" s="96"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="6" t="s">
@@ -35523,7 +35513,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="5"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="119"/>
+      <c r="K43" s="96"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="69" t="s">
@@ -35548,7 +35538,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="5"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="119"/>
+      <c r="K44" s="96"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="8" t="s">
@@ -35575,7 +35565,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="5"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="119"/>
+      <c r="K45" s="96"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -35596,7 +35586,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="5"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="119"/>
+      <c r="K46" s="96"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="6"/>
@@ -35621,7 +35611,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="5"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="119"/>
+      <c r="K47" s="96"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="6"/>
@@ -35652,7 +35642,7 @@
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="119"/>
+      <c r="K48" s="96"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="6" t="s">
@@ -35679,7 +35669,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="4"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="119"/>
+      <c r="K49" s="96"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="69" t="s">
@@ -35706,7 +35696,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="119"/>
+      <c r="K50" s="96"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="8" t="s">
@@ -35731,7 +35721,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="119"/>
+      <c r="K51" s="96"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -35754,7 +35744,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="119"/>
+      <c r="K52" s="96"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -35777,7 +35767,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="119"/>
+      <c r="K53" s="96"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="6"/>
@@ -35800,7 +35790,7 @@
         <v>154</v>
       </c>
       <c r="F54" s="6"/>
-      <c r="G54" s="111" t="s">
+      <c r="G54" s="93" t="s">
         <v>158</v>
       </c>
       <c r="H54" s="1"/>
@@ -35808,7 +35798,7 @@
         <v>160</v>
       </c>
       <c r="J54" s="5"/>
-      <c r="K54" s="119"/>
+      <c r="K54" s="96"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="6" t="s">
@@ -35818,7 +35808,7 @@
         <v>154</v>
       </c>
       <c r="P54" s="6"/>
-      <c r="Q54" s="111" t="s">
+      <c r="Q54" s="93" t="s">
         <v>158</v>
       </c>
       <c r="R54" s="8"/>
@@ -35837,7 +35827,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="1"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="119"/>
+      <c r="K55" s="96"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="69" t="s">
@@ -35862,7 +35852,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="5"/>
-      <c r="K56" s="119"/>
+      <c r="K56" s="96"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="8" t="s">
@@ -35887,7 +35877,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="5"/>
-      <c r="K57" s="119"/>
+      <c r="K57" s="96"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -35910,7 +35900,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="119"/>
+      <c r="K58" s="96"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="6"/>
@@ -35933,7 +35923,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="5"/>
-      <c r="K59" s="119"/>
+      <c r="K59" s="96"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="6"/>
@@ -35962,7 +35952,7 @@
         <v>15</v>
       </c>
       <c r="J60" s="1"/>
-      <c r="K60" s="119"/>
+      <c r="K60" s="96"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="6" t="s">
@@ -35989,7 +35979,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="119"/>
+      <c r="K61" s="96"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="69" t="s">
@@ -36014,7 +36004,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="119"/>
+      <c r="K62" s="96"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="8" t="s">
@@ -36037,7 +36027,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="119"/>
+      <c r="K63" s="96"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -36058,7 +36048,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="119"/>
+      <c r="K64" s="96"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -36079,7 +36069,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="119"/>
+      <c r="K65" s="96"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -36100,7 +36090,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="119"/>
+      <c r="K66" s="96"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -36121,7 +36111,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="119"/>
+      <c r="K67" s="96"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -36142,7 +36132,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="119"/>
+      <c r="K68" s="96"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -36163,7 +36153,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
-      <c r="K69" s="119"/>
+      <c r="K69" s="96"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -36184,7 +36174,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="119"/>
+      <c r="K70" s="96"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -36205,7 +36195,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
-      <c r="K71" s="119"/>
+      <c r="K71" s="96"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -36226,7 +36216,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="119"/>
+      <c r="K72" s="96"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -36246,7 +36236,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
-      <c r="K73" s="119"/>
+      <c r="K73" s="96"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -36266,7 +36256,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="119"/>
+      <c r="K74" s="96"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -36286,7 +36276,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
-      <c r="K75" s="119"/>
+      <c r="K75" s="96"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -39330,7 +39320,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="9"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="111" t="s">
+      <c r="F7" s="93" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1"/>
@@ -39338,7 +39328,7 @@
       <c r="I7" s="68"/>
       <c r="J7" s="9"/>
       <c r="K7" s="21"/>
-      <c r="L7" s="111" t="s">
+      <c r="L7" s="93" t="s">
         <v>14</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -39908,20 +39898,20 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="110" t="s">
+      <c r="F33" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="G33" s="110"/>
+      <c r="G33" s="117"/>
       <c r="H33" s="1"/>
       <c r="I33" s="68"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="110" t="s">
+      <c r="N33" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="O33" s="110"/>
+      <c r="O33" s="117"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
@@ -39931,16 +39921,16 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
       <c r="H34" s="1"/>
       <c r="I34" s="68"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="110"/>
-      <c r="O34" s="110"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
@@ -40347,8 +40337,8 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="110"/>
-      <c r="G53" s="110"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
@@ -40357,24 +40347,24 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="110"/>
-      <c r="O53" s="110"/>
+      <c r="N53" s="117"/>
+      <c r="O53" s="117"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="110"/>
-      <c r="O54" s="110"/>
+      <c r="N54" s="117"/>
+      <c r="O54" s="117"/>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I55" s="1"/>
@@ -42184,9 +42174,9 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
@@ -42203,9 +42193,9 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -42222,12 +42212,12 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="112"/>
-      <c r="AB3" s="112"/>
-      <c r="AC3" s="112"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -42244,12 +42234,12 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="112"/>
-      <c r="AC4" s="112"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
@@ -42266,16 +42256,15 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
@@ -42294,16 +42283,15 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
-      <c r="X6" s="112"/>
-      <c r="Y6" s="112"/>
-      <c r="Z6" s="112"/>
-      <c r="AA6" s="112"/>
-      <c r="AB6" s="112"/>
-      <c r="AC6" s="112"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
@@ -42321,27 +42309,27 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="112"/>
-      <c r="AB7" s="112"/>
-      <c r="AC7" s="112"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="8">
         <v>4</v>
       </c>
@@ -42353,27 +42341,27 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="112"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="114"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="6"/>
       <c r="G9" s="21" t="s">
         <v>12</v>
@@ -42385,27 +42373,27 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="112"/>
-      <c r="Y9" s="112"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="112"/>
-      <c r="AB9" s="112"/>
-      <c r="AC9" s="112"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="112"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="6">
         <v>2</v>
       </c>
@@ -42415,29 +42403,29 @@
       <c r="J10" s="1"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="112"/>
-      <c r="AB10" s="112"/>
-      <c r="AC10" s="112"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="26" t="s">
         <v>9</v>
       </c>
@@ -42447,29 +42435,29 @@
       <c r="J11" s="1"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="112"/>
-      <c r="AB11" s="112"/>
-      <c r="AC11" s="112"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="8">
         <v>3</v>
       </c>
@@ -42479,223 +42467,223 @@
       <c r="J12" s="4"/>
       <c r="K12" s="1"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="112"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="112"/>
-      <c r="Z12" s="112"/>
-      <c r="AA12" s="112"/>
-      <c r="AB12" s="112"/>
-      <c r="AC12" s="112"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
       <c r="K13" s="21"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="112"/>
-      <c r="X13" s="112"/>
-      <c r="Y13" s="112"/>
-      <c r="Z13" s="112"/>
-      <c r="AA13" s="112"/>
-      <c r="AB13" s="112"/>
-      <c r="AC13" s="112"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="6"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="112"/>
-      <c r="T14" s="112"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="112"/>
-      <c r="W14" s="112"/>
-      <c r="X14" s="112"/>
-      <c r="Y14" s="112"/>
-      <c r="Z14" s="112"/>
-      <c r="AA14" s="112"/>
-      <c r="AB14" s="112"/>
-      <c r="AC14" s="112"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="112"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="26"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="112"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="6">
         <v>1</v>
       </c>
       <c r="Q15" s="1"/>
-      <c r="R15" s="112"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="112"/>
-      <c r="U15" s="112"/>
-      <c r="V15" s="112"/>
-      <c r="W15" s="112"/>
-      <c r="X15" s="112"/>
-      <c r="Y15" s="112"/>
-      <c r="Z15" s="112"/>
-      <c r="AA15" s="112"/>
-      <c r="AB15" s="112"/>
-      <c r="AC15" s="112"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
     </row>
     <row r="16" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="8"/>
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="69" t="s">
         <v>8</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="112"/>
-      <c r="U16" s="112"/>
-      <c r="V16" s="112"/>
-      <c r="W16" s="112"/>
-      <c r="X16" s="112"/>
-      <c r="Y16" s="112"/>
-      <c r="Z16" s="112"/>
-      <c r="AA16" s="112"/>
-      <c r="AB16" s="112"/>
-      <c r="AC16" s="112"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="6"/>
       <c r="J17" s="21"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="8">
         <v>5</v>
       </c>
-      <c r="Q17" s="117" t="s">
+      <c r="Q17" s="94" t="s">
         <v>12</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="112"/>
-      <c r="U17" s="112"/>
-      <c r="V17" s="112"/>
-      <c r="W17" s="112"/>
-      <c r="X17" s="112"/>
-      <c r="Y17" s="112"/>
-      <c r="Z17" s="112"/>
-      <c r="AA17" s="112"/>
-      <c r="AB17" s="112"/>
-      <c r="AC17" s="112"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
-      <c r="C18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
+      <c r="C18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="6"/>
       <c r="J18" s="1"/>
       <c r="K18" s="4"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
       <c r="Q18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="112"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="112"/>
-      <c r="W18" s="112"/>
-      <c r="X18" s="112"/>
-      <c r="Y18" s="112"/>
-      <c r="Z18" s="112"/>
-      <c r="AA18" s="112"/>
-      <c r="AB18" s="112"/>
-      <c r="AC18" s="112"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
-      <c r="C19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
+      <c r="C19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="26"/>
       <c r="J19" s="1"/>
       <c r="K19" s="5"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="112"/>
+      <c r="O19" s="1"/>
       <c r="P19" s="6">
         <v>3</v>
       </c>
@@ -42706,27 +42694,27 @@
       <c r="S19" s="5"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="112"/>
-      <c r="W19" s="112"/>
-      <c r="X19" s="112"/>
-      <c r="Y19" s="112"/>
-      <c r="Z19" s="112"/>
-      <c r="AA19" s="112"/>
-      <c r="AB19" s="112"/>
-      <c r="AC19" s="112"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
     </row>
     <row r="20" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
-      <c r="C20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
+      <c r="C20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="8"/>
       <c r="J20" s="4"/>
       <c r="K20" s="1"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="113"/>
+      <c r="O20" s="6"/>
       <c r="P20" s="69" t="s">
         <v>9</v>
       </c>
@@ -42735,61 +42723,61 @@
       <c r="S20" s="4"/>
       <c r="T20" s="5"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="112"/>
-      <c r="W20" s="112"/>
-      <c r="X20" s="112"/>
-      <c r="Y20" s="112"/>
-      <c r="Z20" s="112"/>
-      <c r="AA20" s="112"/>
-      <c r="AB20" s="112"/>
-      <c r="AC20" s="112"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
     </row>
     <row r="21" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
-      <c r="C21" s="113"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
+      <c r="C21" s="6"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
       <c r="P21" s="8">
         <v>7</v>
       </c>
-      <c r="Q21" s="117" t="s">
+      <c r="Q21" s="94" t="s">
         <v>13</v>
       </c>
       <c r="R21" s="1"/>
-      <c r="S21" s="118" t="s">
+      <c r="S21" s="95" t="s">
         <v>15</v>
       </c>
       <c r="T21" s="5"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="112"/>
-      <c r="W21" s="112"/>
-      <c r="X21" s="112"/>
-      <c r="Y21" s="112"/>
-      <c r="Z21" s="112"/>
-      <c r="AA21" s="112"/>
-      <c r="AB21" s="112"/>
-      <c r="AC21" s="112"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
     </row>
     <row r="22" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
-      <c r="C22" s="114"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
+      <c r="C22" s="70"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
       <c r="Q22" s="8" t="s">
         <v>8</v>
       </c>
@@ -42797,172 +42785,172 @@
       <c r="S22" s="1"/>
       <c r="T22" s="4"/>
       <c r="U22" s="5"/>
-      <c r="V22" s="112"/>
-      <c r="W22" s="113"/>
-      <c r="X22" s="113"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="113"/>
-      <c r="AA22" s="112"/>
-      <c r="AB22" s="112"/>
-      <c r="AC22" s="112"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
     </row>
     <row r="23" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
-      <c r="C23" s="113"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
+      <c r="C23" s="6"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="26"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="112" t="s">
+      <c r="O23" s="1"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1" t="s">
         <v>222</v>
       </c>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
-      <c r="V23" s="112"/>
-      <c r="W23" s="112"/>
-      <c r="X23" s="112"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="112"/>
-      <c r="AA23" s="112"/>
-      <c r="AB23" s="112"/>
-      <c r="AC23" s="112"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
     </row>
     <row r="24" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
-      <c r="C24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
+      <c r="C24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="8"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
       <c r="S24" s="9"/>
       <c r="T24" s="1"/>
       <c r="U24" s="5"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="112"/>
-      <c r="X24" s="112"/>
-      <c r="Y24" s="112"/>
-      <c r="Z24" s="112"/>
-      <c r="AA24" s="112"/>
-      <c r="AB24" s="112"/>
-      <c r="AC24" s="112"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
     </row>
     <row r="25" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
-      <c r="C25" s="112"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="70" t="s">
         <v>26</v>
       </c>
       <c r="U25" s="5"/>
-      <c r="V25" s="112"/>
-      <c r="W25" s="112"/>
-      <c r="X25" s="112"/>
-      <c r="Y25" s="112"/>
-      <c r="Z25" s="112"/>
-      <c r="AA25" s="112"/>
-      <c r="AB25" s="112"/>
-      <c r="AC25" s="112"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
     </row>
     <row r="26" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
-      <c r="C26" s="112"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="12"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="4"/>
       <c r="V26" s="5"/>
-      <c r="W26" s="112"/>
+      <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="6" t="s">
         <v>26</v>
       </c>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="112"/>
-      <c r="AB26" s="112"/>
-      <c r="AC26" s="112"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
     </row>
     <row r="27" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
-      <c r="C27" s="112"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
       <c r="S27" s="1" t="s">
         <v>223</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
-      <c r="W27" s="112"/>
+      <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="69" t="s">
         <v>97</v>
       </c>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="112"/>
-      <c r="AB27" s="112"/>
-      <c r="AC27" s="112"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
     </row>
     <row r="28" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
@@ -42981,22 +42969,22 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
       <c r="S28" s="9"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="113"/>
+      <c r="W28" s="6"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="8" t="s">
         <v>36</v>
       </c>
       <c r="Z28" s="4"/>
-      <c r="AA28" s="112"/>
-      <c r="AB28" s="112"/>
-      <c r="AC28" s="112"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
     </row>
     <row r="29" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
@@ -43015,22 +43003,22 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
       <c r="S29" s="70" t="s">
         <v>37</v>
       </c>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="112"/>
+      <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-      <c r="Z29" s="112"/>
-      <c r="AA29" s="112"/>
-      <c r="AB29" s="112"/>
-      <c r="AC29" s="112"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
     </row>
     <row r="30" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
@@ -43044,11 +43032,11 @@
       <c r="J30" s="8"/>
       <c r="K30" s="4"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
       <c r="R30" s="6" t="s">
         <v>12</v>
       </c>
@@ -43056,15 +43044,15 @@
       <c r="T30" s="4"/>
       <c r="U30" s="1"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="112"/>
+      <c r="W30" s="1"/>
       <c r="X30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
-      <c r="AA30" s="112"/>
-      <c r="AB30" s="112"/>
-      <c r="AC30" s="112"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
     </row>
     <row r="31" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
@@ -43080,27 +43068,27 @@
       <c r="J31" s="6"/>
       <c r="K31" s="21"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
       <c r="R31" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="S31" s="112"/>
+      <c r="S31" s="1"/>
       <c r="T31" s="5"/>
       <c r="U31" s="1"/>
       <c r="V31" s="5"/>
-      <c r="W31" s="112"/>
+      <c r="W31" s="1"/>
       <c r="X31" s="69" t="s">
         <v>60</v>
       </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-      <c r="AA31" s="112"/>
-      <c r="AB31" s="112"/>
-      <c r="AC31" s="112"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
     </row>
     <row r="32" spans="2:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
@@ -43114,27 +43102,27 @@
       <c r="J32" s="6"/>
       <c r="K32" s="1"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
       <c r="R32" s="8" t="s">
         <v>13</v>
       </c>
       <c r="S32" s="9"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="112"/>
+      <c r="W32" s="1"/>
       <c r="X32" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="5"/>
-      <c r="AA32" s="112"/>
-      <c r="AB32" s="112"/>
-      <c r="AC32" s="112"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
     </row>
     <row r="33" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
@@ -43148,79 +43136,79 @@
       <c r="J33" s="26"/>
       <c r="K33" s="1"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="112"/>
-      <c r="S33" s="112"/>
-      <c r="T33" s="112"/>
-      <c r="U33" s="114" t="s">
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="70" t="s">
         <v>35</v>
       </c>
       <c r="V33" s="5"/>
-      <c r="W33" s="112"/>
+      <c r="W33" s="1"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="70" t="s">
         <v>154</v>
       </c>
       <c r="Z33" s="5"/>
-      <c r="AA33" s="112"/>
-      <c r="AB33" s="112"/>
-      <c r="AC33" s="112"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
     </row>
     <row r="34" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="8"/>
       <c r="K34" s="4"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="112"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
       <c r="R34" s="6" t="s">
         <v>74</v>
       </c>
       <c r="S34" s="1"/>
-      <c r="T34" s="112"/>
-      <c r="U34" s="113"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="6"/>
       <c r="V34" s="4"/>
-      <c r="W34" s="112"/>
+      <c r="W34" s="1"/>
       <c r="X34" s="6" t="s">
         <v>167</v>
       </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="4"/>
-      <c r="AA34" s="112"/>
-      <c r="AB34" s="112"/>
-      <c r="AC34" s="112"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
     </row>
     <row r="35" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="112"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
       <c r="R35" s="69" t="s">
         <v>222</v>
       </c>
@@ -43228,33 +43216,33 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="5"/>
-      <c r="W35" s="112"/>
+      <c r="W35" s="1"/>
       <c r="X35" s="69" t="s">
         <v>156</v>
       </c>
       <c r="Y35" s="1"/>
       <c r="Z35" s="5"/>
-      <c r="AA35" s="112"/>
-      <c r="AB35" s="112"/>
-      <c r="AC35" s="112"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
     </row>
     <row r="36" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="112"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="112"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
       <c r="R36" s="8" t="s">
         <v>153</v>
       </c>
@@ -43262,1376 +43250,1376 @@
       <c r="T36" s="5"/>
       <c r="U36" s="1"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="112"/>
+      <c r="W36" s="1"/>
       <c r="X36" s="8" t="s">
         <v>168</v>
       </c>
       <c r="Y36" s="4"/>
       <c r="Z36" s="1"/>
-      <c r="AA36" s="112"/>
-      <c r="AB36" s="112"/>
-      <c r="AC36" s="112"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
     </row>
     <row r="37" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="112"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="112"/>
-      <c r="R37" s="112"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
       <c r="S37" s="70" t="s">
         <v>167</v>
       </c>
       <c r="T37" s="5"/>
       <c r="U37" s="1"/>
       <c r="V37" s="5"/>
-      <c r="W37" s="113"/>
+      <c r="W37" s="6"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
-      <c r="Z37" s="112"/>
-      <c r="AA37" s="112"/>
-      <c r="AB37" s="112"/>
-      <c r="AC37" s="112"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
     </row>
     <row r="38" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="112"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="112"/>
-      <c r="H38" s="112"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="26"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="112"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="112"/>
-      <c r="R38" s="112"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="4"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="112"/>
+      <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="6" t="s">
         <v>95</v>
       </c>
       <c r="Z38" s="1"/>
-      <c r="AA38" s="112"/>
-      <c r="AB38" s="112"/>
-      <c r="AC38" s="112"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
     </row>
     <row r="39" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="112"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="112"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="8"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="112"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="112"/>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="112"/>
-      <c r="R39" s="112"/>
-      <c r="S39" s="112" t="s">
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
-      <c r="W39" s="112"/>
+      <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="69" t="s">
         <v>155</v>
       </c>
       <c r="Z39" s="1"/>
-      <c r="AA39" s="112"/>
-      <c r="AB39" s="112"/>
-      <c r="AC39" s="112"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
     </row>
     <row r="40" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="112"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="112"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="112"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
       <c r="S40" s="9"/>
       <c r="T40" s="1"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
-      <c r="W40" s="112"/>
+      <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="8" t="s">
         <v>96</v>
       </c>
       <c r="Z40" s="4"/>
-      <c r="AA40" s="112"/>
-      <c r="AB40" s="112"/>
-      <c r="AC40" s="112"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
     </row>
     <row r="41" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="12"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="112"/>
-      <c r="O41" s="112"/>
-      <c r="P41" s="112"/>
-      <c r="Q41" s="112"/>
-      <c r="R41" s="112"/>
-      <c r="S41" s="112"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
       <c r="T41" s="70" t="s">
         <v>36</v>
       </c>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
-      <c r="W41" s="112"/>
+      <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
-      <c r="Z41" s="112"/>
-      <c r="AA41" s="112"/>
-      <c r="AB41" s="112"/>
-      <c r="AC41" s="112"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
     </row>
     <row r="42" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="112"/>
-      <c r="L42" s="112"/>
-      <c r="M42" s="112"/>
-      <c r="N42" s="112"/>
-      <c r="O42" s="112"/>
-      <c r="P42" s="112"/>
-      <c r="Q42" s="112"/>
-      <c r="R42" s="112"/>
-      <c r="S42" s="112"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="112"/>
-      <c r="W42" s="112"/>
-      <c r="X42" s="112"/>
-      <c r="Y42" s="112"/>
-      <c r="Z42" s="112"/>
-      <c r="AA42" s="112"/>
-      <c r="AB42" s="112"/>
-      <c r="AC42" s="112"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
     </row>
     <row r="43" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="112"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="112"/>
-      <c r="K43" s="112"/>
-      <c r="L43" s="112"/>
-      <c r="M43" s="112"/>
-      <c r="N43" s="112"/>
-      <c r="O43" s="112"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
       <c r="P43" s="6">
         <v>2</v>
       </c>
       <c r="Q43" s="1"/>
-      <c r="R43" s="112"/>
-      <c r="S43" s="112" t="s">
+      <c r="R43" s="1"/>
+      <c r="S43" s="1" t="s">
         <v>75</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="5"/>
-      <c r="V43" s="112"/>
-      <c r="W43" s="113"/>
-      <c r="X43" s="112" t="s">
+      <c r="V43" s="1"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="1" t="s">
         <v>325</v>
       </c>
       <c r="Y43" s="1"/>
-      <c r="Z43" s="112"/>
-      <c r="AA43" s="112"/>
-      <c r="AB43" s="112"/>
-      <c r="AC43" s="112"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
     </row>
     <row r="44" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="112"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="112"/>
-      <c r="K44" s="112"/>
-      <c r="L44" s="112"/>
-      <c r="M44" s="112"/>
-      <c r="N44" s="112"/>
-      <c r="O44" s="112"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
       <c r="P44" s="69" t="s">
         <v>10</v>
       </c>
       <c r="Q44" s="1"/>
-      <c r="R44" s="112"/>
+      <c r="R44" s="1"/>
       <c r="S44" s="9"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
-      <c r="V44" s="112"/>
-      <c r="W44" s="112"/>
-      <c r="X44" s="112" t="s">
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="Y44" s="112"/>
-      <c r="Z44" s="112"/>
-      <c r="AA44" s="112"/>
-      <c r="AB44" s="112"/>
-      <c r="AC44" s="112"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
     </row>
     <row r="45" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="112"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="112"/>
-      <c r="M45" s="112"/>
-      <c r="N45" s="112"/>
-      <c r="O45" s="112"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
       <c r="P45" s="8">
         <v>6</v>
       </c>
-      <c r="Q45" s="117" t="s">
+      <c r="Q45" s="94" t="s">
         <v>74</v>
       </c>
       <c r="R45" s="1"/>
-      <c r="S45" s="111" t="s">
+      <c r="S45" s="93" t="s">
         <v>168</v>
       </c>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
-      <c r="V45" s="112"/>
-      <c r="W45" s="112"/>
-      <c r="X45" s="112" t="s">
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="Y45" s="112"/>
-      <c r="Z45" s="112"/>
-      <c r="AA45" s="112"/>
-      <c r="AB45" s="112"/>
-      <c r="AC45" s="112"/>
-      <c r="AD45" s="112"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
     </row>
     <row r="46" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="112"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="112"/>
-      <c r="J46" s="112"/>
-      <c r="K46" s="112"/>
-      <c r="L46" s="112"/>
-      <c r="M46" s="112"/>
-      <c r="N46" s="112"/>
-      <c r="O46" s="112"/>
-      <c r="P46" s="112"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
       <c r="Q46" s="8" t="s">
         <v>11</v>
       </c>
       <c r="R46" s="14"/>
       <c r="S46" s="1"/>
       <c r="T46" s="4"/>
-      <c r="U46" s="112"/>
-      <c r="V46" s="112"/>
-      <c r="W46" s="112"/>
-      <c r="X46" s="112" t="s">
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="Y46" s="112"/>
-      <c r="Z46" s="112"/>
-      <c r="AA46" s="112"/>
-      <c r="AB46" s="112"/>
-      <c r="AC46" s="112"/>
-      <c r="AD46" s="112"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
     </row>
     <row r="47" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="112"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="112"/>
-      <c r="K47" s="112"/>
-      <c r="L47" s="112"/>
-      <c r="M47" s="112"/>
-      <c r="N47" s="112"/>
-      <c r="O47" s="112"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
       <c r="P47" s="6">
         <v>4</v>
       </c>
       <c r="Q47" s="1"/>
-      <c r="R47" s="111" t="s">
+      <c r="R47" s="93" t="s">
         <v>223</v>
       </c>
-      <c r="S47" s="112"/>
+      <c r="S47" s="1"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="112"/>
-      <c r="V47" s="112"/>
-      <c r="W47" s="112"/>
-      <c r="X47" s="112" t="s">
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="Y47" s="112"/>
-      <c r="Z47" s="112"/>
-      <c r="AA47" s="112"/>
-      <c r="AB47" s="112"/>
-      <c r="AC47" s="112"/>
-      <c r="AD47" s="112"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
     </row>
     <row r="48" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="112"/>
-      <c r="C48" s="112"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="112"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="112"/>
-      <c r="J48" s="112"/>
-      <c r="K48" s="112"/>
-      <c r="L48" s="112"/>
-      <c r="M48" s="112"/>
-      <c r="N48" s="112"/>
-      <c r="O48" s="112"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
       <c r="P48" s="69" t="s">
         <v>11</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="13"/>
       <c r="S48" s="9"/>
-      <c r="T48" s="112"/>
-      <c r="U48" s="113"/>
-      <c r="V48" s="112"/>
-      <c r="W48" s="112"/>
-      <c r="X48" s="112" t="s">
+      <c r="T48" s="1"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="Y48" s="112"/>
-      <c r="Z48" s="112"/>
-      <c r="AA48" s="112"/>
-      <c r="AB48" s="112"/>
-      <c r="AC48" s="112"/>
-      <c r="AD48" s="112"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
     </row>
     <row r="49" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="112"/>
-      <c r="C49" s="112"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="112"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="112"/>
-      <c r="J49" s="112"/>
-      <c r="K49" s="112"/>
-      <c r="L49" s="112"/>
-      <c r="M49" s="112"/>
-      <c r="N49" s="112"/>
-      <c r="O49" s="112"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
       <c r="P49" s="8">
         <v>8</v>
       </c>
-      <c r="Q49" s="117" t="s">
+      <c r="Q49" s="94" t="s">
         <v>153</v>
       </c>
       <c r="R49" s="3"/>
-      <c r="S49" s="112"/>
-      <c r="T49" s="112"/>
-      <c r="U49" s="114"/>
-      <c r="V49" s="112"/>
-      <c r="W49" s="112"/>
-      <c r="X49" s="112" t="s">
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="70"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="Y49" s="112"/>
-      <c r="Z49" s="112"/>
-      <c r="AA49" s="112"/>
-      <c r="AB49" s="112"/>
-      <c r="AC49" s="112"/>
-      <c r="AD49" s="112"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
     </row>
     <row r="50" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="112"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="112"/>
-      <c r="K50" s="112"/>
-      <c r="L50" s="112"/>
-      <c r="M50" s="112"/>
-      <c r="N50" s="112"/>
-      <c r="O50" s="112"/>
-      <c r="P50" s="112"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
       <c r="Q50" s="8" t="s">
         <v>10</v>
       </c>
       <c r="R50" s="4"/>
-      <c r="S50" s="112"/>
-      <c r="T50" s="112"/>
-      <c r="U50" s="113"/>
-      <c r="V50" s="112"/>
-      <c r="W50" s="112"/>
-      <c r="X50" s="112" t="s">
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y50" s="112"/>
-      <c r="Z50" s="112"/>
-      <c r="AA50" s="112"/>
-      <c r="AB50" s="112"/>
-      <c r="AC50" s="112"/>
-      <c r="AD50" s="112"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
     </row>
     <row r="51" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="112"/>
-      <c r="C51" s="112"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="112"/>
-      <c r="G51" s="112"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="112"/>
-      <c r="J51" s="112"/>
-      <c r="K51" s="112"/>
-      <c r="L51" s="112"/>
-      <c r="M51" s="112"/>
-      <c r="N51" s="112"/>
-      <c r="O51" s="112"/>
-      <c r="P51" s="112"/>
-      <c r="Q51" s="112"/>
-      <c r="R51" s="112"/>
-      <c r="S51" s="112"/>
-      <c r="T51" s="112"/>
-      <c r="U51" s="112"/>
-      <c r="V51" s="112"/>
-      <c r="W51" s="112"/>
-      <c r="X51" s="112"/>
-      <c r="Y51" s="112"/>
-      <c r="Z51" s="112"/>
-      <c r="AA51" s="112"/>
-      <c r="AB51" s="112"/>
-      <c r="AC51" s="112"/>
-      <c r="AD51" s="112"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
     </row>
     <row r="52" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B52" s="112"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="112"/>
-      <c r="K52" s="112"/>
-      <c r="L52" s="112"/>
-      <c r="M52" s="112"/>
-      <c r="N52" s="112"/>
-      <c r="O52" s="112"/>
-      <c r="P52" s="112"/>
-      <c r="Q52" s="112"/>
-      <c r="R52" s="112"/>
-      <c r="S52" s="112"/>
-      <c r="T52" s="112"/>
-      <c r="U52" s="112"/>
-      <c r="V52" s="112"/>
-      <c r="W52" s="112"/>
-      <c r="X52" s="112"/>
-      <c r="Y52" s="112"/>
-      <c r="Z52" s="112"/>
-      <c r="AA52" s="112"/>
-      <c r="AB52" s="112"/>
-      <c r="AC52" s="112"/>
-      <c r="AD52" s="112"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
     </row>
     <row r="53" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B53" s="112"/>
-      <c r="C53" s="112"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="112"/>
-      <c r="H53" s="112"/>
-      <c r="I53" s="112"/>
-      <c r="J53" s="112"/>
-      <c r="K53" s="112"/>
-      <c r="L53" s="112"/>
-      <c r="M53" s="112"/>
-      <c r="N53" s="112"/>
-      <c r="O53" s="112"/>
-      <c r="P53" s="112"/>
-      <c r="Q53" s="112"/>
-      <c r="R53" s="112"/>
-      <c r="S53" s="112"/>
-      <c r="T53" s="112"/>
-      <c r="U53" s="112"/>
-      <c r="V53" s="112"/>
-      <c r="W53" s="112"/>
-      <c r="X53" s="112"/>
-      <c r="Y53" s="112"/>
-      <c r="Z53" s="112"/>
-      <c r="AA53" s="112"/>
-      <c r="AB53" s="112"/>
-      <c r="AC53" s="112"/>
-      <c r="AD53" s="112"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
     </row>
     <row r="54" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B54" s="112"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="112"/>
-      <c r="J54" s="112"/>
-      <c r="K54" s="112"/>
-      <c r="L54" s="112"/>
-      <c r="M54" s="112"/>
-      <c r="N54" s="112"/>
-      <c r="O54" s="112"/>
-      <c r="P54" s="112"/>
-      <c r="Q54" s="112"/>
-      <c r="R54" s="112"/>
-      <c r="S54" s="112"/>
-      <c r="T54" s="113"/>
-      <c r="U54" s="112"/>
-      <c r="V54" s="112"/>
-      <c r="W54" s="112"/>
-      <c r="X54" s="112"/>
-      <c r="Y54" s="112"/>
-      <c r="Z54" s="112"/>
-      <c r="AA54" s="112"/>
-      <c r="AB54" s="112"/>
-      <c r="AC54" s="112"/>
-      <c r="AD54" s="112"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
     </row>
     <row r="55" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B55" s="112"/>
-      <c r="C55" s="112"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="112"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="112"/>
-      <c r="H55" s="112"/>
-      <c r="I55" s="112"/>
-      <c r="J55" s="112"/>
-      <c r="K55" s="112"/>
-      <c r="L55" s="112"/>
-      <c r="M55" s="112"/>
-      <c r="N55" s="112"/>
-      <c r="O55" s="112"/>
-      <c r="P55" s="112"/>
-      <c r="Q55" s="112"/>
-      <c r="R55" s="112"/>
-      <c r="S55" s="112"/>
-      <c r="T55" s="112"/>
-      <c r="U55" s="112"/>
-      <c r="V55" s="112"/>
-      <c r="W55" s="112"/>
-      <c r="X55" s="112"/>
-      <c r="Y55" s="112"/>
-      <c r="Z55" s="112"/>
-      <c r="AA55" s="112"/>
-      <c r="AB55" s="112"/>
-      <c r="AC55" s="112"/>
-      <c r="AD55" s="112"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
     </row>
     <row r="56" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B56" s="112"/>
-      <c r="C56" s="112"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="112"/>
-      <c r="K56" s="112"/>
-      <c r="L56" s="112"/>
-      <c r="M56" s="112"/>
-      <c r="N56" s="112"/>
-      <c r="O56" s="112"/>
-      <c r="P56" s="112"/>
-      <c r="Q56" s="112"/>
-      <c r="R56" s="112"/>
-      <c r="S56" s="112"/>
-      <c r="T56" s="112"/>
-      <c r="U56" s="112"/>
-      <c r="V56" s="112"/>
-      <c r="W56" s="112"/>
-      <c r="X56" s="112"/>
-      <c r="Y56" s="112"/>
-      <c r="Z56" s="112"/>
-      <c r="AA56" s="112"/>
-      <c r="AB56" s="112"/>
-      <c r="AC56" s="112"/>
-      <c r="AD56" s="112"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
     </row>
     <row r="57" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B57" s="112"/>
-      <c r="C57" s="112"/>
-      <c r="D57" s="112"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="112"/>
-      <c r="K57" s="112"/>
-      <c r="L57" s="112"/>
-      <c r="M57" s="112"/>
-      <c r="N57" s="112"/>
-      <c r="O57" s="112"/>
-      <c r="P57" s="112"/>
-      <c r="Q57" s="112"/>
-      <c r="R57" s="112"/>
-      <c r="S57" s="112"/>
-      <c r="T57" s="112"/>
-      <c r="U57" s="112"/>
-      <c r="V57" s="112"/>
-      <c r="W57" s="112"/>
-      <c r="X57" s="112"/>
-      <c r="Y57" s="112"/>
-      <c r="Z57" s="112"/>
-      <c r="AA57" s="112"/>
-      <c r="AB57" s="112"/>
-      <c r="AC57" s="112"/>
-      <c r="AD57" s="112"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
     </row>
     <row r="58" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="D58" s="112"/>
-      <c r="E58" s="112"/>
-      <c r="F58" s="112"/>
-      <c r="G58" s="112"/>
-      <c r="H58" s="112"/>
-      <c r="I58" s="112"/>
-      <c r="J58" s="112"/>
-      <c r="K58" s="112"/>
-      <c r="L58" s="112"/>
-      <c r="M58" s="112"/>
-      <c r="N58" s="112"/>
-      <c r="O58" s="112"/>
-      <c r="P58" s="112"/>
-      <c r="Q58" s="112"/>
-      <c r="R58" s="112"/>
-      <c r="S58" s="112"/>
-      <c r="T58" s="112"/>
-      <c r="U58" s="112"/>
-      <c r="V58" s="112"/>
-      <c r="W58" s="112"/>
-      <c r="X58" s="112"/>
-      <c r="Y58" s="112"/>
-      <c r="Z58" s="112"/>
-      <c r="AA58" s="112"/>
-      <c r="AB58" s="112"/>
-      <c r="AC58" s="112"/>
-      <c r="AD58" s="112"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
     </row>
     <row r="59" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="112"/>
-      <c r="J59" s="112"/>
-      <c r="K59" s="112"/>
-      <c r="L59" s="112"/>
-      <c r="M59" s="112"/>
-      <c r="N59" s="112"/>
-      <c r="O59" s="112"/>
-      <c r="P59" s="112"/>
-      <c r="Q59" s="112"/>
-      <c r="R59" s="112"/>
-      <c r="S59" s="112"/>
-      <c r="T59" s="112"/>
-      <c r="U59" s="112"/>
-      <c r="V59" s="112"/>
-      <c r="W59" s="112"/>
-      <c r="X59" s="112"/>
-      <c r="Y59" s="112"/>
-      <c r="Z59" s="112"/>
-      <c r="AA59" s="112"/>
-      <c r="AB59" s="112"/>
-      <c r="AC59" s="112"/>
-      <c r="AD59" s="112"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
     </row>
     <row r="60" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="D60" s="112"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="112"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="112"/>
-      <c r="K60" s="112"/>
-      <c r="L60" s="112"/>
-      <c r="M60" s="112"/>
-      <c r="N60" s="112"/>
-      <c r="O60" s="112"/>
-      <c r="P60" s="112"/>
-      <c r="Q60" s="112"/>
-      <c r="R60" s="112"/>
-      <c r="S60" s="112"/>
-      <c r="T60" s="112"/>
-      <c r="U60" s="112"/>
-      <c r="V60" s="112"/>
-      <c r="W60" s="112"/>
-      <c r="X60" s="112"/>
-      <c r="Y60" s="112"/>
-      <c r="Z60" s="112"/>
-      <c r="AA60" s="112"/>
-      <c r="AB60" s="112"/>
-      <c r="AC60" s="112"/>
-      <c r="AD60" s="112"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
     </row>
     <row r="61" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="112"/>
-      <c r="J61" s="112"/>
-      <c r="K61" s="112"/>
-      <c r="L61" s="112"/>
-      <c r="M61" s="112"/>
-      <c r="N61" s="112"/>
-      <c r="O61" s="112"/>
-      <c r="P61" s="112"/>
-      <c r="Q61" s="112"/>
-      <c r="R61" s="112"/>
-      <c r="S61" s="112"/>
-      <c r="T61" s="112"/>
-      <c r="U61" s="112"/>
-      <c r="V61" s="112"/>
-      <c r="W61" s="112"/>
-      <c r="X61" s="112"/>
-      <c r="Y61" s="112"/>
-      <c r="Z61" s="112"/>
-      <c r="AA61" s="112"/>
-      <c r="AB61" s="112"/>
-      <c r="AC61" s="112"/>
-      <c r="AD61" s="112"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
     </row>
     <row r="62" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="112"/>
-      <c r="I62" s="112"/>
-      <c r="J62" s="112"/>
-      <c r="K62" s="112"/>
-      <c r="L62" s="112"/>
-      <c r="M62" s="112"/>
-      <c r="N62" s="112"/>
-      <c r="O62" s="112"/>
-      <c r="P62" s="112"/>
-      <c r="Q62" s="112"/>
-      <c r="R62" s="112"/>
-      <c r="S62" s="112"/>
-      <c r="T62" s="112"/>
-      <c r="U62" s="112"/>
-      <c r="V62" s="112"/>
-      <c r="W62" s="112"/>
-      <c r="X62" s="112"/>
-      <c r="Y62" s="112"/>
-      <c r="Z62" s="112"/>
-      <c r="AA62" s="112"/>
-      <c r="AB62" s="112"/>
-      <c r="AC62" s="112"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
     </row>
     <row r="63" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="D63" s="112"/>
-      <c r="E63" s="112"/>
-      <c r="F63" s="112"/>
-      <c r="G63" s="112"/>
-      <c r="H63" s="112"/>
-      <c r="I63" s="112"/>
-      <c r="J63" s="112"/>
-      <c r="K63" s="112"/>
-      <c r="L63" s="112"/>
-      <c r="M63" s="112"/>
-      <c r="N63" s="112"/>
-      <c r="O63" s="112"/>
-      <c r="P63" s="112"/>
-      <c r="Q63" s="112"/>
-      <c r="R63" s="112"/>
-      <c r="S63" s="112"/>
-      <c r="T63" s="112"/>
-      <c r="U63" s="112"/>
-      <c r="V63" s="112"/>
-      <c r="W63" s="112"/>
-      <c r="X63" s="112"/>
-      <c r="Y63" s="112"/>
-      <c r="Z63" s="112"/>
-      <c r="AA63" s="112"/>
-      <c r="AB63" s="112"/>
-      <c r="AC63" s="112"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
     </row>
     <row r="64" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="D64" s="112"/>
-      <c r="E64" s="112"/>
-      <c r="F64" s="112"/>
-      <c r="G64" s="112"/>
-      <c r="H64" s="112"/>
-      <c r="I64" s="112"/>
-      <c r="J64" s="112"/>
-      <c r="K64" s="112"/>
-      <c r="L64" s="112"/>
-      <c r="M64" s="112"/>
-      <c r="N64" s="112"/>
-      <c r="O64" s="112"/>
-      <c r="P64" s="112"/>
-      <c r="Q64" s="112"/>
-      <c r="R64" s="112"/>
-      <c r="S64" s="112"/>
-      <c r="T64" s="112"/>
-      <c r="U64" s="112"/>
-      <c r="V64" s="112"/>
-      <c r="W64" s="112"/>
-      <c r="X64" s="112"/>
-      <c r="Y64" s="112"/>
-      <c r="Z64" s="112"/>
-      <c r="AA64" s="112"/>
-      <c r="AB64" s="112"/>
-      <c r="AC64" s="112"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
     </row>
     <row r="65" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="D65" s="112"/>
-      <c r="E65" s="112"/>
-      <c r="F65" s="112"/>
-      <c r="G65" s="112"/>
-      <c r="H65" s="112"/>
-      <c r="I65" s="112"/>
-      <c r="J65" s="112"/>
-      <c r="K65" s="112"/>
-      <c r="L65" s="112"/>
-      <c r="M65" s="112"/>
-      <c r="N65" s="112"/>
-      <c r="O65" s="112"/>
-      <c r="P65" s="112"/>
-      <c r="Q65" s="112"/>
-      <c r="R65" s="112"/>
-      <c r="S65" s="112"/>
-      <c r="T65" s="112"/>
-      <c r="U65" s="112"/>
-      <c r="V65" s="112"/>
-      <c r="W65" s="112"/>
-      <c r="X65" s="112"/>
-      <c r="Y65" s="112"/>
-      <c r="Z65" s="112"/>
-      <c r="AA65" s="112"/>
-      <c r="AB65" s="112"/>
-      <c r="AC65" s="112"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
     </row>
     <row r="66" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="D66" s="112"/>
-      <c r="E66" s="112"/>
-      <c r="F66" s="112"/>
-      <c r="G66" s="112"/>
-      <c r="H66" s="112"/>
-      <c r="I66" s="112"/>
-      <c r="J66" s="112"/>
-      <c r="K66" s="112"/>
-      <c r="L66" s="112"/>
-      <c r="M66" s="112"/>
-      <c r="N66" s="112"/>
-      <c r="O66" s="112"/>
-      <c r="P66" s="112"/>
-      <c r="Q66" s="112"/>
-      <c r="R66" s="112"/>
-      <c r="S66" s="112"/>
-      <c r="T66" s="112"/>
-      <c r="U66" s="112"/>
-      <c r="V66" s="112"/>
-      <c r="W66" s="112"/>
-      <c r="X66" s="112"/>
-      <c r="Y66" s="112"/>
-      <c r="Z66" s="112"/>
-      <c r="AA66" s="112"/>
-      <c r="AB66" s="112"/>
-      <c r="AC66" s="112"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
     </row>
     <row r="67" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="112"/>
-      <c r="G67" s="112"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="112"/>
-      <c r="K67" s="112"/>
-      <c r="L67" s="112"/>
-      <c r="M67" s="112"/>
-      <c r="N67" s="112"/>
-      <c r="O67" s="112"/>
-      <c r="P67" s="112"/>
-      <c r="Q67" s="112"/>
-      <c r="R67" s="112"/>
-      <c r="S67" s="112"/>
-      <c r="T67" s="112"/>
-      <c r="U67" s="112"/>
-      <c r="V67" s="112"/>
-      <c r="W67" s="112"/>
-      <c r="X67" s="112"/>
-      <c r="Y67" s="112"/>
-      <c r="Z67" s="112"/>
-      <c r="AA67" s="112"/>
-      <c r="AB67" s="112"/>
-      <c r="AC67" s="112"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
     </row>
     <row r="68" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="D68" s="112"/>
-      <c r="E68" s="112"/>
-      <c r="F68" s="112"/>
-      <c r="G68" s="112"/>
-      <c r="H68" s="112"/>
-      <c r="I68" s="112"/>
-      <c r="J68" s="112"/>
-      <c r="K68" s="112"/>
-      <c r="L68" s="112"/>
-      <c r="M68" s="112"/>
-      <c r="N68" s="112"/>
-      <c r="O68" s="112"/>
-      <c r="P68" s="112"/>
-      <c r="Q68" s="112"/>
-      <c r="R68" s="112"/>
-      <c r="S68" s="112"/>
-      <c r="T68" s="112"/>
-      <c r="U68" s="112"/>
-      <c r="V68" s="112"/>
-      <c r="W68" s="112"/>
-      <c r="X68" s="112"/>
-      <c r="Y68" s="112"/>
-      <c r="Z68" s="112"/>
-      <c r="AA68" s="112"/>
-      <c r="AB68" s="112"/>
-      <c r="AC68" s="112"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
     </row>
     <row r="69" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="D69" s="112"/>
-      <c r="E69" s="112"/>
-      <c r="F69" s="112"/>
-      <c r="G69" s="112"/>
-      <c r="H69" s="112"/>
-      <c r="I69" s="112"/>
-      <c r="J69" s="112"/>
-      <c r="K69" s="112"/>
-      <c r="L69" s="112"/>
-      <c r="M69" s="112"/>
-      <c r="N69" s="112"/>
-      <c r="O69" s="112"/>
-      <c r="P69" s="112"/>
-      <c r="Q69" s="112"/>
-      <c r="R69" s="112"/>
-      <c r="S69" s="112"/>
-      <c r="T69" s="112"/>
-      <c r="U69" s="112"/>
-      <c r="V69" s="112"/>
-      <c r="W69" s="112"/>
-      <c r="X69" s="112"/>
-      <c r="Y69" s="112"/>
-      <c r="Z69" s="112"/>
-      <c r="AA69" s="112"/>
-      <c r="AB69" s="112"/>
-      <c r="AC69" s="112"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
     </row>
     <row r="70" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="D70" s="112"/>
-      <c r="E70" s="112"/>
-      <c r="F70" s="112"/>
-      <c r="G70" s="112"/>
-      <c r="H70" s="112"/>
-      <c r="I70" s="112"/>
-      <c r="J70" s="112"/>
-      <c r="K70" s="112"/>
-      <c r="L70" s="112"/>
-      <c r="M70" s="112"/>
-      <c r="N70" s="112"/>
-      <c r="O70" s="112"/>
-      <c r="P70" s="112"/>
-      <c r="Q70" s="112"/>
-      <c r="R70" s="112"/>
-      <c r="S70" s="112"/>
-      <c r="T70" s="112"/>
-      <c r="U70" s="112"/>
-      <c r="V70" s="112"/>
-      <c r="W70" s="112"/>
-      <c r="X70" s="112"/>
-      <c r="Y70" s="112"/>
-      <c r="Z70" s="112"/>
-      <c r="AA70" s="112"/>
-      <c r="AB70" s="112"/>
-      <c r="AC70" s="112"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
     </row>
     <row r="71" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="D71" s="112"/>
-      <c r="E71" s="112"/>
-      <c r="F71" s="112"/>
-      <c r="G71" s="112"/>
-      <c r="H71" s="112"/>
-      <c r="I71" s="112"/>
-      <c r="J71" s="112"/>
-      <c r="K71" s="112"/>
-      <c r="L71" s="112"/>
-      <c r="M71" s="112"/>
-      <c r="N71" s="112"/>
-      <c r="O71" s="112"/>
-      <c r="P71" s="112"/>
-      <c r="Q71" s="112"/>
-      <c r="R71" s="112"/>
-      <c r="S71" s="112"/>
-      <c r="T71" s="112"/>
-      <c r="U71" s="112"/>
-      <c r="V71" s="112"/>
-      <c r="W71" s="112"/>
-      <c r="X71" s="112"/>
-      <c r="Y71" s="112"/>
-      <c r="Z71" s="112"/>
-      <c r="AA71" s="112"/>
-      <c r="AB71" s="112"/>
-      <c r="AC71" s="112"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
     </row>
     <row r="72" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="D72" s="112"/>
-      <c r="E72" s="112"/>
-      <c r="F72" s="112"/>
-      <c r="G72" s="112"/>
-      <c r="H72" s="112"/>
-      <c r="I72" s="112"/>
-      <c r="J72" s="112"/>
-      <c r="K72" s="112"/>
-      <c r="L72" s="112"/>
-      <c r="M72" s="112"/>
-      <c r="N72" s="112"/>
-      <c r="O72" s="112"/>
-      <c r="P72" s="112"/>
-      <c r="Q72" s="112"/>
-      <c r="R72" s="112"/>
-      <c r="S72" s="112"/>
-      <c r="T72" s="112"/>
-      <c r="U72" s="112"/>
-      <c r="V72" s="112"/>
-      <c r="W72" s="112"/>
-      <c r="X72" s="112"/>
-      <c r="Y72" s="112"/>
-      <c r="Z72" s="112"/>
-      <c r="AA72" s="112"/>
-      <c r="AB72" s="112"/>
-      <c r="AC72" s="112"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
     </row>
     <row r="73" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="D73" s="112"/>
-      <c r="E73" s="112"/>
-      <c r="F73" s="112"/>
-      <c r="G73" s="112"/>
-      <c r="H73" s="112"/>
-      <c r="I73" s="112"/>
-      <c r="J73" s="112"/>
-      <c r="K73" s="112"/>
-      <c r="L73" s="112"/>
-      <c r="M73" s="112"/>
-      <c r="N73" s="112"/>
-      <c r="O73" s="112"/>
-      <c r="P73" s="112"/>
-      <c r="Q73" s="112"/>
-      <c r="R73" s="112"/>
-      <c r="S73" s="112"/>
-      <c r="T73" s="112"/>
-      <c r="U73" s="112"/>
-      <c r="V73" s="112"/>
-      <c r="W73" s="112"/>
-      <c r="X73" s="112"/>
-      <c r="Y73" s="112"/>
-      <c r="Z73" s="112"/>
-      <c r="AA73" s="112"/>
-      <c r="AB73" s="112"/>
-      <c r="AC73" s="112"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
     </row>
     <row r="74" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="D74" s="112"/>
-      <c r="E74" s="112"/>
-      <c r="F74" s="112"/>
-      <c r="G74" s="112"/>
-      <c r="H74" s="112"/>
-      <c r="I74" s="112"/>
-      <c r="J74" s="112"/>
-      <c r="K74" s="112"/>
-      <c r="L74" s="112"/>
-      <c r="M74" s="112"/>
-      <c r="N74" s="112"/>
-      <c r="O74" s="112"/>
-      <c r="P74" s="112"/>
-      <c r="Q74" s="112"/>
-      <c r="R74" s="112"/>
-      <c r="S74" s="112"/>
-      <c r="T74" s="112"/>
-      <c r="U74" s="112"/>
-      <c r="V74" s="112"/>
-      <c r="W74" s="112"/>
-      <c r="X74" s="112"/>
-      <c r="Y74" s="112"/>
-      <c r="Z74" s="112"/>
-      <c r="AA74" s="112"/>
-      <c r="AB74" s="112"/>
-      <c r="AC74" s="112"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
     </row>
     <row r="75" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="D75" s="112"/>
-      <c r="E75" s="112"/>
-      <c r="F75" s="112"/>
-      <c r="G75" s="112"/>
-      <c r="H75" s="112"/>
-      <c r="I75" s="112"/>
-      <c r="J75" s="112"/>
-      <c r="K75" s="112"/>
-      <c r="L75" s="112"/>
-      <c r="M75" s="112"/>
-      <c r="N75" s="112"/>
-      <c r="O75" s="112"/>
-      <c r="P75" s="112"/>
-      <c r="Q75" s="112"/>
-      <c r="R75" s="112"/>
-      <c r="S75" s="112"/>
-      <c r="T75" s="112"/>
-      <c r="U75" s="112"/>
-      <c r="V75" s="112"/>
-      <c r="W75" s="112"/>
-      <c r="X75" s="112"/>
-      <c r="Y75" s="112"/>
-      <c r="Z75" s="112"/>
-      <c r="AA75" s="112"/>
-      <c r="AB75" s="112"/>
-      <c r="AC75" s="112"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
     </row>
     <row r="76" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="D76" s="112"/>
-      <c r="E76" s="112"/>
-      <c r="F76" s="112"/>
-      <c r="G76" s="112"/>
-      <c r="H76" s="112"/>
-      <c r="I76" s="112"/>
-      <c r="J76" s="112"/>
-      <c r="K76" s="112"/>
-      <c r="L76" s="112"/>
-      <c r="M76" s="112"/>
-      <c r="N76" s="112"/>
-      <c r="O76" s="112"/>
-      <c r="P76" s="112"/>
-      <c r="Q76" s="112"/>
-      <c r="R76" s="112"/>
-      <c r="S76" s="112"/>
-      <c r="T76" s="112"/>
-      <c r="U76" s="112"/>
-      <c r="V76" s="112"/>
-      <c r="W76" s="112"/>
-      <c r="X76" s="112"/>
-      <c r="Y76" s="112"/>
-      <c r="Z76" s="112"/>
-      <c r="AA76" s="112"/>
-      <c r="AB76" s="112"/>
-      <c r="AC76" s="112"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
     </row>
     <row r="77" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="D77" s="112"/>
-      <c r="E77" s="112"/>
-      <c r="F77" s="112"/>
-      <c r="G77" s="112"/>
-      <c r="H77" s="112"/>
-      <c r="I77" s="112"/>
-      <c r="J77" s="112"/>
-      <c r="K77" s="112"/>
-      <c r="L77" s="112"/>
-      <c r="M77" s="112"/>
-      <c r="N77" s="112"/>
-      <c r="O77" s="112"/>
-      <c r="P77" s="112"/>
-      <c r="Q77" s="112"/>
-      <c r="R77" s="112"/>
-      <c r="S77" s="112"/>
-      <c r="T77" s="112"/>
-      <c r="U77" s="112"/>
-      <c r="V77" s="112"/>
-      <c r="W77" s="112"/>
-      <c r="X77" s="112"/>
-      <c r="Y77" s="112"/>
-      <c r="Z77" s="112"/>
-      <c r="AA77" s="112"/>
-      <c r="AB77" s="112"/>
-      <c r="AC77" s="112"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
     </row>
     <row r="78" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="D78" s="112"/>
-      <c r="E78" s="112"/>
-      <c r="F78" s="112"/>
-      <c r="G78" s="112"/>
-      <c r="H78" s="112"/>
-      <c r="I78" s="112"/>
-      <c r="J78" s="112"/>
-      <c r="K78" s="112"/>
-      <c r="L78" s="112"/>
-      <c r="M78" s="112"/>
-      <c r="N78" s="112"/>
-      <c r="O78" s="112"/>
-      <c r="P78" s="112"/>
-      <c r="Q78" s="112"/>
-      <c r="R78" s="112"/>
-      <c r="S78" s="112"/>
-      <c r="T78" s="112"/>
-      <c r="U78" s="112"/>
-      <c r="V78" s="112"/>
-      <c r="W78" s="112"/>
-      <c r="X78" s="112"/>
-      <c r="Y78" s="112"/>
-      <c r="Z78" s="112"/>
-      <c r="AA78" s="112"/>
-      <c r="AB78" s="112"/>
-      <c r="AC78" s="112"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
     </row>
     <row r="79" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="N79" s="112"/>
-      <c r="O79" s="112"/>
-      <c r="P79" s="112"/>
-      <c r="Q79" s="112"/>
-      <c r="R79" s="112"/>
-      <c r="S79" s="112"/>
-      <c r="T79" s="112"/>
-      <c r="U79" s="112"/>
-      <c r="V79" s="112"/>
-      <c r="W79" s="112"/>
-      <c r="X79" s="112"/>
-      <c r="Y79" s="112"/>
-      <c r="Z79" s="112"/>
-      <c r="AA79" s="112"/>
-      <c r="AB79" s="112"/>
-      <c r="AC79" s="112"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
     </row>
     <row r="80" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="N80" s="112"/>
-      <c r="O80" s="112"/>
-      <c r="P80" s="112"/>
-      <c r="Q80" s="112"/>
-      <c r="R80" s="112"/>
-      <c r="S80" s="112"/>
-      <c r="T80" s="112"/>
-      <c r="U80" s="112"/>
-      <c r="V80" s="112"/>
-      <c r="W80" s="112"/>
-      <c r="X80" s="112"/>
-      <c r="Y80" s="112"/>
-      <c r="Z80" s="112"/>
-      <c r="AA80" s="112"/>
-      <c r="AB80" s="112"/>
-      <c r="AC80" s="112"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
     </row>
     <row r="81" spans="14:29" x14ac:dyDescent="0.3">
-      <c r="N81" s="112"/>
-      <c r="O81" s="112"/>
-      <c r="P81" s="112"/>
-      <c r="Q81" s="112"/>
-      <c r="R81" s="112"/>
-      <c r="S81" s="112"/>
-      <c r="T81" s="112"/>
-      <c r="U81" s="112"/>
-      <c r="V81" s="112"/>
-      <c r="W81" s="112"/>
-      <c r="X81" s="112"/>
-      <c r="Y81" s="112"/>
-      <c r="Z81" s="112"/>
-      <c r="AA81" s="112"/>
-      <c r="AB81" s="112"/>
-      <c r="AC81" s="112"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
     </row>
     <row r="82" spans="14:29" x14ac:dyDescent="0.3">
-      <c r="N82" s="112"/>
-      <c r="O82" s="112"/>
-      <c r="P82" s="112"/>
-      <c r="Q82" s="112"/>
-      <c r="R82" s="112"/>
-      <c r="S82" s="112"/>
-      <c r="T82" s="112"/>
-      <c r="U82" s="112"/>
-      <c r="V82" s="112"/>
-      <c r="W82" s="112"/>
-      <c r="X82" s="112"/>
-      <c r="Y82" s="112"/>
-      <c r="Z82" s="112"/>
-      <c r="AA82" s="112"/>
-      <c r="AB82" s="112"/>
-      <c r="AC82" s="112"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -63471,7 +63459,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ4 BZ6 BZ8 BZ10 BZ12 BZ14 BZ16 BZ18 BZ20 BZ22 BZ24 BZ26 BZ28 BZ30 BZ32 BZ34 BZ36 BZ38 BZ40 BZ42 BZ44 BZ46 BZ48 BZ50 BZ52 BZ54 BZ56 BZ58 BZ60 BZ62 BZ64 BZ66 BZ68 BZ70 BZ72 BZ74 BZ76 BZ78 BZ80 BZ82 BZ84 BZ86 BZ88 BZ90 BZ92 BZ94 BZ96 BZ98 BZ100 BZ102 BZ104">
+  <conditionalFormatting sqref="BZ6 BZ4 BZ8 BZ10 BZ12 BZ14 BZ16 BZ18 BZ20 BZ22 BZ24 BZ26 BZ28 BZ30 BZ32 BZ34 BZ36 BZ38 BZ40 BZ42 BZ44 BZ46 BZ48 BZ50 BZ52 BZ54 BZ56 BZ58 BZ60 BZ62 BZ64 BZ66 BZ68 BZ70 BZ72 BZ74 BZ76 BZ78 BZ80 BZ82 BZ84 BZ86 BZ88 BZ90 BZ92 BZ94 BZ96 BZ98 BZ100 BZ102 BZ104">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -63483,7 +63471,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA4 CA6 CA8 CA10 CA12 CA14 CA16 CA18 CA20 CA22 CA24 CA26 CA28 CA30 CA32 CA34 CA36 CA38 CA40 CA42 CA44 CA46 CA48 CA50 CA52 CA54 CA56 CA58 CA60 CA62 CA64 CA66 CA68 CA70 CA72 CA74 CA76 CA78 CA80 CA82 CA84 CA86 CA88 CA90 CA92 CA94 CA96 CA98 CA100 CA102 CA104">
+  <conditionalFormatting sqref="CA6 CA4 CA8 CA10 CA12 CA14 CA16 CA18 CA20 CA22 CA24 CA26 CA28 CA30 CA32 CA34 CA36 CA38 CA40 CA42 CA44 CA46 CA48 CA50 CA52 CA54 CA56 CA58 CA60 CA62 CA64 CA66 CA68 CA70 CA72 CA74 CA76 CA78 CA80 CA82 CA84 CA86 CA88 CA90 CA92 CA94 CA96 CA98 CA100 CA102 CA104">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -63495,7 +63483,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CB4 CB6 CB8 CB10 CB12 CB14 CB16 CB18 CB20 CB22 CB24 CB26 CB28 CB30 CB32 CB34 CB36 CB38 CB40 CB42 CB44 CB46 CB48 CB50 CB52 CB54 CB56 CB58 CB60 CB62 CB64 CB66 CB68 CB70 CB72 CB74 CB76 CB78 CB80 CB82 CB84 CB86 CB88 CB90 CB92 CB94 CB96 CB98 CB100 CB102 CB104">
+  <conditionalFormatting sqref="CB6 CB4 CB8 CB10 CB12 CB14 CB16 CB18 CB20 CB22 CB24 CB26 CB28 CB30 CB32 CB34 CB36 CB38 CB40 CB42 CB44 CB46 CB48 CB50 CB52 CB54 CB56 CB58 CB60 CB62 CB64 CB66 CB68 CB70 CB72 CB74 CB76 CB78 CB80 CB82 CB84 CB86 CB88 CB90 CB92 CB94 CB96 CB98 CB100 CB102 CB104">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -63507,7 +63495,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC4 CC6 CC8 CC10 CC12 CC14 CC16 CC18 CC20 CC22 CC24 CC26 CC28 CC30 CC32 CC34 CC36 CC38 CC40 CC42 CC44 CC46 CC48 CC50 CC52 CC54 CC56 CC58 CC60 CC62 CC64 CC66 CC68 CC70 CC72 CC74 CC76 CC78 CC80 CC82 CC84 CC86 CC88 CC90 CC92 CC94 CC96 CC98 CC100 CC102 CC104">
+  <conditionalFormatting sqref="CC6 CC4 CC8 CC10 CC12 CC14 CC16 CC18 CC20 CC22 CC24 CC26 CC28 CC30 CC32 CC34 CC36 CC38 CC40 CC42 CC44 CC46 CC48 CC50 CC52 CC54 CC56 CC58 CC60 CC62 CC64 CC66 CC68 CC70 CC72 CC74 CC76 CC78 CC80 CC82 CC84 CC86 CC88 CC90 CC92 CC94 CC96 CC98 CC100 CC102 CC104">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -63519,7 +63507,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD4 CD6 CD8 CD10 CD12 CD14 CD16 CD18 CD20 CD22 CD24 CD26 CD28 CD30 CD32 CD34 CD36 CD38 CD40 CD42 CD44 CD46 CD48 CD50 CD52 CD54 CD56 CD58 CD60 CD62 CD64 CD66 CD68 CD70 CD72 CD74 CD76 CD78 CD80 CD82 CD84 CD86 CD88 CD90 CD92 CD94 CD96 CD98 CD100 CD102 CD104">
+  <conditionalFormatting sqref="CD6 CD4 CD8 CD10 CD12 CD14 CD16 CD18 CD20 CD22 CD24 CD26 CD28 CD30 CD32 CD34 CD36 CD38 CD40 CD42 CD44 CD46 CD48 CD50 CD52 CD54 CD56 CD58 CD60 CD62 CD64 CD66 CD68 CD70 CD72 CD74 CD76 CD78 CD80 CD82 CD84 CD86 CD88 CD90 CD92 CD94 CD96 CD98 CD100 CD102 CD104">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -63531,7 +63519,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE6 CE4 CE8 CE10 CE12 CE14 CE16 CE18 CE20 CE22 CE24 CE26 CE28 CE30 CE32 CE34 CE36 CE38 CE40 CE42 CE44 CE46 CE48 CE50 CE52 CE54 CE56 CE58 CE60 CE62 CE64 CE66 CE68 CE70 CE72 CE74 CE76 CE78 CE80 CE82 CE84 CE86 CE88 CE90 CE92 CE94 CE96 CE98 CE100 CE102 CE104">
+  <conditionalFormatting sqref="CE4 CE6 CE8 CE10 CE12 CE14 CE16 CE18 CE20 CE22 CE24 CE26 CE28 CE30 CE32 CE34 CE36 CE38 CE40 CE42 CE44 CE46 CE48 CE50 CE52 CE54 CE56 CE58 CE60 CE62 CE64 CE66 CE68 CE70 CE72 CE74 CE76 CE78 CE80 CE82 CE84 CE86 CE88 CE90 CE92 CE94 CE96 CE98 CE100 CE102 CE104">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -63962,7 +63950,7 @@
   <dimension ref="A3:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64015,7 +64003,7 @@
       <c r="C7" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="112"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="5" t="s">
         <v>369</v>
@@ -64029,7 +64017,7 @@
         <v>360</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="120"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -64039,7 +64027,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="120"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="8" t="s">
         <v>367</v>
       </c>
@@ -64049,11 +64037,11 @@
     </row>
     <row r="10" spans="1:8" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="100" t="s">
         <v>361</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="112"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
       <c r="G10" s="5"/>
@@ -64061,9 +64049,9 @@
     </row>
     <row r="11" spans="1:8" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="93"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="112"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
@@ -64071,9 +64059,9 @@
     </row>
     <row r="12" spans="1:8" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="94"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="120"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
       <c r="G12" s="5"/>
@@ -64082,13 +64070,13 @@
     <row r="13" spans="1:8" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="100" t="s">
         <v>366</v>
       </c>
-      <c r="D13" s="120"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="6"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="121" t="s">
+      <c r="G13" s="98" t="s">
         <v>369</v>
       </c>
       <c r="H13" s="1"/>
@@ -64096,21 +64084,21 @@
     <row r="14" spans="1:8" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="112"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="6"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="121"/>
+      <c r="G14" s="98"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="112"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="122"/>
+      <c r="G15" s="99"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -64119,7 +64107,7 @@
         <v>362</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="120"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="4"/>
@@ -64129,7 +64117,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="120"/>
+      <c r="D17" s="97"/>
       <c r="E17" s="1" t="s">
         <v>365</v>
       </c>
@@ -64143,7 +64131,7 @@
         <v>363</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="112"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -64199,12 +64187,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64278,7 +64266,7 @@
       <c r="C7" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D7" s="112"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="5" t="s">
         <v>358</v>
@@ -64292,7 +64280,7 @@
         <v>351</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="120"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -64302,7 +64290,7 @@
       <c r="A9" s="6"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="120"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="8" t="s">
         <v>350</v>
       </c>
@@ -64316,7 +64304,7 @@
         <v>352</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="112"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
       <c r="G10" s="5"/>
@@ -64328,7 +64316,7 @@
       <c r="C11" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D11" s="112"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="5" t="s">
@@ -64342,7 +64330,7 @@
         <v>354</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="120"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="4"/>
@@ -64352,7 +64340,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="120"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="1" t="s">
         <v>353</v>
       </c>
@@ -64366,7 +64354,7 @@
         <v>356</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="112"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -64378,7 +64366,7 @@
       <c r="C15" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D15" s="112"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="5" t="s">
         <v>353</v>
@@ -64392,7 +64380,7 @@
         <v>355</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="120"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="1"/>
       <c r="F16" s="4"/>
       <c r="G16" s="1"/>
@@ -64402,7 +64390,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="120"/>
+      <c r="D17" s="97"/>
       <c r="E17" s="1" t="s">
         <v>357</v>
       </c>
@@ -64414,7 +64402,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="112"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="9"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>

--- a/thesis-tex/excels/Brackets.xlsx
+++ b/thesis-tex/excels/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ACAC84-9236-4401-AD86-CCA4B109C647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B61AE4-08EE-4027-87D1-1E6F2E68FEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="5" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="31" activeTab="37" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="cfp" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,6 @@
     <definedName name="solver_ver" localSheetId="23" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -124,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="370">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -699,9 +698,6 @@
     <t>3rd: UAE</t>
   </si>
   <si>
-    <t>should these have letters</t>
-  </si>
-  <si>
     <t>2nd: Winner E1</t>
   </si>
   <si>
@@ -864,22 +860,13 @@
     <t>Presbyterian</t>
   </si>
   <si>
-    <t>Appalachian State</t>
-  </si>
-  <si>
     <t>7 Presbyterian</t>
-  </si>
-  <si>
-    <t>Gardner-Webb</t>
   </si>
   <si>
     <t>Chattanooga</t>
   </si>
   <si>
     <t>1 Chattanooga</t>
-  </si>
-  <si>
-    <t>8 Gardner-Webb</t>
   </si>
   <si>
     <t>4 VMI</t>
@@ -894,13 +881,7 @@
     <t>6 Campbell</t>
   </si>
   <si>
-    <t>2 Appalachian State</t>
-  </si>
-  <si>
     <t>1st: Cattanooga</t>
-  </si>
-  <si>
-    <t>2nd: Appalachian State</t>
   </si>
   <si>
     <t>3rd: The Citadel</t>
@@ -1234,6 +1215,24 @@
   </si>
   <si>
     <t>49ers</t>
+  </si>
+  <si>
+    <t>App State</t>
+  </si>
+  <si>
+    <t>2 App State</t>
+  </si>
+  <si>
+    <t>2nd: App State</t>
+  </si>
+  <si>
+    <t>8 GW</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>4th: Winner E1, Winner F1</t>
   </si>
 </sst>
 </file>
@@ -1931,7 +1930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2174,6 +2173,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2192,13 +2200,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2207,15 +2209,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2558,7 +2558,7 @@
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2576,7 +2576,7 @@
     <row r="4" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -2594,7 +2594,7 @@
     <row r="6" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="4"/>
@@ -2604,7 +2604,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="1"/>
@@ -2612,7 +2612,7 @@
     <row r="8" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="1"/>
@@ -2635,7 +2635,7 @@
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2651,7 +2651,7 @@
     <row r="13" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -2667,7 +2667,7 @@
     <row r="15" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
@@ -2683,7 +2683,7 @@
     <row r="17" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="1"/>
@@ -3359,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5E35F-6BAF-409B-A5CF-ACCF63F9A711}">
   <dimension ref="B4:BT40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="6" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="69" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1"/>
@@ -12879,25 +12879,25 @@
     </row>
     <row r="2" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="106"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="110" t="s">
+      <c r="M2" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="112"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
@@ -12906,11 +12906,11 @@
       <c r="D3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="42" t="s">
         <v>76</v>
       </c>
@@ -12923,11 +12923,11 @@
       <c r="M3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="104" t="s">
+      <c r="N3" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="105"/>
-      <c r="P3" s="106"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="109"/>
       <c r="Q3" s="42" t="s">
         <v>76</v>
       </c>
@@ -12942,11 +12942,11 @@
       <c r="D4" s="52">
         <v>1</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="42">
         <v>2</v>
       </c>
@@ -12960,11 +12960,11 @@
       <c r="M4" s="52">
         <v>1</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="105"/>
-      <c r="P4" s="106"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
       <c r="Q4" s="42">
         <v>4</v>
       </c>
@@ -12980,11 +12980,11 @@
       <c r="D5" s="52">
         <v>2</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="42">
         <v>2</v>
       </c>
@@ -12998,11 +12998,11 @@
       <c r="M5" s="52">
         <v>2</v>
       </c>
-      <c r="N5" s="104" t="s">
+      <c r="N5" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="105"/>
-      <c r="P5" s="106"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="109"/>
       <c r="Q5" s="42">
         <v>3</v>
       </c>
@@ -13018,11 +13018,11 @@
       <c r="D6" s="52">
         <v>3</v>
       </c>
-      <c r="E6" s="104" t="s">
+      <c r="E6" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="42">
         <v>2</v>
       </c>
@@ -13036,11 +13036,11 @@
       <c r="M6" s="52">
         <v>3</v>
       </c>
-      <c r="N6" s="104" t="s">
+      <c r="N6" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="105"/>
-      <c r="P6" s="106"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="109"/>
       <c r="Q6" s="42">
         <v>2</v>
       </c>
@@ -13056,11 +13056,11 @@
       <c r="D7" s="52">
         <v>4</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="42">
         <v>2</v>
       </c>
@@ -13074,11 +13074,11 @@
       <c r="M7" s="52">
         <v>4</v>
       </c>
-      <c r="N7" s="104" t="s">
+      <c r="N7" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="O7" s="105"/>
-      <c r="P7" s="106"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="109"/>
       <c r="Q7" s="42">
         <v>1</v>
       </c>
@@ -13094,11 +13094,11 @@
       <c r="D8" s="54">
         <v>5</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="55">
         <v>2</v>
       </c>
@@ -13112,11 +13112,11 @@
       <c r="M8" s="54">
         <v>5</v>
       </c>
-      <c r="N8" s="107" t="s">
+      <c r="N8" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="108"/>
-      <c r="P8" s="109"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="112"/>
       <c r="Q8" s="55">
         <v>0</v>
       </c>
@@ -13149,25 +13149,25 @@
     </row>
     <row r="10" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="112"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="106"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="110" t="s">
+      <c r="M10" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="112"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="106"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
@@ -13176,11 +13176,11 @@
       <c r="D11" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="E11" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="106"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="109"/>
       <c r="H11" s="42" t="s">
         <v>76</v>
       </c>
@@ -13193,11 +13193,11 @@
       <c r="M11" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="104" t="s">
+      <c r="N11" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="105"/>
-      <c r="P11" s="106"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="109"/>
       <c r="Q11" s="42" t="s">
         <v>76</v>
       </c>
@@ -13212,11 +13212,11 @@
       <c r="D12" s="52">
         <v>1</v>
       </c>
-      <c r="E12" s="104" t="s">
+      <c r="E12" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="106"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
       <c r="H12" s="42">
         <v>3</v>
       </c>
@@ -13230,11 +13230,11 @@
       <c r="M12" s="52">
         <v>1</v>
       </c>
-      <c r="N12" s="104" t="s">
+      <c r="N12" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="105"/>
-      <c r="P12" s="106"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="109"/>
       <c r="Q12" s="42">
         <v>4</v>
       </c>
@@ -13250,11 +13250,11 @@
       <c r="D13" s="52">
         <v>2</v>
       </c>
-      <c r="E13" s="104" t="s">
+      <c r="E13" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="105"/>
-      <c r="G13" s="106"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109"/>
       <c r="H13" s="42">
         <v>3</v>
       </c>
@@ -13268,11 +13268,11 @@
       <c r="M13" s="52">
         <v>2</v>
       </c>
-      <c r="N13" s="104" t="s">
+      <c r="N13" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="105"/>
-      <c r="P13" s="106"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="109"/>
       <c r="Q13" s="42">
         <v>3</v>
       </c>
@@ -13288,11 +13288,11 @@
       <c r="D14" s="52">
         <v>3</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="E14" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="105"/>
-      <c r="G14" s="106"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="109"/>
       <c r="H14" s="42">
         <v>2</v>
       </c>
@@ -13306,11 +13306,11 @@
       <c r="M14" s="52">
         <v>3</v>
       </c>
-      <c r="N14" s="104" t="s">
+      <c r="N14" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="O14" s="105"/>
-      <c r="P14" s="106"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="109"/>
       <c r="Q14" s="42">
         <v>2</v>
       </c>
@@ -13326,11 +13326,11 @@
       <c r="D15" s="52">
         <v>4</v>
       </c>
-      <c r="E15" s="104" t="s">
+      <c r="E15" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="105"/>
-      <c r="G15" s="106"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="109"/>
       <c r="H15" s="42">
         <v>1</v>
       </c>
@@ -13344,11 +13344,11 @@
       <c r="M15" s="52">
         <v>4</v>
       </c>
-      <c r="N15" s="104" t="s">
+      <c r="N15" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="O15" s="105"/>
-      <c r="P15" s="106"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="109"/>
       <c r="Q15" s="42">
         <v>1</v>
       </c>
@@ -13364,11 +13364,11 @@
       <c r="D16" s="54">
         <v>5</v>
       </c>
-      <c r="E16" s="107" t="s">
+      <c r="E16" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="108"/>
-      <c r="G16" s="109"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="112"/>
       <c r="H16" s="55">
         <v>1</v>
       </c>
@@ -13382,11 +13382,11 @@
       <c r="M16" s="54">
         <v>5</v>
       </c>
-      <c r="N16" s="107" t="s">
+      <c r="N16" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="O16" s="108"/>
-      <c r="P16" s="109"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="112"/>
       <c r="Q16" s="55">
         <v>0</v>
       </c>
@@ -15099,6 +15099,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="D10:I10"/>
@@ -15115,18 +15127,6 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15751,26 +15751,26 @@
     </row>
     <row r="2" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="112"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="106"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="110" t="s">
+      <c r="N2" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="112"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="106"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
@@ -15779,29 +15779,29 @@
       <c r="D3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="104" t="s">
+      <c r="I3" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="113"/>
+      <c r="J3" s="114"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
       <c r="M3" s="1"/>
       <c r="N3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="104" t="s">
+      <c r="O3" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="106"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="109"/>
       <c r="R3" s="42" t="s">
         <v>76</v>
       </c>
@@ -15816,29 +15816,29 @@
       <c r="D4" s="52">
         <v>1</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="42">
         <v>5</v>
       </c>
-      <c r="I4" s="104">
-        <v>0</v>
-      </c>
-      <c r="J4" s="113"/>
+      <c r="I4" s="107">
+        <v>0</v>
+      </c>
+      <c r="J4" s="114"/>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
       <c r="M4" s="1"/>
       <c r="N4" s="52">
         <v>1</v>
       </c>
-      <c r="O4" s="104" t="s">
+      <c r="O4" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="106"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="109"/>
       <c r="R4" s="42">
         <v>5</v>
       </c>
@@ -15853,29 +15853,29 @@
       <c r="D5" s="52">
         <v>2</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="42">
         <v>4</v>
       </c>
-      <c r="I5" s="104">
+      <c r="I5" s="107">
         <v>1</v>
       </c>
-      <c r="J5" s="113"/>
+      <c r="J5" s="114"/>
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
       <c r="M5" s="1"/>
       <c r="N5" s="52">
         <v>2</v>
       </c>
-      <c r="O5" s="104" t="s">
+      <c r="O5" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="109"/>
       <c r="R5" s="42">
         <v>3</v>
       </c>
@@ -15890,29 +15890,29 @@
       <c r="D6" s="52">
         <v>3</v>
       </c>
-      <c r="E6" s="104" t="s">
+      <c r="E6" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="42">
         <v>3</v>
       </c>
-      <c r="I6" s="104">
+      <c r="I6" s="107">
         <v>2</v>
       </c>
-      <c r="J6" s="113"/>
+      <c r="J6" s="114"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="1"/>
       <c r="N6" s="52">
         <v>3</v>
       </c>
-      <c r="O6" s="104" t="s">
+      <c r="O6" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="106"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="109"/>
       <c r="R6" s="42">
         <v>3</v>
       </c>
@@ -15927,29 +15927,29 @@
       <c r="D7" s="52">
         <v>4</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="42">
         <v>2</v>
       </c>
-      <c r="I7" s="104">
+      <c r="I7" s="107">
         <v>3</v>
       </c>
-      <c r="J7" s="113"/>
+      <c r="J7" s="114"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
       <c r="M7" s="1"/>
       <c r="N7" s="52">
         <v>4</v>
       </c>
-      <c r="O7" s="104" t="s">
+      <c r="O7" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="106"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="109"/>
       <c r="R7" s="42">
         <v>3</v>
       </c>
@@ -15964,29 +15964,29 @@
       <c r="D8" s="59">
         <v>5</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="57">
         <v>1</v>
       </c>
-      <c r="I8" s="104">
+      <c r="I8" s="107">
         <v>4</v>
       </c>
-      <c r="J8" s="113"/>
+      <c r="J8" s="114"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
       <c r="M8" s="1"/>
       <c r="N8" s="59">
         <v>5</v>
       </c>
-      <c r="O8" s="104" t="s">
+      <c r="O8" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="106"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="109"/>
       <c r="R8" s="57">
         <v>1</v>
       </c>
@@ -16001,29 +16001,29 @@
       <c r="D9" s="54">
         <v>6</v>
       </c>
-      <c r="E9" s="107" t="s">
+      <c r="E9" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="109"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112"/>
       <c r="H9" s="55">
         <v>0</v>
       </c>
-      <c r="I9" s="107">
+      <c r="I9" s="110">
         <v>5</v>
       </c>
-      <c r="J9" s="114"/>
+      <c r="J9" s="115"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="1"/>
       <c r="N9" s="54">
         <v>6</v>
       </c>
-      <c r="O9" s="107" t="s">
+      <c r="O9" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="109"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="112"/>
       <c r="R9" s="55">
         <v>0</v>
       </c>
@@ -17818,14 +17818,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="O9:Q9"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="E6:G6"/>
@@ -17835,12 +17833,14 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31293,7 +31293,7 @@
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="8" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="X19" s="4"/>
       <c r="Y19" s="1"/>
@@ -31456,7 +31456,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="8" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AC21" s="4"/>
       <c r="AD21" s="1"/>
@@ -36446,10 +36446,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C010E2E9-5FD8-4977-AB68-FE330F0CC9E1}">
-  <dimension ref="B3:BV40"/>
+  <dimension ref="B3:CB40"/>
   <sheetViews>
-    <sheetView topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1:BA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36458,16 +36458,18 @@
     <col min="7" max="8" width="5.33203125" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="37" max="41" width="17.44140625" customWidth="1"/>
+    <col min="37" max="41" width="13" customWidth="1"/>
     <col min="42" max="43" width="6.88671875" customWidth="1"/>
-    <col min="44" max="48" width="17.44140625" customWidth="1"/>
+    <col min="44" max="48" width="13" customWidth="1"/>
+    <col min="50" max="53" width="8.77734375" customWidth="1"/>
+    <col min="54" max="55" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:74" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:80" x14ac:dyDescent="0.3">
       <c r="AP3" s="1"/>
       <c r="AQ3" s="68"/>
     </row>
-    <row r="4" spans="2:74" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:80" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -36541,8 +36543,14 @@
       <c r="BT4" s="1"/>
       <c r="BU4" s="1"/>
       <c r="BV4" s="1"/>
-    </row>
-    <row r="5" spans="2:74" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BY4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CA4" s="1"/>
+      <c r="CB4" s="1"/>
+    </row>
+    <row r="5" spans="2:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="6">
         <v>1</v>
@@ -36600,7 +36608,7 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="68"/>
       <c r="AR5" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AS5" s="1"/>
       <c r="AT5" s="1"/>
@@ -36615,19 +36623,19 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="6">
+      <c r="BD5" s="6">
         <v>1</v>
       </c>
+      <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
       <c r="BG5" s="1"/>
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
       <c r="BJ5" s="1"/>
-      <c r="BK5" s="1"/>
-      <c r="BL5" s="6">
+      <c r="BK5" s="6">
         <v>1</v>
       </c>
+      <c r="BL5" s="1"/>
       <c r="BM5" s="1"/>
       <c r="BN5" s="1"/>
       <c r="BO5" s="1"/>
@@ -36640,10 +36648,18 @@
       <c r="BT5" s="1"/>
       <c r="BU5" s="1"/>
       <c r="BV5" s="1"/>
-    </row>
-    <row r="6" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="6">
+        <v>1</v>
+      </c>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+    </row>
+    <row r="6" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="69" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1"/>
@@ -36651,7 +36667,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="68"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="69" t="s">
+        <v>8</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>4</v>
       </c>
@@ -36673,7 +36691,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="26" t="s">
+      <c r="Y6" s="69" t="s">
         <v>8</v>
       </c>
       <c r="Z6" s="1"/>
@@ -36704,13 +36722,13 @@
         <v>8</v>
       </c>
       <c r="AS6" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
-      <c r="AX6" s="26" t="s">
+      <c r="AX6" s="69" t="s">
         <v>8</v>
       </c>
       <c r="AY6" s="1"/>
@@ -36718,19 +36736,19 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
-      <c r="BD6" s="1"/>
-      <c r="BE6" s="26" t="s">
+      <c r="BD6" s="26" t="s">
         <v>8</v>
       </c>
+      <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
       <c r="BG6" s="1"/>
       <c r="BH6" s="1"/>
       <c r="BI6" s="1"/>
       <c r="BJ6" s="1"/>
-      <c r="BK6" s="1"/>
-      <c r="BL6" s="26" t="s">
+      <c r="BK6" s="26" t="s">
         <v>8</v>
       </c>
+      <c r="BL6" s="1"/>
       <c r="BM6" s="1"/>
       <c r="BN6" s="1"/>
       <c r="BO6" s="1"/>
@@ -36743,8 +36761,16 @@
       <c r="BT6" s="1"/>
       <c r="BU6" s="1"/>
       <c r="BV6" s="1"/>
-    </row>
-    <row r="7" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW6" s="1"/>
+      <c r="BX6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY6" s="1"/>
+      <c r="BZ6" s="1"/>
+      <c r="CA6" s="1"/>
+      <c r="CB6" s="1"/>
+    </row>
+    <row r="7" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="8">
         <v>8</v>
@@ -36802,7 +36828,7 @@
       <c r="AP7" s="1"/>
       <c r="AQ7" s="68"/>
       <c r="AR7" s="8" t="s">
-        <v>251</v>
+        <v>367</v>
       </c>
       <c r="AS7" s="4"/>
       <c r="AT7" s="5"/>
@@ -36817,21 +36843,21 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="8">
+      <c r="BD7" s="8">
         <v>8</v>
       </c>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="5"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="1"/>
       <c r="BH7" s="1"/>
       <c r="BI7" s="1"/>
       <c r="BJ7" s="1"/>
-      <c r="BK7" s="1"/>
-      <c r="BL7" s="8">
+      <c r="BK7" s="8">
         <v>8</v>
       </c>
-      <c r="BM7" s="4"/>
-      <c r="BN7" s="5"/>
+      <c r="BL7" s="4"/>
+      <c r="BM7" s="5"/>
+      <c r="BN7" s="1"/>
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
       <c r="BQ7" s="1"/>
@@ -36842,11 +36868,19 @@
       <c r="BT7" s="5"/>
       <c r="BU7" s="1"/>
       <c r="BV7" s="1"/>
-    </row>
-    <row r="8" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="8">
+        <v>8</v>
+      </c>
+      <c r="BY7" s="4"/>
+      <c r="BZ7" s="5"/>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="1"/>
+    </row>
+    <row r="8" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="70" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="5"/>
@@ -36854,7 +36888,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="68"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="70" t="s">
+        <v>12</v>
+      </c>
       <c r="K8" s="5" t="s">
         <v>4</v>
       </c>
@@ -36876,7 +36912,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="6"/>
-      <c r="Z8" s="21" t="s">
+      <c r="Z8" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AA8" s="5"/>
@@ -36907,34 +36943,34 @@
         <v>12</v>
       </c>
       <c r="AT8" s="72" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
       <c r="AX8" s="6"/>
-      <c r="AY8" s="21" t="s">
+      <c r="AY8" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AZ8" s="5"/>
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
-      <c r="BD8" s="1"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="21" t="s">
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BG8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
       <c r="BI8" s="1"/>
       <c r="BJ8" s="1"/>
-      <c r="BK8" s="1"/>
-      <c r="BL8" s="6"/>
-      <c r="BM8" s="21" t="s">
+      <c r="BK8" s="6"/>
+      <c r="BL8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BN8" s="5"/>
+      <c r="BM8" s="5"/>
+      <c r="BN8" s="1"/>
       <c r="BO8" s="1"/>
       <c r="BP8" s="1"/>
       <c r="BQ8" s="1"/>
@@ -36945,8 +36981,16 @@
       <c r="BT8" s="5"/>
       <c r="BU8" s="1"/>
       <c r="BV8" s="1"/>
-    </row>
-    <row r="9" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW8" s="1"/>
+      <c r="BX8" s="6"/>
+      <c r="BY8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="BZ8" s="5"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
+    </row>
+    <row r="9" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="6">
         <v>4</v>
@@ -37004,7 +37048,7 @@
       <c r="AP9" s="1"/>
       <c r="AQ9" s="68"/>
       <c r="AR9" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AS9" s="1"/>
       <c r="AT9" s="4"/>
@@ -37019,21 +37063,21 @@
       <c r="BA9" s="5"/>
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="6">
+      <c r="BD9" s="6">
         <v>4</v>
       </c>
-      <c r="BF9" s="1"/>
-      <c r="BG9" s="4"/>
-      <c r="BH9" s="5"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="5"/>
+      <c r="BH9" s="1"/>
       <c r="BI9" s="1"/>
       <c r="BJ9" s="1"/>
-      <c r="BK9" s="1"/>
-      <c r="BL9" s="6">
+      <c r="BK9" s="6">
         <v>4</v>
       </c>
-      <c r="BM9" s="1"/>
-      <c r="BN9" s="4"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="4"/>
+      <c r="BN9" s="5"/>
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
       <c r="BQ9" s="1"/>
@@ -37042,12 +37086,20 @@
       </c>
       <c r="BS9" s="1"/>
       <c r="BT9" s="4"/>
-      <c r="BU9" s="5"/>
+      <c r="BU9" s="1"/>
       <c r="BV9" s="1"/>
-    </row>
-    <row r="10" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="6">
+        <v>4</v>
+      </c>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="4"/>
+      <c r="CA9" s="5"/>
+      <c r="CB9" s="1"/>
+    </row>
+    <row r="10" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1"/>
@@ -37055,7 +37107,9 @@
       <c r="F10" s="5"/>
       <c r="G10" s="1"/>
       <c r="H10" s="68"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="69" t="s">
+        <v>9</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>5</v>
       </c>
@@ -37077,7 +37131,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="26" t="s">
+      <c r="Y10" s="69" t="s">
         <v>9</v>
       </c>
       <c r="Z10" s="1"/>
@@ -37108,13 +37162,13 @@
         <v>9</v>
       </c>
       <c r="AS10" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AT10" s="5"/>
       <c r="AU10" s="5"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
-      <c r="AX10" s="26" t="s">
+      <c r="AX10" s="69" t="s">
         <v>9</v>
       </c>
       <c r="AY10" s="1"/>
@@ -37122,20 +37176,20 @@
       <c r="BA10" s="5"/>
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="26" t="s">
+      <c r="BD10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BF10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="5"/>
       <c r="BG10" s="5"/>
-      <c r="BH10" s="5"/>
+      <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
       <c r="BJ10" s="1"/>
-      <c r="BK10" s="1"/>
-      <c r="BL10" s="26" t="s">
+      <c r="BK10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BM10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="5"/>
       <c r="BN10" s="5"/>
       <c r="BO10" s="1"/>
       <c r="BP10" s="1"/>
@@ -37145,10 +37199,18 @@
       </c>
       <c r="BS10" s="1"/>
       <c r="BT10" s="5"/>
-      <c r="BU10" s="5"/>
+      <c r="BU10" s="1"/>
       <c r="BV10" s="1"/>
-    </row>
-    <row r="11" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW10" s="1"/>
+      <c r="BX10" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY10" s="1"/>
+      <c r="BZ10" s="5"/>
+      <c r="CA10" s="5"/>
+      <c r="CB10" s="1"/>
+    </row>
+    <row r="11" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="8">
         <v>5</v>
@@ -37206,7 +37268,7 @@
       <c r="AP11" s="1"/>
       <c r="AQ11" s="68"/>
       <c r="AR11" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="1"/>
@@ -37221,21 +37283,21 @@
       <c r="BA11" s="5"/>
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="8">
+      <c r="BD11" s="8">
         <v>5</v>
       </c>
-      <c r="BF11" s="4"/>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="5"/>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="5"/>
+      <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
       <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
-      <c r="BL11" s="8">
+      <c r="BK11" s="8">
         <v>5</v>
       </c>
-      <c r="BM11" s="4"/>
-      <c r="BN11" s="1"/>
+      <c r="BL11" s="4"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="5"/>
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
       <c r="BQ11" s="1"/>
@@ -37244,14 +37306,22 @@
       </c>
       <c r="BS11" s="4"/>
       <c r="BT11" s="1"/>
-      <c r="BU11" s="5"/>
+      <c r="BU11" s="1"/>
       <c r="BV11" s="1"/>
-    </row>
-    <row r="12" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BY11" s="4"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="5"/>
+      <c r="CB11" s="1"/>
+    </row>
+    <row r="12" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="70" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="5"/>
@@ -37259,7 +37329,9 @@
       <c r="H12" s="68"/>
       <c r="I12" s="6"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="70" t="s">
+        <v>14</v>
+      </c>
       <c r="L12" s="5" t="s">
         <v>6</v>
       </c>
@@ -37281,7 +37353,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="21" t="s">
+      <c r="AA12" s="70" t="s">
         <v>14</v>
       </c>
       <c r="AB12" s="5"/>
@@ -37312,43 +37384,51 @@
         <v>14</v>
       </c>
       <c r="AU12" s="72" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="6"/>
       <c r="AY12" s="1"/>
-      <c r="AZ12" s="21" t="s">
+      <c r="AZ12" s="70" t="s">
         <v>14</v>
       </c>
       <c r="BA12" s="5"/>
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="6"/>
-      <c r="BF12" s="1"/>
-      <c r="BG12" s="21" t="s">
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="BH12" s="5"/>
+      <c r="BG12" s="5"/>
+      <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
       <c r="BJ12" s="1"/>
-      <c r="BK12" s="1"/>
-      <c r="BL12" s="6"/>
-      <c r="BM12" s="1"/>
-      <c r="BN12" s="21"/>
+      <c r="BK12" s="6"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="BN12" s="5"/>
       <c r="BO12" s="1"/>
       <c r="BP12" s="1"/>
       <c r="BQ12" s="1"/>
       <c r="BR12" s="6"/>
       <c r="BS12" s="1"/>
-      <c r="BT12" s="21" t="s">
+      <c r="BT12" s="21"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="6"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="BU12" s="5"/>
-      <c r="BV12" s="1"/>
-    </row>
-    <row r="13" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="CA12" s="5"/>
+      <c r="CB12" s="1"/>
+    </row>
+    <row r="13" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="6">
         <v>3</v>
@@ -37406,7 +37486,7 @@
       <c r="AP13" s="1"/>
       <c r="AQ13" s="68"/>
       <c r="AR13" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
@@ -37421,21 +37501,21 @@
       <c r="BA13" s="4"/>
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="6">
+      <c r="BD13" s="6">
         <v>3</v>
       </c>
+      <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
       <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
-      <c r="BL13" s="6">
+      <c r="BK13" s="6">
         <v>3</v>
       </c>
+      <c r="BL13" s="1"/>
       <c r="BM13" s="1"/>
-      <c r="BN13" s="1"/>
+      <c r="BN13" s="4"/>
       <c r="BO13" s="1"/>
       <c r="BP13" s="1"/>
       <c r="BQ13" s="1"/>
@@ -37444,12 +37524,20 @@
       </c>
       <c r="BS13" s="1"/>
       <c r="BT13" s="1"/>
-      <c r="BU13" s="4"/>
+      <c r="BU13" s="1"/>
       <c r="BV13" s="1"/>
-    </row>
-    <row r="14" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW13" s="1"/>
+      <c r="BX13" s="6">
+        <v>3</v>
+      </c>
+      <c r="BY13" s="1"/>
+      <c r="BZ13" s="1"/>
+      <c r="CA13" s="4"/>
+      <c r="CB13" s="1"/>
+    </row>
+    <row r="14" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="69" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="1"/>
@@ -37457,7 +37545,9 @@
       <c r="F14" s="5"/>
       <c r="G14" s="1"/>
       <c r="H14" s="68"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="69" t="s">
+        <v>10</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
@@ -37479,7 +37569,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="5"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="26" t="s">
+      <c r="Y14" s="69" t="s">
         <v>10</v>
       </c>
       <c r="Z14" s="1"/>
@@ -37510,13 +37600,13 @@
         <v>10</v>
       </c>
       <c r="AS14" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AT14" s="1"/>
       <c r="AU14" s="5"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
-      <c r="AX14" s="26" t="s">
+      <c r="AX14" s="69" t="s">
         <v>10</v>
       </c>
       <c r="AY14" s="1"/>
@@ -37524,21 +37614,21 @@
       <c r="BA14" s="5"/>
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="26" t="s">
+      <c r="BD14" s="26" t="s">
         <v>10</v>
       </c>
+      <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
-      <c r="BG14" s="1"/>
-      <c r="BH14" s="5"/>
+      <c r="BG14" s="5"/>
+      <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
       <c r="BJ14" s="1"/>
-      <c r="BK14" s="1"/>
-      <c r="BL14" s="26" t="s">
+      <c r="BK14" s="26" t="s">
         <v>10</v>
       </c>
+      <c r="BL14" s="1"/>
       <c r="BM14" s="1"/>
-      <c r="BN14" s="1"/>
+      <c r="BN14" s="5"/>
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
       <c r="BQ14" s="1"/>
@@ -37547,10 +37637,18 @@
       </c>
       <c r="BS14" s="1"/>
       <c r="BT14" s="1"/>
-      <c r="BU14" s="5"/>
+      <c r="BU14" s="1"/>
       <c r="BV14" s="1"/>
-    </row>
-    <row r="15" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="5"/>
+      <c r="CB14" s="1"/>
+    </row>
+    <row r="15" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="8">
         <v>6</v>
@@ -37608,7 +37706,7 @@
       <c r="AP15" s="1"/>
       <c r="AQ15" s="68"/>
       <c r="AR15" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AS15" s="4"/>
       <c r="AT15" s="5"/>
@@ -37623,20 +37721,20 @@
       <c r="BA15" s="5"/>
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="8">
+      <c r="BD15" s="8">
         <v>6</v>
       </c>
-      <c r="BF15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="5"/>
       <c r="BG15" s="5"/>
-      <c r="BH15" s="5"/>
+      <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
       <c r="BJ15" s="1"/>
-      <c r="BK15" s="1"/>
-      <c r="BL15" s="8">
+      <c r="BK15" s="8">
         <v>6</v>
       </c>
-      <c r="BM15" s="4"/>
+      <c r="BL15" s="4"/>
+      <c r="BM15" s="5"/>
       <c r="BN15" s="5"/>
       <c r="BO15" s="1"/>
       <c r="BP15" s="1"/>
@@ -37646,13 +37744,21 @@
       </c>
       <c r="BS15" s="4"/>
       <c r="BT15" s="5"/>
-      <c r="BU15" s="5"/>
+      <c r="BU15" s="1"/>
       <c r="BV15" s="1"/>
-    </row>
-    <row r="16" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW15" s="1"/>
+      <c r="BX15" s="8">
+        <v>6</v>
+      </c>
+      <c r="BY15" s="4"/>
+      <c r="BZ15" s="5"/>
+      <c r="CA15" s="5"/>
+      <c r="CB15" s="1"/>
+    </row>
+    <row r="16" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="70" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="5"/>
@@ -37660,7 +37766,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="68"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="70" t="s">
+        <v>13</v>
+      </c>
       <c r="K16" s="5" t="s">
         <v>6</v>
       </c>
@@ -37682,7 +37790,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="6"/>
-      <c r="Z16" s="21" t="s">
+      <c r="Z16" s="70" t="s">
         <v>13</v>
       </c>
       <c r="AA16" s="5"/>
@@ -37713,33 +37821,33 @@
         <v>13</v>
       </c>
       <c r="AT16" s="72" t="s">
-        <v>246</v>
+        <v>364</v>
       </c>
       <c r="AU16" s="5"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="6"/>
-      <c r="AY16" s="21" t="s">
+      <c r="AY16" s="70" t="s">
         <v>13</v>
       </c>
       <c r="AZ16" s="5"/>
       <c r="BA16" s="5"/>
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="6"/>
-      <c r="BF16" s="21" t="s">
+      <c r="BD16" s="6"/>
+      <c r="BE16" s="21" t="s">
         <v>13</v>
       </c>
+      <c r="BF16" s="5"/>
       <c r="BG16" s="5"/>
-      <c r="BH16" s="5"/>
+      <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
       <c r="BJ16" s="1"/>
-      <c r="BK16" s="1"/>
-      <c r="BL16" s="6"/>
-      <c r="BM16" s="21" t="s">
+      <c r="BK16" s="6"/>
+      <c r="BL16" s="21" t="s">
         <v>13</v>
       </c>
+      <c r="BM16" s="5"/>
       <c r="BN16" s="5"/>
       <c r="BO16" s="1"/>
       <c r="BP16" s="1"/>
@@ -37749,10 +37857,18 @@
         <v>13</v>
       </c>
       <c r="BT16" s="5"/>
-      <c r="BU16" s="5"/>
+      <c r="BU16" s="1"/>
       <c r="BV16" s="1"/>
-    </row>
-    <row r="17" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW16" s="1"/>
+      <c r="BX16" s="6"/>
+      <c r="BY16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="BZ16" s="5"/>
+      <c r="CA16" s="5"/>
+      <c r="CB16" s="1"/>
+    </row>
+    <row r="17" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="6">
         <v>2</v>
@@ -37810,7 +37926,7 @@
       <c r="AP17" s="1"/>
       <c r="AQ17" s="68"/>
       <c r="AR17" s="6" t="s">
-        <v>256</v>
+        <v>365</v>
       </c>
       <c r="AS17" s="1"/>
       <c r="AT17" s="4"/>
@@ -37825,21 +37941,21 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="6">
+      <c r="BD17" s="6">
         <v>2</v>
       </c>
-      <c r="BF17" s="1"/>
-      <c r="BG17" s="4"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="1"/>
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
       <c r="BJ17" s="1"/>
-      <c r="BK17" s="1"/>
-      <c r="BL17" s="6">
+      <c r="BK17" s="6">
         <v>2</v>
       </c>
-      <c r="BM17" s="1"/>
-      <c r="BN17" s="4"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="4"/>
+      <c r="BN17" s="1"/>
       <c r="BO17" s="1"/>
       <c r="BP17" s="1"/>
       <c r="BQ17" s="1"/>
@@ -37850,10 +37966,18 @@
       <c r="BT17" s="4"/>
       <c r="BU17" s="1"/>
       <c r="BV17" s="1"/>
-    </row>
-    <row r="18" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW17" s="1"/>
+      <c r="BX17" s="6">
+        <v>2</v>
+      </c>
+      <c r="BY17" s="1"/>
+      <c r="BZ17" s="4"/>
+      <c r="CA17" s="1"/>
+      <c r="CB17" s="1"/>
+    </row>
+    <row r="18" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="69" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="1"/>
@@ -37861,8 +37985,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="68"/>
-      <c r="I18" s="7" t="s">
-        <v>0</v>
+      <c r="I18" s="69" t="s">
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>7</v>
@@ -37887,7 +38011,7 @@
         <v>14</v>
       </c>
       <c r="X18" s="1"/>
-      <c r="Y18" s="26" t="s">
+      <c r="Y18" s="69" t="s">
         <v>11</v>
       </c>
       <c r="Z18" s="1"/>
@@ -37918,13 +38042,13 @@
         <v>11</v>
       </c>
       <c r="AS18" s="8" t="s">
-        <v>246</v>
+        <v>364</v>
       </c>
       <c r="AT18" s="5"/>
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
-      <c r="AX18" s="26" t="s">
+      <c r="AX18" s="69" t="s">
         <v>11</v>
       </c>
       <c r="AY18" s="1"/>
@@ -37932,21 +38056,21 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
-      <c r="BE18" s="26" t="s">
+      <c r="BD18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="BF18" s="1"/>
-      <c r="BG18" s="5"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="5"/>
+      <c r="BG18" s="1"/>
       <c r="BH18" s="1"/>
       <c r="BI18" s="1"/>
       <c r="BJ18" s="1"/>
-      <c r="BK18" s="1"/>
-      <c r="BL18" s="26" t="s">
+      <c r="BK18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="BM18" s="1"/>
-      <c r="BN18" s="5"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="5"/>
+      <c r="BN18" s="1"/>
       <c r="BO18" s="1"/>
       <c r="BP18" s="1"/>
       <c r="BQ18" s="1"/>
@@ -37955,10 +38079,18 @@
       </c>
       <c r="BS18" s="1"/>
       <c r="BT18" s="5"/>
-      <c r="BU18" s="21"/>
+      <c r="BU18" s="1"/>
       <c r="BV18" s="1"/>
-    </row>
-    <row r="19" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW18" s="1"/>
+      <c r="BX18" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY18" s="1"/>
+      <c r="BZ18" s="5"/>
+      <c r="CA18" s="21"/>
+      <c r="CB18" s="1"/>
+    </row>
+    <row r="19" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="8">
         <v>7</v>
@@ -38018,7 +38150,7 @@
       <c r="AP19" s="1"/>
       <c r="AQ19" s="68"/>
       <c r="AR19" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AS19" s="4"/>
       <c r="AT19" s="1"/>
@@ -38031,28 +38163,28 @@
       <c r="AY19" s="4"/>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
-      <c r="BB19" s="1" t="s">
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="8">
+        <v>7</v>
+      </c>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
-      <c r="BE19" s="8">
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="8">
         <v>7</v>
       </c>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="1"/>
-      <c r="BH19" s="1"/>
-      <c r="BI19" s="1" t="s">
+      <c r="BL19" s="4"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="BJ19" s="1"/>
-      <c r="BK19" s="1"/>
-      <c r="BL19" s="8">
-        <v>7</v>
-      </c>
-      <c r="BM19" s="4"/>
-      <c r="BN19" s="1"/>
-      <c r="BO19" s="1"/>
       <c r="BP19" s="1"/>
       <c r="BQ19" s="1"/>
       <c r="BR19" s="8">
@@ -38060,10 +38192,18 @@
       </c>
       <c r="BS19" s="4"/>
       <c r="BT19" s="1"/>
-      <c r="BU19" s="21"/>
+      <c r="BU19" s="1"/>
       <c r="BV19" s="1"/>
-    </row>
-    <row r="20" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW19" s="1"/>
+      <c r="BX19" s="8">
+        <v>7</v>
+      </c>
+      <c r="BY19" s="4"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="21"/>
+      <c r="CB19" s="1"/>
+    </row>
+    <row r="20" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -38100,7 +38240,7 @@
       <c r="AA20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AB20" s="26" t="s">
+      <c r="AB20" s="69" t="s">
         <v>26</v>
       </c>
       <c r="AC20" s="1"/>
@@ -38125,7 +38265,7 @@
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
@@ -38133,42 +38273,50 @@
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
       <c r="AZ20" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA20" s="1"/>
-      <c r="BB20" s="26"/>
-      <c r="BC20" s="5"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
-      <c r="BF20" s="1"/>
-      <c r="BG20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="BH20" s="1"/>
-      <c r="BI20" s="26"/>
-      <c r="BJ20" s="5"/>
+      <c r="BF20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="26"/>
+      <c r="BI20" s="5"/>
+      <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
       <c r="BL20" s="1"/>
-      <c r="BM20" s="1"/>
-      <c r="BN20" s="6" t="s">
+      <c r="BM20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="BO20" s="1"/>
-      <c r="BP20" s="21"/>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="26"/>
+      <c r="BP20" s="5"/>
       <c r="BQ20" s="1"/>
       <c r="BR20" s="1"/>
       <c r="BS20" s="1"/>
-      <c r="BT20" s="1"/>
-      <c r="BU20" s="1" t="s">
+      <c r="BT20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="BU20" s="1"/>
+      <c r="BV20" s="21"/>
+      <c r="BW20" s="1"/>
+      <c r="BX20" s="1"/>
+      <c r="BY20" s="1"/>
+      <c r="BZ20" s="1"/>
+      <c r="CA20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="BV20" s="21"/>
-    </row>
-    <row r="21" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="CB20" s="21"/>
+    </row>
+    <row r="21" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="69" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="1"/>
@@ -38176,7 +38324,9 @@
       <c r="H21" s="68"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="7"/>
+      <c r="K21" s="69" t="s">
+        <v>15</v>
+      </c>
       <c r="L21" s="1" t="s">
         <v>7</v>
       </c>
@@ -38198,7 +38348,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="26" t="s">
+      <c r="AA21" s="69" t="s">
         <v>15</v>
       </c>
       <c r="AB21" s="8"/>
@@ -38229,59 +38379,69 @@
       <c r="AQ21" s="68"/>
       <c r="AR21" s="1"/>
       <c r="AS21" s="6" t="s">
-        <v>248</v>
+        <v>368</v>
       </c>
       <c r="AT21" s="69" t="s">
         <v>26</v>
       </c>
       <c r="AU21" s="72" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
       <c r="AY21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ21" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AZ21" s="26" t="s">
+      <c r="BF21" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="BA21" s="1"/>
-      <c r="BB21" s="21" t="s">
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="BC21" s="5"/>
-      <c r="BD21" s="1"/>
-      <c r="BE21" s="1"/>
-      <c r="BF21" s="6" t="s">
+      <c r="BI21" s="5"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BG21" s="26" t="s">
+      <c r="BM21" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="BH21" s="1"/>
-      <c r="BI21" s="21" t="s">
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="BJ21" s="5"/>
-      <c r="BK21" s="1"/>
-      <c r="BL21" s="1"/>
-      <c r="BM21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BN21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="BO21" s="1"/>
-      <c r="BP21" s="21"/>
+      <c r="BP21" s="5"/>
       <c r="BQ21" s="1"/>
       <c r="BR21" s="1"/>
-      <c r="BS21" s="1"/>
-      <c r="BT21" s="1"/>
-      <c r="BU21" s="9"/>
+      <c r="BS21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT21" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="BU21" s="1"/>
       <c r="BV21" s="21"/>
-    </row>
-    <row r="22" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW21" s="1"/>
+      <c r="BX21" s="1"/>
+      <c r="BY21" s="1"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="9"/>
+      <c r="CB21" s="21"/>
+    </row>
+    <row r="22" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -38345,46 +38505,54 @@
         <v>15</v>
       </c>
       <c r="AT22" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AU22" s="4"/>
       <c r="AV22" s="5"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
-      <c r="AY22" s="26" t="s">
+      <c r="AY22" s="69" t="s">
         <v>15</v>
       </c>
       <c r="AZ22" s="8"/>
       <c r="BA22" s="4"/>
-      <c r="BB22" s="5"/>
-      <c r="BC22" s="4"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="118"/>
       <c r="BD22" s="1"/>
-      <c r="BE22" s="1"/>
-      <c r="BF22" s="26" t="s">
+      <c r="BE22" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="BG22" s="8"/>
-      <c r="BH22" s="4"/>
-      <c r="BI22" s="5"/>
-      <c r="BJ22" s="4"/>
+      <c r="BF22" s="8"/>
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="5"/>
+      <c r="BI22" s="4"/>
+      <c r="BJ22" s="1"/>
       <c r="BK22" s="1"/>
-      <c r="BL22" s="1"/>
-      <c r="BM22" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="BN22" s="8"/>
-      <c r="BO22" s="4"/>
-      <c r="BP22" s="1"/>
+      <c r="BL22" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM22" s="8"/>
+      <c r="BN22" s="4"/>
+      <c r="BO22" s="5"/>
+      <c r="BP22" s="4"/>
       <c r="BQ22" s="1"/>
       <c r="BR22" s="1"/>
-      <c r="BS22" s="21"/>
-      <c r="BT22" s="21"/>
-      <c r="BU22" s="1" t="s">
+      <c r="BS22" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="BT22" s="8"/>
+      <c r="BU22" s="4"/>
+      <c r="BV22" s="1"/>
+      <c r="BW22" s="1"/>
+      <c r="BX22" s="1"/>
+      <c r="BY22" s="21"/>
+      <c r="BZ22" s="21"/>
+      <c r="CA22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="BV22" s="1"/>
-    </row>
-    <row r="23" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="CB22" s="1"/>
+    </row>
+    <row r="23" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -38439,53 +38607,61 @@
       <c r="AQ23" s="68"/>
       <c r="AR23" s="1"/>
       <c r="AS23" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AT23" s="4"/>
       <c r="AU23" s="70" t="s">
         <v>35</v>
       </c>
       <c r="AV23" s="72" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
       <c r="AY23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="70"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="118"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="21" t="s">
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="BB23" s="5"/>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="1"/>
-      <c r="BF23" s="8" t="s">
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="5"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="BG23" s="4"/>
-      <c r="BH23" s="21" t="s">
+      <c r="BM23" s="4"/>
+      <c r="BN23" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="BI23" s="5"/>
-      <c r="BJ23" s="5"/>
-      <c r="BK23" s="1"/>
-      <c r="BL23" s="1"/>
-      <c r="BM23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN23" s="4"/>
-      <c r="BO23" s="21"/>
-      <c r="BP23" s="1"/>
+      <c r="BO23" s="5"/>
+      <c r="BP23" s="5"/>
       <c r="BQ23" s="1"/>
       <c r="BR23" s="1"/>
-      <c r="BS23" s="21"/>
-      <c r="BT23" s="21"/>
-      <c r="BU23" s="9"/>
+      <c r="BS23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT23" s="4"/>
+      <c r="BU23" s="21"/>
       <c r="BV23" s="1"/>
-    </row>
-    <row r="24" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW23" s="1"/>
+      <c r="BX23" s="1"/>
+      <c r="BY23" s="21"/>
+      <c r="BZ23" s="21"/>
+      <c r="CA23" s="9"/>
+      <c r="CB23" s="1"/>
+    </row>
+    <row r="24" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>185</v>
@@ -38541,7 +38717,7 @@
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AU24" s="1"/>
       <c r="AV24" s="4"/>
@@ -38549,38 +38725,46 @@
       <c r="AX24" s="1"/>
       <c r="AY24" s="1"/>
       <c r="AZ24" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA24" s="1"/>
-      <c r="BB24" s="4"/>
-      <c r="BC24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="118"/>
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
-      <c r="BF24" s="1"/>
-      <c r="BG24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="BH24" s="1"/>
-      <c r="BI24" s="4"/>
+      <c r="BF24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="4"/>
+      <c r="BI24" s="1"/>
       <c r="BJ24" s="1"/>
       <c r="BK24" s="1"/>
       <c r="BL24" s="1"/>
-      <c r="BM24" s="1"/>
-      <c r="BN24" s="6" t="s">
+      <c r="BM24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="BO24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="4"/>
       <c r="BP24" s="1"/>
       <c r="BQ24" s="1"/>
       <c r="BR24" s="1"/>
       <c r="BS24" s="1"/>
-      <c r="BT24" s="1"/>
-      <c r="BU24" s="20" t="s">
+      <c r="BT24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="1"/>
+      <c r="BX24" s="1"/>
+      <c r="BY24" s="1"/>
+      <c r="BZ24" s="1"/>
+      <c r="CA24" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="BV24" s="1"/>
-    </row>
-    <row r="25" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="CB24" s="1"/>
+    </row>
+    <row r="25" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>186</v>
@@ -38609,7 +38793,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
@@ -38641,53 +38825,63 @@
       <c r="AQ25" s="68"/>
       <c r="AR25" s="1"/>
       <c r="AS25" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AT25" s="69" t="s">
         <v>36</v>
       </c>
       <c r="AU25" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AV25" s="5"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
-      <c r="AY25" s="6"/>
-      <c r="AZ25" s="26" t="s">
+      <c r="AY25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ25" s="69" t="s">
         <v>36</v>
       </c>
       <c r="BA25" s="1"/>
-      <c r="BB25" s="5"/>
-      <c r="BC25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="118"/>
       <c r="BD25" s="1"/>
-      <c r="BE25" s="1"/>
-      <c r="BF25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="BG25" s="26" t="s">
+      <c r="BE25" s="6"/>
+      <c r="BF25" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="BH25" s="1"/>
-      <c r="BI25" s="5"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="5"/>
+      <c r="BI25" s="1"/>
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
-      <c r="BL25" s="1"/>
-      <c r="BM25" s="6" t="s">
+      <c r="BL25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BN25" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="BO25" s="1"/>
+      <c r="BM25" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="5"/>
       <c r="BP25" s="1"/>
       <c r="BQ25" s="1"/>
       <c r="BR25" s="1"/>
-      <c r="BS25" s="1"/>
-      <c r="BT25" s="1"/>
+      <c r="BS25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BT25" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="BU25" s="1"/>
       <c r="BV25" s="1"/>
-    </row>
-    <row r="26" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW25" s="1"/>
+      <c r="BX25" s="1"/>
+      <c r="BY25" s="1"/>
+      <c r="BZ25" s="1"/>
+      <c r="CA25" s="1"/>
+      <c r="CB25" s="1"/>
+    </row>
+    <row r="26" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>187</v>
@@ -38716,7 +38910,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
@@ -38747,46 +38941,54 @@
         <v>37</v>
       </c>
       <c r="AT26" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AU26" s="4"/>
       <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
-      <c r="AY26" s="21"/>
-      <c r="AZ26" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="AY26" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ26" s="8"/>
       <c r="BA26" s="4"/>
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
       <c r="BD26" s="1"/>
-      <c r="BE26" s="1"/>
-      <c r="BF26" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="BG26" s="8"/>
-      <c r="BH26" s="4"/>
+      <c r="BE26" s="21"/>
+      <c r="BF26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG26" s="4"/>
+      <c r="BH26" s="1"/>
       <c r="BI26" s="1"/>
       <c r="BJ26" s="1"/>
       <c r="BK26" s="1"/>
-      <c r="BL26" s="1"/>
-      <c r="BM26" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN26" s="8"/>
-      <c r="BO26" s="4"/>
+      <c r="BL26" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM26" s="8"/>
+      <c r="BN26" s="4"/>
+      <c r="BO26" s="1"/>
       <c r="BP26" s="1"/>
       <c r="BQ26" s="1"/>
       <c r="BR26" s="1"/>
-      <c r="BS26" s="6" t="s">
+      <c r="BS26" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="BT26" s="8"/>
+      <c r="BU26" s="4"/>
+      <c r="BV26" s="1"/>
+      <c r="BW26" s="1"/>
+      <c r="BX26" s="1"/>
+      <c r="BY26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BT26" s="1"/>
-      <c r="BU26" s="1"/>
-      <c r="BV26" s="1"/>
-    </row>
-    <row r="27" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BZ26" s="1"/>
+      <c r="CA26" s="1"/>
+      <c r="CB26" s="1"/>
+    </row>
+    <row r="27" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -38835,45 +39037,53 @@
       <c r="AQ27" s="68"/>
       <c r="AR27" s="1"/>
       <c r="AS27" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AT27" s="4"/>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
-      <c r="AY27" s="6"/>
-      <c r="AZ27" s="9"/>
+      <c r="AY27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ27" s="4"/>
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
       <c r="BD27" s="1"/>
-      <c r="BE27" s="1"/>
-      <c r="BF27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG27" s="4"/>
+      <c r="BE27" s="6"/>
+      <c r="BF27" s="9"/>
+      <c r="BG27" s="1"/>
       <c r="BH27" s="1"/>
       <c r="BI27" s="1"/>
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
-      <c r="BL27" s="1"/>
-      <c r="BM27" s="8" t="s">
+      <c r="BL27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="BN27" s="4"/>
+      <c r="BM27" s="4"/>
+      <c r="BN27" s="1"/>
       <c r="BO27" s="1"/>
       <c r="BP27" s="1"/>
       <c r="BQ27" s="1"/>
       <c r="BR27" s="1"/>
-      <c r="BS27" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="BT27" s="1"/>
+      <c r="BS27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT27" s="4"/>
       <c r="BU27" s="1"/>
       <c r="BV27" s="1"/>
-    </row>
-    <row r="28" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW27" s="1"/>
+      <c r="BX27" s="1"/>
+      <c r="BY27" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="1"/>
+      <c r="CB27" s="1"/>
+    </row>
+    <row r="28" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -38883,9 +39093,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -38945,14 +39153,20 @@
       <c r="BP28" s="1"/>
       <c r="BQ28" s="1"/>
       <c r="BR28" s="1"/>
-      <c r="BS28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BT28" s="4"/>
+      <c r="BS28" s="1"/>
+      <c r="BT28" s="1"/>
       <c r="BU28" s="1"/>
       <c r="BV28" s="1"/>
-    </row>
-    <row r="29" spans="2:74" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="BW28" s="1"/>
+      <c r="BX28" s="1"/>
+      <c r="BY28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ28" s="4"/>
+      <c r="CA28" s="1"/>
+      <c r="CB28" s="1"/>
+    </row>
+    <row r="29" spans="2:80" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1" t="s">
@@ -38965,22 +39179,30 @@
       <c r="AP29" s="1"/>
       <c r="AQ29" s="68"/>
       <c r="AR29" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1"/>
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
-      <c r="BP29" s="1"/>
-      <c r="BQ29" s="1"/>
-      <c r="BR29" s="1"/>
-      <c r="BS29" s="6"/>
-      <c r="BT29" s="21"/>
-      <c r="BU29" s="1"/>
+      <c r="AX29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
       <c r="BV29" s="1"/>
-    </row>
-    <row r="30" spans="2:74" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW29" s="1"/>
+      <c r="BX29" s="1"/>
+      <c r="BY29" s="6"/>
+      <c r="BZ29" s="21"/>
+      <c r="CA29" s="1"/>
+      <c r="CB29" s="1"/>
+    </row>
+    <row r="30" spans="2:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1" t="s">
@@ -38993,28 +39215,36 @@
       <c r="AP30" s="1"/>
       <c r="AQ30" s="68"/>
       <c r="AR30" s="1" t="s">
-        <v>258</v>
+        <v>366</v>
       </c>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
       <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
-      <c r="BP30" s="1"/>
-      <c r="BQ30" s="1"/>
-      <c r="BR30" s="1"/>
-      <c r="BS30" s="6" t="s">
+      <c r="AX30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BT30" s="1"/>
-      <c r="BU30" s="1"/>
-      <c r="BV30" s="1"/>
-    </row>
-    <row r="31" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+    </row>
+    <row r="31" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
@@ -39023,28 +39253,36 @@
       <c r="AP31" s="1"/>
       <c r="AQ31" s="68"/>
       <c r="AR31" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
-      <c r="BP31" s="1"/>
-      <c r="BQ31" s="1"/>
-      <c r="BR31" s="1"/>
-      <c r="BS31" s="26" t="s">
+      <c r="AX31" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="1"/>
+      <c r="BX31" s="1"/>
+      <c r="BY31" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="BT31" s="1"/>
-      <c r="BU31" s="1"/>
-      <c r="BV31" s="1"/>
-    </row>
-    <row r="32" spans="2:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
+    </row>
+    <row r="32" spans="2:80" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
@@ -39053,24 +39291,30 @@
       <c r="AP32" s="1"/>
       <c r="AQ32" s="68"/>
       <c r="AR32" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1"/>
       <c r="AU32" s="1"/>
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
-      <c r="BP32" s="1"/>
-      <c r="BQ32" s="1"/>
-      <c r="BR32" s="1"/>
-      <c r="BS32" s="8" t="s">
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BV32" s="1"/>
+      <c r="BW32" s="1"/>
+      <c r="BX32" s="1"/>
+      <c r="BY32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="BT32" s="4"/>
-      <c r="BU32" s="1"/>
-      <c r="BV32" s="1"/>
-    </row>
-    <row r="33" spans="35:74" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="BZ32" s="4"/>
+      <c r="CA32" s="1"/>
+      <c r="CB32" s="1"/>
+    </row>
+    <row r="33" spans="35:80" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -39086,15 +39330,21 @@
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
-      <c r="BP33" s="1"/>
-      <c r="BQ33" s="1"/>
-      <c r="BR33" s="1"/>
-      <c r="BS33" s="1"/>
-      <c r="BT33" s="1"/>
-      <c r="BU33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
       <c r="BV33" s="1"/>
-    </row>
-    <row r="34" spans="35:74" x14ac:dyDescent="0.3">
+      <c r="BW33" s="1"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
+    </row>
+    <row r="34" spans="35:80" x14ac:dyDescent="0.3">
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -39110,15 +39360,21 @@
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
       <c r="AW34" s="1"/>
-      <c r="BP34" s="1"/>
-      <c r="BQ34" s="1"/>
-      <c r="BR34" s="1"/>
-      <c r="BS34" s="1"/>
-      <c r="BT34" s="1"/>
-      <c r="BU34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
       <c r="BV34" s="1"/>
-    </row>
-    <row r="35" spans="35:74" x14ac:dyDescent="0.3">
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+    </row>
+    <row r="35" spans="35:80" x14ac:dyDescent="0.3">
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
@@ -39134,15 +39390,21 @@
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
       <c r="AW35" s="1"/>
-      <c r="BP35" s="1"/>
-      <c r="BQ35" s="1"/>
-      <c r="BR35" s="1"/>
-      <c r="BS35" s="1"/>
-      <c r="BT35" s="1"/>
-      <c r="BU35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
       <c r="BV35" s="1"/>
-    </row>
-    <row r="36" spans="35:74" x14ac:dyDescent="0.3">
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
+    </row>
+    <row r="36" spans="35:80" x14ac:dyDescent="0.3">
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
@@ -39158,15 +39420,21 @@
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
-      <c r="BP36" s="1"/>
-      <c r="BQ36" s="1"/>
-      <c r="BR36" s="1"/>
-      <c r="BS36" s="1"/>
-      <c r="BT36" s="1"/>
-      <c r="BU36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
       <c r="BV36" s="1"/>
-    </row>
-    <row r="37" spans="35:74" x14ac:dyDescent="0.3">
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+    </row>
+    <row r="37" spans="35:80" x14ac:dyDescent="0.3">
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
@@ -39182,40 +39450,46 @@
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
       <c r="AW37" s="1"/>
-      <c r="BP37" s="1"/>
-      <c r="BQ37" s="1"/>
-      <c r="BR37" s="1"/>
-      <c r="BS37" s="1"/>
-      <c r="BT37" s="1"/>
-      <c r="BU37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
       <c r="BV37" s="1"/>
-    </row>
-    <row r="38" spans="35:74" x14ac:dyDescent="0.3">
-      <c r="BP38" s="1"/>
-      <c r="BQ38" s="1"/>
-      <c r="BR38" s="1"/>
-      <c r="BS38" s="1"/>
-      <c r="BT38" s="1"/>
-      <c r="BU38" s="1"/>
+      <c r="BW37" s="1"/>
+      <c r="BX37" s="1"/>
+      <c r="BY37" s="1"/>
+      <c r="BZ37" s="1"/>
+      <c r="CA37" s="1"/>
+      <c r="CB37" s="1"/>
+    </row>
+    <row r="38" spans="35:80" x14ac:dyDescent="0.3">
       <c r="BV38" s="1"/>
-    </row>
-    <row r="39" spans="35:74" x14ac:dyDescent="0.3">
-      <c r="BP39" s="1"/>
-      <c r="BQ39" s="1"/>
-      <c r="BR39" s="1"/>
-      <c r="BS39" s="1"/>
-      <c r="BT39" s="1"/>
-      <c r="BU39" s="1"/>
+      <c r="BW38" s="1"/>
+      <c r="BX38" s="1"/>
+      <c r="BY38" s="1"/>
+      <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
+    </row>
+    <row r="39" spans="35:80" x14ac:dyDescent="0.3">
       <c r="BV39" s="1"/>
-    </row>
-    <row r="40" spans="35:74" x14ac:dyDescent="0.3">
-      <c r="BP40" s="1"/>
-      <c r="BQ40" s="1"/>
-      <c r="BR40" s="1"/>
-      <c r="BS40" s="1"/>
-      <c r="BT40" s="1"/>
-      <c r="BU40" s="1"/>
+      <c r="BW39" s="1"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="1"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="1"/>
+      <c r="CB39" s="1"/>
+    </row>
+    <row r="40" spans="35:80" x14ac:dyDescent="0.3">
       <c r="BV40" s="1"/>
+      <c r="BW40" s="1"/>
+      <c r="BX40" s="1"/>
+      <c r="BY40" s="1"/>
+      <c r="BZ40" s="1"/>
+      <c r="CA40" s="1"/>
+      <c r="CB40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39265,7 +39539,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="68"/>
       <c r="J4" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -39289,7 +39563,7 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -39307,7 +39581,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="68"/>
       <c r="J6" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="26"/>
@@ -39332,7 +39606,7 @@
         <v>14</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -39350,7 +39624,7 @@
       <c r="I8" s="68"/>
       <c r="J8" s="1"/>
       <c r="K8" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="4"/>
@@ -39371,13 +39645,13 @@
       <c r="H9" s="1"/>
       <c r="I9" s="68"/>
       <c r="J9" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K9" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -39417,7 +39691,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="68"/>
       <c r="J11" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="1"/>
@@ -39453,7 +39727,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="68"/>
       <c r="J13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -39775,7 +40049,7 @@
         <v>146</v>
       </c>
       <c r="N27" s="71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>138</v>
@@ -39899,7 +40173,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="117" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G33" s="117"/>
       <c r="H33" s="1"/>
@@ -39909,7 +40183,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="117" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O33" s="117"/>
       <c r="P33" s="1"/>
@@ -40144,7 +40418,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="1"/>
       <c r="F44" s="70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="1"/>
@@ -40155,7 +40429,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="1"/>
       <c r="M44" s="70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N44" s="5" t="s">
         <v>138</v>
@@ -40333,7 +40607,7 @@
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -40342,7 +40616,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -40446,7 +40720,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="1"/>
       <c r="M61" s="70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N61" s="5" t="s">
         <v>138</v>
@@ -40622,7 +40896,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="68"/>
       <c r="J3" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -40647,7 +40921,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -40668,7 +40942,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="68"/>
       <c r="J5" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
@@ -40714,7 +40988,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="68"/>
       <c r="J7" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="4"/>
@@ -40755,19 +41029,19 @@
       <c r="C9" s="4"/>
       <c r="D9" s="1"/>
       <c r="E9" s="70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="68"/>
       <c r="J9" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="1"/>
       <c r="M9" s="70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>138</v>
@@ -40790,7 +41064,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="1"/>
@@ -40833,13 +41107,13 @@
       <c r="I12" s="68"/>
       <c r="J12" s="1"/>
       <c r="K12" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L12" s="70" t="s">
         <v>14</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N12" s="71"/>
       <c r="O12" s="5"/>
@@ -40862,7 +41136,7 @@
         <v>13</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="1"/>
@@ -40883,7 +41157,7 @@
       <c r="I14" s="68"/>
       <c r="J14" s="1"/>
       <c r="K14" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="1"/>
@@ -40946,7 +41220,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="68"/>
       <c r="J17" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -40992,7 +41266,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="68"/>
       <c r="J19" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="5"/>
@@ -41038,7 +41312,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="68"/>
       <c r="J21" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="4"/>
@@ -41079,19 +41353,19 @@
       <c r="C23" s="4"/>
       <c r="D23" s="1"/>
       <c r="E23" s="70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="1"/>
       <c r="I23" s="68"/>
       <c r="J23" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="1"/>
       <c r="M23" s="70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>104</v>
@@ -41132,7 +41406,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="5"/>
@@ -41155,13 +41429,13 @@
       <c r="I26" s="68"/>
       <c r="J26" s="1"/>
       <c r="K26" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L26" s="70" t="s">
         <v>75</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N26" s="71"/>
       <c r="O26" s="1"/>
@@ -41184,7 +41458,7 @@
         <v>153</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="1"/>
@@ -41205,7 +41479,7 @@
       <c r="I28" s="68"/>
       <c r="J28" s="1"/>
       <c r="K28" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="1"/>
@@ -41526,7 +41800,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -41549,13 +41823,13 @@
       <c r="I5" s="68"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -41576,13 +41850,13 @@
       <c r="H6" s="1"/>
       <c r="I6" s="68"/>
       <c r="J6" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K6" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
@@ -41607,14 +41881,14 @@
         <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="70" t="s">
         <v>15</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -41634,11 +41908,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="68"/>
       <c r="J8" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="4"/>
@@ -41663,7 +41937,7 @@
         <v>75</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -41684,7 +41958,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="1"/>
@@ -41711,7 +41985,7 @@
         <v>26</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -41730,7 +42004,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -41742,7 +42016,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -41752,10 +42026,10 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="5"/>
@@ -41776,7 +42050,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
@@ -41802,7 +42076,7 @@
         <v>37</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="1"/>
@@ -41822,7 +42096,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="4"/>
@@ -41836,7 +42110,7 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="5"/>
@@ -41844,14 +42118,14 @@
       <c r="H17" s="1"/>
       <c r="I17" s="68"/>
       <c r="J17" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="1"/>
@@ -41874,7 +42148,7 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="1"/>
@@ -41894,7 +42168,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="68"/>
       <c r="J19" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="1"/>
@@ -42810,7 +43084,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -42937,7 +43211,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="5"/>
@@ -43210,7 +43484,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -43480,7 +43754,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="6"/>
       <c r="X43" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
@@ -43514,7 +43788,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
@@ -43552,7 +43826,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
@@ -43587,7 +43861,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
@@ -43616,7 +43890,7 @@
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="5"/>
@@ -43624,7 +43898,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
@@ -43659,7 +43933,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
@@ -43696,7 +43970,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
@@ -43731,7 +44005,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
@@ -44630,8 +44904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC45635-DE39-4CBA-B2B1-B5066770F06C}">
   <dimension ref="B1:Y50"/>
   <sheetViews>
-    <sheetView topLeftCell="Q15" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45583,7 +45857,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -45605,11 +45879,13 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
+      <c r="W31" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -45631,11 +45907,13 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
+      <c r="W32" s="69" t="s">
+        <v>26</v>
+      </c>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -45652,11 +45930,13 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
+      <c r="W33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X33" s="4"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -46053,7 +46333,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -46069,7 +46349,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="69"/>
       <c r="L15" s="12" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -46085,7 +46365,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="8" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="5"/>
@@ -46104,7 +46384,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -46119,7 +46399,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="4"/>
@@ -46137,7 +46417,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="69"/>
       <c r="L19" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -46153,7 +46433,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="1"/>
@@ -46173,7 +46453,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -46187,7 +46467,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -46205,7 +46485,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="69"/>
       <c r="L23" s="12" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="5"/>
@@ -46221,7 +46501,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="5"/>
@@ -46240,11 +46520,11 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="10" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -46257,7 +46537,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="4"/>
@@ -46275,7 +46555,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="69"/>
       <c r="L27" s="12" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="1"/>
@@ -46291,7 +46571,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="8" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="1"/>
@@ -46311,7 +46591,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="8" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="1"/>
@@ -46341,11 +46621,11 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -46359,15 +46639,15 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L32" s="69"/>
       <c r="M32" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="N32" s="69"/>
       <c r="O32" s="12" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -46381,11 +46661,11 @@
       <c r="J33" s="1"/>
       <c r="K33" s="69"/>
       <c r="L33" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M33" s="69"/>
       <c r="N33" s="8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="1"/>
@@ -46399,11 +46679,11 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="1"/>
@@ -46433,7 +46713,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -46451,7 +46731,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="69"/>
       <c r="L37" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -46467,7 +46747,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="8" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="5"/>
@@ -46486,7 +46766,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -46501,7 +46781,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="4"/>
@@ -46519,7 +46799,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="69"/>
       <c r="L41" s="12" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -46535,7 +46815,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="1"/>
@@ -46555,7 +46835,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -46585,7 +46865,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="5"/>
@@ -46614,7 +46894,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="10" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
@@ -46627,7 +46907,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="4"/>
@@ -46643,7 +46923,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="69"/>
       <c r="L49" s="8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -46657,7 +46937,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="1"/>
@@ -46689,7 +46969,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -46700,7 +46980,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -46713,7 +46993,7 @@
     <row r="54" spans="8:18" ht="13.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H54" s="1"/>
       <c r="I54" s="6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="69"/>
@@ -46729,11 +47009,11 @@
       <c r="H55" s="1"/>
       <c r="I55" s="69"/>
       <c r="J55" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K55" s="21"/>
       <c r="L55" s="10" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -46745,7 +47025,7 @@
     <row r="56" spans="8:18" ht="13.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H56" s="1"/>
       <c r="I56" s="8" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="J56" s="69"/>
       <c r="K56" s="5"/>
@@ -46762,11 +47042,11 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L57" s="21"/>
       <c r="M57" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="5"/>
@@ -46777,7 +47057,7 @@
     <row r="58" spans="8:18" ht="13.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H58" s="1"/>
       <c r="I58" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="4"/>
@@ -46793,11 +47073,11 @@
       <c r="H59" s="1"/>
       <c r="I59" s="69"/>
       <c r="J59" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K59" s="5"/>
       <c r="L59" s="20" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -46809,7 +47089,7 @@
     <row r="60" spans="8:18" ht="13.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H60" s="1"/>
       <c r="I60" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="1"/>
@@ -46829,7 +47109,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="O61" s="5"/>
       <c r="P61" s="1"/>
@@ -46882,7 +47162,7 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="20" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N65" s="5"/>
       <c r="O65" s="1"/>
@@ -46908,7 +47188,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -46924,7 +47204,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="69"/>
       <c r="L68" s="6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -46938,7 +47218,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="5"/>
@@ -46955,7 +47235,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -46968,7 +47248,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="4"/>
@@ -46984,7 +47264,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="69"/>
       <c r="L72" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -46998,7 +47278,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L73" s="4"/>
       <c r="M73" s="1"/>
@@ -47016,7 +47296,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -47028,7 +47308,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -47044,7 +47324,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="69"/>
       <c r="L76" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="5"/>
@@ -47058,7 +47338,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L77" s="4"/>
       <c r="M77" s="5"/>
@@ -47075,7 +47355,7 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
@@ -47102,7 +47382,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="70"/>
       <c r="L80" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="1"/>
@@ -47133,7 +47413,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -47144,7 +47424,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
@@ -47160,7 +47440,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="69"/>
       <c r="L84" s="12" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -47174,7 +47454,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L85" s="4"/>
       <c r="M85" s="5"/>
@@ -47191,7 +47471,7 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="N86" s="1"/>
       <c r="O86" s="5"/>
@@ -47204,7 +47484,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="4"/>
@@ -47220,7 +47500,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="69"/>
       <c r="L88" s="6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -47234,7 +47514,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L89" s="4"/>
       <c r="M89" s="1"/>
@@ -47252,7 +47532,7 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O90" s="5"/>
       <c r="P90" s="1"/>
@@ -47264,7 +47544,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -47280,7 +47560,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="69"/>
       <c r="L92" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="5"/>
@@ -47294,7 +47574,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="5"/>
@@ -47311,7 +47591,7 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="N94" s="5"/>
       <c r="O94" s="1"/>
@@ -47338,7 +47618,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="70"/>
       <c r="L96" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="1"/>
@@ -47367,7 +47647,7 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
@@ -47381,11 +47661,11 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M99" s="69"/>
       <c r="N99" s="12" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -47399,7 +47679,7 @@
       <c r="K100" s="1"/>
       <c r="L100" s="69"/>
       <c r="M100" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="N100" s="4"/>
       <c r="O100" s="5"/>
@@ -47413,7 +47693,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="1"/>
@@ -47431,7 +47711,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="10" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
@@ -47457,7 +47737,7 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="5"/>
@@ -47473,7 +47753,7 @@
       <c r="L105" s="1"/>
       <c r="M105" s="69"/>
       <c r="N105" s="12" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="O105" s="5"/>
       <c r="P105" s="1"/>
@@ -47487,7 +47767,7 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="8" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="N106" s="4"/>
       <c r="O106" s="1"/>
@@ -47515,7 +47795,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
@@ -47531,7 +47811,7 @@
       <c r="L109" s="1"/>
       <c r="M109" s="69"/>
       <c r="N109" s="12" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
@@ -47545,7 +47825,7 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="8" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N110" s="4"/>
       <c r="O110" s="5"/>
@@ -47559,12 +47839,12 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="10" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -47577,7 +47857,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="69"/>
       <c r="M112" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="4"/>
@@ -47591,11 +47871,11 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M113" s="69"/>
       <c r="N113" s="12" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O113" s="5"/>
       <c r="P113" s="1"/>
@@ -47609,7 +47889,7 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="8" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="N114" s="4"/>
       <c r="O114" s="1"/>
@@ -49643,7 +49923,7 @@
         <v>1</v>
       </c>
       <c r="AA3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB3">
         <v>4</v>
@@ -49750,49 +50030,49 @@
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB4">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD4">
         <v>0.197685241699218</v>
       </c>
       <c r="AE4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF4">
         <v>0.197616577148437</v>
       </c>
       <c r="AG4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH4">
         <v>0.143280029296875</v>
       </c>
       <c r="AI4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ4">
         <v>9.4970703125E-2</v>
       </c>
       <c r="AK4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL4">
         <v>3.08837890625E-2</v>
       </c>
       <c r="AM4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN4">
         <v>1.953125E-2</v>
       </c>
       <c r="AO4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP4">
         <v>1.5625E-2</v>
@@ -49941,7 +50221,7 @@
       </c>
       <c r="P5" s="75"/>
       <c r="AA5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB5">
         <v>4</v>
@@ -50022,49 +50302,49 @@
         <v>1</v>
       </c>
       <c r="AA6" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB6">
         <v>0.243621826171875</v>
       </c>
       <c r="AC6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD6">
         <v>0.197685241699218</v>
       </c>
       <c r="AE6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AF6">
         <v>0.197685241699218</v>
       </c>
       <c r="AG6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH6">
         <v>0.197616577148437</v>
       </c>
       <c r="AI6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ6">
         <v>9.735107421875E-2</v>
       </c>
       <c r="AK6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL6">
         <v>3.08837890625E-2</v>
       </c>
       <c r="AM6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN6">
         <v>1.953125E-2</v>
       </c>
       <c r="AO6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP6">
         <v>1.5625E-2</v>
@@ -50214,7 +50494,7 @@
         <v>5</v>
       </c>
       <c r="AA7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB7">
         <v>4</v>
@@ -50298,49 +50578,49 @@
         <v>1</v>
       </c>
       <c r="AA8" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB8">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC8" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD8">
         <v>0.197685241699218</v>
       </c>
       <c r="AE8" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF8">
         <v>0.197616577148437</v>
       </c>
       <c r="AG8" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH8">
         <v>0.143280029296875</v>
       </c>
       <c r="AI8" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ8">
         <v>9.52606201171875E-2</v>
       </c>
       <c r="AK8" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL8">
         <v>2.79388427734375E-2</v>
       </c>
       <c r="AM8" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN8">
         <v>2.2186279296875E-2</v>
       </c>
       <c r="AO8" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP8">
         <v>1.5625E-2</v>
@@ -50481,7 +50761,7 @@
     </row>
     <row r="9" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB9">
         <v>4</v>
@@ -50592,49 +50872,49 @@
         <v>1</v>
       </c>
       <c r="AA10" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB10">
         <v>0.243621826171875</v>
       </c>
       <c r="AC10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD10">
         <v>0.197685241699218</v>
       </c>
       <c r="AE10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AF10">
         <v>0.197685241699218</v>
       </c>
       <c r="AG10" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH10">
         <v>0.197616577148437</v>
       </c>
       <c r="AI10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ10">
         <v>9.76409912109375E-2</v>
       </c>
       <c r="AK10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL10">
         <v>2.79388427734375E-2</v>
       </c>
       <c r="AM10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN10">
         <v>2.2186279296875E-2</v>
       </c>
       <c r="AO10" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP10">
         <v>1.5625E-2</v>
@@ -50781,7 +51061,7 @@
         <v>1</v>
       </c>
       <c r="AA11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB11">
         <v>5</v>
@@ -50862,49 +51142,49 @@
         <v>1</v>
       </c>
       <c r="AA12" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB12">
         <v>0.31292724609375</v>
       </c>
       <c r="AC12" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD12">
         <v>0.170783996582031</v>
       </c>
       <c r="AE12" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF12">
         <v>0.170730590820312</v>
       </c>
       <c r="AG12" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH12">
         <v>0.122001647949218</v>
       </c>
       <c r="AI12" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ12">
         <v>9.5184326171875E-2</v>
       </c>
       <c r="AK12" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL12">
         <v>8.79669189453125E-2</v>
       </c>
       <c r="AM12" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN12">
         <v>2.47802734375E-2</v>
       </c>
       <c r="AO12" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP12">
         <v>1.5625E-2</v>
@@ -51055,7 +51335,7 @@
       <c r="M13" s="76"/>
       <c r="P13" s="76"/>
       <c r="AA13" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB13">
         <v>5</v>
@@ -51136,49 +51416,49 @@
         <v>1</v>
       </c>
       <c r="AA14" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB14">
         <v>0.260009765625</v>
       </c>
       <c r="AC14" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD14">
         <v>0.170783996582031</v>
       </c>
       <c r="AE14" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF14">
         <v>0.170783996582031</v>
       </c>
       <c r="AG14" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH14">
         <v>0.170730590820312</v>
       </c>
       <c r="AI14" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ14">
         <v>9.72900390625E-2</v>
       </c>
       <c r="AK14" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL14">
         <v>8.9996337890625E-2</v>
       </c>
       <c r="AM14" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN14">
         <v>2.47802734375E-2</v>
       </c>
       <c r="AO14" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP14">
         <v>1.5625E-2</v>
@@ -51328,7 +51608,7 @@
         <v>5</v>
       </c>
       <c r="AA15" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AB15">
         <v>5</v>
@@ -51412,49 +51692,49 @@
         <v>1</v>
       </c>
       <c r="AA16" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB16">
         <v>0.2110595703125</v>
       </c>
       <c r="AC16" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD16">
         <v>0.170783996582031</v>
       </c>
       <c r="AE16" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF16">
         <v>0.170783996582031</v>
       </c>
       <c r="AG16" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH16">
         <v>0.170730590820312</v>
       </c>
       <c r="AI16" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ16">
         <v>0.142242431640625</v>
       </c>
       <c r="AK16" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL16">
         <v>9.393310546875E-2</v>
       </c>
       <c r="AM16" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN16">
         <v>2.484130859375E-2</v>
       </c>
       <c r="AO16" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP16">
         <v>1.5625E-2</v>
@@ -51595,7 +51875,7 @@
     </row>
     <row r="17" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA17" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB17">
         <v>4</v>
@@ -51706,49 +51986,49 @@
         <v>1</v>
       </c>
       <c r="AA18" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB18">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC18" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD18">
         <v>0.198165893554687</v>
       </c>
       <c r="AE18" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF18">
         <v>0.198028564453125</v>
       </c>
       <c r="AG18" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH18">
         <v>0.143669128417968</v>
       </c>
       <c r="AI18" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ18">
         <v>8.8226318359375E-2</v>
       </c>
       <c r="AK18" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL18">
         <v>2.79388427734375E-2</v>
       </c>
       <c r="AM18" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN18">
         <v>2.79388427734375E-2</v>
       </c>
       <c r="AO18" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP18">
         <v>1.5625E-2</v>
@@ -51897,7 +52177,7 @@
       </c>
       <c r="O19" s="77"/>
       <c r="AA19" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB19">
         <v>4</v>
@@ -51978,49 +52258,49 @@
         <v>1</v>
       </c>
       <c r="AA20" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB20">
         <v>0.243621826171875</v>
       </c>
       <c r="AC20" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD20">
         <v>0.198165893554687</v>
       </c>
       <c r="AE20" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF20">
         <v>0.198165893554687</v>
       </c>
       <c r="AG20" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH20">
         <v>0.198028564453125</v>
       </c>
       <c r="AI20" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ20">
         <v>9.051513671875E-2</v>
       </c>
       <c r="AK20" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL20">
         <v>2.79388427734375E-2</v>
       </c>
       <c r="AM20" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN20">
         <v>2.79388427734375E-2</v>
       </c>
       <c r="AO20" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP20">
         <v>1.5625E-2</v>
@@ -52167,7 +52447,7 @@
         <v>3</v>
       </c>
       <c r="AA21" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB21">
         <v>5</v>
@@ -52250,49 +52530,49 @@
         <v>1</v>
       </c>
       <c r="AA22" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB22">
         <v>0.31292724609375</v>
       </c>
       <c r="AC22" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD22">
         <v>0.171157836914062</v>
       </c>
       <c r="AE22" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF22">
         <v>0.171051025390625</v>
       </c>
       <c r="AG22" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH22">
         <v>0.122299194335937</v>
       </c>
       <c r="AI22" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AJ22">
         <v>8.79669189453125E-2</v>
       </c>
       <c r="AK22" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AL22">
         <v>8.79669189453125E-2</v>
       </c>
       <c r="AM22" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN22">
         <v>3.1005859375E-2</v>
       </c>
       <c r="AO22" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP22">
         <v>1.5625E-2</v>
@@ -52442,7 +52722,7 @@
         <v>5</v>
       </c>
       <c r="AA23" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB23">
         <v>5</v>
@@ -52526,49 +52806,49 @@
         <v>1</v>
       </c>
       <c r="AA24" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB24">
         <v>0.260009765625</v>
       </c>
       <c r="AC24" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD24">
         <v>0.171157836914062</v>
       </c>
       <c r="AE24" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AF24">
         <v>0.171157836914062</v>
       </c>
       <c r="AG24" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH24">
         <v>0.171051025390625</v>
       </c>
       <c r="AI24" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AJ24">
         <v>8.9996337890625E-2</v>
       </c>
       <c r="AK24" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AL24">
         <v>8.9996337890625E-2</v>
       </c>
       <c r="AM24" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN24">
         <v>3.1005859375E-2</v>
       </c>
       <c r="AO24" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP24">
         <v>1.5625E-2</v>
@@ -52709,7 +52989,7 @@
     </row>
     <row r="25" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA25" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AB25">
         <v>5</v>
@@ -52820,49 +53100,49 @@
         <v>1</v>
       </c>
       <c r="AA26" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB26">
         <v>0.211639404296875</v>
       </c>
       <c r="AC26" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD26">
         <v>0.171211242675781</v>
       </c>
       <c r="AE26" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF26">
         <v>0.171211242675781</v>
       </c>
       <c r="AG26" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH26">
         <v>0.171157836914062</v>
       </c>
       <c r="AI26" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ26">
         <v>0.1328125</v>
       </c>
       <c r="AK26" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL26">
         <v>9.393310546875E-2</v>
       </c>
       <c r="AM26" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN26">
         <v>3.240966796875E-2</v>
       </c>
       <c r="AO26" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP26">
         <v>1.5625E-2</v>
@@ -53009,7 +53289,7 @@
         <v>1</v>
       </c>
       <c r="AA27" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB27">
         <v>4</v>
@@ -53092,49 +53372,49 @@
         <v>1</v>
       </c>
       <c r="AA28" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB28">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC28" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD28">
         <v>0.197685241699218</v>
       </c>
       <c r="AE28" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF28">
         <v>0.197616577148437</v>
       </c>
       <c r="AG28" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH28">
         <v>0.143280029296875</v>
       </c>
       <c r="AI28" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ28">
         <v>9.4970703125E-2</v>
       </c>
       <c r="AK28" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL28">
         <v>3.08837890625E-2</v>
       </c>
       <c r="AM28" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN28">
         <v>1.7578125E-2</v>
       </c>
       <c r="AO28" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP28">
         <v>1.7578125E-2</v>
@@ -53281,7 +53561,7 @@
         <v>3</v>
       </c>
       <c r="AA29" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB29">
         <v>4</v>
@@ -53362,49 +53642,49 @@
         <v>1</v>
       </c>
       <c r="AA30" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB30">
         <v>0.243621826171875</v>
       </c>
       <c r="AC30" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD30">
         <v>0.197685241699218</v>
       </c>
       <c r="AE30" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AF30">
         <v>0.197685241699218</v>
       </c>
       <c r="AG30" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH30">
         <v>0.197616577148437</v>
       </c>
       <c r="AI30" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ30">
         <v>9.735107421875E-2</v>
       </c>
       <c r="AK30" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL30">
         <v>3.08837890625E-2</v>
       </c>
       <c r="AM30" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN30">
         <v>1.7578125E-2</v>
       </c>
       <c r="AO30" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP30">
         <v>1.7578125E-2</v>
@@ -53555,7 +53835,7 @@
       </c>
       <c r="N31" s="40"/>
       <c r="AA31" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB31">
         <v>4</v>
@@ -53640,49 +53920,49 @@
         <v>1</v>
       </c>
       <c r="AA32" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB32">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC32" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD32">
         <v>0.197685241699218</v>
       </c>
       <c r="AE32" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF32">
         <v>0.197616577148437</v>
       </c>
       <c r="AG32" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH32">
         <v>0.143280029296875</v>
       </c>
       <c r="AI32" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ32">
         <v>9.52606201171875E-2</v>
       </c>
       <c r="AK32" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL32">
         <v>2.8055826822916598E-2</v>
       </c>
       <c r="AM32" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN32">
         <v>2.00347900390625E-2</v>
       </c>
       <c r="AO32" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP32">
         <v>1.7659505208333301E-2</v>
@@ -53823,7 +54103,7 @@
     </row>
     <row r="33" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA33" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB33">
         <v>4</v>
@@ -53898,49 +54178,49 @@
         <v>1</v>
       </c>
       <c r="AA34" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB34">
         <v>0.243621826171875</v>
       </c>
       <c r="AC34" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD34">
         <v>0.197685241699218</v>
       </c>
       <c r="AE34" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AF34">
         <v>0.197685241699218</v>
       </c>
       <c r="AG34" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH34">
         <v>0.197616577148437</v>
       </c>
       <c r="AI34" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ34">
         <v>9.76409912109375E-2</v>
       </c>
       <c r="AK34" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL34">
         <v>2.8055826822916598E-2</v>
       </c>
       <c r="AM34" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN34">
         <v>2.00347900390625E-2</v>
       </c>
       <c r="AO34" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP34">
         <v>1.7659505208333301E-2</v>
@@ -54117,7 +54397,7 @@
         <v>6</v>
       </c>
       <c r="AA35" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB35">
         <v>5</v>
@@ -54198,49 +54478,49 @@
         <v>1</v>
       </c>
       <c r="AA36" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB36">
         <v>0.31292724609375</v>
       </c>
       <c r="AC36" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD36">
         <v>0.170783996582031</v>
       </c>
       <c r="AE36" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF36">
         <v>0.170730590820312</v>
       </c>
       <c r="AG36" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH36">
         <v>0.122001647949218</v>
       </c>
       <c r="AI36" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ36">
         <v>9.5184326171875E-2</v>
       </c>
       <c r="AK36" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL36">
         <v>8.8221232096354102E-2</v>
       </c>
       <c r="AM36" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN36">
         <v>2.2430419921875E-2</v>
       </c>
       <c r="AO36" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP36">
         <v>1.7720540364583301E-2</v>
@@ -54387,7 +54667,7 @@
         <v>2</v>
       </c>
       <c r="AA37" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB37">
         <v>5</v>
@@ -54468,49 +54748,49 @@
         <v>1</v>
       </c>
       <c r="AA38" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB38">
         <v>0.260009765625</v>
       </c>
       <c r="AC38" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD38">
         <v>0.170783996582031</v>
       </c>
       <c r="AE38" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF38">
         <v>0.170783996582031</v>
       </c>
       <c r="AG38" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH38">
         <v>0.170730590820312</v>
       </c>
       <c r="AI38" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ38">
         <v>9.72900390625E-2</v>
       </c>
       <c r="AK38" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL38">
         <v>9.0250651041666602E-2</v>
       </c>
       <c r="AM38" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN38">
         <v>2.2430419921875E-2</v>
       </c>
       <c r="AO38" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP38">
         <v>1.7720540364583301E-2</v>
@@ -54661,7 +54941,7 @@
       <c r="L39" s="78"/>
       <c r="P39" s="78"/>
       <c r="AA39" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AB39">
         <v>5</v>
@@ -54745,49 +55025,49 @@
         <v>1</v>
       </c>
       <c r="AA40" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB40">
         <v>0.2110595703125</v>
       </c>
       <c r="AC40" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD40">
         <v>0.170783996582031</v>
       </c>
       <c r="AE40" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF40">
         <v>0.170783996582031</v>
       </c>
       <c r="AG40" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH40">
         <v>0.170730590820312</v>
       </c>
       <c r="AI40" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ40">
         <v>0.142242431640625</v>
       </c>
       <c r="AK40" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL40">
         <v>9.4197591145833301E-2</v>
       </c>
       <c r="AM40" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN40">
         <v>2.2481282552083301E-2</v>
       </c>
       <c r="AO40" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP40">
         <v>1.7720540364583301E-2</v>
@@ -54937,7 +55217,7 @@
       <c r="N41" s="78"/>
       <c r="O41" s="78"/>
       <c r="AA41" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB41">
         <v>4</v>
@@ -55012,49 +55292,49 @@
         <v>1</v>
       </c>
       <c r="AA42" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB42">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC42" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD42">
         <v>0.198165893554687</v>
       </c>
       <c r="AE42" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF42">
         <v>0.198028564453125</v>
       </c>
       <c r="AG42" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH42">
         <v>0.143669128417968</v>
       </c>
       <c r="AI42" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ42">
         <v>8.8480631510416602E-2</v>
       </c>
       <c r="AK42" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL42">
         <v>2.8055826822916598E-2</v>
       </c>
       <c r="AM42" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN42">
         <v>2.5390625E-2</v>
       </c>
       <c r="AO42" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP42">
         <v>1.7801920572916598E-2</v>
@@ -55231,7 +55511,7 @@
         <v>6</v>
       </c>
       <c r="AA43" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB43">
         <v>4</v>
@@ -55314,49 +55594,49 @@
         <v>1</v>
       </c>
       <c r="AA44" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB44">
         <v>0.243621826171875</v>
       </c>
       <c r="AC44" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD44">
         <v>0.198165893554687</v>
       </c>
       <c r="AE44" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AF44">
         <v>0.198165893554687</v>
       </c>
       <c r="AG44" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH44">
         <v>0.198028564453125</v>
       </c>
       <c r="AI44" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ44">
         <v>9.0769449869791602E-2</v>
       </c>
       <c r="AK44" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL44">
         <v>2.8055826822916598E-2</v>
       </c>
       <c r="AM44" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN44">
         <v>2.5390625E-2</v>
       </c>
       <c r="AO44" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP44">
         <v>1.7801920572916598E-2</v>
@@ -55503,7 +55783,7 @@
         <v>2</v>
       </c>
       <c r="AA45" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB45">
         <v>5</v>
@@ -55584,49 +55864,49 @@
         <v>1</v>
       </c>
       <c r="AA46" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB46">
         <v>0.31292724609375</v>
       </c>
       <c r="AC46" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD46">
         <v>0.171157836914062</v>
       </c>
       <c r="AE46" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF46">
         <v>0.171051025390625</v>
       </c>
       <c r="AG46" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH46">
         <v>0.122299194335937</v>
       </c>
       <c r="AI46" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AJ46">
         <v>8.8221232096354102E-2</v>
       </c>
       <c r="AK46" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AL46">
         <v>8.8221232096354102E-2</v>
       </c>
       <c r="AM46" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN46">
         <v>2.825927734375E-2</v>
       </c>
       <c r="AO46" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP46">
         <v>1.7862955729166598E-2</v>
@@ -55773,7 +56053,7 @@
         <v>4</v>
       </c>
       <c r="AA47" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB47">
         <v>5</v>
@@ -55858,49 +56138,49 @@
         <v>1</v>
       </c>
       <c r="AA48" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB48">
         <v>0.260009765625</v>
       </c>
       <c r="AC48" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD48">
         <v>0.171157836914062</v>
       </c>
       <c r="AE48" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AF48">
         <v>0.171157836914062</v>
       </c>
       <c r="AG48" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH48">
         <v>0.171051025390625</v>
       </c>
       <c r="AI48" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AJ48">
         <v>9.0250651041666602E-2</v>
       </c>
       <c r="AK48" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AL48">
         <v>9.0250651041666602E-2</v>
       </c>
       <c r="AM48" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN48">
         <v>2.825927734375E-2</v>
       </c>
       <c r="AO48" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP48">
         <v>1.7862955729166598E-2</v>
@@ -56051,7 +56331,7 @@
       <c r="M49" s="79"/>
       <c r="N49" s="79"/>
       <c r="AA49" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AB49">
         <v>5</v>
@@ -56126,49 +56406,49 @@
         <v>1</v>
       </c>
       <c r="AA50" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB50">
         <v>0.211639404296875</v>
       </c>
       <c r="AC50" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD50">
         <v>0.171211242675781</v>
       </c>
       <c r="AE50" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF50">
         <v>0.171211242675781</v>
       </c>
       <c r="AG50" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH50">
         <v>0.171157836914062</v>
       </c>
       <c r="AI50" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ50">
         <v>0.13313802083333301</v>
       </c>
       <c r="AK50" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL50">
         <v>9.4197591145833301E-2</v>
       </c>
       <c r="AM50" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN50">
         <v>2.9561360677083301E-2</v>
       </c>
       <c r="AO50" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP50">
         <v>1.788330078125E-2</v>
@@ -56345,7 +56625,7 @@
         <v>6</v>
       </c>
       <c r="AA51" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB51">
         <v>6</v>
@@ -56426,49 +56706,49 @@
         <v>1</v>
       </c>
       <c r="AA52" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB52">
         <v>0.325103759765625</v>
       </c>
       <c r="AC52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD52">
         <v>0.14676920572916599</v>
       </c>
       <c r="AE52" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF52">
         <v>0.146728515625</v>
       </c>
       <c r="AG52" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH52">
         <v>0.10340372721354101</v>
       </c>
       <c r="AI52" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AJ52">
         <v>8.8134765625E-2</v>
       </c>
       <c r="AK52" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AL52">
         <v>8.8134765625E-2</v>
       </c>
       <c r="AM52" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN52">
         <v>8.1787109375E-2</v>
       </c>
       <c r="AO52" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP52">
         <v>1.9938151041666598E-2</v>
@@ -56615,7 +56895,7 @@
         <v>2</v>
       </c>
       <c r="AA53" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB53">
         <v>6</v>
@@ -56696,49 +56976,49 @@
         <v>1</v>
       </c>
       <c r="AA54" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB54">
         <v>0.2764892578125</v>
       </c>
       <c r="AC54" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD54">
         <v>0.14676920572916599</v>
       </c>
       <c r="AE54" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF54">
         <v>0.14676920572916599</v>
       </c>
       <c r="AG54" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH54">
         <v>0.146728515625</v>
       </c>
       <c r="AI54" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AJ54">
         <v>8.990478515625E-2</v>
       </c>
       <c r="AK54" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AL54">
         <v>8.990478515625E-2</v>
       </c>
       <c r="AM54" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN54">
         <v>8.349609375E-2</v>
       </c>
       <c r="AO54" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP54">
         <v>1.9938151041666598E-2</v>
@@ -56885,7 +57165,7 @@
         <v>4</v>
       </c>
       <c r="AA55" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AB55">
         <v>6</v>
@@ -56971,49 +57251,49 @@
         <v>1</v>
       </c>
       <c r="AA56" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB56">
         <v>0.22509765625</v>
       </c>
       <c r="AC56" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD56">
         <v>0.14676920572916599</v>
       </c>
       <c r="AE56" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF56">
         <v>0.14676920572916599</v>
       </c>
       <c r="AG56" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH56">
         <v>0.146728515625</v>
       </c>
       <c r="AI56" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ56">
         <v>0.13338216145833301</v>
       </c>
       <c r="AK56" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL56">
         <v>9.3953450520833301E-2</v>
       </c>
       <c r="AM56" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN56">
         <v>8.7320963541666602E-2</v>
       </c>
       <c r="AO56" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP56">
         <v>1.9978841145833301E-2</v>
@@ -57165,7 +57445,7 @@
       <c r="N57" s="80"/>
       <c r="P57" s="80"/>
       <c r="AA57" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AB57">
         <v>6</v>
@@ -57240,49 +57520,49 @@
         <v>1</v>
       </c>
       <c r="AA58" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB58">
         <v>0.18212890625</v>
       </c>
       <c r="AC58" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD58">
         <v>0.14676920572916599</v>
       </c>
       <c r="AE58" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF58">
         <v>0.14676920572916599</v>
       </c>
       <c r="AG58" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH58">
         <v>0.146728515625</v>
       </c>
       <c r="AI58" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ58">
         <v>0.13338216145833301</v>
       </c>
       <c r="AK58" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL58">
         <v>0.13338216145833301</v>
       </c>
       <c r="AM58" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN58">
         <v>9.08203125E-2</v>
       </c>
       <c r="AO58" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP58">
         <v>2.001953125E-2</v>
@@ -57459,7 +57739,7 @@
         <v>6</v>
       </c>
       <c r="AA59" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB59">
         <v>4</v>
@@ -57540,49 +57820,49 @@
         <v>1</v>
       </c>
       <c r="AA60" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB60">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC60" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD60">
         <v>0.197685241699218</v>
       </c>
       <c r="AE60" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF60">
         <v>0.197616577148437</v>
       </c>
       <c r="AG60" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH60">
         <v>0.143280029296875</v>
       </c>
       <c r="AI60" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ60">
         <v>9.5550537109375E-2</v>
       </c>
       <c r="AK60" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL60">
         <v>2.5390625E-2</v>
       </c>
       <c r="AM60" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN60">
         <v>2.00347900390625E-2</v>
       </c>
       <c r="AO60" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP60">
         <v>2.00347900390625E-2</v>
@@ -57729,7 +58009,7 @@
         <v>2</v>
       </c>
       <c r="AA61" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB61">
         <v>4</v>
@@ -57810,49 +58090,49 @@
         <v>1</v>
       </c>
       <c r="AA62" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB62">
         <v>0.243621826171875</v>
       </c>
       <c r="AC62" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD62">
         <v>0.197685241699218</v>
       </c>
       <c r="AE62" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AF62">
         <v>0.197685241699218</v>
       </c>
       <c r="AG62" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH62">
         <v>0.197616577148437</v>
       </c>
       <c r="AI62" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ62">
         <v>9.7930908203125E-2</v>
       </c>
       <c r="AK62" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL62">
         <v>2.5390625E-2</v>
       </c>
       <c r="AM62" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN62">
         <v>2.00347900390625E-2</v>
       </c>
       <c r="AO62" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP62">
         <v>2.00347900390625E-2</v>
@@ -57999,7 +58279,7 @@
         <v>4</v>
       </c>
       <c r="AA63" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB63">
         <v>5</v>
@@ -58085,49 +58365,49 @@
         <v>1</v>
       </c>
       <c r="AA64" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB64">
         <v>0.31292724609375</v>
       </c>
       <c r="AC64" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD64">
         <v>0.171157836914062</v>
       </c>
       <c r="AE64" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF64">
         <v>0.171051025390625</v>
       </c>
       <c r="AG64" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH64">
         <v>0.122299194335937</v>
       </c>
       <c r="AI64" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ64">
         <v>9.5672607421875E-2</v>
       </c>
       <c r="AK64" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL64">
         <v>8.203125E-2</v>
       </c>
       <c r="AM64" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AN64">
         <v>2.2430419921875E-2</v>
       </c>
       <c r="AO64" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AP64">
         <v>2.2430419921875E-2</v>
@@ -58279,7 +58559,7 @@
       <c r="O65" s="74"/>
       <c r="P65" s="74"/>
       <c r="AA65" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB65">
         <v>5</v>
@@ -58354,49 +58634,49 @@
         <v>1</v>
       </c>
       <c r="AA66" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB66">
         <v>0.260009765625</v>
       </c>
       <c r="AC66" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD66">
         <v>0.171157836914062</v>
       </c>
       <c r="AE66" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF66">
         <v>0.171157836914062</v>
       </c>
       <c r="AG66" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH66">
         <v>0.171051025390625</v>
       </c>
       <c r="AI66" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ66">
         <v>9.77783203125E-2</v>
       </c>
       <c r="AK66" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL66">
         <v>8.3984375E-2</v>
       </c>
       <c r="AM66" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AN66">
         <v>2.2430419921875E-2</v>
       </c>
       <c r="AO66" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AP66">
         <v>2.2430419921875E-2</v>
@@ -58537,7 +58817,7 @@
     </row>
     <row r="67" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA67" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AB67">
         <v>5</v>
@@ -58612,49 +58892,49 @@
         <v>1</v>
       </c>
       <c r="AA68" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB68">
         <v>0.2110595703125</v>
       </c>
       <c r="AC68" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD68">
         <v>0.171157836914062</v>
       </c>
       <c r="AE68" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF68">
         <v>0.171157836914062</v>
       </c>
       <c r="AG68" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH68">
         <v>0.171051025390625</v>
       </c>
       <c r="AI68" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ68">
         <v>0.14288330078125</v>
       </c>
       <c r="AK68" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL68">
         <v>8.7727864583333301E-2</v>
       </c>
       <c r="AM68" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AN68">
         <v>2.2481282552083301E-2</v>
       </c>
       <c r="AO68" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AP68">
         <v>2.2481282552083301E-2</v>
@@ -58795,7 +59075,7 @@
     </row>
     <row r="69" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA69" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB69">
         <v>4</v>
@@ -58870,49 +59150,49 @@
         <v>1</v>
       </c>
       <c r="AA70" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB70">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC70" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD70">
         <v>0.198165893554687</v>
       </c>
       <c r="AE70" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF70">
         <v>0.198028564453125</v>
       </c>
       <c r="AG70" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH70">
         <v>0.143669128417968</v>
       </c>
       <c r="AI70" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ70">
         <v>8.8734944661458301E-2</v>
       </c>
       <c r="AK70" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AL70">
         <v>2.5390625E-2</v>
       </c>
       <c r="AM70" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AN70">
         <v>2.5390625E-2</v>
       </c>
       <c r="AO70" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP70">
         <v>2.0212809244791598E-2</v>
@@ -59053,7 +59333,7 @@
     </row>
     <row r="71" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA71" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB71">
         <v>4</v>
@@ -59128,49 +59408,49 @@
         <v>1</v>
       </c>
       <c r="AA72" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB72">
         <v>0.243621826171875</v>
       </c>
       <c r="AC72" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD72">
         <v>0.198165893554687</v>
       </c>
       <c r="AE72" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF72">
         <v>0.198165893554687</v>
       </c>
       <c r="AG72" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH72">
         <v>0.198028564453125</v>
       </c>
       <c r="AI72" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ72">
         <v>9.1023763020833301E-2</v>
       </c>
       <c r="AK72" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AL72">
         <v>2.5390625E-2</v>
       </c>
       <c r="AM72" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AN72">
         <v>2.5390625E-2</v>
       </c>
       <c r="AO72" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP72">
         <v>2.0212809244791598E-2</v>
@@ -59311,7 +59591,7 @@
     </row>
     <row r="73" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA73" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB73">
         <v>5</v>
@@ -59386,49 +59666,49 @@
         <v>1</v>
       </c>
       <c r="AA74" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB74">
         <v>0.31292724609375</v>
       </c>
       <c r="AC74" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD74">
         <v>0.171531677246093</v>
       </c>
       <c r="AE74" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF74">
         <v>0.171371459960937</v>
       </c>
       <c r="AG74" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH74">
         <v>0.122596740722656</v>
       </c>
       <c r="AI74" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ74">
         <v>8.8648478190104102E-2</v>
       </c>
       <c r="AK74" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL74">
         <v>8.203125E-2</v>
       </c>
       <c r="AM74" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN74">
         <v>2.825927734375E-2</v>
       </c>
       <c r="AO74" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP74">
         <v>2.2633870442708301E-2</v>
@@ -59569,7 +59849,7 @@
     </row>
     <row r="75" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA75" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB75">
         <v>5</v>
@@ -59644,49 +59924,49 @@
         <v>1</v>
       </c>
       <c r="AA76" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB76">
         <v>0.260009765625</v>
       </c>
       <c r="AC76" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD76">
         <v>0.171531677246093</v>
       </c>
       <c r="AE76" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF76">
         <v>0.171531677246093</v>
       </c>
       <c r="AG76" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH76">
         <v>0.171371459960937</v>
       </c>
       <c r="AI76" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ76">
         <v>9.0677897135416602E-2</v>
       </c>
       <c r="AK76" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL76">
         <v>8.3984375E-2</v>
       </c>
       <c r="AM76" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN76">
         <v>2.825927734375E-2</v>
       </c>
       <c r="AO76" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP76">
         <v>2.2633870442708301E-2</v>
@@ -59827,7 +60107,7 @@
     </row>
     <row r="77" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA77" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AB77">
         <v>5</v>
@@ -59902,49 +60182,49 @@
         <v>1</v>
       </c>
       <c r="AA78" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB78">
         <v>0.211639404296875</v>
       </c>
       <c r="AC78" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD78">
         <v>0.171585083007812</v>
       </c>
       <c r="AE78" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF78">
         <v>0.171585083007812</v>
       </c>
       <c r="AG78" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH78">
         <v>0.171478271484375</v>
       </c>
       <c r="AI78" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ78">
         <v>0.13370768229166599</v>
       </c>
       <c r="AK78" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL78">
         <v>8.7727864583333301E-2</v>
       </c>
       <c r="AM78" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN78">
         <v>2.9561360677083301E-2</v>
       </c>
       <c r="AO78" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP78">
         <v>2.2715250651041598E-2</v>
@@ -60085,7 +60365,7 @@
     </row>
     <row r="79" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA79" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB79">
         <v>6</v>
@@ -60160,49 +60440,49 @@
         <v>1</v>
       </c>
       <c r="AA80" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB80">
         <v>0.325103759765625</v>
       </c>
       <c r="AC80" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD80">
         <v>0.14705403645833301</v>
       </c>
       <c r="AE80" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF80">
         <v>0.14697265625</v>
       </c>
       <c r="AG80" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH80">
         <v>0.103627522786458</v>
       </c>
       <c r="AI80" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ80">
         <v>8.856201171875E-2</v>
       </c>
       <c r="AK80" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AL80">
         <v>8.1787109375E-2</v>
       </c>
       <c r="AM80" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AN80">
         <v>8.1787109375E-2</v>
       </c>
       <c r="AO80" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP80">
         <v>2.5105794270833301E-2</v>
@@ -60343,7 +60623,7 @@
     </row>
     <row r="81" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA81" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB81">
         <v>6</v>
@@ -60418,49 +60698,49 @@
         <v>1</v>
       </c>
       <c r="AA82" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB82">
         <v>0.2764892578125</v>
       </c>
       <c r="AC82" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD82">
         <v>0.14705403645833301</v>
       </c>
       <c r="AE82" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF82">
         <v>0.14705403645833301</v>
       </c>
       <c r="AG82" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH82">
         <v>0.14697265625</v>
       </c>
       <c r="AI82" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ82">
         <v>9.033203125E-2</v>
       </c>
       <c r="AK82" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AL82">
         <v>8.349609375E-2</v>
       </c>
       <c r="AM82" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AN82">
         <v>8.349609375E-2</v>
       </c>
       <c r="AO82" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP82">
         <v>2.5105794270833301E-2</v>
@@ -60601,7 +60881,7 @@
     </row>
     <row r="83" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA83" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AB83">
         <v>6</v>
@@ -60676,49 +60956,49 @@
         <v>1</v>
       </c>
       <c r="AA84" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB84">
         <v>0.22509765625</v>
       </c>
       <c r="AC84" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD84">
         <v>0.14705403645833301</v>
       </c>
       <c r="AE84" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF84">
         <v>0.14705403645833301</v>
       </c>
       <c r="AG84" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH84">
         <v>0.14697265625</v>
       </c>
       <c r="AI84" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ84">
         <v>0.13395182291666599</v>
       </c>
       <c r="AK84" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AL84">
         <v>8.7320963541666602E-2</v>
       </c>
       <c r="AM84" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AN84">
         <v>8.7320963541666602E-2</v>
       </c>
       <c r="AO84" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP84">
         <v>2.5227864583333301E-2</v>
@@ -60859,7 +61139,7 @@
     </row>
     <row r="85" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA85" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AB85">
         <v>6</v>
@@ -60934,49 +61214,49 @@
         <v>1</v>
       </c>
       <c r="AA86" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB86">
         <v>0.18257649739583301</v>
       </c>
       <c r="AC86" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD86">
         <v>0.1470947265625</v>
       </c>
       <c r="AE86" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF86">
         <v>0.1470947265625</v>
       </c>
       <c r="AG86" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH86">
         <v>0.14705403645833301</v>
       </c>
       <c r="AI86" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ86">
         <v>0.134033203125</v>
       </c>
       <c r="AK86" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL86">
         <v>0.125</v>
       </c>
       <c r="AM86" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN86">
         <v>9.08203125E-2</v>
       </c>
       <c r="AO86" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP86">
         <v>2.6326497395833301E-2</v>
@@ -61117,7 +61397,7 @@
     </row>
     <row r="87" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA87" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB87">
         <v>4</v>
@@ -61192,49 +61472,49 @@
         <v>1</v>
       </c>
       <c r="AA88" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB88">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC88" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD88">
         <v>0.198646545410156</v>
       </c>
       <c r="AE88" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF88">
         <v>0.198440551757812</v>
       </c>
       <c r="AG88" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH88">
         <v>0.144058227539062</v>
       </c>
       <c r="AI88" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ88">
         <v>8.2275390625E-2</v>
       </c>
       <c r="AK88" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AL88">
         <v>2.5390625E-2</v>
       </c>
       <c r="AM88" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN88">
         <v>2.5390625E-2</v>
       </c>
       <c r="AO88" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AP88">
         <v>2.5390625E-2</v>
@@ -61376,7 +61656,7 @@
     <row r="89" spans="26:83" x14ac:dyDescent="0.3">
       <c r="Z89" s="40"/>
       <c r="AA89" s="40" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB89" s="40">
         <v>4</v>
@@ -61459,49 +61739,49 @@
         <v>1</v>
       </c>
       <c r="AA90" s="40" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB90" s="40">
         <v>0.243621826171875</v>
       </c>
       <c r="AC90" s="40" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD90" s="40">
         <v>0.198646545410156</v>
       </c>
       <c r="AE90" s="40" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AF90" s="40">
         <v>0.198646545410156</v>
       </c>
       <c r="AG90" s="40" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH90" s="40">
         <v>0.198440551757812</v>
       </c>
       <c r="AI90" s="40" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ90" s="40">
         <v>8.447265625E-2</v>
       </c>
       <c r="AK90" s="40" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AL90" s="40">
         <v>2.5390625E-2</v>
       </c>
       <c r="AM90" s="40" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN90" s="40">
         <v>2.5390625E-2</v>
       </c>
       <c r="AO90" s="40" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AP90" s="40">
         <v>2.5390625E-2</v>
@@ -61642,7 +61922,7 @@
     </row>
     <row r="91" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA91" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB91">
         <v>5</v>
@@ -61717,49 +61997,49 @@
         <v>1</v>
       </c>
       <c r="AA92" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB92">
         <v>0.31292724609375</v>
       </c>
       <c r="AC92" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD92">
         <v>0.171905517578125</v>
       </c>
       <c r="AE92" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF92">
         <v>0.17169189453125</v>
       </c>
       <c r="AG92" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH92">
         <v>0.122894287109375</v>
       </c>
       <c r="AI92" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AJ92">
         <v>8.203125E-2</v>
       </c>
       <c r="AK92" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AL92">
         <v>8.203125E-2</v>
       </c>
       <c r="AM92" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AN92">
         <v>2.825927734375E-2</v>
       </c>
       <c r="AO92" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AP92">
         <v>2.825927734375E-2</v>
@@ -61900,7 +62180,7 @@
     </row>
     <row r="93" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA93" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB93">
         <v>5</v>
@@ -61975,49 +62255,49 @@
         <v>1</v>
       </c>
       <c r="AA94" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB94">
         <v>0.260009765625</v>
       </c>
       <c r="AC94" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD94">
         <v>0.171905517578125</v>
       </c>
       <c r="AE94" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AF94">
         <v>0.171905517578125</v>
       </c>
       <c r="AG94" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH94">
         <v>0.17169189453125</v>
       </c>
       <c r="AI94" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AJ94">
         <v>8.3984375E-2</v>
       </c>
       <c r="AK94" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AL94">
         <v>8.3984375E-2</v>
       </c>
       <c r="AM94" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AN94">
         <v>2.825927734375E-2</v>
       </c>
       <c r="AO94" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AP94">
         <v>2.825927734375E-2</v>
@@ -62158,7 +62438,7 @@
     </row>
     <row r="95" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA95" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AB95">
         <v>5</v>
@@ -62233,49 +62513,49 @@
         <v>1</v>
       </c>
       <c r="AA96" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB96">
         <v>0.21221923828125</v>
       </c>
       <c r="AC96" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD96">
         <v>0.172012329101562</v>
       </c>
       <c r="AE96" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF96">
         <v>0.172012329101562</v>
       </c>
       <c r="AG96" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH96">
         <v>0.171905517578125</v>
       </c>
       <c r="AI96" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ96">
         <v>0.125</v>
       </c>
       <c r="AK96" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL96">
         <v>8.7727864583333301E-2</v>
       </c>
       <c r="AM96" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AN96">
         <v>2.9561360677083301E-2</v>
       </c>
       <c r="AO96" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AP96">
         <v>2.9561360677083301E-2</v>
@@ -62416,7 +62696,7 @@
     </row>
     <row r="97" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA97" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AB97">
         <v>6</v>
@@ -62491,49 +62771,49 @@
         <v>1</v>
       </c>
       <c r="AA98" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB98">
         <v>0.325103759765625</v>
       </c>
       <c r="AC98" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AD98">
         <v>0.1473388671875</v>
       </c>
       <c r="AE98" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF98">
         <v>0.147216796875</v>
       </c>
       <c r="AG98" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AH98">
         <v>0.103851318359375</v>
       </c>
       <c r="AI98" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AJ98">
         <v>8.1787109375E-2</v>
       </c>
       <c r="AK98" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL98">
         <v>8.1787109375E-2</v>
       </c>
       <c r="AM98" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AN98">
         <v>8.1787109375E-2</v>
       </c>
       <c r="AO98" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP98">
         <v>3.11279296875E-2</v>
@@ -62674,7 +62954,7 @@
     </row>
     <row r="99" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA99" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB99">
         <v>6</v>
@@ -62749,49 +63029,49 @@
         <v>1</v>
       </c>
       <c r="AA100" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB100">
         <v>0.2764892578125</v>
       </c>
       <c r="AC100" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD100">
         <v>0.1473388671875</v>
       </c>
       <c r="AE100" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF100">
         <v>0.1473388671875</v>
       </c>
       <c r="AG100" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH100">
         <v>0.147216796875</v>
       </c>
       <c r="AI100" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AJ100">
         <v>8.349609375E-2</v>
       </c>
       <c r="AK100" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL100">
         <v>8.349609375E-2</v>
       </c>
       <c r="AM100" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AN100">
         <v>8.349609375E-2</v>
       </c>
       <c r="AO100" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP100">
         <v>3.11279296875E-2</v>
@@ -62932,7 +63212,7 @@
     </row>
     <row r="101" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA101" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AB101">
         <v>6</v>
@@ -63007,49 +63287,49 @@
         <v>1</v>
       </c>
       <c r="AA102" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB102">
         <v>0.2257080078125</v>
       </c>
       <c r="AC102" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD102">
         <v>0.14737955729166599</v>
       </c>
       <c r="AE102" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF102">
         <v>0.14737955729166599</v>
       </c>
       <c r="AG102" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH102">
         <v>0.14729817708333301</v>
       </c>
       <c r="AI102" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ102">
         <v>0.125</v>
       </c>
       <c r="AK102" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AL102">
         <v>8.7320963541666602E-2</v>
       </c>
       <c r="AM102" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AN102">
         <v>8.7320963541666602E-2</v>
       </c>
       <c r="AO102" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP102">
         <v>3.25927734375E-2</v>
@@ -63190,7 +63470,7 @@
     </row>
     <row r="103" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA103" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AB103">
         <v>6</v>
@@ -63265,49 +63545,49 @@
         <v>1</v>
       </c>
       <c r="AA104" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AB104">
         <v>0.18302408854166599</v>
       </c>
       <c r="AC104" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AD104">
         <v>0.14742024739583301</v>
       </c>
       <c r="AE104" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF104">
         <v>0.14742024739583301</v>
       </c>
       <c r="AG104" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AH104">
         <v>0.14737955729166599</v>
       </c>
       <c r="AI104" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AJ104">
         <v>0.125</v>
       </c>
       <c r="AK104" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AL104">
         <v>0.125</v>
       </c>
       <c r="AM104" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN104">
         <v>9.08203125E-2</v>
       </c>
       <c r="AO104" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AP104">
         <v>3.3935546875E-2</v>
@@ -63459,7 +63739,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ6 BZ4 BZ8 BZ10 BZ12 BZ14 BZ16 BZ18 BZ20 BZ22 BZ24 BZ26 BZ28 BZ30 BZ32 BZ34 BZ36 BZ38 BZ40 BZ42 BZ44 BZ46 BZ48 BZ50 BZ52 BZ54 BZ56 BZ58 BZ60 BZ62 BZ64 BZ66 BZ68 BZ70 BZ72 BZ74 BZ76 BZ78 BZ80 BZ82 BZ84 BZ86 BZ88 BZ90 BZ92 BZ94 BZ96 BZ98 BZ100 BZ102 BZ104">
+  <conditionalFormatting sqref="BZ4 BZ6 BZ8 BZ10 BZ12 BZ14 BZ16 BZ18 BZ20 BZ22 BZ24 BZ26 BZ28 BZ30 BZ32 BZ34 BZ36 BZ38 BZ40 BZ42 BZ44 BZ46 BZ48 BZ50 BZ52 BZ54 BZ56 BZ58 BZ60 BZ62 BZ64 BZ66 BZ68 BZ70 BZ72 BZ74 BZ76 BZ78 BZ80 BZ82 BZ84 BZ86 BZ88 BZ90 BZ92 BZ94 BZ96 BZ98 BZ100 BZ102 BZ104">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -63471,7 +63751,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA6 CA4 CA8 CA10 CA12 CA14 CA16 CA18 CA20 CA22 CA24 CA26 CA28 CA30 CA32 CA34 CA36 CA38 CA40 CA42 CA44 CA46 CA48 CA50 CA52 CA54 CA56 CA58 CA60 CA62 CA64 CA66 CA68 CA70 CA72 CA74 CA76 CA78 CA80 CA82 CA84 CA86 CA88 CA90 CA92 CA94 CA96 CA98 CA100 CA102 CA104">
+  <conditionalFormatting sqref="CA4 CA6 CA8 CA10 CA12 CA14 CA16 CA18 CA20 CA22 CA24 CA26 CA28 CA30 CA32 CA34 CA36 CA38 CA40 CA42 CA44 CA46 CA48 CA50 CA52 CA54 CA56 CA58 CA60 CA62 CA64 CA66 CA68 CA70 CA72 CA74 CA76 CA78 CA80 CA82 CA84 CA86 CA88 CA90 CA92 CA94 CA96 CA98 CA100 CA102 CA104">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -63483,7 +63763,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CB6 CB4 CB8 CB10 CB12 CB14 CB16 CB18 CB20 CB22 CB24 CB26 CB28 CB30 CB32 CB34 CB36 CB38 CB40 CB42 CB44 CB46 CB48 CB50 CB52 CB54 CB56 CB58 CB60 CB62 CB64 CB66 CB68 CB70 CB72 CB74 CB76 CB78 CB80 CB82 CB84 CB86 CB88 CB90 CB92 CB94 CB96 CB98 CB100 CB102 CB104">
+  <conditionalFormatting sqref="CB4 CB6 CB8 CB10 CB12 CB14 CB16 CB18 CB20 CB22 CB24 CB26 CB28 CB30 CB32 CB34 CB36 CB38 CB40 CB42 CB44 CB46 CB48 CB50 CB52 CB54 CB56 CB58 CB60 CB62 CB64 CB66 CB68 CB70 CB72 CB74 CB76 CB78 CB80 CB82 CB84 CB86 CB88 CB90 CB92 CB94 CB96 CB98 CB100 CB102 CB104">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -63495,7 +63775,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC6 CC4 CC8 CC10 CC12 CC14 CC16 CC18 CC20 CC22 CC24 CC26 CC28 CC30 CC32 CC34 CC36 CC38 CC40 CC42 CC44 CC46 CC48 CC50 CC52 CC54 CC56 CC58 CC60 CC62 CC64 CC66 CC68 CC70 CC72 CC74 CC76 CC78 CC80 CC82 CC84 CC86 CC88 CC90 CC92 CC94 CC96 CC98 CC100 CC102 CC104">
+  <conditionalFormatting sqref="CC4 CC6 CC8 CC10 CC12 CC14 CC16 CC18 CC20 CC22 CC24 CC26 CC28 CC30 CC32 CC34 CC36 CC38 CC40 CC42 CC44 CC46 CC48 CC50 CC52 CC54 CC56 CC58 CC60 CC62 CC64 CC66 CC68 CC70 CC72 CC74 CC76 CC78 CC80 CC82 CC84 CC86 CC88 CC90 CC92 CC94 CC96 CC98 CC100 CC102 CC104">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -63507,7 +63787,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD6 CD4 CD8 CD10 CD12 CD14 CD16 CD18 CD20 CD22 CD24 CD26 CD28 CD30 CD32 CD34 CD36 CD38 CD40 CD42 CD44 CD46 CD48 CD50 CD52 CD54 CD56 CD58 CD60 CD62 CD64 CD66 CD68 CD70 CD72 CD74 CD76 CD78 CD80 CD82 CD84 CD86 CD88 CD90 CD92 CD94 CD96 CD98 CD100 CD102 CD104">
+  <conditionalFormatting sqref="CD4 CD6 CD8 CD10 CD12 CD14 CD16 CD18 CD20 CD22 CD24 CD26 CD28 CD30 CD32 CD34 CD36 CD38 CD40 CD42 CD44 CD46 CD48 CD50 CD52 CD54 CD56 CD58 CD60 CD62 CD64 CD66 CD68 CD70 CD72 CD74 CD76 CD78 CD80 CD82 CD84 CD86 CD88 CD90 CD92 CD94 CD96 CD98 CD100 CD102 CD104">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -63519,7 +63799,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE4 CE6 CE8 CE10 CE12 CE14 CE16 CE18 CE20 CE22 CE24 CE26 CE28 CE30 CE32 CE34 CE36 CE38 CE40 CE42 CE44 CE46 CE48 CE50 CE52 CE54 CE56 CE58 CE60 CE62 CE64 CE66 CE68 CE70 CE72 CE74 CE76 CE78 CE80 CE82 CE84 CE86 CE88 CE90 CE92 CE94 CE96 CE98 CE100 CE102 CE104">
+  <conditionalFormatting sqref="CE6 CE4 CE8 CE10 CE12 CE14 CE16 CE18 CE20 CE22 CE24 CE26 CE28 CE30 CE32 CE34 CE36 CE38 CE40 CE42 CE44 CE46 CE48 CE50 CE52 CE54 CE56 CE58 CE60 CE62 CE64 CE66 CE68 CE70 CE72 CE74 CE76 CE78 CE80 CE82 CE84 CE86 CE88 CE90 CE92 CE94 CE96 CE98 CE100 CE102 CE104">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -63581,7 +63861,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="68"/>
       <c r="H3" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -63605,7 +63885,7 @@
       <c r="G4" s="68"/>
       <c r="H4" s="7"/>
       <c r="I4" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -63627,7 +63907,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="68"/>
       <c r="H5" s="8" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
@@ -63652,7 +63932,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="1"/>
       <c r="J6" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -63673,7 +63953,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="68"/>
       <c r="H7" s="6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="4"/>
@@ -63697,7 +63977,7 @@
       <c r="G8" s="68"/>
       <c r="H8" s="7"/>
       <c r="I8" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -63719,7 +63999,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="68"/>
       <c r="H9" s="8" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="1"/>
@@ -63745,7 +64025,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="6"/>
@@ -63765,7 +64045,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="68"/>
       <c r="H11" s="6" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -63789,7 +64069,7 @@
       <c r="G12" s="68"/>
       <c r="H12" s="7"/>
       <c r="I12" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="5"/>
@@ -63811,7 +64091,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="68"/>
       <c r="H13" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
@@ -63836,7 +64116,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="1"/>
       <c r="J14" s="5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="1"/>
@@ -63857,7 +64137,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="68"/>
       <c r="H15" s="6" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="4"/>
@@ -63885,7 +64165,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="1"/>
@@ -63907,7 +64187,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="68"/>
       <c r="H17" s="8" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="1"/>
@@ -63949,7 +64229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426E89DE-FB26-4184-BD37-CBFF7802F4CC}">
   <dimension ref="A3:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -63979,7 +64259,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -63988,7 +64268,7 @@
     <row r="6" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -64001,12 +64281,12 @@
       <c r="A7" s="1"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -64014,7 +64294,7 @@
     <row r="8" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="97"/>
@@ -64029,7 +64309,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="97"/>
       <c r="E9" s="8" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -64038,7 +64318,7 @@
     <row r="10" spans="1:8" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="100" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -64071,13 +64351,13 @@
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="100" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D13" s="97"/>
       <c r="E13" s="6"/>
       <c r="F13" s="1"/>
       <c r="G13" s="98" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -64104,7 +64384,7 @@
     <row r="16" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="8" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="97"/>
@@ -64119,7 +64399,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="97"/>
       <c r="E17" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="5"/>
@@ -64128,7 +64408,7 @@
     <row r="18" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -64141,12 +64421,12 @@
       <c r="A19" s="1"/>
       <c r="B19" s="7"/>
       <c r="C19" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="1"/>
       <c r="F19" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="1"/>
@@ -64154,7 +64434,7 @@
     <row r="20" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="8" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="6"/>
@@ -64169,7 +64449,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
       <c r="E21" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="1"/>
@@ -64242,7 +64522,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="6" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -64251,7 +64531,7 @@
     <row r="6" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -64264,12 +64544,12 @@
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="6"/>
@@ -64277,7 +64557,7 @@
     <row r="8" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="8" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="97"/>
@@ -64292,7 +64572,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="97"/>
       <c r="E9" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -64301,7 +64581,7 @@
     <row r="10" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -64314,20 +64594,20 @@
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="97"/>
@@ -64342,7 +64622,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="97"/>
       <c r="E13" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="5"/>
@@ -64351,7 +64631,7 @@
     <row r="14" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -64364,12 +64644,12 @@
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="5" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
@@ -64377,7 +64657,7 @@
     <row r="16" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="8" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="97"/>
@@ -64392,7 +64672,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="97"/>
       <c r="E17" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="1"/>

--- a/thesis-tex/excels/Brackets.xlsx
+++ b/thesis-tex/excels/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B61AE4-08EE-4027-87D1-1E6F2E68FEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9276AD-62A3-408F-8EF6-AF8E7273BA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="31" activeTab="37" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="13836" yWindow="2532" windowWidth="8544" windowHeight="9960" firstSheet="35" activeTab="41" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="cfp" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,7 @@
     <sheet name="champions league" sheetId="47" r:id="rId39"/>
     <sheet name="multiproepr" sheetId="48" r:id="rId40"/>
     <sheet name="Sheet8" sheetId="51" r:id="rId41"/>
+    <sheet name="flowcharts" sheetId="55" r:id="rId42"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="23" hidden="1">'rr calcs'!$C$12:$H$12</definedName>
@@ -123,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="370">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -710,27 +711,6 @@
     <t>4th: Loser F1</t>
   </si>
   <si>
-    <t>1 Geelong</t>
-  </si>
-  <si>
-    <t>2 Richmond</t>
-  </si>
-  <si>
-    <t>3 Carlton</t>
-  </si>
-  <si>
-    <t>4 Collingwood</t>
-  </si>
-  <si>
-    <t>Geelong</t>
-  </si>
-  <si>
-    <t>Richmond</t>
-  </si>
-  <si>
-    <t>1st: Geelong</t>
-  </si>
-  <si>
     <t>1st: Winner E1</t>
   </si>
   <si>
@@ -1233,6 +1213,27 @@
   </si>
   <si>
     <t>4th: Winner E1, Winner F1</t>
+  </si>
+  <si>
+    <t>1 Lightning</t>
+  </si>
+  <si>
+    <t>2 Swifts</t>
+  </si>
+  <si>
+    <t>3 Vixens</t>
+  </si>
+  <si>
+    <t>4 Magpies</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Vixens</t>
+  </si>
+  <si>
+    <t>Swifts</t>
   </si>
 </sst>
 </file>
@@ -2173,15 +2174,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2200,13 +2192,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2558,7 +2559,7 @@
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2576,7 +2577,7 @@
     <row r="4" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -2594,7 +2595,7 @@
     <row r="6" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="4"/>
@@ -2604,7 +2605,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="1"/>
@@ -2612,7 +2613,7 @@
     <row r="8" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="1"/>
@@ -2635,7 +2636,7 @@
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2651,7 +2652,7 @@
     <row r="13" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -2667,7 +2668,7 @@
     <row r="15" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
@@ -2683,7 +2684,7 @@
     <row r="17" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="1"/>
@@ -12879,25 +12880,25 @@
     </row>
     <row r="2" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="106"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="104" t="s">
+      <c r="M2" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="106"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="112"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
@@ -12906,11 +12907,11 @@
       <c r="D3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="42" t="s">
         <v>76</v>
       </c>
@@ -12923,11 +12924,11 @@
       <c r="M3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="107" t="s">
+      <c r="N3" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="108"/>
-      <c r="P3" s="109"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="106"/>
       <c r="Q3" s="42" t="s">
         <v>76</v>
       </c>
@@ -12942,11 +12943,11 @@
       <c r="D4" s="52">
         <v>1</v>
       </c>
-      <c r="E4" s="107" t="s">
+      <c r="E4" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="42">
         <v>2</v>
       </c>
@@ -12960,11 +12961,11 @@
       <c r="M4" s="52">
         <v>1</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="108"/>
-      <c r="P4" s="109"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
       <c r="Q4" s="42">
         <v>4</v>
       </c>
@@ -12980,11 +12981,11 @@
       <c r="D5" s="52">
         <v>2</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="42">
         <v>2</v>
       </c>
@@ -12998,11 +12999,11 @@
       <c r="M5" s="52">
         <v>2</v>
       </c>
-      <c r="N5" s="107" t="s">
+      <c r="N5" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="108"/>
-      <c r="P5" s="109"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="106"/>
       <c r="Q5" s="42">
         <v>3</v>
       </c>
@@ -13018,11 +13019,11 @@
       <c r="D6" s="52">
         <v>3</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="42">
         <v>2</v>
       </c>
@@ -13036,11 +13037,11 @@
       <c r="M6" s="52">
         <v>3</v>
       </c>
-      <c r="N6" s="107" t="s">
+      <c r="N6" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="108"/>
-      <c r="P6" s="109"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="106"/>
       <c r="Q6" s="42">
         <v>2</v>
       </c>
@@ -13056,11 +13057,11 @@
       <c r="D7" s="52">
         <v>4</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="108"/>
-      <c r="G7" s="109"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="42">
         <v>2</v>
       </c>
@@ -13074,11 +13075,11 @@
       <c r="M7" s="52">
         <v>4</v>
       </c>
-      <c r="N7" s="107" t="s">
+      <c r="N7" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="O7" s="108"/>
-      <c r="P7" s="109"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="106"/>
       <c r="Q7" s="42">
         <v>1</v>
       </c>
@@ -13094,11 +13095,11 @@
       <c r="D8" s="54">
         <v>5</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="55">
         <v>2</v>
       </c>
@@ -13112,11 +13113,11 @@
       <c r="M8" s="54">
         <v>5</v>
       </c>
-      <c r="N8" s="110" t="s">
+      <c r="N8" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="111"/>
-      <c r="P8" s="112"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="109"/>
       <c r="Q8" s="55">
         <v>0</v>
       </c>
@@ -13149,25 +13150,25 @@
     </row>
     <row r="10" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="106"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="112"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="104" t="s">
+      <c r="M10" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="106"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="112"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
@@ -13176,11 +13177,11 @@
       <c r="D11" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="107" t="s">
+      <c r="E11" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="108"/>
-      <c r="G11" s="109"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106"/>
       <c r="H11" s="42" t="s">
         <v>76</v>
       </c>
@@ -13193,11 +13194,11 @@
       <c r="M11" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="107" t="s">
+      <c r="N11" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="108"/>
-      <c r="P11" s="109"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="106"/>
       <c r="Q11" s="42" t="s">
         <v>76</v>
       </c>
@@ -13212,11 +13213,11 @@
       <c r="D12" s="52">
         <v>1</v>
       </c>
-      <c r="E12" s="107" t="s">
+      <c r="E12" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="106"/>
       <c r="H12" s="42">
         <v>3</v>
       </c>
@@ -13230,11 +13231,11 @@
       <c r="M12" s="52">
         <v>1</v>
       </c>
-      <c r="N12" s="107" t="s">
+      <c r="N12" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="108"/>
-      <c r="P12" s="109"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="106"/>
       <c r="Q12" s="42">
         <v>4</v>
       </c>
@@ -13250,11 +13251,11 @@
       <c r="D13" s="52">
         <v>2</v>
       </c>
-      <c r="E13" s="107" t="s">
+      <c r="E13" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="108"/>
-      <c r="G13" s="109"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="42">
         <v>3</v>
       </c>
@@ -13268,11 +13269,11 @@
       <c r="M13" s="52">
         <v>2</v>
       </c>
-      <c r="N13" s="107" t="s">
+      <c r="N13" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="108"/>
-      <c r="P13" s="109"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="106"/>
       <c r="Q13" s="42">
         <v>3</v>
       </c>
@@ -13288,11 +13289,11 @@
       <c r="D14" s="52">
         <v>3</v>
       </c>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="108"/>
-      <c r="G14" s="109"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="106"/>
       <c r="H14" s="42">
         <v>2</v>
       </c>
@@ -13306,11 +13307,11 @@
       <c r="M14" s="52">
         <v>3</v>
       </c>
-      <c r="N14" s="107" t="s">
+      <c r="N14" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="O14" s="108"/>
-      <c r="P14" s="109"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="106"/>
       <c r="Q14" s="42">
         <v>2</v>
       </c>
@@ -13326,11 +13327,11 @@
       <c r="D15" s="52">
         <v>4</v>
       </c>
-      <c r="E15" s="107" t="s">
+      <c r="E15" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="108"/>
-      <c r="G15" s="109"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="106"/>
       <c r="H15" s="42">
         <v>1</v>
       </c>
@@ -13344,11 +13345,11 @@
       <c r="M15" s="52">
         <v>4</v>
       </c>
-      <c r="N15" s="107" t="s">
+      <c r="N15" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="O15" s="108"/>
-      <c r="P15" s="109"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="106"/>
       <c r="Q15" s="42">
         <v>1</v>
       </c>
@@ -13364,11 +13365,11 @@
       <c r="D16" s="54">
         <v>5</v>
       </c>
-      <c r="E16" s="110" t="s">
+      <c r="E16" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="111"/>
-      <c r="G16" s="112"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="109"/>
       <c r="H16" s="55">
         <v>1</v>
       </c>
@@ -13382,11 +13383,11 @@
       <c r="M16" s="54">
         <v>5</v>
       </c>
-      <c r="N16" s="110" t="s">
+      <c r="N16" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="O16" s="111"/>
-      <c r="P16" s="112"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="109"/>
       <c r="Q16" s="55">
         <v>0</v>
       </c>
@@ -15099,18 +15100,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="D10:I10"/>
@@ -15127,6 +15116,18 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15751,26 +15752,26 @@
     </row>
     <row r="2" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="106"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="112"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="104" t="s">
+      <c r="N2" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="106"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="112"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
@@ -15779,29 +15780,29 @@
       <c r="D3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="107" t="s">
+      <c r="I3" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="114"/>
+      <c r="J3" s="113"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
       <c r="M3" s="1"/>
       <c r="N3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="107" t="s">
+      <c r="O3" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="109"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="106"/>
       <c r="R3" s="42" t="s">
         <v>76</v>
       </c>
@@ -15816,29 +15817,29 @@
       <c r="D4" s="52">
         <v>1</v>
       </c>
-      <c r="E4" s="107" t="s">
+      <c r="E4" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="42">
         <v>5</v>
       </c>
-      <c r="I4" s="107">
-        <v>0</v>
-      </c>
-      <c r="J4" s="114"/>
+      <c r="I4" s="104">
+        <v>0</v>
+      </c>
+      <c r="J4" s="113"/>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
       <c r="M4" s="1"/>
       <c r="N4" s="52">
         <v>1</v>
       </c>
-      <c r="O4" s="107" t="s">
+      <c r="O4" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="109"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="106"/>
       <c r="R4" s="42">
         <v>5</v>
       </c>
@@ -15853,29 +15854,29 @@
       <c r="D5" s="52">
         <v>2</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="42">
         <v>4</v>
       </c>
-      <c r="I5" s="107">
+      <c r="I5" s="104">
         <v>1</v>
       </c>
-      <c r="J5" s="114"/>
+      <c r="J5" s="113"/>
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
       <c r="M5" s="1"/>
       <c r="N5" s="52">
         <v>2</v>
       </c>
-      <c r="O5" s="107" t="s">
+      <c r="O5" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="109"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
       <c r="R5" s="42">
         <v>3</v>
       </c>
@@ -15890,29 +15891,29 @@
       <c r="D6" s="52">
         <v>3</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="42">
         <v>3</v>
       </c>
-      <c r="I6" s="107">
+      <c r="I6" s="104">
         <v>2</v>
       </c>
-      <c r="J6" s="114"/>
+      <c r="J6" s="113"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="1"/>
       <c r="N6" s="52">
         <v>3</v>
       </c>
-      <c r="O6" s="107" t="s">
+      <c r="O6" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="109"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="106"/>
       <c r="R6" s="42">
         <v>3</v>
       </c>
@@ -15927,29 +15928,29 @@
       <c r="D7" s="52">
         <v>4</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="108"/>
-      <c r="G7" s="109"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="42">
         <v>2</v>
       </c>
-      <c r="I7" s="107">
+      <c r="I7" s="104">
         <v>3</v>
       </c>
-      <c r="J7" s="114"/>
+      <c r="J7" s="113"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
       <c r="M7" s="1"/>
       <c r="N7" s="52">
         <v>4</v>
       </c>
-      <c r="O7" s="107" t="s">
+      <c r="O7" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="109"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="106"/>
       <c r="R7" s="42">
         <v>3</v>
       </c>
@@ -15964,29 +15965,29 @@
       <c r="D8" s="59">
         <v>5</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="57">
         <v>1</v>
       </c>
-      <c r="I8" s="107">
+      <c r="I8" s="104">
         <v>4</v>
       </c>
-      <c r="J8" s="114"/>
+      <c r="J8" s="113"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
       <c r="M8" s="1"/>
       <c r="N8" s="59">
         <v>5</v>
       </c>
-      <c r="O8" s="107" t="s">
+      <c r="O8" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="109"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="106"/>
       <c r="R8" s="57">
         <v>1</v>
       </c>
@@ -16001,29 +16002,29 @@
       <c r="D9" s="54">
         <v>6</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="112"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="109"/>
       <c r="H9" s="55">
         <v>0</v>
       </c>
-      <c r="I9" s="110">
+      <c r="I9" s="107">
         <v>5</v>
       </c>
-      <c r="J9" s="115"/>
+      <c r="J9" s="114"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="1"/>
       <c r="N9" s="54">
         <v>6</v>
       </c>
-      <c r="O9" s="110" t="s">
+      <c r="O9" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="112"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="109"/>
       <c r="R9" s="55">
         <v>0</v>
       </c>
@@ -17818,12 +17819,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="E6:G6"/>
@@ -17833,14 +17836,12 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="O9:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31293,7 +31294,7 @@
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="8" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="X19" s="4"/>
       <c r="Y19" s="1"/>
@@ -31456,7 +31457,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="8" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AC21" s="4"/>
       <c r="AD21" s="1"/>
@@ -36608,7 +36609,7 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="68"/>
       <c r="AR5" s="6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AS5" s="1"/>
       <c r="AT5" s="1"/>
@@ -36722,7 +36723,7 @@
         <v>8</v>
       </c>
       <c r="AS6" s="6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
@@ -36828,7 +36829,7 @@
       <c r="AP7" s="1"/>
       <c r="AQ7" s="68"/>
       <c r="AR7" s="8" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AS7" s="4"/>
       <c r="AT7" s="5"/>
@@ -36943,7 +36944,7 @@
         <v>12</v>
       </c>
       <c r="AT8" s="72" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
@@ -37048,7 +37049,7 @@
       <c r="AP9" s="1"/>
       <c r="AQ9" s="68"/>
       <c r="AR9" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AS9" s="1"/>
       <c r="AT9" s="4"/>
@@ -37162,7 +37163,7 @@
         <v>9</v>
       </c>
       <c r="AS10" s="8" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AT10" s="5"/>
       <c r="AU10" s="5"/>
@@ -37268,7 +37269,7 @@
       <c r="AP11" s="1"/>
       <c r="AQ11" s="68"/>
       <c r="AR11" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="1"/>
@@ -37384,7 +37385,7 @@
         <v>14</v>
       </c>
       <c r="AU12" s="72" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
@@ -37486,7 +37487,7 @@
       <c r="AP13" s="1"/>
       <c r="AQ13" s="68"/>
       <c r="AR13" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
@@ -37600,7 +37601,7 @@
         <v>10</v>
       </c>
       <c r="AS14" s="6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AT14" s="1"/>
       <c r="AU14" s="5"/>
@@ -37706,7 +37707,7 @@
       <c r="AP15" s="1"/>
       <c r="AQ15" s="68"/>
       <c r="AR15" s="8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AS15" s="4"/>
       <c r="AT15" s="5"/>
@@ -37821,7 +37822,7 @@
         <v>13</v>
       </c>
       <c r="AT16" s="72" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AU16" s="5"/>
       <c r="AV16" s="1"/>
@@ -37926,7 +37927,7 @@
       <c r="AP17" s="1"/>
       <c r="AQ17" s="68"/>
       <c r="AR17" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AS17" s="1"/>
       <c r="AT17" s="4"/>
@@ -38042,7 +38043,7 @@
         <v>11</v>
       </c>
       <c r="AS18" s="8" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AT18" s="5"/>
       <c r="AU18" s="1"/>
@@ -38150,7 +38151,7 @@
       <c r="AP19" s="1"/>
       <c r="AQ19" s="68"/>
       <c r="AR19" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AS19" s="4"/>
       <c r="AT19" s="1"/>
@@ -38265,7 +38266,7 @@
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
@@ -38379,13 +38380,13 @@
       <c r="AQ21" s="68"/>
       <c r="AR21" s="1"/>
       <c r="AS21" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AT21" s="69" t="s">
         <v>26</v>
       </c>
       <c r="AU21" s="72" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
@@ -38505,7 +38506,7 @@
         <v>15</v>
       </c>
       <c r="AT22" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AU22" s="4"/>
       <c r="AV22" s="5"/>
@@ -38517,7 +38518,7 @@
       <c r="AZ22" s="8"/>
       <c r="BA22" s="4"/>
       <c r="BB22" s="1"/>
-      <c r="BC22" s="118"/>
+      <c r="BC22" s="1"/>
       <c r="BD22" s="1"/>
       <c r="BE22" s="26" t="s">
         <v>15</v>
@@ -38607,14 +38608,14 @@
       <c r="AQ23" s="68"/>
       <c r="AR23" s="1"/>
       <c r="AS23" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AT23" s="4"/>
       <c r="AU23" s="70" t="s">
         <v>35</v>
       </c>
       <c r="AV23" s="72" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
@@ -38624,7 +38625,7 @@
       <c r="AZ23" s="4"/>
       <c r="BA23" s="70"/>
       <c r="BB23" s="1"/>
-      <c r="BC23" s="118"/>
+      <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
       <c r="BE23" s="8" t="s">
         <v>11</v>
@@ -38717,7 +38718,7 @@
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="6" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AU24" s="1"/>
       <c r="AV24" s="4"/>
@@ -38729,7 +38730,7 @@
       </c>
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
-      <c r="BC24" s="118"/>
+      <c r="BC24" s="1"/>
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
       <c r="BF24" s="6" t="s">
@@ -38825,13 +38826,13 @@
       <c r="AQ25" s="68"/>
       <c r="AR25" s="1"/>
       <c r="AS25" s="6" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AT25" s="69" t="s">
         <v>36</v>
       </c>
       <c r="AU25" s="6" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AV25" s="5"/>
       <c r="AW25" s="1"/>
@@ -38844,7 +38845,7 @@
       </c>
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
-      <c r="BC25" s="118"/>
+      <c r="BC25" s="1"/>
       <c r="BD25" s="1"/>
       <c r="BE25" s="6"/>
       <c r="BF25" s="26" t="s">
@@ -38941,7 +38942,7 @@
         <v>37</v>
       </c>
       <c r="AT26" s="6" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AU26" s="4"/>
       <c r="AV26" s="1"/>
@@ -39037,7 +39038,7 @@
       <c r="AQ27" s="68"/>
       <c r="AR27" s="1"/>
       <c r="AS27" s="8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AT27" s="4"/>
       <c r="AU27" s="1"/>
@@ -39179,7 +39180,7 @@
       <c r="AP29" s="1"/>
       <c r="AQ29" s="68"/>
       <c r="AR29" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1"/>
@@ -39215,7 +39216,7 @@
       <c r="AP30" s="1"/>
       <c r="AQ30" s="68"/>
       <c r="AR30" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
@@ -39253,7 +39254,7 @@
       <c r="AP31" s="1"/>
       <c r="AQ31" s="68"/>
       <c r="AR31" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1"/>
@@ -39261,7 +39262,7 @@
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
@@ -39291,7 +39292,7 @@
       <c r="AP32" s="1"/>
       <c r="AQ32" s="68"/>
       <c r="AR32" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1"/>
@@ -39501,13 +39502,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B034048B-E342-47AC-A151-4A4F7E5AED51}">
   <dimension ref="A3:Q72"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="15" width="14.21875" customWidth="1"/>
+    <col min="2" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="9" width="4.33203125" customWidth="1"/>
+    <col min="10" max="13" width="10.77734375" customWidth="1"/>
+    <col min="14" max="15" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -39539,7 +39544,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="68"/>
       <c r="J4" s="6" t="s">
-        <v>195</v>
+        <v>363</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -39563,7 +39568,7 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="6" t="s">
-        <v>200</v>
+        <v>367</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -39581,7 +39586,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="68"/>
       <c r="J6" s="8" t="s">
-        <v>196</v>
+        <v>364</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="26"/>
@@ -39606,7 +39611,7 @@
         <v>14</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>199</v>
+        <v>369</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -39624,7 +39629,7 @@
       <c r="I8" s="68"/>
       <c r="J8" s="1"/>
       <c r="K8" s="6" t="s">
-        <v>199</v>
+        <v>369</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="4"/>
@@ -39645,13 +39650,13 @@
       <c r="H9" s="1"/>
       <c r="I9" s="68"/>
       <c r="J9" s="6" t="s">
-        <v>197</v>
+        <v>365</v>
       </c>
       <c r="K9" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>199</v>
+        <v>369</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -39672,7 +39677,7 @@
         <v>9</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="1"/>
@@ -39691,7 +39696,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="68"/>
       <c r="J11" s="8" t="s">
-        <v>198</v>
+        <v>366</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="1"/>
@@ -39718,17 +39723,13 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>185</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="68"/>
-      <c r="J13" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -40049,7 +40050,7 @@
         <v>146</v>
       </c>
       <c r="N27" s="71" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>138</v>
@@ -40173,7 +40174,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="117" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G33" s="117"/>
       <c r="H33" s="1"/>
@@ -40183,7 +40184,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="117" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="O33" s="117"/>
       <c r="P33" s="1"/>
@@ -40418,7 +40419,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="1"/>
       <c r="F44" s="70" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="1"/>
@@ -40429,7 +40430,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="1"/>
       <c r="M44" s="70" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="N44" s="5" t="s">
         <v>138</v>
@@ -40607,7 +40608,7 @@
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -40616,7 +40617,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -40720,7 +40721,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="1"/>
       <c r="M61" s="70" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="N61" s="5" t="s">
         <v>138</v>
@@ -40896,7 +40897,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="68"/>
       <c r="J3" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -40921,7 +40922,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -40942,7 +40943,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="68"/>
       <c r="J5" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
@@ -40988,7 +40989,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="68"/>
       <c r="J7" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="4"/>
@@ -41029,19 +41030,19 @@
       <c r="C9" s="4"/>
       <c r="D9" s="1"/>
       <c r="E9" s="70" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="68"/>
       <c r="J9" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="1"/>
       <c r="M9" s="70" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>138</v>
@@ -41064,7 +41065,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="1"/>
@@ -41107,13 +41108,13 @@
       <c r="I12" s="68"/>
       <c r="J12" s="1"/>
       <c r="K12" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L12" s="70" t="s">
         <v>14</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="N12" s="71"/>
       <c r="O12" s="5"/>
@@ -41136,7 +41137,7 @@
         <v>13</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="1"/>
@@ -41157,7 +41158,7 @@
       <c r="I14" s="68"/>
       <c r="J14" s="1"/>
       <c r="K14" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="1"/>
@@ -41220,7 +41221,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="68"/>
       <c r="J17" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -41266,7 +41267,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="68"/>
       <c r="J19" s="8" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="5"/>
@@ -41312,7 +41313,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="68"/>
       <c r="J21" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="4"/>
@@ -41353,19 +41354,19 @@
       <c r="C23" s="4"/>
       <c r="D23" s="1"/>
       <c r="E23" s="70" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="1"/>
       <c r="I23" s="68"/>
       <c r="J23" s="8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="1"/>
       <c r="M23" s="70" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>104</v>
@@ -41406,7 +41407,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="5"/>
@@ -41429,13 +41430,13 @@
       <c r="I26" s="68"/>
       <c r="J26" s="1"/>
       <c r="K26" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L26" s="70" t="s">
         <v>75</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="N26" s="71"/>
       <c r="O26" s="1"/>
@@ -41458,7 +41459,7 @@
         <v>153</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="1"/>
@@ -41479,7 +41480,7 @@
       <c r="I28" s="68"/>
       <c r="J28" s="1"/>
       <c r="K28" s="8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="1"/>
@@ -41800,7 +41801,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -41823,13 +41824,13 @@
       <c r="I5" s="68"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -41850,13 +41851,13 @@
       <c r="H6" s="1"/>
       <c r="I6" s="68"/>
       <c r="J6" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K6" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
@@ -41881,14 +41882,14 @@
         <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="70" t="s">
         <v>15</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -41908,11 +41909,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="68"/>
       <c r="J8" s="8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="4"/>
@@ -41937,7 +41938,7 @@
         <v>75</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -41958,7 +41959,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="8" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="1"/>
@@ -41985,7 +41986,7 @@
         <v>26</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -42004,7 +42005,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -42016,7 +42017,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="69" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -42026,10 +42027,10 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="69" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="5"/>
@@ -42050,7 +42051,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="8" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
@@ -42076,7 +42077,7 @@
         <v>37</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="1"/>
@@ -42096,7 +42097,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="4"/>
@@ -42110,7 +42111,7 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="69" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="5"/>
@@ -42118,14 +42119,14 @@
       <c r="H17" s="1"/>
       <c r="I17" s="68"/>
       <c r="J17" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="69" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="1"/>
@@ -42148,7 +42149,7 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="1"/>
@@ -42168,7 +42169,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="68"/>
       <c r="J19" s="8" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="1"/>
@@ -43084,7 +43085,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -43211,7 +43212,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="5"/>
@@ -43484,7 +43485,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="69" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -43754,7 +43755,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="6"/>
       <c r="X43" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
@@ -43788,7 +43789,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
@@ -43826,7 +43827,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
@@ -43861,7 +43862,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
@@ -43890,7 +43891,7 @@
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="93" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="5"/>
@@ -43898,7 +43899,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
@@ -43933,7 +43934,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
@@ -43970,7 +43971,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
@@ -44005,7 +44006,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
@@ -44904,8 +44905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC45635-DE39-4CBA-B2B1-B5066770F06C}">
   <dimension ref="B1:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J21" sqref="J17:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46186,7 +46187,7 @@
   <dimension ref="H3:T152"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52:J62"/>
+      <selection activeCell="K12" sqref="K12:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46333,7 +46334,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="6" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -46349,7 +46350,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="69"/>
       <c r="L15" s="12" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -46365,7 +46366,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="8" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="5"/>
@@ -46384,7 +46385,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="10" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -46399,7 +46400,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="6" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="4"/>
@@ -46417,7 +46418,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="69"/>
       <c r="L19" s="6" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -46433,7 +46434,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="1"/>
@@ -46453,7 +46454,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -46467,7 +46468,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -46485,7 +46486,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="69"/>
       <c r="L23" s="12" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="5"/>
@@ -46501,7 +46502,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="8" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="5"/>
@@ -46520,11 +46521,11 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="10" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -46537,7 +46538,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="4"/>
@@ -46555,7 +46556,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="69"/>
       <c r="L27" s="12" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="1"/>
@@ -46571,7 +46572,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="1"/>
@@ -46591,7 +46592,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="8" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="1"/>
@@ -46621,11 +46622,11 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="6" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="6" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -46639,15 +46640,15 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="6" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L32" s="69"/>
       <c r="M32" s="6" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="N32" s="69"/>
       <c r="O32" s="12" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -46661,11 +46662,11 @@
       <c r="J33" s="1"/>
       <c r="K33" s="69"/>
       <c r="L33" s="8" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M33" s="69"/>
       <c r="N33" s="8" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="1"/>
@@ -46679,11 +46680,11 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="8" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="1"/>
@@ -46713,7 +46714,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -46731,7 +46732,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="69"/>
       <c r="L37" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -46747,7 +46748,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="8" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="5"/>
@@ -46766,7 +46767,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="10" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -46781,7 +46782,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="4"/>
@@ -46799,7 +46800,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="69"/>
       <c r="L41" s="12" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -46815,7 +46816,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="8" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="1"/>
@@ -46835,7 +46836,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="10" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -46865,7 +46866,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="5"/>
@@ -46894,7 +46895,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="10" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
@@ -46907,7 +46908,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="6" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="4"/>
@@ -46923,7 +46924,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="69"/>
       <c r="L49" s="8" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -46937,7 +46938,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="8" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="1"/>
@@ -46969,7 +46970,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="10" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -46980,7 +46981,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -46993,7 +46994,7 @@
     <row r="54" spans="8:18" ht="13.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H54" s="1"/>
       <c r="I54" s="6" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="69"/>
@@ -47009,11 +47010,11 @@
       <c r="H55" s="1"/>
       <c r="I55" s="69"/>
       <c r="J55" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K55" s="21"/>
       <c r="L55" s="10" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -47025,7 +47026,7 @@
     <row r="56" spans="8:18" ht="13.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H56" s="1"/>
       <c r="I56" s="8" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J56" s="69"/>
       <c r="K56" s="5"/>
@@ -47042,11 +47043,11 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="15" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L57" s="21"/>
       <c r="M57" s="10" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="5"/>
@@ -47057,7 +47058,7 @@
     <row r="58" spans="8:18" ht="13.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H58" s="1"/>
       <c r="I58" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="4"/>
@@ -47073,11 +47074,11 @@
       <c r="H59" s="1"/>
       <c r="I59" s="69"/>
       <c r="J59" s="8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K59" s="5"/>
       <c r="L59" s="20" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -47089,7 +47090,7 @@
     <row r="60" spans="8:18" ht="13.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H60" s="1"/>
       <c r="I60" s="8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="1"/>
@@ -47109,7 +47110,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="10" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="O61" s="5"/>
       <c r="P61" s="1"/>
@@ -47162,7 +47163,7 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="20" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="N65" s="5"/>
       <c r="O65" s="1"/>
@@ -47188,7 +47189,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -47204,7 +47205,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="69"/>
       <c r="L68" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -47218,7 +47219,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="8" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="5"/>
@@ -47235,7 +47236,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="10" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -47248,7 +47249,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="4"/>
@@ -47264,7 +47265,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="69"/>
       <c r="L72" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -47278,7 +47279,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="8" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L73" s="4"/>
       <c r="M73" s="1"/>
@@ -47296,7 +47297,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="10" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -47308,7 +47309,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -47324,7 +47325,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="69"/>
       <c r="L76" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="5"/>
@@ -47338,7 +47339,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L77" s="4"/>
       <c r="M77" s="5"/>
@@ -47355,7 +47356,7 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="10" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
@@ -47382,7 +47383,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="70"/>
       <c r="L80" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="1"/>
@@ -47413,7 +47414,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -47424,7 +47425,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
@@ -47440,7 +47441,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="69"/>
       <c r="L84" s="12" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -47454,7 +47455,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="8" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L85" s="4"/>
       <c r="M85" s="5"/>
@@ -47471,7 +47472,7 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="N86" s="1"/>
       <c r="O86" s="5"/>
@@ -47484,7 +47485,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="6" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="4"/>
@@ -47500,7 +47501,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="69"/>
       <c r="L88" s="6" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -47514,7 +47515,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="8" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L89" s="4"/>
       <c r="M89" s="1"/>
@@ -47532,7 +47533,7 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O90" s="5"/>
       <c r="P90" s="1"/>
@@ -47544,7 +47545,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="6" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -47560,7 +47561,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="69"/>
       <c r="L92" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="5"/>
@@ -47574,7 +47575,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="5"/>
@@ -47591,7 +47592,7 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="N94" s="5"/>
       <c r="O94" s="1"/>
@@ -47618,7 +47619,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="70"/>
       <c r="L96" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="1"/>
@@ -47647,7 +47648,7 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
@@ -47661,11 +47662,11 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="M99" s="69"/>
       <c r="N99" s="12" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -47679,7 +47680,7 @@
       <c r="K100" s="1"/>
       <c r="L100" s="69"/>
       <c r="M100" s="8" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="N100" s="4"/>
       <c r="O100" s="5"/>
@@ -47693,7 +47694,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="8" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="1"/>
@@ -47711,7 +47712,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="10" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
@@ -47737,7 +47738,7 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="6" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="5"/>
@@ -47753,7 +47754,7 @@
       <c r="L105" s="1"/>
       <c r="M105" s="69"/>
       <c r="N105" s="12" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O105" s="5"/>
       <c r="P105" s="1"/>
@@ -47767,7 +47768,7 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="8" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="N106" s="4"/>
       <c r="O106" s="1"/>
@@ -47795,7 +47796,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
@@ -47811,7 +47812,7 @@
       <c r="L109" s="1"/>
       <c r="M109" s="69"/>
       <c r="N109" s="12" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
@@ -47825,7 +47826,7 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="8" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N110" s="4"/>
       <c r="O110" s="5"/>
@@ -47839,12 +47840,12 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="10" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -47857,7 +47858,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="69"/>
       <c r="M112" s="6" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="4"/>
@@ -47871,11 +47872,11 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="8" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M113" s="69"/>
       <c r="N113" s="12" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="O113" s="5"/>
       <c r="P113" s="1"/>
@@ -47889,7 +47890,7 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="8" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="N114" s="4"/>
       <c r="O114" s="1"/>
@@ -48535,7 +48536,7 @@
   <dimension ref="B1:T56"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+      <selection activeCell="D8" sqref="D8:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49923,7 +49924,7 @@
         <v>1</v>
       </c>
       <c r="AA3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB3">
         <v>4</v>
@@ -50030,49 +50031,49 @@
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB4">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD4">
         <v>0.197685241699218</v>
       </c>
       <c r="AE4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF4">
         <v>0.197616577148437</v>
       </c>
       <c r="AG4" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH4">
         <v>0.143280029296875</v>
       </c>
       <c r="AI4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ4">
         <v>9.4970703125E-2</v>
       </c>
       <c r="AK4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL4">
         <v>3.08837890625E-2</v>
       </c>
       <c r="AM4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN4">
         <v>1.953125E-2</v>
       </c>
       <c r="AO4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP4">
         <v>1.5625E-2</v>
@@ -50221,7 +50222,7 @@
       </c>
       <c r="P5" s="75"/>
       <c r="AA5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB5">
         <v>4</v>
@@ -50302,49 +50303,49 @@
         <v>1</v>
       </c>
       <c r="AA6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB6">
         <v>0.243621826171875</v>
       </c>
       <c r="AC6" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD6">
         <v>0.197685241699218</v>
       </c>
       <c r="AE6" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AF6">
         <v>0.197685241699218</v>
       </c>
       <c r="AG6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH6">
         <v>0.197616577148437</v>
       </c>
       <c r="AI6" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ6">
         <v>9.735107421875E-2</v>
       </c>
       <c r="AK6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL6">
         <v>3.08837890625E-2</v>
       </c>
       <c r="AM6" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN6">
         <v>1.953125E-2</v>
       </c>
       <c r="AO6" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP6">
         <v>1.5625E-2</v>
@@ -50494,7 +50495,7 @@
         <v>5</v>
       </c>
       <c r="AA7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB7">
         <v>4</v>
@@ -50578,49 +50579,49 @@
         <v>1</v>
       </c>
       <c r="AA8" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB8">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC8" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD8">
         <v>0.197685241699218</v>
       </c>
       <c r="AE8" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF8">
         <v>0.197616577148437</v>
       </c>
       <c r="AG8" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH8">
         <v>0.143280029296875</v>
       </c>
       <c r="AI8" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ8">
         <v>9.52606201171875E-2</v>
       </c>
       <c r="AK8" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL8">
         <v>2.79388427734375E-2</v>
       </c>
       <c r="AM8" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN8">
         <v>2.2186279296875E-2</v>
       </c>
       <c r="AO8" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP8">
         <v>1.5625E-2</v>
@@ -50761,7 +50762,7 @@
     </row>
     <row r="9" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA9" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB9">
         <v>4</v>
@@ -50872,49 +50873,49 @@
         <v>1</v>
       </c>
       <c r="AA10" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB10">
         <v>0.243621826171875</v>
       </c>
       <c r="AC10" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD10">
         <v>0.197685241699218</v>
       </c>
       <c r="AE10" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AF10">
         <v>0.197685241699218</v>
       </c>
       <c r="AG10" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH10">
         <v>0.197616577148437</v>
       </c>
       <c r="AI10" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ10">
         <v>9.76409912109375E-2</v>
       </c>
       <c r="AK10" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL10">
         <v>2.79388427734375E-2</v>
       </c>
       <c r="AM10" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN10">
         <v>2.2186279296875E-2</v>
       </c>
       <c r="AO10" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP10">
         <v>1.5625E-2</v>
@@ -51061,7 +51062,7 @@
         <v>1</v>
       </c>
       <c r="AA11" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB11">
         <v>5</v>
@@ -51142,49 +51143,49 @@
         <v>1</v>
       </c>
       <c r="AA12" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB12">
         <v>0.31292724609375</v>
       </c>
       <c r="AC12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD12">
         <v>0.170783996582031</v>
       </c>
       <c r="AE12" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF12">
         <v>0.170730590820312</v>
       </c>
       <c r="AG12" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH12">
         <v>0.122001647949218</v>
       </c>
       <c r="AI12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ12">
         <v>9.5184326171875E-2</v>
       </c>
       <c r="AK12" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL12">
         <v>8.79669189453125E-2</v>
       </c>
       <c r="AM12" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN12">
         <v>2.47802734375E-2</v>
       </c>
       <c r="AO12" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP12">
         <v>1.5625E-2</v>
@@ -51335,7 +51336,7 @@
       <c r="M13" s="76"/>
       <c r="P13" s="76"/>
       <c r="AA13" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB13">
         <v>5</v>
@@ -51416,49 +51417,49 @@
         <v>1</v>
       </c>
       <c r="AA14" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB14">
         <v>0.260009765625</v>
       </c>
       <c r="AC14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD14">
         <v>0.170783996582031</v>
       </c>
       <c r="AE14" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF14">
         <v>0.170783996582031</v>
       </c>
       <c r="AG14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH14">
         <v>0.170730590820312</v>
       </c>
       <c r="AI14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ14">
         <v>9.72900390625E-2</v>
       </c>
       <c r="AK14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL14">
         <v>8.9996337890625E-2</v>
       </c>
       <c r="AM14" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN14">
         <v>2.47802734375E-2</v>
       </c>
       <c r="AO14" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP14">
         <v>1.5625E-2</v>
@@ -51608,7 +51609,7 @@
         <v>5</v>
       </c>
       <c r="AA15" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AB15">
         <v>5</v>
@@ -51692,49 +51693,49 @@
         <v>1</v>
       </c>
       <c r="AA16" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB16">
         <v>0.2110595703125</v>
       </c>
       <c r="AC16" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD16">
         <v>0.170783996582031</v>
       </c>
       <c r="AE16" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF16">
         <v>0.170783996582031</v>
       </c>
       <c r="AG16" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH16">
         <v>0.170730590820312</v>
       </c>
       <c r="AI16" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ16">
         <v>0.142242431640625</v>
       </c>
       <c r="AK16" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL16">
         <v>9.393310546875E-2</v>
       </c>
       <c r="AM16" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN16">
         <v>2.484130859375E-2</v>
       </c>
       <c r="AO16" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP16">
         <v>1.5625E-2</v>
@@ -51875,7 +51876,7 @@
     </row>
     <row r="17" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA17" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB17">
         <v>4</v>
@@ -51986,49 +51987,49 @@
         <v>1</v>
       </c>
       <c r="AA18" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB18">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC18" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD18">
         <v>0.198165893554687</v>
       </c>
       <c r="AE18" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF18">
         <v>0.198028564453125</v>
       </c>
       <c r="AG18" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH18">
         <v>0.143669128417968</v>
       </c>
       <c r="AI18" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ18">
         <v>8.8226318359375E-2</v>
       </c>
       <c r="AK18" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL18">
         <v>2.79388427734375E-2</v>
       </c>
       <c r="AM18" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN18">
         <v>2.79388427734375E-2</v>
       </c>
       <c r="AO18" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP18">
         <v>1.5625E-2</v>
@@ -52177,7 +52178,7 @@
       </c>
       <c r="O19" s="77"/>
       <c r="AA19" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB19">
         <v>4</v>
@@ -52258,49 +52259,49 @@
         <v>1</v>
       </c>
       <c r="AA20" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB20">
         <v>0.243621826171875</v>
       </c>
       <c r="AC20" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD20">
         <v>0.198165893554687</v>
       </c>
       <c r="AE20" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF20">
         <v>0.198165893554687</v>
       </c>
       <c r="AG20" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH20">
         <v>0.198028564453125</v>
       </c>
       <c r="AI20" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ20">
         <v>9.051513671875E-2</v>
       </c>
       <c r="AK20" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL20">
         <v>2.79388427734375E-2</v>
       </c>
       <c r="AM20" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN20">
         <v>2.79388427734375E-2</v>
       </c>
       <c r="AO20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP20">
         <v>1.5625E-2</v>
@@ -52447,7 +52448,7 @@
         <v>3</v>
       </c>
       <c r="AA21" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB21">
         <v>5</v>
@@ -52530,49 +52531,49 @@
         <v>1</v>
       </c>
       <c r="AA22" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB22">
         <v>0.31292724609375</v>
       </c>
       <c r="AC22" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD22">
         <v>0.171157836914062</v>
       </c>
       <c r="AE22" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF22">
         <v>0.171051025390625</v>
       </c>
       <c r="AG22" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH22">
         <v>0.122299194335937</v>
       </c>
       <c r="AI22" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AJ22">
         <v>8.79669189453125E-2</v>
       </c>
       <c r="AK22" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AL22">
         <v>8.79669189453125E-2</v>
       </c>
       <c r="AM22" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN22">
         <v>3.1005859375E-2</v>
       </c>
       <c r="AO22" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP22">
         <v>1.5625E-2</v>
@@ -52722,7 +52723,7 @@
         <v>5</v>
       </c>
       <c r="AA23" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB23">
         <v>5</v>
@@ -52806,49 +52807,49 @@
         <v>1</v>
       </c>
       <c r="AA24" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB24">
         <v>0.260009765625</v>
       </c>
       <c r="AC24" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD24">
         <v>0.171157836914062</v>
       </c>
       <c r="AE24" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AF24">
         <v>0.171157836914062</v>
       </c>
       <c r="AG24" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH24">
         <v>0.171051025390625</v>
       </c>
       <c r="AI24" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AJ24">
         <v>8.9996337890625E-2</v>
       </c>
       <c r="AK24" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AL24">
         <v>8.9996337890625E-2</v>
       </c>
       <c r="AM24" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN24">
         <v>3.1005859375E-2</v>
       </c>
       <c r="AO24" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP24">
         <v>1.5625E-2</v>
@@ -52989,7 +52990,7 @@
     </row>
     <row r="25" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA25" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AB25">
         <v>5</v>
@@ -53100,49 +53101,49 @@
         <v>1</v>
       </c>
       <c r="AA26" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB26">
         <v>0.211639404296875</v>
       </c>
       <c r="AC26" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD26">
         <v>0.171211242675781</v>
       </c>
       <c r="AE26" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF26">
         <v>0.171211242675781</v>
       </c>
       <c r="AG26" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH26">
         <v>0.171157836914062</v>
       </c>
       <c r="AI26" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ26">
         <v>0.1328125</v>
       </c>
       <c r="AK26" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL26">
         <v>9.393310546875E-2</v>
       </c>
       <c r="AM26" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN26">
         <v>3.240966796875E-2</v>
       </c>
       <c r="AO26" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP26">
         <v>1.5625E-2</v>
@@ -53289,7 +53290,7 @@
         <v>1</v>
       </c>
       <c r="AA27" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB27">
         <v>4</v>
@@ -53372,49 +53373,49 @@
         <v>1</v>
       </c>
       <c r="AA28" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB28">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC28" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD28">
         <v>0.197685241699218</v>
       </c>
       <c r="AE28" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF28">
         <v>0.197616577148437</v>
       </c>
       <c r="AG28" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH28">
         <v>0.143280029296875</v>
       </c>
       <c r="AI28" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ28">
         <v>9.4970703125E-2</v>
       </c>
       <c r="AK28" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL28">
         <v>3.08837890625E-2</v>
       </c>
       <c r="AM28" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN28">
         <v>1.7578125E-2</v>
       </c>
       <c r="AO28" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP28">
         <v>1.7578125E-2</v>
@@ -53561,7 +53562,7 @@
         <v>3</v>
       </c>
       <c r="AA29" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB29">
         <v>4</v>
@@ -53642,49 +53643,49 @@
         <v>1</v>
       </c>
       <c r="AA30" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB30">
         <v>0.243621826171875</v>
       </c>
       <c r="AC30" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD30">
         <v>0.197685241699218</v>
       </c>
       <c r="AE30" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AF30">
         <v>0.197685241699218</v>
       </c>
       <c r="AG30" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH30">
         <v>0.197616577148437</v>
       </c>
       <c r="AI30" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ30">
         <v>9.735107421875E-2</v>
       </c>
       <c r="AK30" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL30">
         <v>3.08837890625E-2</v>
       </c>
       <c r="AM30" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN30">
         <v>1.7578125E-2</v>
       </c>
       <c r="AO30" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP30">
         <v>1.7578125E-2</v>
@@ -53835,7 +53836,7 @@
       </c>
       <c r="N31" s="40"/>
       <c r="AA31" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB31">
         <v>4</v>
@@ -53920,49 +53921,49 @@
         <v>1</v>
       </c>
       <c r="AA32" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB32">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC32" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD32">
         <v>0.197685241699218</v>
       </c>
       <c r="AE32" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF32">
         <v>0.197616577148437</v>
       </c>
       <c r="AG32" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH32">
         <v>0.143280029296875</v>
       </c>
       <c r="AI32" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ32">
         <v>9.52606201171875E-2</v>
       </c>
       <c r="AK32" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL32">
         <v>2.8055826822916598E-2</v>
       </c>
       <c r="AM32" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN32">
         <v>2.00347900390625E-2</v>
       </c>
       <c r="AO32" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP32">
         <v>1.7659505208333301E-2</v>
@@ -54103,7 +54104,7 @@
     </row>
     <row r="33" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA33" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB33">
         <v>4</v>
@@ -54178,49 +54179,49 @@
         <v>1</v>
       </c>
       <c r="AA34" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB34">
         <v>0.243621826171875</v>
       </c>
       <c r="AC34" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD34">
         <v>0.197685241699218</v>
       </c>
       <c r="AE34" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AF34">
         <v>0.197685241699218</v>
       </c>
       <c r="AG34" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH34">
         <v>0.197616577148437</v>
       </c>
       <c r="AI34" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ34">
         <v>9.76409912109375E-2</v>
       </c>
       <c r="AK34" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL34">
         <v>2.8055826822916598E-2</v>
       </c>
       <c r="AM34" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN34">
         <v>2.00347900390625E-2</v>
       </c>
       <c r="AO34" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP34">
         <v>1.7659505208333301E-2</v>
@@ -54397,7 +54398,7 @@
         <v>6</v>
       </c>
       <c r="AA35" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB35">
         <v>5</v>
@@ -54478,49 +54479,49 @@
         <v>1</v>
       </c>
       <c r="AA36" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB36">
         <v>0.31292724609375</v>
       </c>
       <c r="AC36" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD36">
         <v>0.170783996582031</v>
       </c>
       <c r="AE36" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF36">
         <v>0.170730590820312</v>
       </c>
       <c r="AG36" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH36">
         <v>0.122001647949218</v>
       </c>
       <c r="AI36" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ36">
         <v>9.5184326171875E-2</v>
       </c>
       <c r="AK36" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL36">
         <v>8.8221232096354102E-2</v>
       </c>
       <c r="AM36" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN36">
         <v>2.2430419921875E-2</v>
       </c>
       <c r="AO36" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP36">
         <v>1.7720540364583301E-2</v>
@@ -54667,7 +54668,7 @@
         <v>2</v>
       </c>
       <c r="AA37" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB37">
         <v>5</v>
@@ -54748,49 +54749,49 @@
         <v>1</v>
       </c>
       <c r="AA38" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB38">
         <v>0.260009765625</v>
       </c>
       <c r="AC38" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD38">
         <v>0.170783996582031</v>
       </c>
       <c r="AE38" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF38">
         <v>0.170783996582031</v>
       </c>
       <c r="AG38" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH38">
         <v>0.170730590820312</v>
       </c>
       <c r="AI38" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ38">
         <v>9.72900390625E-2</v>
       </c>
       <c r="AK38" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL38">
         <v>9.0250651041666602E-2</v>
       </c>
       <c r="AM38" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN38">
         <v>2.2430419921875E-2</v>
       </c>
       <c r="AO38" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP38">
         <v>1.7720540364583301E-2</v>
@@ -54941,7 +54942,7 @@
       <c r="L39" s="78"/>
       <c r="P39" s="78"/>
       <c r="AA39" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AB39">
         <v>5</v>
@@ -55025,49 +55026,49 @@
         <v>1</v>
       </c>
       <c r="AA40" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB40">
         <v>0.2110595703125</v>
       </c>
       <c r="AC40" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD40">
         <v>0.170783996582031</v>
       </c>
       <c r="AE40" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF40">
         <v>0.170783996582031</v>
       </c>
       <c r="AG40" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH40">
         <v>0.170730590820312</v>
       </c>
       <c r="AI40" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ40">
         <v>0.142242431640625</v>
       </c>
       <c r="AK40" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL40">
         <v>9.4197591145833301E-2</v>
       </c>
       <c r="AM40" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN40">
         <v>2.2481282552083301E-2</v>
       </c>
       <c r="AO40" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP40">
         <v>1.7720540364583301E-2</v>
@@ -55217,7 +55218,7 @@
       <c r="N41" s="78"/>
       <c r="O41" s="78"/>
       <c r="AA41" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB41">
         <v>4</v>
@@ -55292,49 +55293,49 @@
         <v>1</v>
       </c>
       <c r="AA42" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB42">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC42" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD42">
         <v>0.198165893554687</v>
       </c>
       <c r="AE42" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF42">
         <v>0.198028564453125</v>
       </c>
       <c r="AG42" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH42">
         <v>0.143669128417968</v>
       </c>
       <c r="AI42" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ42">
         <v>8.8480631510416602E-2</v>
       </c>
       <c r="AK42" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL42">
         <v>2.8055826822916598E-2</v>
       </c>
       <c r="AM42" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN42">
         <v>2.5390625E-2</v>
       </c>
       <c r="AO42" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP42">
         <v>1.7801920572916598E-2</v>
@@ -55511,7 +55512,7 @@
         <v>6</v>
       </c>
       <c r="AA43" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB43">
         <v>4</v>
@@ -55594,49 +55595,49 @@
         <v>1</v>
       </c>
       <c r="AA44" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB44">
         <v>0.243621826171875</v>
       </c>
       <c r="AC44" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD44">
         <v>0.198165893554687</v>
       </c>
       <c r="AE44" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AF44">
         <v>0.198165893554687</v>
       </c>
       <c r="AG44" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH44">
         <v>0.198028564453125</v>
       </c>
       <c r="AI44" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ44">
         <v>9.0769449869791602E-2</v>
       </c>
       <c r="AK44" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL44">
         <v>2.8055826822916598E-2</v>
       </c>
       <c r="AM44" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN44">
         <v>2.5390625E-2</v>
       </c>
       <c r="AO44" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP44">
         <v>1.7801920572916598E-2</v>
@@ -55783,7 +55784,7 @@
         <v>2</v>
       </c>
       <c r="AA45" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB45">
         <v>5</v>
@@ -55864,49 +55865,49 @@
         <v>1</v>
       </c>
       <c r="AA46" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB46">
         <v>0.31292724609375</v>
       </c>
       <c r="AC46" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD46">
         <v>0.171157836914062</v>
       </c>
       <c r="AE46" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF46">
         <v>0.171051025390625</v>
       </c>
       <c r="AG46" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH46">
         <v>0.122299194335937</v>
       </c>
       <c r="AI46" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AJ46">
         <v>8.8221232096354102E-2</v>
       </c>
       <c r="AK46" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AL46">
         <v>8.8221232096354102E-2</v>
       </c>
       <c r="AM46" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN46">
         <v>2.825927734375E-2</v>
       </c>
       <c r="AO46" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP46">
         <v>1.7862955729166598E-2</v>
@@ -56053,7 +56054,7 @@
         <v>4</v>
       </c>
       <c r="AA47" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB47">
         <v>5</v>
@@ -56138,49 +56139,49 @@
         <v>1</v>
       </c>
       <c r="AA48" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB48">
         <v>0.260009765625</v>
       </c>
       <c r="AC48" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD48">
         <v>0.171157836914062</v>
       </c>
       <c r="AE48" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AF48">
         <v>0.171157836914062</v>
       </c>
       <c r="AG48" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH48">
         <v>0.171051025390625</v>
       </c>
       <c r="AI48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AJ48">
         <v>9.0250651041666602E-2</v>
       </c>
       <c r="AK48" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AL48">
         <v>9.0250651041666602E-2</v>
       </c>
       <c r="AM48" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN48">
         <v>2.825927734375E-2</v>
       </c>
       <c r="AO48" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP48">
         <v>1.7862955729166598E-2</v>
@@ -56331,7 +56332,7 @@
       <c r="M49" s="79"/>
       <c r="N49" s="79"/>
       <c r="AA49" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AB49">
         <v>5</v>
@@ -56406,49 +56407,49 @@
         <v>1</v>
       </c>
       <c r="AA50" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB50">
         <v>0.211639404296875</v>
       </c>
       <c r="AC50" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD50">
         <v>0.171211242675781</v>
       </c>
       <c r="AE50" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF50">
         <v>0.171211242675781</v>
       </c>
       <c r="AG50" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH50">
         <v>0.171157836914062</v>
       </c>
       <c r="AI50" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ50">
         <v>0.13313802083333301</v>
       </c>
       <c r="AK50" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL50">
         <v>9.4197591145833301E-2</v>
       </c>
       <c r="AM50" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN50">
         <v>2.9561360677083301E-2</v>
       </c>
       <c r="AO50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP50">
         <v>1.788330078125E-2</v>
@@ -56625,7 +56626,7 @@
         <v>6</v>
       </c>
       <c r="AA51" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB51">
         <v>6</v>
@@ -56706,49 +56707,49 @@
         <v>1</v>
       </c>
       <c r="AA52" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB52">
         <v>0.325103759765625</v>
       </c>
       <c r="AC52" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD52">
         <v>0.14676920572916599</v>
       </c>
       <c r="AE52" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF52">
         <v>0.146728515625</v>
       </c>
       <c r="AG52" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH52">
         <v>0.10340372721354101</v>
       </c>
       <c r="AI52" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AJ52">
         <v>8.8134765625E-2</v>
       </c>
       <c r="AK52" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AL52">
         <v>8.8134765625E-2</v>
       </c>
       <c r="AM52" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN52">
         <v>8.1787109375E-2</v>
       </c>
       <c r="AO52" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP52">
         <v>1.9938151041666598E-2</v>
@@ -56895,7 +56896,7 @@
         <v>2</v>
       </c>
       <c r="AA53" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB53">
         <v>6</v>
@@ -56976,49 +56977,49 @@
         <v>1</v>
       </c>
       <c r="AA54" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB54">
         <v>0.2764892578125</v>
       </c>
       <c r="AC54" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD54">
         <v>0.14676920572916599</v>
       </c>
       <c r="AE54" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF54">
         <v>0.14676920572916599</v>
       </c>
       <c r="AG54" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH54">
         <v>0.146728515625</v>
       </c>
       <c r="AI54" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AJ54">
         <v>8.990478515625E-2</v>
       </c>
       <c r="AK54" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AL54">
         <v>8.990478515625E-2</v>
       </c>
       <c r="AM54" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN54">
         <v>8.349609375E-2</v>
       </c>
       <c r="AO54" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP54">
         <v>1.9938151041666598E-2</v>
@@ -57165,7 +57166,7 @@
         <v>4</v>
       </c>
       <c r="AA55" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AB55">
         <v>6</v>
@@ -57251,49 +57252,49 @@
         <v>1</v>
       </c>
       <c r="AA56" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB56">
         <v>0.22509765625</v>
       </c>
       <c r="AC56" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD56">
         <v>0.14676920572916599</v>
       </c>
       <c r="AE56" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF56">
         <v>0.14676920572916599</v>
       </c>
       <c r="AG56" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH56">
         <v>0.146728515625</v>
       </c>
       <c r="AI56" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ56">
         <v>0.13338216145833301</v>
       </c>
       <c r="AK56" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL56">
         <v>9.3953450520833301E-2</v>
       </c>
       <c r="AM56" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN56">
         <v>8.7320963541666602E-2</v>
       </c>
       <c r="AO56" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP56">
         <v>1.9978841145833301E-2</v>
@@ -57445,7 +57446,7 @@
       <c r="N57" s="80"/>
       <c r="P57" s="80"/>
       <c r="AA57" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AB57">
         <v>6</v>
@@ -57520,49 +57521,49 @@
         <v>1</v>
       </c>
       <c r="AA58" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB58">
         <v>0.18212890625</v>
       </c>
       <c r="AC58" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD58">
         <v>0.14676920572916599</v>
       </c>
       <c r="AE58" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF58">
         <v>0.14676920572916599</v>
       </c>
       <c r="AG58" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH58">
         <v>0.146728515625</v>
       </c>
       <c r="AI58" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ58">
         <v>0.13338216145833301</v>
       </c>
       <c r="AK58" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL58">
         <v>0.13338216145833301</v>
       </c>
       <c r="AM58" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN58">
         <v>9.08203125E-2</v>
       </c>
       <c r="AO58" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP58">
         <v>2.001953125E-2</v>
@@ -57739,7 +57740,7 @@
         <v>6</v>
       </c>
       <c r="AA59" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB59">
         <v>4</v>
@@ -57820,49 +57821,49 @@
         <v>1</v>
       </c>
       <c r="AA60" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB60">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC60" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD60">
         <v>0.197685241699218</v>
       </c>
       <c r="AE60" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF60">
         <v>0.197616577148437</v>
       </c>
       <c r="AG60" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH60">
         <v>0.143280029296875</v>
       </c>
       <c r="AI60" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ60">
         <v>9.5550537109375E-2</v>
       </c>
       <c r="AK60" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL60">
         <v>2.5390625E-2</v>
       </c>
       <c r="AM60" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN60">
         <v>2.00347900390625E-2</v>
       </c>
       <c r="AO60" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP60">
         <v>2.00347900390625E-2</v>
@@ -58009,7 +58010,7 @@
         <v>2</v>
       </c>
       <c r="AA61" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB61">
         <v>4</v>
@@ -58090,49 +58091,49 @@
         <v>1</v>
       </c>
       <c r="AA62" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB62">
         <v>0.243621826171875</v>
       </c>
       <c r="AC62" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD62">
         <v>0.197685241699218</v>
       </c>
       <c r="AE62" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AF62">
         <v>0.197685241699218</v>
       </c>
       <c r="AG62" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH62">
         <v>0.197616577148437</v>
       </c>
       <c r="AI62" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ62">
         <v>9.7930908203125E-2</v>
       </c>
       <c r="AK62" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL62">
         <v>2.5390625E-2</v>
       </c>
       <c r="AM62" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN62">
         <v>2.00347900390625E-2</v>
       </c>
       <c r="AO62" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP62">
         <v>2.00347900390625E-2</v>
@@ -58279,7 +58280,7 @@
         <v>4</v>
       </c>
       <c r="AA63" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB63">
         <v>5</v>
@@ -58365,49 +58366,49 @@
         <v>1</v>
       </c>
       <c r="AA64" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB64">
         <v>0.31292724609375</v>
       </c>
       <c r="AC64" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD64">
         <v>0.171157836914062</v>
       </c>
       <c r="AE64" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF64">
         <v>0.171051025390625</v>
       </c>
       <c r="AG64" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH64">
         <v>0.122299194335937</v>
       </c>
       <c r="AI64" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ64">
         <v>9.5672607421875E-2</v>
       </c>
       <c r="AK64" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL64">
         <v>8.203125E-2</v>
       </c>
       <c r="AM64" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AN64">
         <v>2.2430419921875E-2</v>
       </c>
       <c r="AO64" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AP64">
         <v>2.2430419921875E-2</v>
@@ -58559,7 +58560,7 @@
       <c r="O65" s="74"/>
       <c r="P65" s="74"/>
       <c r="AA65" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB65">
         <v>5</v>
@@ -58634,49 +58635,49 @@
         <v>1</v>
       </c>
       <c r="AA66" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB66">
         <v>0.260009765625</v>
       </c>
       <c r="AC66" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD66">
         <v>0.171157836914062</v>
       </c>
       <c r="AE66" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF66">
         <v>0.171157836914062</v>
       </c>
       <c r="AG66" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH66">
         <v>0.171051025390625</v>
       </c>
       <c r="AI66" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ66">
         <v>9.77783203125E-2</v>
       </c>
       <c r="AK66" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL66">
         <v>8.3984375E-2</v>
       </c>
       <c r="AM66" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AN66">
         <v>2.2430419921875E-2</v>
       </c>
       <c r="AO66" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AP66">
         <v>2.2430419921875E-2</v>
@@ -58817,7 +58818,7 @@
     </row>
     <row r="67" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA67" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AB67">
         <v>5</v>
@@ -58892,49 +58893,49 @@
         <v>1</v>
       </c>
       <c r="AA68" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB68">
         <v>0.2110595703125</v>
       </c>
       <c r="AC68" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD68">
         <v>0.171157836914062</v>
       </c>
       <c r="AE68" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF68">
         <v>0.171157836914062</v>
       </c>
       <c r="AG68" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH68">
         <v>0.171051025390625</v>
       </c>
       <c r="AI68" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ68">
         <v>0.14288330078125</v>
       </c>
       <c r="AK68" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL68">
         <v>8.7727864583333301E-2</v>
       </c>
       <c r="AM68" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AN68">
         <v>2.2481282552083301E-2</v>
       </c>
       <c r="AO68" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AP68">
         <v>2.2481282552083301E-2</v>
@@ -59075,7 +59076,7 @@
     </row>
     <row r="69" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA69" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB69">
         <v>4</v>
@@ -59150,49 +59151,49 @@
         <v>1</v>
       </c>
       <c r="AA70" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB70">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC70" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD70">
         <v>0.198165893554687</v>
       </c>
       <c r="AE70" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF70">
         <v>0.198028564453125</v>
       </c>
       <c r="AG70" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH70">
         <v>0.143669128417968</v>
       </c>
       <c r="AI70" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ70">
         <v>8.8734944661458301E-2</v>
       </c>
       <c r="AK70" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AL70">
         <v>2.5390625E-2</v>
       </c>
       <c r="AM70" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AN70">
         <v>2.5390625E-2</v>
       </c>
       <c r="AO70" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP70">
         <v>2.0212809244791598E-2</v>
@@ -59333,7 +59334,7 @@
     </row>
     <row r="71" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA71" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB71">
         <v>4</v>
@@ -59408,49 +59409,49 @@
         <v>1</v>
       </c>
       <c r="AA72" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB72">
         <v>0.243621826171875</v>
       </c>
       <c r="AC72" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD72">
         <v>0.198165893554687</v>
       </c>
       <c r="AE72" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF72">
         <v>0.198165893554687</v>
       </c>
       <c r="AG72" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH72">
         <v>0.198028564453125</v>
       </c>
       <c r="AI72" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ72">
         <v>9.1023763020833301E-2</v>
       </c>
       <c r="AK72" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AL72">
         <v>2.5390625E-2</v>
       </c>
       <c r="AM72" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AN72">
         <v>2.5390625E-2</v>
       </c>
       <c r="AO72" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP72">
         <v>2.0212809244791598E-2</v>
@@ -59591,7 +59592,7 @@
     </row>
     <row r="73" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA73" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB73">
         <v>5</v>
@@ -59666,49 +59667,49 @@
         <v>1</v>
       </c>
       <c r="AA74" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB74">
         <v>0.31292724609375</v>
       </c>
       <c r="AC74" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD74">
         <v>0.171531677246093</v>
       </c>
       <c r="AE74" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF74">
         <v>0.171371459960937</v>
       </c>
       <c r="AG74" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH74">
         <v>0.122596740722656</v>
       </c>
       <c r="AI74" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ74">
         <v>8.8648478190104102E-2</v>
       </c>
       <c r="AK74" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL74">
         <v>8.203125E-2</v>
       </c>
       <c r="AM74" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN74">
         <v>2.825927734375E-2</v>
       </c>
       <c r="AO74" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP74">
         <v>2.2633870442708301E-2</v>
@@ -59849,7 +59850,7 @@
     </row>
     <row r="75" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA75" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB75">
         <v>5</v>
@@ -59924,49 +59925,49 @@
         <v>1</v>
       </c>
       <c r="AA76" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB76">
         <v>0.260009765625</v>
       </c>
       <c r="AC76" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD76">
         <v>0.171531677246093</v>
       </c>
       <c r="AE76" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF76">
         <v>0.171531677246093</v>
       </c>
       <c r="AG76" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH76">
         <v>0.171371459960937</v>
       </c>
       <c r="AI76" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ76">
         <v>9.0677897135416602E-2</v>
       </c>
       <c r="AK76" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL76">
         <v>8.3984375E-2</v>
       </c>
       <c r="AM76" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN76">
         <v>2.825927734375E-2</v>
       </c>
       <c r="AO76" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP76">
         <v>2.2633870442708301E-2</v>
@@ -60107,7 +60108,7 @@
     </row>
     <row r="77" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA77" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AB77">
         <v>5</v>
@@ -60182,49 +60183,49 @@
         <v>1</v>
       </c>
       <c r="AA78" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB78">
         <v>0.211639404296875</v>
       </c>
       <c r="AC78" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD78">
         <v>0.171585083007812</v>
       </c>
       <c r="AE78" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF78">
         <v>0.171585083007812</v>
       </c>
       <c r="AG78" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH78">
         <v>0.171478271484375</v>
       </c>
       <c r="AI78" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ78">
         <v>0.13370768229166599</v>
       </c>
       <c r="AK78" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL78">
         <v>8.7727864583333301E-2</v>
       </c>
       <c r="AM78" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN78">
         <v>2.9561360677083301E-2</v>
       </c>
       <c r="AO78" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP78">
         <v>2.2715250651041598E-2</v>
@@ -60365,7 +60366,7 @@
     </row>
     <row r="79" spans="3:83" x14ac:dyDescent="0.3">
       <c r="AA79" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB79">
         <v>6</v>
@@ -60440,49 +60441,49 @@
         <v>1</v>
       </c>
       <c r="AA80" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB80">
         <v>0.325103759765625</v>
       </c>
       <c r="AC80" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD80">
         <v>0.14705403645833301</v>
       </c>
       <c r="AE80" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF80">
         <v>0.14697265625</v>
       </c>
       <c r="AG80" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH80">
         <v>0.103627522786458</v>
       </c>
       <c r="AI80" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ80">
         <v>8.856201171875E-2</v>
       </c>
       <c r="AK80" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AL80">
         <v>8.1787109375E-2</v>
       </c>
       <c r="AM80" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AN80">
         <v>8.1787109375E-2</v>
       </c>
       <c r="AO80" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP80">
         <v>2.5105794270833301E-2</v>
@@ -60623,7 +60624,7 @@
     </row>
     <row r="81" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA81" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB81">
         <v>6</v>
@@ -60698,49 +60699,49 @@
         <v>1</v>
       </c>
       <c r="AA82" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB82">
         <v>0.2764892578125</v>
       </c>
       <c r="AC82" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD82">
         <v>0.14705403645833301</v>
       </c>
       <c r="AE82" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF82">
         <v>0.14705403645833301</v>
       </c>
       <c r="AG82" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH82">
         <v>0.14697265625</v>
       </c>
       <c r="AI82" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ82">
         <v>9.033203125E-2</v>
       </c>
       <c r="AK82" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AL82">
         <v>8.349609375E-2</v>
       </c>
       <c r="AM82" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AN82">
         <v>8.349609375E-2</v>
       </c>
       <c r="AO82" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP82">
         <v>2.5105794270833301E-2</v>
@@ -60881,7 +60882,7 @@
     </row>
     <row r="83" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA83" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AB83">
         <v>6</v>
@@ -60956,49 +60957,49 @@
         <v>1</v>
       </c>
       <c r="AA84" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB84">
         <v>0.22509765625</v>
       </c>
       <c r="AC84" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD84">
         <v>0.14705403645833301</v>
       </c>
       <c r="AE84" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF84">
         <v>0.14705403645833301</v>
       </c>
       <c r="AG84" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH84">
         <v>0.14697265625</v>
       </c>
       <c r="AI84" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ84">
         <v>0.13395182291666599</v>
       </c>
       <c r="AK84" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AL84">
         <v>8.7320963541666602E-2</v>
       </c>
       <c r="AM84" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AN84">
         <v>8.7320963541666602E-2</v>
       </c>
       <c r="AO84" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP84">
         <v>2.5227864583333301E-2</v>
@@ -61139,7 +61140,7 @@
     </row>
     <row r="85" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA85" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AB85">
         <v>6</v>
@@ -61214,49 +61215,49 @@
         <v>1</v>
       </c>
       <c r="AA86" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB86">
         <v>0.18257649739583301</v>
       </c>
       <c r="AC86" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD86">
         <v>0.1470947265625</v>
       </c>
       <c r="AE86" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF86">
         <v>0.1470947265625</v>
       </c>
       <c r="AG86" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH86">
         <v>0.14705403645833301</v>
       </c>
       <c r="AI86" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ86">
         <v>0.134033203125</v>
       </c>
       <c r="AK86" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL86">
         <v>0.125</v>
       </c>
       <c r="AM86" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN86">
         <v>9.08203125E-2</v>
       </c>
       <c r="AO86" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP86">
         <v>2.6326497395833301E-2</v>
@@ -61397,7 +61398,7 @@
     </row>
     <row r="87" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA87" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB87">
         <v>4</v>
@@ -61472,49 +61473,49 @@
         <v>1</v>
       </c>
       <c r="AA88" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB88">
         <v>0.30040740966796797</v>
       </c>
       <c r="AC88" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD88">
         <v>0.198646545410156</v>
       </c>
       <c r="AE88" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF88">
         <v>0.198440551757812</v>
       </c>
       <c r="AG88" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH88">
         <v>0.144058227539062</v>
       </c>
       <c r="AI88" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ88">
         <v>8.2275390625E-2</v>
       </c>
       <c r="AK88" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AL88">
         <v>2.5390625E-2</v>
       </c>
       <c r="AM88" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN88">
         <v>2.5390625E-2</v>
       </c>
       <c r="AO88" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AP88">
         <v>2.5390625E-2</v>
@@ -61656,7 +61657,7 @@
     <row r="89" spans="26:83" x14ac:dyDescent="0.3">
       <c r="Z89" s="40"/>
       <c r="AA89" s="40" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB89" s="40">
         <v>4</v>
@@ -61739,49 +61740,49 @@
         <v>1</v>
       </c>
       <c r="AA90" s="40" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB90" s="40">
         <v>0.243621826171875</v>
       </c>
       <c r="AC90" s="40" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD90" s="40">
         <v>0.198646545410156</v>
       </c>
       <c r="AE90" s="40" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AF90" s="40">
         <v>0.198646545410156</v>
       </c>
       <c r="AG90" s="40" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH90" s="40">
         <v>0.198440551757812</v>
       </c>
       <c r="AI90" s="40" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ90" s="40">
         <v>8.447265625E-2</v>
       </c>
       <c r="AK90" s="40" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AL90" s="40">
         <v>2.5390625E-2</v>
       </c>
       <c r="AM90" s="40" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN90" s="40">
         <v>2.5390625E-2</v>
       </c>
       <c r="AO90" s="40" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AP90" s="40">
         <v>2.5390625E-2</v>
@@ -61922,7 +61923,7 @@
     </row>
     <row r="91" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA91" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB91">
         <v>5</v>
@@ -61997,49 +61998,49 @@
         <v>1</v>
       </c>
       <c r="AA92" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB92">
         <v>0.31292724609375</v>
       </c>
       <c r="AC92" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD92">
         <v>0.171905517578125</v>
       </c>
       <c r="AE92" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF92">
         <v>0.17169189453125</v>
       </c>
       <c r="AG92" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH92">
         <v>0.122894287109375</v>
       </c>
       <c r="AI92" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AJ92">
         <v>8.203125E-2</v>
       </c>
       <c r="AK92" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AL92">
         <v>8.203125E-2</v>
       </c>
       <c r="AM92" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AN92">
         <v>2.825927734375E-2</v>
       </c>
       <c r="AO92" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AP92">
         <v>2.825927734375E-2</v>
@@ -62180,7 +62181,7 @@
     </row>
     <row r="93" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA93" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB93">
         <v>5</v>
@@ -62255,49 +62256,49 @@
         <v>1</v>
       </c>
       <c r="AA94" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB94">
         <v>0.260009765625</v>
       </c>
       <c r="AC94" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD94">
         <v>0.171905517578125</v>
       </c>
       <c r="AE94" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AF94">
         <v>0.171905517578125</v>
       </c>
       <c r="AG94" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH94">
         <v>0.17169189453125</v>
       </c>
       <c r="AI94" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AJ94">
         <v>8.3984375E-2</v>
       </c>
       <c r="AK94" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AL94">
         <v>8.3984375E-2</v>
       </c>
       <c r="AM94" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AN94">
         <v>2.825927734375E-2</v>
       </c>
       <c r="AO94" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AP94">
         <v>2.825927734375E-2</v>
@@ -62438,7 +62439,7 @@
     </row>
     <row r="95" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA95" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AB95">
         <v>5</v>
@@ -62513,49 +62514,49 @@
         <v>1</v>
       </c>
       <c r="AA96" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB96">
         <v>0.21221923828125</v>
       </c>
       <c r="AC96" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD96">
         <v>0.172012329101562</v>
       </c>
       <c r="AE96" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF96">
         <v>0.172012329101562</v>
       </c>
       <c r="AG96" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH96">
         <v>0.171905517578125</v>
       </c>
       <c r="AI96" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ96">
         <v>0.125</v>
       </c>
       <c r="AK96" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL96">
         <v>8.7727864583333301E-2</v>
       </c>
       <c r="AM96" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AN96">
         <v>2.9561360677083301E-2</v>
       </c>
       <c r="AO96" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AP96">
         <v>2.9561360677083301E-2</v>
@@ -62696,7 +62697,7 @@
     </row>
     <row r="97" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA97" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB97">
         <v>6</v>
@@ -62771,49 +62772,49 @@
         <v>1</v>
       </c>
       <c r="AA98" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB98">
         <v>0.325103759765625</v>
       </c>
       <c r="AC98" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AD98">
         <v>0.1473388671875</v>
       </c>
       <c r="AE98" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF98">
         <v>0.147216796875</v>
       </c>
       <c r="AG98" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH98">
         <v>0.103851318359375</v>
       </c>
       <c r="AI98" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AJ98">
         <v>8.1787109375E-2</v>
       </c>
       <c r="AK98" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL98">
         <v>8.1787109375E-2</v>
       </c>
       <c r="AM98" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AN98">
         <v>8.1787109375E-2</v>
       </c>
       <c r="AO98" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP98">
         <v>3.11279296875E-2</v>
@@ -62954,7 +62955,7 @@
     </row>
     <row r="99" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA99" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB99">
         <v>6</v>
@@ -63029,49 +63030,49 @@
         <v>1</v>
       </c>
       <c r="AA100" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB100">
         <v>0.2764892578125</v>
       </c>
       <c r="AC100" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD100">
         <v>0.1473388671875</v>
       </c>
       <c r="AE100" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF100">
         <v>0.1473388671875</v>
       </c>
       <c r="AG100" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH100">
         <v>0.147216796875</v>
       </c>
       <c r="AI100" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AJ100">
         <v>8.349609375E-2</v>
       </c>
       <c r="AK100" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL100">
         <v>8.349609375E-2</v>
       </c>
       <c r="AM100" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AN100">
         <v>8.349609375E-2</v>
       </c>
       <c r="AO100" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP100">
         <v>3.11279296875E-2</v>
@@ -63212,7 +63213,7 @@
     </row>
     <row r="101" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA101" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AB101">
         <v>6</v>
@@ -63287,49 +63288,49 @@
         <v>1</v>
       </c>
       <c r="AA102" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB102">
         <v>0.2257080078125</v>
       </c>
       <c r="AC102" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD102">
         <v>0.14737955729166599</v>
       </c>
       <c r="AE102" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF102">
         <v>0.14737955729166599</v>
       </c>
       <c r="AG102" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH102">
         <v>0.14729817708333301</v>
       </c>
       <c r="AI102" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AJ102">
         <v>0.125</v>
       </c>
       <c r="AK102" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AL102">
         <v>8.7320963541666602E-2</v>
       </c>
       <c r="AM102" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AN102">
         <v>8.7320963541666602E-2</v>
       </c>
       <c r="AO102" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP102">
         <v>3.25927734375E-2</v>
@@ -63470,7 +63471,7 @@
     </row>
     <row r="103" spans="26:83" x14ac:dyDescent="0.3">
       <c r="AA103" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AB103">
         <v>6</v>
@@ -63545,49 +63546,49 @@
         <v>1</v>
       </c>
       <c r="AA104" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AB104">
         <v>0.18302408854166599</v>
       </c>
       <c r="AC104" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD104">
         <v>0.14742024739583301</v>
       </c>
       <c r="AE104" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF104">
         <v>0.14742024739583301</v>
       </c>
       <c r="AG104" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AH104">
         <v>0.14737955729166599</v>
       </c>
       <c r="AI104" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AJ104">
         <v>0.125</v>
       </c>
       <c r="AK104" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AL104">
         <v>0.125</v>
       </c>
       <c r="AM104" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN104">
         <v>9.08203125E-2</v>
       </c>
       <c r="AO104" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AP104">
         <v>3.3935546875E-2</v>
@@ -63815,6 +63816,412 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8834906E-9C10-4EE6-B7E0-7BFB92FE252F}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="8">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="118"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="69"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1876FCB-6DB9-423A-8CE5-BFA1290FCF13}">
   <dimension ref="A2:Q18"/>
@@ -63861,7 +64268,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="68"/>
       <c r="H3" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -63885,7 +64292,7 @@
       <c r="G4" s="68"/>
       <c r="H4" s="7"/>
       <c r="I4" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -63907,7 +64314,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="68"/>
       <c r="H5" s="8" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
@@ -63932,7 +64339,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="1"/>
       <c r="J6" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -63953,7 +64360,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="68"/>
       <c r="H7" s="6" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="4"/>
@@ -63977,7 +64384,7 @@
       <c r="G8" s="68"/>
       <c r="H8" s="7"/>
       <c r="I8" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -63999,7 +64406,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="68"/>
       <c r="H9" s="8" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="1"/>
@@ -64025,7 +64432,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="6"/>
@@ -64045,7 +64452,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="68"/>
       <c r="H11" s="6" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -64069,7 +64476,7 @@
       <c r="G12" s="68"/>
       <c r="H12" s="7"/>
       <c r="I12" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="5"/>
@@ -64091,7 +64498,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="68"/>
       <c r="H13" s="8" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
@@ -64116,7 +64523,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="1"/>
       <c r="J14" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="1"/>
@@ -64137,7 +64544,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="68"/>
       <c r="H15" s="6" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="4"/>
@@ -64165,7 +64572,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="1"/>
@@ -64187,7 +64594,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="68"/>
       <c r="H17" s="8" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="1"/>
@@ -64259,7 +64666,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="6" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -64268,7 +64675,7 @@
     <row r="6" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -64281,12 +64688,12 @@
       <c r="A7" s="1"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -64294,7 +64701,7 @@
     <row r="8" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="8" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="97"/>
@@ -64309,7 +64716,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="97"/>
       <c r="E9" s="8" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -64318,7 +64725,7 @@
     <row r="10" spans="1:8" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="100" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -64351,13 +64758,13 @@
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="100" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D13" s="97"/>
       <c r="E13" s="6"/>
       <c r="F13" s="1"/>
       <c r="G13" s="98" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -64384,7 +64791,7 @@
     <row r="16" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="8" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="97"/>
@@ -64399,7 +64806,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="97"/>
       <c r="E17" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="5"/>
@@ -64408,7 +64815,7 @@
     <row r="18" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -64421,12 +64828,12 @@
       <c r="A19" s="1"/>
       <c r="B19" s="7"/>
       <c r="C19" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="1"/>
       <c r="F19" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="1"/>
@@ -64434,7 +64841,7 @@
     <row r="20" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="8" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="6"/>
@@ -64449,7 +64856,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
       <c r="E21" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="1"/>
@@ -64522,7 +64929,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -64531,7 +64938,7 @@
     <row r="6" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -64544,12 +64951,12 @@
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="6"/>
@@ -64557,7 +64964,7 @@
     <row r="8" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="8" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="97"/>
@@ -64572,7 +64979,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="97"/>
       <c r="E9" s="8" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -64581,7 +64988,7 @@
     <row r="10" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -64594,20 +65001,20 @@
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="8" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="97"/>
@@ -64622,7 +65029,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="97"/>
       <c r="E13" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="5"/>
@@ -64631,7 +65038,7 @@
     <row r="14" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -64644,12 +65051,12 @@
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
@@ -64657,7 +65064,7 @@
     <row r="16" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="8" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="97"/>
@@ -64672,7 +65079,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="97"/>
       <c r="E17" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="1"/>

--- a/thesis-tex/excels/Brackets.xlsx
+++ b/thesis-tex/excels/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791E25E6-F4EE-42B3-8D9E-79D4CC7DAA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF87B2D6-D49B-460E-874B-28B15E38251E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="1" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
@@ -12689,7 +12689,7 @@
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/thesis-tex/excels/Brackets.xlsx
+++ b/thesis-tex/excels/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B90C07-AB67-4EB3-BA14-1388E5A7EC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D071B0B-3041-4D39-9436-483348E56D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="36" activeTab="42" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="399">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2072,29 +2072,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Curse</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>5</t>
     </r>
     <r>
@@ -2289,6 +2266,98 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Stampede</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Curse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Innovators</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Aviators</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Curse</t>
     </r>
   </si>
 </sst>
@@ -66021,13 +66090,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8834906E-9C10-4EE6-B7E0-7BFB92FE252F}">
   <dimension ref="A1:CB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AV35" sqref="AV35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="9" width="11.33203125" customWidth="1"/>
+    <col min="4" max="9" width="12.5546875" customWidth="1"/>
     <col min="10" max="11" width="4.88671875" customWidth="1"/>
     <col min="12" max="19" width="12.5546875" customWidth="1"/>
     <col min="20" max="26" width="6.6640625" customWidth="1"/>
@@ -66724,8 +66793,8 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="6">
-        <v>1</v>
+      <c r="E8" s="6" t="s">
+        <v>389</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -66735,7 +66804,7 @@
       <c r="K8" s="60"/>
       <c r="L8" s="1"/>
       <c r="M8" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -66825,20 +66894,22 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="6">
-        <v>4</v>
+      <c r="D9" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="E9" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="60"/>
       <c r="L9" s="6" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="M9" s="61" t="s">
         <v>12</v>
@@ -66948,7 +67019,9 @@
       <c r="D10" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>335</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
       <c r="H10" s="1"/>
@@ -67053,20 +67126,22 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="8">
-        <v>5</v>
+      <c r="D11" s="8" t="s">
+        <v>385</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>336</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="60"/>
       <c r="L11" s="8" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="62" t="s">
@@ -67158,8 +67233,8 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="6">
-        <v>2</v>
+      <c r="E12" s="6" t="s">
+        <v>388</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="4"/>
@@ -67169,7 +67244,7 @@
       <c r="K12" s="60"/>
       <c r="L12" s="1"/>
       <c r="M12" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="4"/>
@@ -67253,20 +67328,22 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="6">
-        <v>3</v>
+      <c r="D13" s="6" t="s">
+        <v>386</v>
       </c>
       <c r="E13" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="60"/>
       <c r="L13" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M13" s="61" t="s">
         <v>13</v>
@@ -67364,7 +67441,9 @@
       <c r="D14" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>336</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -67471,8 +67550,8 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="8">
-        <v>6</v>
+      <c r="D15" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="1"/>
@@ -67482,7 +67561,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="60"/>
       <c r="L15" s="8" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="1"/>
@@ -67584,7 +67663,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>14</v>
+        <v>393</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -67594,7 +67673,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -67684,7 +67763,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="6" t="s">
-        <v>12</v>
+        <v>390</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="9"/>
@@ -67694,7 +67773,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="9"/>
@@ -67788,11 +67867,15 @@
       <c r="F18" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="H18" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>337</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="60"/>
       <c r="L18" s="1"/>
@@ -67894,8 +67977,8 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="8" t="s">
-        <v>9</v>
+      <c r="F19" s="110" t="s">
+        <v>394</v>
       </c>
       <c r="G19" s="61"/>
       <c r="H19" s="1"/>
@@ -67905,7 +67988,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="110" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O19" s="61"/>
       <c r="P19" s="1"/>
@@ -67996,7 +68079,9 @@
       <c r="G20" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="1"/>
       <c r="K20" s="60"/>
@@ -68092,8 +68177,8 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="6" t="s">
-        <v>13</v>
+      <c r="F21" s="24" t="s">
+        <v>391</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="4"/>
@@ -68103,7 +68188,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="4"/>
@@ -68187,7 +68272,9 @@
       <c r="F22" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>338</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -68278,8 +68365,8 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="8" t="s">
-        <v>8</v>
+      <c r="F23" s="110" t="s">
+        <v>392</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
@@ -68289,7 +68376,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="110" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="1"/>

--- a/thesis-tex/excels/Brackets.xlsx
+++ b/thesis-tex/excels/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AD88DA-4293-46F6-9058-95C4C60C9981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB23834-59FE-4C8D-B637-CC0D11B53230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" firstSheet="14" activeTab="15" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="14" activeTab="15" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="cfp" sheetId="1" r:id="rId1"/>
@@ -12436,7 +12436,7 @@
   <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/thesis-tex/excels/Brackets.xlsx
+++ b/thesis-tex/excels/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6137C7D-A14A-4B2E-BD44-2117309B7AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EADBA8A-C942-4918-86CA-02B71F6918DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="cfp" sheetId="1" r:id="rId1"/>
@@ -73950,34 +73950,51 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426E89DE-FB26-4184-BD37-CBFF7802F4CC}">
-  <dimension ref="B4:M20"/>
+  <dimension ref="A3:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="9" width="2.33203125" customWidth="1"/>
+    <col min="4" max="9" width="1.33203125" customWidth="1"/>
     <col min="10" max="12" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -73986,13 +74003,18 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="6" t="s">
+        <v>323</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6"/>
+    <row r="6" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -74000,226 +74022,236 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="K6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="1"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="1"/>
+    <row r="7" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="5" t="s">
+        <v>277</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="7"/>
-      <c r="C8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+    <row r="8" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="L8" s="1"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="128"/>
+    <row r="9" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="144"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="144"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="K10" s="5"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="C11" s="1"/>
+    <row r="11" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="6"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>277</v>
+      </c>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="7"/>
-      <c r="C12" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="1"/>
+    <row r="12" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="5" t="s">
-        <v>277</v>
-      </c>
+      <c r="L12" s="4"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="1"/>
+    <row r="13" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>321</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="144"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="K14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="1"/>
+    <row r="15" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="143"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="144"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="5"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="5" t="s">
+        <v>275</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="7"/>
-      <c r="C16" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+    <row r="16" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="1"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="25"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="K18" s="5"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -74233,6 +74265,21 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -74242,18 +74289,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4FDA5A-1FA6-4FB5-874D-8ADC03C2B365}">
   <dimension ref="A3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.109375" customWidth="1"/>
     <col min="4" max="9" width="1.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">

--- a/thesis-tex/excels/Brackets.xlsx
+++ b/thesis-tex/excels/Brackets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EADBA8A-C942-4918-86CA-02B71F6918DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7126578A-E968-4469-92EA-BD81FD34B51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="32" activeTab="38" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="cfp" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,6 @@
     <definedName name="solver_ver" localSheetId="24" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5199,7 +5198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5445,19 +5444,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5478,13 +5473,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5494,45 +5498,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6521,7 +6489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68B215-176C-47A9-BC65-E5FAC0AEE706}">
   <dimension ref="B2:U19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -6909,7 +6877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5E35F-6BAF-409B-A5CF-ACCF63F9A711}">
   <dimension ref="B4:BT40"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AJ1" sqref="AJ1:AN1048576"/>
     </sheetView>
   </sheetViews>
@@ -12456,10 +12424,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
       <c r="Q1" s="89"/>
       <c r="R1" s="89"/>
       <c r="S1" s="89"/>
@@ -12482,10 +12446,10 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -12515,10 +12479,10 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -12550,10 +12514,10 @@
       <c r="A4" s="83"/>
       <c r="B4" s="83"/>
       <c r="C4" s="23"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="83"/>
       <c r="I4" s="83"/>
       <c r="J4" s="83"/>
@@ -12587,10 +12551,10 @@
       <c r="C5" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="83"/>
       <c r="I5" s="83"/>
       <c r="J5" s="83"/>
@@ -12622,12 +12586,12 @@
       <c r="A6" s="89"/>
       <c r="B6" s="83"/>
       <c r="C6" s="91"/>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="83"/>
       <c r="I6" s="83"/>
       <c r="J6" s="83"/>
@@ -12661,10 +12625,10 @@
       <c r="C7" s="88" t="s">
         <v>448</v>
       </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="83"/>
       <c r="I7" s="83"/>
       <c r="J7" s="83"/>
@@ -12706,12 +12670,12 @@
       <c r="A8" s="89"/>
       <c r="B8" s="83"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="138" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="83"/>
       <c r="I8" s="83"/>
       <c r="J8" s="83"/>
@@ -12745,17 +12709,17 @@
       <c r="C9" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="D9" s="134"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
       <c r="O9" s="83"/>
       <c r="P9" s="83"/>
       <c r="Q9" s="23"/>
@@ -12782,19 +12746,19 @@
       <c r="A10" s="89"/>
       <c r="B10" s="83"/>
       <c r="C10" s="91"/>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
       <c r="O10" s="83"/>
       <c r="P10" s="83"/>
       <c r="Q10" s="23"/>
@@ -12821,17 +12785,17 @@
       <c r="C11" s="88" t="s">
         <v>450</v>
       </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="129"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
       <c r="O11" s="83"/>
       <c r="P11" s="83"/>
       <c r="Q11" s="23"/>
@@ -12866,19 +12830,19 @@
       <c r="A12" s="89"/>
       <c r="B12" s="83"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="138" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="140"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
       <c r="O12" s="83"/>
       <c r="P12" s="83"/>
       <c r="Q12" s="23"/>
@@ -12905,17 +12869,17 @@
       <c r="C13" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
       <c r="O13" s="83"/>
       <c r="P13" s="83"/>
       <c r="Q13" s="23"/>
@@ -12940,19 +12904,19 @@
       <c r="A14" s="89"/>
       <c r="B14" s="83"/>
       <c r="C14" s="91"/>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="E14" s="136"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
-      <c r="N14" s="129"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
       <c r="O14" s="83"/>
       <c r="P14" s="83"/>
       <c r="Q14" s="6"/>
@@ -12979,17 +12943,17 @@
       <c r="C15" s="88" t="s">
         <v>452</v>
       </c>
-      <c r="D15" s="137"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
       <c r="O15" s="83"/>
       <c r="P15" s="83"/>
       <c r="Q15" s="6"/>
@@ -13014,19 +12978,19 @@
       <c r="A16" s="89"/>
       <c r="B16" s="83"/>
       <c r="C16" s="23"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="138" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
       <c r="O16" s="83"/>
       <c r="P16" s="83"/>
       <c r="Q16" s="6"/>
@@ -13053,11 +13017,11 @@
       <c r="C17" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="D17" s="134"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="129"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="83"/>
       <c r="I17" s="83"/>
       <c r="J17" s="83"/>
       <c r="K17" s="83"/>
@@ -13088,13 +13052,13 @@
       <c r="A18" s="89"/>
       <c r="B18" s="83"/>
       <c r="C18" s="91"/>
-      <c r="D18" s="134" t="s">
+      <c r="D18" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="138"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="129"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="83"/>
       <c r="J18" s="83"/>
       <c r="K18" s="83"/>
@@ -13110,11 +13074,11 @@
       <c r="C19" s="88" t="s">
         <v>454</v>
       </c>
-      <c r="D19" s="137"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="129"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="83"/>
       <c r="I19" s="83"/>
       <c r="J19" s="83"/>
       <c r="K19" s="83"/>
@@ -13128,13 +13092,13 @@
       <c r="A20" s="89"/>
       <c r="B20" s="83"/>
       <c r="C20" s="23"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="138" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="129"/>
+      <c r="H20" s="83"/>
       <c r="I20" s="83"/>
       <c r="J20" s="83"/>
       <c r="K20" s="83"/>
@@ -13146,14 +13110,14 @@
     </row>
     <row r="21" spans="1:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="83"/>
-      <c r="C21" s="134" t="s">
+      <c r="C21" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="129"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="83"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -13166,13 +13130,13 @@
     <row r="22" spans="1:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="83"/>
       <c r="C22" s="95"/>
-      <c r="D22" s="141" t="s">
+      <c r="D22" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="129"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="83"/>
       <c r="I22" s="83"/>
       <c r="J22" s="83"/>
       <c r="K22" s="83"/>
@@ -13187,11 +13151,11 @@
       <c r="C23" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="129"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="83"/>
       <c r="I23" s="83"/>
       <c r="J23" s="83"/>
       <c r="K23" s="83"/>
@@ -13206,12 +13170,12 @@
       <c r="C24" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="134"/>
-      <c r="E24" s="138" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="F24" s="136"/>
-      <c r="G24" s="138"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="83"/>
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
@@ -13227,10 +13191,10 @@
       <c r="C25" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="D25" s="134"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="83"/>
       <c r="I25" s="83"/>
       <c r="J25" s="83"/>
@@ -13244,19 +13208,19 @@
     <row r="26" spans="1:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="83"/>
       <c r="C26" s="95"/>
-      <c r="D26" s="141" t="s">
+      <c r="D26" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
       <c r="O26" s="83"/>
       <c r="P26" s="83"/>
     </row>
@@ -13265,36 +13229,36 @@
       <c r="C27" s="51" t="s">
         <v>455</v>
       </c>
-      <c r="D27" s="142"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="129"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
       <c r="O27" s="83"/>
       <c r="P27" s="83"/>
     </row>
     <row r="28" spans="1:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="83"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="138" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="G28" s="138"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="129"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
       <c r="O28" s="83"/>
       <c r="P28" s="83"/>
     </row>
@@ -13303,36 +13267,36 @@
       <c r="C29" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="D29" s="134"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
       <c r="O29" s="83"/>
       <c r="P29" s="83"/>
     </row>
     <row r="30" spans="1:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="83"/>
       <c r="C30" s="95"/>
-      <c r="D30" s="141" t="s">
+      <c r="D30" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="E30" s="136"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
       <c r="O30" s="83"/>
       <c r="P30" s="83"/>
     </row>
@@ -13341,36 +13305,36 @@
       <c r="C31" s="51" t="s">
         <v>458</v>
       </c>
-      <c r="D31" s="142"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="129"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
       <c r="O31" s="83"/>
       <c r="P31" s="83"/>
     </row>
     <row r="32" spans="1:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="83"/>
       <c r="C32" s="23"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="138" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="F32" s="138"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="129"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
-      <c r="N32" s="129"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
       <c r="O32" s="83"/>
       <c r="P32" s="83"/>
     </row>
@@ -13379,12 +13343,12 @@
       <c r="C33" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="D33" s="134"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="129"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
       <c r="J33" s="83"/>
       <c r="K33" s="83"/>
       <c r="L33" s="83"/>
@@ -13396,75 +13360,75 @@
     <row r="34" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="83"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="141" t="s">
+      <c r="D34" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="E34" s="138"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="129"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
     </row>
     <row r="35" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="83"/>
       <c r="C35" s="51" t="s">
         <v>460</v>
       </c>
-      <c r="D35" s="142"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
     </row>
     <row r="36" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B36" s="83"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="129"/>
-      <c r="I36" s="129"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="129"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="129"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="129"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="129"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="129"/>
+      <c r="B40" s="83"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="129"/>
+      <c r="B41" s="83"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="129"/>
+      <c r="B42" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13496,16 +13460,16 @@
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="112"/>
+      <c r="E5" s="115"/>
       <c r="F5" s="25"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="111" t="s">
+      <c r="H5" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="112"/>
+      <c r="I5" s="115"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
@@ -17521,25 +17485,25 @@
     </row>
     <row r="2" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="124"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="113" t="s">
+      <c r="M2" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="115"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="124"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
@@ -17791,25 +17755,25 @@
     </row>
     <row r="10" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="115"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="113" t="s">
+      <c r="M10" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="115"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="124"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
@@ -19741,18 +19705,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="D10:I10"/>
@@ -19769,6 +19721,18 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20393,26 +20357,26 @@
     </row>
     <row r="2" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="115"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="124"/>
       <c r="K2" s="25"/>
       <c r="L2" s="25"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="113" t="s">
+      <c r="N2" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="115"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="124"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
@@ -20432,7 +20396,7 @@
       <c r="I3" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="123"/>
+      <c r="J3" s="125"/>
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
       <c r="M3" s="1"/>
@@ -20469,7 +20433,7 @@
       <c r="I4" s="116">
         <v>0</v>
       </c>
-      <c r="J4" s="123"/>
+      <c r="J4" s="125"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
       <c r="M4" s="1"/>
@@ -20506,7 +20470,7 @@
       <c r="I5" s="116">
         <v>1</v>
       </c>
-      <c r="J5" s="123"/>
+      <c r="J5" s="125"/>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
       <c r="M5" s="1"/>
@@ -20543,7 +20507,7 @@
       <c r="I6" s="116">
         <v>2</v>
       </c>
-      <c r="J6" s="123"/>
+      <c r="J6" s="125"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
       <c r="M6" s="1"/>
@@ -20580,7 +20544,7 @@
       <c r="I7" s="116">
         <v>3</v>
       </c>
-      <c r="J7" s="123"/>
+      <c r="J7" s="125"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="1"/>
@@ -20617,7 +20581,7 @@
       <c r="I8" s="116">
         <v>4</v>
       </c>
-      <c r="J8" s="123"/>
+      <c r="J8" s="125"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="1"/>
@@ -20654,7 +20618,7 @@
       <c r="I9" s="119">
         <v>5</v>
       </c>
-      <c r="J9" s="124"/>
+      <c r="J9" s="126"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="1"/>
@@ -22460,12 +22424,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="E6:G6"/>
@@ -22475,14 +22441,12 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="O9:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23245,12 +23209,12 @@
       <c r="H13">
         <v>3</v>
       </c>
-      <c r="T13" s="125" t="s">
+      <c r="T13" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="U13" s="125"/>
-      <c r="V13" s="125"/>
-      <c r="W13" s="125"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -41578,7 +41542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C010E2E9-5FD8-4977-AB68-FE330F0CC9E1}">
   <dimension ref="A3:DD40"/>
   <sheetViews>
-    <sheetView topLeftCell="BD4" workbookViewId="0">
+    <sheetView topLeftCell="AC4" workbookViewId="0">
       <selection activeCell="BR32" sqref="BR32"/>
     </sheetView>
   </sheetViews>
@@ -41750,8 +41714,8 @@
       <c r="F5" s="83"/>
       <c r="G5" s="1"/>
       <c r="H5" s="59"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="6" t="s">
         <v>373</v>
       </c>
@@ -41888,8 +41852,8 @@
       <c r="F6" s="83"/>
       <c r="G6" s="1"/>
       <c r="H6" s="59"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="64"/>
       <c r="L6" s="60" t="s">
         <v>8</v>
@@ -42032,8 +41996,8 @@
       <c r="F7" s="83"/>
       <c r="G7" s="1"/>
       <c r="H7" s="59"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="12" t="s">
         <v>374</v>
       </c>
@@ -42162,7 +42126,7 @@
     <row r="8" spans="1:108" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="83"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="131"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="61" t="s">
         <v>12</v>
       </c>
@@ -42170,12 +42134,12 @@
       <c r="F8" s="83"/>
       <c r="G8" s="1"/>
       <c r="H8" s="59"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="131"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="61"/>
-      <c r="N8" s="130" t="s">
+      <c r="N8" s="61" t="s">
         <v>12</v>
       </c>
       <c r="O8" s="5" t="s">
@@ -42185,7 +42149,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="23"/>
-      <c r="T8" s="131"/>
+      <c r="T8" s="6"/>
       <c r="U8" s="61" t="s">
         <v>12</v>
       </c>
@@ -42193,9 +42157,9 @@
       <c r="W8" s="83"/>
       <c r="X8" s="83"/>
       <c r="Y8" s="23"/>
-      <c r="Z8" s="131"/>
+      <c r="Z8" s="6"/>
       <c r="AA8" s="61"/>
-      <c r="AB8" s="130" t="s">
+      <c r="AB8" s="61" t="s">
         <v>12</v>
       </c>
       <c r="AC8" s="93"/>
@@ -42203,9 +42167,9 @@
       <c r="AE8" s="83"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="23"/>
-      <c r="AH8" s="131"/>
+      <c r="AH8" s="6"/>
       <c r="AI8" s="61"/>
-      <c r="AJ8" s="130" t="s">
+      <c r="AJ8" s="61" t="s">
         <v>12</v>
       </c>
       <c r="AK8" s="93"/>
@@ -42232,7 +42196,7 @@
       <c r="AZ8" s="1"/>
       <c r="BA8" s="59"/>
       <c r="BB8" s="6"/>
-      <c r="BC8" s="131"/>
+      <c r="BC8" s="6"/>
       <c r="BD8" s="61" t="s">
         <v>12</v>
       </c>
@@ -42243,7 +42207,7 @@
       <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
       <c r="BI8" s="23"/>
-      <c r="BJ8" s="132"/>
+      <c r="BJ8" s="23"/>
       <c r="BK8" s="61" t="s">
         <v>12</v>
       </c>
@@ -42259,7 +42223,7 @@
       <c r="BS8" s="83"/>
       <c r="BT8" s="1"/>
       <c r="BU8" s="23"/>
-      <c r="BV8" s="132"/>
+      <c r="BV8" s="23"/>
       <c r="BW8" s="61" t="s">
         <v>12</v>
       </c>
@@ -42308,20 +42272,20 @@
       <c r="B9" s="23">
         <v>4</v>
       </c>
-      <c r="C9" s="131"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="83"/>
       <c r="E9" s="92"/>
       <c r="F9" s="93"/>
       <c r="G9" s="1"/>
       <c r="H9" s="59"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="L9" s="131"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="128"/>
+      <c r="N9" s="1"/>
       <c r="O9" s="4"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="1"/>
@@ -42329,17 +42293,17 @@
       <c r="S9" s="23">
         <v>4</v>
       </c>
-      <c r="T9" s="131"/>
+      <c r="T9" s="6"/>
       <c r="U9" s="83"/>
       <c r="V9" s="92"/>
       <c r="W9" s="93"/>
-      <c r="X9" s="129"/>
+      <c r="X9" s="83"/>
       <c r="Y9" s="23">
         <v>4</v>
       </c>
-      <c r="Z9" s="131"/>
+      <c r="Z9" s="6"/>
       <c r="AA9" s="1"/>
-      <c r="AB9" s="128"/>
+      <c r="AB9" s="1"/>
       <c r="AC9" s="92"/>
       <c r="AD9" s="93"/>
       <c r="AE9" s="83"/>
@@ -42347,9 +42311,9 @@
       <c r="AG9" s="23">
         <v>4</v>
       </c>
-      <c r="AH9" s="131"/>
+      <c r="AH9" s="6"/>
       <c r="AI9" s="1"/>
-      <c r="AJ9" s="128"/>
+      <c r="AJ9" s="1"/>
       <c r="AK9" s="92"/>
       <c r="AL9" s="93"/>
       <c r="AM9" s="83"/>
@@ -42374,7 +42338,7 @@
       <c r="BB9" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="BC9" s="131"/>
+      <c r="BC9" s="6"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="4"/>
       <c r="BF9" s="5"/>
@@ -42383,7 +42347,7 @@
       <c r="BI9" s="23">
         <v>4</v>
       </c>
-      <c r="BJ9" s="132"/>
+      <c r="BJ9" s="23"/>
       <c r="BK9" s="83"/>
       <c r="BL9" s="92"/>
       <c r="BM9" s="93"/>
@@ -42399,7 +42363,7 @@
       <c r="BU9" s="23">
         <v>4</v>
       </c>
-      <c r="BV9" s="132"/>
+      <c r="BV9" s="23"/>
       <c r="BW9" s="83"/>
       <c r="BX9" s="92"/>
       <c r="BY9" s="93"/>
@@ -42452,8 +42416,8 @@
       <c r="F10" s="93"/>
       <c r="G10" s="1"/>
       <c r="H10" s="59"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="64"/>
       <c r="L10" s="60" t="s">
         <v>9</v>
@@ -42461,7 +42425,7 @@
       <c r="M10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="128"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="1"/>
@@ -42473,13 +42437,13 @@
       <c r="U10" s="83"/>
       <c r="V10" s="93"/>
       <c r="W10" s="93"/>
-      <c r="X10" s="129"/>
+      <c r="X10" s="83"/>
       <c r="Y10" s="64"/>
       <c r="Z10" s="60" t="s">
         <v>9</v>
       </c>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="128"/>
+      <c r="AB10" s="1"/>
       <c r="AC10" s="93"/>
       <c r="AD10" s="93"/>
       <c r="AE10" s="83"/>
@@ -42489,7 +42453,7 @@
         <v>9</v>
       </c>
       <c r="AI10" s="1"/>
-      <c r="AJ10" s="128"/>
+      <c r="AJ10" s="1"/>
       <c r="AK10" s="93"/>
       <c r="AL10" s="93"/>
       <c r="AM10" s="83"/>
@@ -42596,8 +42560,8 @@
       <c r="F11" s="93"/>
       <c r="G11" s="1"/>
       <c r="H11" s="59"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="12" t="s">
         <v>376</v>
       </c>
@@ -42615,7 +42579,7 @@
       <c r="U11" s="92"/>
       <c r="V11" s="83"/>
       <c r="W11" s="93"/>
-      <c r="X11" s="129"/>
+      <c r="X11" s="83"/>
       <c r="Y11" s="51">
         <v>5</v>
       </c>
@@ -42726,7 +42690,7 @@
     <row r="12" spans="1:108" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="83"/>
       <c r="B12" s="23"/>
-      <c r="C12" s="131"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="83"/>
       <c r="E12" s="61" t="s">
         <v>14</v>
@@ -42734,12 +42698,12 @@
       <c r="F12" s="93"/>
       <c r="G12" s="1"/>
       <c r="H12" s="59"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="131"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="128"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="61" t="s">
         <v>14</v>
       </c>
@@ -42749,17 +42713,17 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="23"/>
-      <c r="T12" s="131"/>
+      <c r="T12" s="6"/>
       <c r="U12" s="83"/>
       <c r="V12" s="61" t="s">
         <v>14</v>
       </c>
       <c r="W12" s="93"/>
-      <c r="X12" s="129"/>
+      <c r="X12" s="83"/>
       <c r="Y12" s="23"/>
-      <c r="Z12" s="131"/>
+      <c r="Z12" s="6"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="128"/>
+      <c r="AB12" s="1"/>
       <c r="AC12" s="61" t="s">
         <v>14</v>
       </c>
@@ -42767,9 +42731,9 @@
       <c r="AE12" s="83"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="23"/>
-      <c r="AH12" s="131"/>
+      <c r="AH12" s="6"/>
       <c r="AI12" s="1"/>
-      <c r="AJ12" s="128"/>
+      <c r="AJ12" s="1"/>
       <c r="AK12" s="61" t="s">
         <v>14</v>
       </c>
@@ -42796,7 +42760,7 @@
       <c r="AZ12" s="1"/>
       <c r="BA12" s="59"/>
       <c r="BB12" s="6"/>
-      <c r="BC12" s="131"/>
+      <c r="BC12" s="6"/>
       <c r="BD12" s="1"/>
       <c r="BE12" s="61" t="s">
         <v>14</v>
@@ -42807,7 +42771,7 @@
       <c r="BG12" s="1"/>
       <c r="BH12" s="1"/>
       <c r="BI12" s="23"/>
-      <c r="BJ12" s="132"/>
+      <c r="BJ12" s="23"/>
       <c r="BK12" s="83"/>
       <c r="BL12" s="61" t="s">
         <v>14</v>
@@ -42823,7 +42787,7 @@
       <c r="BS12" s="83"/>
       <c r="BT12" s="1"/>
       <c r="BU12" s="23"/>
-      <c r="BV12" s="132"/>
+      <c r="BV12" s="23"/>
       <c r="BW12" s="83"/>
       <c r="BX12" s="61" t="s">
         <v>14</v>
@@ -42870,20 +42834,20 @@
       <c r="B13" s="23">
         <v>3</v>
       </c>
-      <c r="C13" s="131"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="83"/>
       <c r="E13" s="83"/>
       <c r="F13" s="92"/>
       <c r="G13" s="1"/>
       <c r="H13" s="59"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="L13" s="131"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="128"/>
+      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="1"/>
@@ -42891,17 +42855,17 @@
       <c r="S13" s="23">
         <v>3</v>
       </c>
-      <c r="T13" s="131"/>
+      <c r="T13" s="6"/>
       <c r="U13" s="83"/>
       <c r="V13" s="83"/>
       <c r="W13" s="92"/>
-      <c r="X13" s="129"/>
+      <c r="X13" s="83"/>
       <c r="Y13" s="23">
         <v>3</v>
       </c>
-      <c r="Z13" s="131"/>
+      <c r="Z13" s="6"/>
       <c r="AA13" s="1"/>
-      <c r="AB13" s="128"/>
+      <c r="AB13" s="1"/>
       <c r="AC13" s="83"/>
       <c r="AD13" s="92"/>
       <c r="AE13" s="83"/>
@@ -42909,9 +42873,9 @@
       <c r="AG13" s="23">
         <v>3</v>
       </c>
-      <c r="AH13" s="131"/>
+      <c r="AH13" s="6"/>
       <c r="AI13" s="1"/>
-      <c r="AJ13" s="128"/>
+      <c r="AJ13" s="1"/>
       <c r="AK13" s="83"/>
       <c r="AL13" s="92"/>
       <c r="AM13" s="83"/>
@@ -42936,7 +42900,7 @@
       <c r="BB13" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="BC13" s="131"/>
+      <c r="BC13" s="6"/>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
       <c r="BF13" s="4"/>
@@ -42945,7 +42909,7 @@
       <c r="BI13" s="23">
         <v>3</v>
       </c>
-      <c r="BJ13" s="132"/>
+      <c r="BJ13" s="23"/>
       <c r="BK13" s="83"/>
       <c r="BL13" s="83"/>
       <c r="BM13" s="92"/>
@@ -42961,7 +42925,7 @@
       <c r="BU13" s="23">
         <v>3</v>
       </c>
-      <c r="BV13" s="132"/>
+      <c r="BV13" s="23"/>
       <c r="BW13" s="83"/>
       <c r="BX13" s="83"/>
       <c r="BY13" s="92"/>
@@ -43014,8 +42978,8 @@
       <c r="F14" s="93"/>
       <c r="G14" s="1"/>
       <c r="H14" s="59"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="64"/>
       <c r="L14" s="60" t="s">
         <v>10</v>
@@ -43023,7 +42987,7 @@
       <c r="M14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="128"/>
+      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="1"/>
@@ -43035,13 +42999,13 @@
       <c r="U14" s="83"/>
       <c r="V14" s="83"/>
       <c r="W14" s="93"/>
-      <c r="X14" s="129"/>
+      <c r="X14" s="83"/>
       <c r="Y14" s="64"/>
       <c r="Z14" s="60" t="s">
         <v>10</v>
       </c>
       <c r="AA14" s="1"/>
-      <c r="AB14" s="128"/>
+      <c r="AB14" s="1"/>
       <c r="AC14" s="83"/>
       <c r="AD14" s="93"/>
       <c r="AE14" s="83"/>
@@ -43051,7 +43015,7 @@
         <v>10</v>
       </c>
       <c r="AI14" s="1"/>
-      <c r="AJ14" s="128"/>
+      <c r="AJ14" s="1"/>
       <c r="AK14" s="83"/>
       <c r="AL14" s="93"/>
       <c r="AM14" s="83"/>
@@ -43158,8 +43122,8 @@
       <c r="F15" s="93"/>
       <c r="G15" s="1"/>
       <c r="H15" s="59"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="12" t="s">
         <v>378</v>
       </c>
@@ -43177,7 +43141,7 @@
       <c r="U15" s="92"/>
       <c r="V15" s="93"/>
       <c r="W15" s="93"/>
-      <c r="X15" s="129"/>
+      <c r="X15" s="83"/>
       <c r="Y15" s="51">
         <v>6</v>
       </c>
@@ -43288,7 +43252,7 @@
     <row r="16" spans="1:108" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="83"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="131"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="61" t="s">
         <v>13</v>
       </c>
@@ -43296,12 +43260,12 @@
       <c r="F16" s="93"/>
       <c r="G16" s="1"/>
       <c r="H16" s="59"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="131"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="61"/>
-      <c r="N16" s="130" t="s">
+      <c r="N16" s="61" t="s">
         <v>13</v>
       </c>
       <c r="O16" s="5" t="s">
@@ -43311,17 +43275,17 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="23"/>
-      <c r="T16" s="131"/>
+      <c r="T16" s="6"/>
       <c r="U16" s="61" t="s">
         <v>13</v>
       </c>
       <c r="V16" s="93"/>
       <c r="W16" s="93"/>
-      <c r="X16" s="129"/>
+      <c r="X16" s="83"/>
       <c r="Y16" s="23"/>
-      <c r="Z16" s="131"/>
+      <c r="Z16" s="6"/>
       <c r="AA16" s="61"/>
-      <c r="AB16" s="130" t="s">
+      <c r="AB16" s="61" t="s">
         <v>13</v>
       </c>
       <c r="AC16" s="93"/>
@@ -43329,9 +43293,9 @@
       <c r="AE16" s="83"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="23"/>
-      <c r="AH16" s="131"/>
+      <c r="AH16" s="6"/>
       <c r="AI16" s="61"/>
-      <c r="AJ16" s="130" t="s">
+      <c r="AJ16" s="61" t="s">
         <v>13</v>
       </c>
       <c r="AK16" s="93"/>
@@ -43358,7 +43322,7 @@
       <c r="AZ16" s="1"/>
       <c r="BA16" s="59"/>
       <c r="BB16" s="6"/>
-      <c r="BC16" s="131"/>
+      <c r="BC16" s="6"/>
       <c r="BD16" s="61" t="s">
         <v>13</v>
       </c>
@@ -43369,7 +43333,7 @@
       <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
       <c r="BI16" s="23"/>
-      <c r="BJ16" s="132"/>
+      <c r="BJ16" s="23"/>
       <c r="BK16" s="61" t="s">
         <v>13</v>
       </c>
@@ -43385,7 +43349,7 @@
       <c r="BS16" s="83"/>
       <c r="BT16" s="1"/>
       <c r="BU16" s="23"/>
-      <c r="BV16" s="132"/>
+      <c r="BV16" s="23"/>
       <c r="BW16" s="61" t="s">
         <v>13</v>
       </c>
@@ -43434,20 +43398,20 @@
       <c r="B17" s="23">
         <v>2</v>
       </c>
-      <c r="C17" s="131"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="83"/>
       <c r="E17" s="92"/>
       <c r="F17" s="83"/>
       <c r="G17" s="1"/>
       <c r="H17" s="59"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="L17" s="131"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="128"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="4"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -43455,7 +43419,7 @@
       <c r="S17" s="23">
         <v>2</v>
       </c>
-      <c r="T17" s="131"/>
+      <c r="T17" s="6"/>
       <c r="U17" s="83"/>
       <c r="V17" s="92"/>
       <c r="W17" s="83"/>
@@ -43463,9 +43427,9 @@
       <c r="Y17" s="23">
         <v>2</v>
       </c>
-      <c r="Z17" s="131"/>
+      <c r="Z17" s="6"/>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="128"/>
+      <c r="AB17" s="1"/>
       <c r="AC17" s="92"/>
       <c r="AD17" s="83"/>
       <c r="AE17" s="83"/>
@@ -43473,9 +43437,9 @@
       <c r="AG17" s="23">
         <v>2</v>
       </c>
-      <c r="AH17" s="131"/>
+      <c r="AH17" s="6"/>
       <c r="AI17" s="1"/>
-      <c r="AJ17" s="128"/>
+      <c r="AJ17" s="1"/>
       <c r="AK17" s="92"/>
       <c r="AL17" s="83"/>
       <c r="AM17" s="83"/>
@@ -43500,7 +43464,7 @@
       <c r="BB17" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="BC17" s="131"/>
+      <c r="BC17" s="6"/>
       <c r="BD17" s="1"/>
       <c r="BE17" s="4"/>
       <c r="BF17" s="1"/>
@@ -43509,7 +43473,7 @@
       <c r="BI17" s="23">
         <v>2</v>
       </c>
-      <c r="BJ17" s="132"/>
+      <c r="BJ17" s="23"/>
       <c r="BK17" s="83"/>
       <c r="BL17" s="92"/>
       <c r="BM17" s="83"/>
@@ -43525,7 +43489,7 @@
       <c r="BU17" s="23">
         <v>2</v>
       </c>
-      <c r="BV17" s="132"/>
+      <c r="BV17" s="23"/>
       <c r="BW17" s="83"/>
       <c r="BX17" s="92"/>
       <c r="BY17" s="83"/>
@@ -43578,8 +43542,8 @@
       <c r="F18" s="83"/>
       <c r="G18" s="1"/>
       <c r="H18" s="59"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="64"/>
       <c r="L18" s="60" t="s">
         <v>11</v>
@@ -43587,7 +43551,7 @@
       <c r="M18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="128"/>
+      <c r="N18" s="1"/>
       <c r="O18" s="5"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -43601,13 +43565,13 @@
       <c r="W18" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="X18" s="129"/>
+      <c r="X18" s="83"/>
       <c r="Y18" s="64"/>
       <c r="Z18" s="60" t="s">
         <v>11</v>
       </c>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="128"/>
+      <c r="AB18" s="1"/>
       <c r="AC18" s="93"/>
       <c r="AD18" s="83"/>
       <c r="AE18" s="83"/>
@@ -43617,7 +43581,7 @@
         <v>11</v>
       </c>
       <c r="AI18" s="1"/>
-      <c r="AJ18" s="128"/>
+      <c r="AJ18" s="1"/>
       <c r="AK18" s="93"/>
       <c r="AL18" s="83"/>
       <c r="AM18" s="83"/>
@@ -43728,8 +43692,8 @@
       <c r="F19" s="83"/>
       <c r="G19" s="1"/>
       <c r="H19" s="59"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="12" t="s">
         <v>380</v>
       </c>
@@ -43872,12 +43836,12 @@
       <c r="F20" s="83"/>
       <c r="G20" s="1"/>
       <c r="H20" s="59"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="128"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="128"/>
+      <c r="N20" s="1"/>
       <c r="O20" s="6" t="s">
         <v>381</v>
       </c>
@@ -43895,7 +43859,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
-      <c r="AB20" s="128"/>
+      <c r="AB20" s="1"/>
       <c r="AC20" s="23" t="s">
         <v>12</v>
       </c>
@@ -43907,7 +43871,7 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
-      <c r="AJ20" s="128"/>
+      <c r="AJ20" s="1"/>
       <c r="AK20" s="23" t="s">
         <v>12</v>
       </c>
@@ -43943,7 +43907,7 @@
       <c r="BG20" s="1"/>
       <c r="BH20" s="1"/>
       <c r="BI20" s="83"/>
-      <c r="BJ20" s="129"/>
+      <c r="BJ20" s="83"/>
       <c r="BK20" s="83"/>
       <c r="BL20" s="23" t="s">
         <v>13</v>
@@ -43959,7 +43923,7 @@
       <c r="BS20" s="83"/>
       <c r="BT20" s="1"/>
       <c r="BU20" s="83"/>
-      <c r="BV20" s="129"/>
+      <c r="BV20" s="83"/>
       <c r="BW20" s="83"/>
       <c r="BX20" s="23" t="s">
         <v>13</v>
@@ -44014,8 +43978,8 @@
       <c r="F21" s="83"/>
       <c r="G21" s="1"/>
       <c r="H21" s="59"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -44174,8 +44138,8 @@
       <c r="F22" s="92"/>
       <c r="G22" s="1"/>
       <c r="H22" s="59"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -44193,7 +44157,7 @@
         <v>13</v>
       </c>
       <c r="W22" s="92"/>
-      <c r="X22" s="129"/>
+      <c r="X22" s="83"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
@@ -44314,8 +44278,8 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="59"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="128"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -44449,7 +44413,7 @@
     </row>
     <row r="24" spans="1:108" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="83" t="s">
         <v>383</v>
       </c>
       <c r="C24" s="83" t="s">
@@ -44460,9 +44424,9 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="59"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="129" t="s">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="83" t="s">
         <v>383</v>
       </c>
       <c r="L24" s="83" t="s">
@@ -44476,13 +44440,13 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="S24" s="129"/>
+      <c r="S24" s="83"/>
       <c r="T24" s="83"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="129"/>
+      <c r="Y24" s="83"/>
       <c r="Z24" s="83"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -44490,7 +44454,7 @@
       <c r="AD24" s="83"/>
       <c r="AE24" s="83"/>
       <c r="AF24" s="1"/>
-      <c r="AG24" s="129" t="s">
+      <c r="AG24" s="83" t="s">
         <v>383</v>
       </c>
       <c r="AH24" s="83" t="s">
@@ -44591,7 +44555,7 @@
     </row>
     <row r="25" spans="1:108" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="83" t="s">
         <v>384</v>
       </c>
       <c r="C25" s="83" t="s">
@@ -44602,9 +44566,9 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="59"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="129" t="s">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="83" t="s">
         <v>384</v>
       </c>
       <c r="L25" s="83" t="s">
@@ -44618,13 +44582,13 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="129"/>
+      <c r="S25" s="83"/>
       <c r="T25" s="83"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="129"/>
+      <c r="Y25" s="83"/>
       <c r="Z25" s="83"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
@@ -44632,7 +44596,7 @@
       <c r="AD25" s="83"/>
       <c r="AE25" s="83"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="129" t="s">
+      <c r="AG25" s="83" t="s">
         <v>384</v>
       </c>
       <c r="AH25" s="83" t="s">
@@ -44751,7 +44715,7 @@
     </row>
     <row r="26" spans="1:108" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
-      <c r="B26" s="129" t="s">
+      <c r="B26" s="83" t="s">
         <v>385</v>
       </c>
       <c r="C26" s="83" t="s">
@@ -44762,9 +44726,9 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="59"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="129" t="s">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="83" t="s">
         <v>385</v>
       </c>
       <c r="L26" s="83" t="s">
@@ -44778,13 +44742,13 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="129"/>
+      <c r="S26" s="83"/>
       <c r="T26" s="83"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="129"/>
+      <c r="Y26" s="83"/>
       <c r="Z26" s="83"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -44792,7 +44756,7 @@
       <c r="AD26" s="83"/>
       <c r="AE26" s="83"/>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="129" t="s">
+      <c r="AG26" s="83" t="s">
         <v>385</v>
       </c>
       <c r="AH26" s="83" t="s">
@@ -44904,8 +44868,8 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="128"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -45149,7 +45113,7 @@
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="59"/>
-      <c r="BB29" s="129" t="s">
+      <c r="BB29" s="83" t="s">
         <v>383</v>
       </c>
       <c r="BC29" s="83" t="s">
@@ -45162,7 +45126,7 @@
       <c r="BF29" s="1"/>
       <c r="BG29" s="1"/>
       <c r="BH29" s="1"/>
-      <c r="BI29" s="129" t="s">
+      <c r="BI29" s="83" t="s">
         <v>383</v>
       </c>
       <c r="BJ29" s="83" t="s">
@@ -45172,7 +45136,7 @@
       <c r="BL29" s="1"/>
       <c r="BM29" s="1"/>
       <c r="BN29" s="1"/>
-      <c r="BU29" s="129"/>
+      <c r="BU29" s="83"/>
       <c r="BV29" s="83"/>
       <c r="BW29" s="1"/>
       <c r="BX29" s="1"/>
@@ -45197,7 +45161,7 @@
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="59"/>
-      <c r="BB30" s="129" t="s">
+      <c r="BB30" s="83" t="s">
         <v>384</v>
       </c>
       <c r="BC30" s="83" t="s">
@@ -45210,7 +45174,7 @@
       <c r="BF30" s="1"/>
       <c r="BG30" s="1"/>
       <c r="BH30" s="1"/>
-      <c r="BI30" s="129" t="s">
+      <c r="BI30" s="83" t="s">
         <v>384</v>
       </c>
       <c r="BJ30" s="83" t="s">
@@ -45220,7 +45184,7 @@
       <c r="BL30" s="1"/>
       <c r="BM30" s="1"/>
       <c r="BN30" s="1"/>
-      <c r="BU30" s="129"/>
+      <c r="BU30" s="83"/>
       <c r="BV30" s="83"/>
       <c r="BW30" s="1"/>
       <c r="BX30" s="1"/>
@@ -45247,7 +45211,7 @@
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="59"/>
-      <c r="BB31" s="129" t="s">
+      <c r="BB31" s="83" t="s">
         <v>385</v>
       </c>
       <c r="BC31" s="83" t="s">
@@ -45260,7 +45224,7 @@
       <c r="BF31" s="1"/>
       <c r="BG31" s="1"/>
       <c r="BH31" s="1"/>
-      <c r="BI31" s="129" t="s">
+      <c r="BI31" s="83" t="s">
         <v>408</v>
       </c>
       <c r="BJ31" s="83" t="s">
@@ -45270,7 +45234,7 @@
       <c r="BL31" s="1"/>
       <c r="BM31" s="1"/>
       <c r="BN31" s="1"/>
-      <c r="BU31" s="129"/>
+      <c r="BU31" s="83"/>
       <c r="BV31" s="83"/>
       <c r="BW31" s="1"/>
       <c r="BX31" s="1"/>
@@ -45297,7 +45261,7 @@
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="59"/>
-      <c r="BB32" s="129" t="s">
+      <c r="BB32" s="83" t="s">
         <v>408</v>
       </c>
       <c r="BC32" s="83" t="s">
@@ -46222,20 +46186,20 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="126" t="s">
+      <c r="F33" s="129" t="s">
         <v>174</v>
       </c>
-      <c r="G33" s="126"/>
+      <c r="G33" s="129"/>
       <c r="H33" s="1"/>
       <c r="I33" s="59"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="133" t="s">
+      <c r="N33" s="130" t="s">
         <v>174</v>
       </c>
-      <c r="O33" s="133"/>
+      <c r="O33" s="130"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
@@ -46245,16 +46209,16 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="126"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
       <c r="H34" s="1"/>
       <c r="I34" s="59"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="133"/>
-      <c r="O34" s="133"/>
+      <c r="N34" s="130"/>
+      <c r="O34" s="130"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
@@ -46661,8 +46625,8 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="126"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
@@ -46671,24 +46635,24 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="126"/>
-      <c r="O53" s="126"/>
+      <c r="N53" s="129"/>
+      <c r="O53" s="129"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="126"/>
-      <c r="G54" s="126"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="126"/>
-      <c r="O54" s="126"/>
+      <c r="N54" s="129"/>
+      <c r="O54" s="129"/>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I55" s="1"/>
@@ -50957,8 +50921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC45635-DE39-4CBA-B2B1-B5066770F06C}">
   <dimension ref="B1:Y50"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51665,7 +51629,7 @@
       <c r="I22" s="83"/>
       <c r="J22" s="83"/>
       <c r="K22" s="23" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="L22" s="83"/>
       <c r="M22" s="1"/>
@@ -69792,7 +69756,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ4 BZ6 BZ8 BZ10 BZ12 BZ14 BZ16 BZ18 BZ20 BZ22 BZ24 BZ26 BZ28 BZ30 BZ32 BZ34 BZ36 BZ38 BZ40 BZ42 BZ44 BZ46 BZ48 BZ50 BZ52 BZ54 BZ56 BZ58 BZ60 BZ62 BZ64 BZ66 BZ68 BZ70 BZ72 BZ74 BZ76 BZ78 BZ80 BZ82 BZ84 BZ86 BZ88 BZ90 BZ92 BZ94 BZ96 BZ98 BZ100 BZ102 BZ104">
+  <conditionalFormatting sqref="BZ6 BZ4 BZ8 BZ10 BZ12 BZ14 BZ16 BZ18 BZ20 BZ22 BZ24 BZ26 BZ28 BZ30 BZ32 BZ34 BZ36 BZ38 BZ40 BZ42 BZ44 BZ46 BZ48 BZ50 BZ52 BZ54 BZ56 BZ58 BZ60 BZ62 BZ64 BZ66 BZ68 BZ70 BZ72 BZ74 BZ76 BZ78 BZ80 BZ82 BZ84 BZ86 BZ88 BZ90 BZ92 BZ94 BZ96 BZ98 BZ100 BZ102 BZ104">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -69804,7 +69768,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA4 CA6 CA8 CA10 CA12 CA14 CA16 CA18 CA20 CA22 CA24 CA26 CA28 CA30 CA32 CA34 CA36 CA38 CA40 CA42 CA44 CA46 CA48 CA50 CA52 CA54 CA56 CA58 CA60 CA62 CA64 CA66 CA68 CA70 CA72 CA74 CA76 CA78 CA80 CA82 CA84 CA86 CA88 CA90 CA92 CA94 CA96 CA98 CA100 CA102 CA104">
+  <conditionalFormatting sqref="CA6 CA4 CA8 CA10 CA12 CA14 CA16 CA18 CA20 CA22 CA24 CA26 CA28 CA30 CA32 CA34 CA36 CA38 CA40 CA42 CA44 CA46 CA48 CA50 CA52 CA54 CA56 CA58 CA60 CA62 CA64 CA66 CA68 CA70 CA72 CA74 CA76 CA78 CA80 CA82 CA84 CA86 CA88 CA90 CA92 CA94 CA96 CA98 CA100 CA102 CA104">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -69816,7 +69780,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CB4 CB6 CB8 CB10 CB12 CB14 CB16 CB18 CB20 CB22 CB24 CB26 CB28 CB30 CB32 CB34 CB36 CB38 CB40 CB42 CB44 CB46 CB48 CB50 CB52 CB54 CB56 CB58 CB60 CB62 CB64 CB66 CB68 CB70 CB72 CB74 CB76 CB78 CB80 CB82 CB84 CB86 CB88 CB90 CB92 CB94 CB96 CB98 CB100 CB102 CB104">
+  <conditionalFormatting sqref="CB6 CB4 CB8 CB10 CB12 CB14 CB16 CB18 CB20 CB22 CB24 CB26 CB28 CB30 CB32 CB34 CB36 CB38 CB40 CB42 CB44 CB46 CB48 CB50 CB52 CB54 CB56 CB58 CB60 CB62 CB64 CB66 CB68 CB70 CB72 CB74 CB76 CB78 CB80 CB82 CB84 CB86 CB88 CB90 CB92 CB94 CB96 CB98 CB100 CB102 CB104">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -69828,7 +69792,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC4 CC6 CC8 CC10 CC12 CC14 CC16 CC18 CC20 CC22 CC24 CC26 CC28 CC30 CC32 CC34 CC36 CC38 CC40 CC42 CC44 CC46 CC48 CC50 CC52 CC54 CC56 CC58 CC60 CC62 CC64 CC66 CC68 CC70 CC72 CC74 CC76 CC78 CC80 CC82 CC84 CC86 CC88 CC90 CC92 CC94 CC96 CC98 CC100 CC102 CC104">
+  <conditionalFormatting sqref="CC6 CC4 CC8 CC10 CC12 CC14 CC16 CC18 CC20 CC22 CC24 CC26 CC28 CC30 CC32 CC34 CC36 CC38 CC40 CC42 CC44 CC46 CC48 CC50 CC52 CC54 CC56 CC58 CC60 CC62 CC64 CC66 CC68 CC70 CC72 CC74 CC76 CC78 CC80 CC82 CC84 CC86 CC88 CC90 CC92 CC94 CC96 CC98 CC100 CC102 CC104">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -69840,7 +69804,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD4 CD6 CD8 CD10 CD12 CD14 CD16 CD18 CD20 CD22 CD24 CD26 CD28 CD30 CD32 CD34 CD36 CD38 CD40 CD42 CD44 CD46 CD48 CD50 CD52 CD54 CD56 CD58 CD60 CD62 CD64 CD66 CD68 CD70 CD72 CD74 CD76 CD78 CD80 CD82 CD84 CD86 CD88 CD90 CD92 CD94 CD96 CD98 CD100 CD102 CD104">
+  <conditionalFormatting sqref="CD6 CD4 CD8 CD10 CD12 CD14 CD16 CD18 CD20 CD22 CD24 CD26 CD28 CD30 CD32 CD34 CD36 CD38 CD40 CD42 CD44 CD46 CD48 CD50 CD52 CD54 CD56 CD58 CD60 CD62 CD64 CD66 CD68 CD70 CD72 CD74 CD76 CD78 CD80 CD82 CD84 CD86 CD88 CD90 CD92 CD94 CD96 CD98 CD100 CD102 CD104">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -69852,7 +69816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE6 CE4 CE8 CE10 CE12 CE14 CE16 CE18 CE20 CE22 CE24 CE26 CE28 CE30 CE32 CE34 CE36 CE38 CE40 CE42 CE44 CE46 CE48 CE50 CE52 CE54 CE56 CE58 CE60 CE62 CE64 CE66 CE68 CE70 CE72 CE74 CE76 CE78 CE80 CE82 CE84 CE86 CE88 CE90 CE92 CE94 CE96 CE98 CE100 CE102 CE104">
+  <conditionalFormatting sqref="CE4 CE6 CE8 CE10 CE12 CE14 CE16 CE18 CE20 CE22 CE24 CE26 CE28 CE30 CE32 CE34 CE36 CE38 CE40 CE42 CE44 CE46 CE48 CE50 CE52 CE54 CE56 CE58 CE60 CE62 CE64 CE66 CE68 CE70 CE72 CE74 CE76 CE78 CE80 CE82 CE84 CE86 CE88 CE90 CE92 CE94 CE96 CE98 CE100 CE102 CE104">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -70004,28 +69968,28 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="83"/>
-      <c r="AB2" s="127" t="s">
+      <c r="AB2" s="131" t="s">
         <v>345</v>
       </c>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
       <c r="AF2" s="83"/>
       <c r="AG2" s="90"/>
-      <c r="AH2" s="127" t="s">
+      <c r="AH2" s="131" t="s">
         <v>346</v>
       </c>
-      <c r="AI2" s="127"/>
-      <c r="AJ2" s="127"/>
-      <c r="AK2" s="127"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
       <c r="AL2" s="83"/>
       <c r="AM2" s="90"/>
-      <c r="AN2" s="127" t="s">
+      <c r="AN2" s="131" t="s">
         <v>347</v>
       </c>
-      <c r="AO2" s="127"/>
-      <c r="AP2" s="127"/>
-      <c r="AQ2" s="127"/>
+      <c r="AO2" s="131"/>
+      <c r="AP2" s="131"/>
+      <c r="AQ2" s="131"/>
       <c r="AR2" s="83"/>
       <c r="AS2" s="83"/>
       <c r="AT2" s="83"/>
@@ -73952,7 +73916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426E89DE-FB26-4184-BD37-CBFF7802F4CC}">
   <dimension ref="A3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
@@ -74052,11 +74016,11 @@
         <v>319</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="128"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="25"/>
       <c r="J8" s="1"/>
       <c r="K8" s="4"/>
@@ -74068,7 +74032,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="144"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="25"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -74088,10 +74052,10 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="144"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="143"/>
+      <c r="I10" s="111"/>
       <c r="J10" s="6"/>
       <c r="K10" s="1"/>
       <c r="L10" s="5"/>
@@ -74106,8 +74070,8 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="143"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="111"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -74122,11 +74086,11 @@
         <v>320</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="144"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="112"/>
       <c r="I12" s="25"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -74138,11 +74102,11 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="143"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="144"/>
+      <c r="I13" s="112"/>
       <c r="J13" s="1" t="s">
         <v>274</v>
       </c>
@@ -74157,8 +74121,8 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="144"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -74173,10 +74137,10 @@
       <c r="C15" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D15" s="143"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="144"/>
+      <c r="G15" s="112"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -74192,11 +74156,11 @@
         <v>322</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="144"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="112"/>
       <c r="I16" s="25"/>
       <c r="J16" s="1"/>
       <c r="K16" s="4"/>
@@ -74212,7 +74176,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="144"/>
+      <c r="I17" s="112"/>
       <c r="J17" s="1" t="s">
         <v>275</v>
       </c>
@@ -74290,7 +74254,7 @@
   <dimension ref="A3:M21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -74389,12 +74353,12 @@
         <v>325</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
       <c r="J8" s="1"/>
       <c r="K8" s="4"/>
       <c r="L8" s="5"/>
@@ -74404,12 +74368,12 @@
       <c r="A9" s="6"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
       <c r="J9" s="8" t="s">
         <v>270</v>
       </c>
@@ -74423,12 +74387,12 @@
         <v>326</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="145"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="6"/>
       <c r="K10" s="1"/>
       <c r="L10" s="5"/>
@@ -74440,16 +74404,16 @@
       <c r="C11" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M11" s="6"/>
     </row>
@@ -74459,12 +74423,12 @@
         <v>327</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="4"/>
@@ -74474,12 +74438,12 @@
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
       <c r="J13" s="1" t="s">
         <v>271</v>
       </c>
@@ -74493,12 +74457,12 @@
         <v>328</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="2"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -74510,12 +74474,12 @@
       <c r="C15" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="5" t="s">
         <v>271</v>
@@ -74529,12 +74493,12 @@
         <v>329</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
       <c r="J16" s="1"/>
       <c r="K16" s="4"/>
       <c r="L16" s="1"/>
@@ -74544,12 +74508,12 @@
       <c r="A17" s="6"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
       <c r="J17" s="1" t="s">
         <v>272</v>
       </c>
@@ -74561,12 +74525,12 @@
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="9"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -74576,12 +74540,12 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
